--- a/Theorical_connectivity_matrices.xlsx
+++ b/Theorical_connectivity_matrices.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bclem\OneDrive\Documents\GitHub\Megalopta_CX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6467B2F-D7E4-4BD5-9E69-ED134A7BB661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479B3A45-8977-4B26-A807-6EC6AC77B5EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{093D5FC8-3546-4B30-B5BC-72449F880B19}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{093D5FC8-3546-4B30-B5BC-72449F880B19}"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="13" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="d7-to-PEG-PEN-PFN-PFL" sheetId="5" r:id="rId11"/>
     <sheet name="PFN-to-PFL-hd" sheetId="6" r:id="rId12"/>
     <sheet name="hd-to-PFL" sheetId="7" r:id="rId13"/>
+    <sheet name="hd-to-hd" sheetId="17" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -458,8 +459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D70C54ED-CF8A-40EC-8537-9A05E3479CC3}">
   <dimension ref="A1:DS123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CD1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="CQ100" sqref="CQ100"/>
+    <sheetView tabSelected="1" topLeftCell="BO31" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="CI91" sqref="CI91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -31368,7 +31369,7 @@
       </c>
       <c r="DE76" s="3">
         <f>'PFN-to-PFL-hd'!B1 * Gains!$K$9</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="DF76" s="3">
         <f>'PFN-to-PFL-hd'!C1 * Gains!$K$9</f>
@@ -31775,7 +31776,7 @@
       </c>
       <c r="DF77" s="3">
         <f>'PFN-to-PFL-hd'!C2 * Gains!$K$9</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="DG77" s="3">
         <f>'PFN-to-PFL-hd'!D2 * Gains!$K$9</f>
@@ -32182,7 +32183,7 @@
       </c>
       <c r="DG78" s="3">
         <f>'PFN-to-PFL-hd'!D3 * Gains!$K$9</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="DH78" s="3">
         <f>'PFN-to-PFL-hd'!E3 * Gains!$K$9</f>
@@ -32589,7 +32590,7 @@
       </c>
       <c r="DH79" s="3">
         <f>'PFN-to-PFL-hd'!E4 * Gains!$K$9</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="DI79" s="3">
         <f>'PFN-to-PFL-hd'!F4 * Gains!$K$9</f>
@@ -32996,7 +32997,7 @@
       </c>
       <c r="DI80" s="3">
         <f>'PFN-to-PFL-hd'!F5 * Gains!$K$9</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="DJ80" s="3">
         <f>'PFN-to-PFL-hd'!G5 * Gains!$K$9</f>
@@ -33403,7 +33404,7 @@
       </c>
       <c r="DJ81" s="3">
         <f>'PFN-to-PFL-hd'!G6 * Gains!$K$9</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="DK81" s="3">
         <f>'PFN-to-PFL-hd'!H6 * Gains!$K$9</f>
@@ -33810,7 +33811,7 @@
       </c>
       <c r="DK82" s="3">
         <f>'PFN-to-PFL-hd'!H7 * Gains!$K$9</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="DL82" s="3">
         <f>'PFN-to-PFL-hd'!I7 * Gains!$K$9</f>
@@ -34185,7 +34186,7 @@
       </c>
       <c r="DD83" s="3">
         <f>'PFN-to-PFL-hd'!A8 * Gains!$K$9</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="DE83" s="3">
         <f>'PFN-to-PFL-hd'!B8 * Gains!$K$9</f>
@@ -34648,7 +34649,7 @@
       </c>
       <c r="DS84" s="3">
         <f>'PFN-to-PFL-hd'!P9 * Gains!$K$9</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:123" x14ac:dyDescent="0.25">
@@ -35023,7 +35024,7 @@
       </c>
       <c r="DL85" s="3">
         <f>'PFN-to-PFL-hd'!I10 * Gains!$K$9</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="DM85" s="3">
         <f>'PFN-to-PFL-hd'!J10 * Gains!$K$9</f>
@@ -35430,7 +35431,7 @@
       </c>
       <c r="DM86" s="3">
         <f>'PFN-to-PFL-hd'!J11 * Gains!$K$9</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="DN86" s="3">
         <f>'PFN-to-PFL-hd'!K11 * Gains!$K$9</f>
@@ -35837,7 +35838,7 @@
       </c>
       <c r="DN87" s="3">
         <f>'PFN-to-PFL-hd'!K12 * Gains!$K$9</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="DO87" s="3">
         <f>'PFN-to-PFL-hd'!L12 * Gains!$K$9</f>
@@ -36244,7 +36245,7 @@
       </c>
       <c r="DO88" s="3">
         <f>'PFN-to-PFL-hd'!L13 * Gains!$K$9</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="DP88" s="3">
         <f>'PFN-to-PFL-hd'!M13 * Gains!$K$9</f>
@@ -36651,7 +36652,7 @@
       </c>
       <c r="DP89" s="3">
         <f>'PFN-to-PFL-hd'!M14 * Gains!$K$9</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="DQ89" s="3">
         <f>'PFN-to-PFL-hd'!N14 * Gains!$K$9</f>
@@ -37058,7 +37059,7 @@
       </c>
       <c r="DQ90" s="3">
         <f>'PFN-to-PFL-hd'!N15 * Gains!$K$9</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="DR90" s="3">
         <f>'PFN-to-PFL-hd'!O15 * Gains!$K$9</f>
@@ -37465,7 +37466,7 @@
       </c>
       <c r="DR91" s="3">
         <f>'PFN-to-PFL-hd'!O16 * Gains!$K$9</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="DS91" s="3">
         <f>'PFN-to-PFL-hd'!P16 * Gains!$K$9</f>
@@ -37747,51 +37748,67 @@
         <v>0</v>
       </c>
       <c r="CN92" s="3">
-        <v>0</v>
+        <f>'hd-to-hd'!A1</f>
+        <v>0.5</v>
       </c>
       <c r="CO92" s="3">
+        <f>'hd-to-hd'!B1</f>
         <v>0</v>
       </c>
       <c r="CP92" s="3">
+        <f>'hd-to-hd'!C1</f>
         <v>0</v>
       </c>
       <c r="CQ92" s="3">
+        <f>'hd-to-hd'!D1</f>
         <v>0</v>
       </c>
       <c r="CR92" s="3">
+        <f>'hd-to-hd'!E1</f>
         <v>0</v>
       </c>
       <c r="CS92" s="3">
+        <f>'hd-to-hd'!F1</f>
         <v>0</v>
       </c>
       <c r="CT92" s="3">
+        <f>'hd-to-hd'!G1</f>
         <v>0</v>
       </c>
       <c r="CU92" s="3">
+        <f>'hd-to-hd'!H1</f>
         <v>0</v>
       </c>
       <c r="CV92" s="3">
+        <f>'hd-to-hd'!I1</f>
         <v>0</v>
       </c>
       <c r="CW92" s="3">
+        <f>'hd-to-hd'!J1</f>
         <v>0</v>
       </c>
       <c r="CX92" s="3">
+        <f>'hd-to-hd'!K1</f>
         <v>0</v>
       </c>
       <c r="CY92" s="3">
+        <f>'hd-to-hd'!L1</f>
         <v>0</v>
       </c>
       <c r="CZ92" s="3">
+        <f>'hd-to-hd'!M1</f>
         <v>0</v>
       </c>
       <c r="DA92" s="3">
+        <f>'hd-to-hd'!N1</f>
         <v>0</v>
       </c>
       <c r="DB92" s="3">
+        <f>'hd-to-hd'!O1</f>
         <v>0</v>
       </c>
       <c r="DC92" s="3">
+        <f>'hd-to-hd'!P1</f>
         <v>0</v>
       </c>
       <c r="DD92" s="1">
@@ -38134,51 +38151,67 @@
         <v>0</v>
       </c>
       <c r="CN93" s="3">
+        <f>'hd-to-hd'!A2</f>
         <v>0</v>
       </c>
       <c r="CO93" s="3">
-        <v>0</v>
+        <f>'hd-to-hd'!B2</f>
+        <v>0.5</v>
       </c>
       <c r="CP93" s="3">
+        <f>'hd-to-hd'!C2</f>
         <v>0</v>
       </c>
       <c r="CQ93" s="3">
+        <f>'hd-to-hd'!D2</f>
         <v>0</v>
       </c>
       <c r="CR93" s="3">
+        <f>'hd-to-hd'!E2</f>
         <v>0</v>
       </c>
       <c r="CS93" s="3">
+        <f>'hd-to-hd'!F2</f>
         <v>0</v>
       </c>
       <c r="CT93" s="3">
+        <f>'hd-to-hd'!G2</f>
         <v>0</v>
       </c>
       <c r="CU93" s="3">
+        <f>'hd-to-hd'!H2</f>
         <v>0</v>
       </c>
       <c r="CV93" s="3">
+        <f>'hd-to-hd'!I2</f>
         <v>0</v>
       </c>
       <c r="CW93" s="3">
+        <f>'hd-to-hd'!J2</f>
         <v>0</v>
       </c>
       <c r="CX93" s="3">
+        <f>'hd-to-hd'!K2</f>
         <v>0</v>
       </c>
       <c r="CY93" s="3">
+        <f>'hd-to-hd'!L2</f>
         <v>0</v>
       </c>
       <c r="CZ93" s="3">
+        <f>'hd-to-hd'!M2</f>
         <v>0</v>
       </c>
       <c r="DA93" s="3">
+        <f>'hd-to-hd'!N2</f>
         <v>0</v>
       </c>
       <c r="DB93" s="3">
+        <f>'hd-to-hd'!O2</f>
         <v>0</v>
       </c>
       <c r="DC93" s="3">
+        <f>'hd-to-hd'!P2</f>
         <v>0</v>
       </c>
       <c r="DD93" s="1">
@@ -38521,51 +38554,67 @@
         <v>0</v>
       </c>
       <c r="CN94" s="3">
+        <f>'hd-to-hd'!A3</f>
         <v>0</v>
       </c>
       <c r="CO94" s="3">
+        <f>'hd-to-hd'!B3</f>
         <v>0</v>
       </c>
       <c r="CP94" s="3">
-        <v>0</v>
+        <f>'hd-to-hd'!C3</f>
+        <v>0.5</v>
       </c>
       <c r="CQ94" s="3">
+        <f>'hd-to-hd'!D3</f>
         <v>0</v>
       </c>
       <c r="CR94" s="3">
+        <f>'hd-to-hd'!E3</f>
         <v>0</v>
       </c>
       <c r="CS94" s="3">
+        <f>'hd-to-hd'!F3</f>
         <v>0</v>
       </c>
       <c r="CT94" s="3">
+        <f>'hd-to-hd'!G3</f>
         <v>0</v>
       </c>
       <c r="CU94" s="3">
+        <f>'hd-to-hd'!H3</f>
         <v>0</v>
       </c>
       <c r="CV94" s="3">
+        <f>'hd-to-hd'!I3</f>
         <v>0</v>
       </c>
       <c r="CW94" s="3">
+        <f>'hd-to-hd'!J3</f>
         <v>0</v>
       </c>
       <c r="CX94" s="3">
+        <f>'hd-to-hd'!K3</f>
         <v>0</v>
       </c>
       <c r="CY94" s="3">
+        <f>'hd-to-hd'!L3</f>
         <v>0</v>
       </c>
       <c r="CZ94" s="3">
+        <f>'hd-to-hd'!M3</f>
         <v>0</v>
       </c>
       <c r="DA94" s="3">
+        <f>'hd-to-hd'!N3</f>
         <v>0</v>
       </c>
       <c r="DB94" s="3">
+        <f>'hd-to-hd'!O3</f>
         <v>0</v>
       </c>
       <c r="DC94" s="3">
+        <f>'hd-to-hd'!P3</f>
         <v>0</v>
       </c>
       <c r="DD94" s="1">
@@ -38908,51 +38957,67 @@
         <v>0</v>
       </c>
       <c r="CN95" s="3">
+        <f>'hd-to-hd'!A4</f>
         <v>0</v>
       </c>
       <c r="CO95" s="3">
+        <f>'hd-to-hd'!B4</f>
         <v>0</v>
       </c>
       <c r="CP95" s="3">
+        <f>'hd-to-hd'!C4</f>
         <v>0</v>
       </c>
       <c r="CQ95" s="3">
-        <v>0</v>
+        <f>'hd-to-hd'!D4</f>
+        <v>0.5</v>
       </c>
       <c r="CR95" s="3">
+        <f>'hd-to-hd'!E4</f>
         <v>0</v>
       </c>
       <c r="CS95" s="3">
+        <f>'hd-to-hd'!F4</f>
         <v>0</v>
       </c>
       <c r="CT95" s="3">
+        <f>'hd-to-hd'!G4</f>
         <v>0</v>
       </c>
       <c r="CU95" s="3">
+        <f>'hd-to-hd'!H4</f>
         <v>0</v>
       </c>
       <c r="CV95" s="3">
+        <f>'hd-to-hd'!I4</f>
         <v>0</v>
       </c>
       <c r="CW95" s="3">
+        <f>'hd-to-hd'!J4</f>
         <v>0</v>
       </c>
       <c r="CX95" s="3">
+        <f>'hd-to-hd'!K4</f>
         <v>0</v>
       </c>
       <c r="CY95" s="3">
+        <f>'hd-to-hd'!L4</f>
         <v>0</v>
       </c>
       <c r="CZ95" s="3">
+        <f>'hd-to-hd'!M4</f>
         <v>0</v>
       </c>
       <c r="DA95" s="3">
+        <f>'hd-to-hd'!N4</f>
         <v>0</v>
       </c>
       <c r="DB95" s="3">
+        <f>'hd-to-hd'!O4</f>
         <v>0</v>
       </c>
       <c r="DC95" s="3">
+        <f>'hd-to-hd'!P4</f>
         <v>0</v>
       </c>
       <c r="DD95" s="1">
@@ -39295,51 +39360,67 @@
         <v>0</v>
       </c>
       <c r="CN96" s="3">
+        <f>'hd-to-hd'!A5</f>
         <v>0</v>
       </c>
       <c r="CO96" s="3">
+        <f>'hd-to-hd'!B5</f>
         <v>0</v>
       </c>
       <c r="CP96" s="3">
+        <f>'hd-to-hd'!C5</f>
         <v>0</v>
       </c>
       <c r="CQ96" s="3">
+        <f>'hd-to-hd'!D5</f>
         <v>0</v>
       </c>
       <c r="CR96" s="3">
-        <v>0</v>
+        <f>'hd-to-hd'!E5</f>
+        <v>0.5</v>
       </c>
       <c r="CS96" s="3">
+        <f>'hd-to-hd'!F5</f>
         <v>0</v>
       </c>
       <c r="CT96" s="3">
+        <f>'hd-to-hd'!G5</f>
         <v>0</v>
       </c>
       <c r="CU96" s="3">
+        <f>'hd-to-hd'!H5</f>
         <v>0</v>
       </c>
       <c r="CV96" s="3">
+        <f>'hd-to-hd'!I5</f>
         <v>0</v>
       </c>
       <c r="CW96" s="3">
+        <f>'hd-to-hd'!J5</f>
         <v>0</v>
       </c>
       <c r="CX96" s="3">
+        <f>'hd-to-hd'!K5</f>
         <v>0</v>
       </c>
       <c r="CY96" s="3">
+        <f>'hd-to-hd'!L5</f>
         <v>0</v>
       </c>
       <c r="CZ96" s="3">
+        <f>'hd-to-hd'!M5</f>
         <v>0</v>
       </c>
       <c r="DA96" s="3">
+        <f>'hd-to-hd'!N5</f>
         <v>0</v>
       </c>
       <c r="DB96" s="3">
+        <f>'hd-to-hd'!O5</f>
         <v>0</v>
       </c>
       <c r="DC96" s="3">
+        <f>'hd-to-hd'!P5</f>
         <v>0</v>
       </c>
       <c r="DD96" s="1">
@@ -39682,51 +39763,67 @@
         <v>0</v>
       </c>
       <c r="CN97" s="3">
+        <f>'hd-to-hd'!A6</f>
         <v>0</v>
       </c>
       <c r="CO97" s="3">
+        <f>'hd-to-hd'!B6</f>
         <v>0</v>
       </c>
       <c r="CP97" s="3">
+        <f>'hd-to-hd'!C6</f>
         <v>0</v>
       </c>
       <c r="CQ97" s="3">
+        <f>'hd-to-hd'!D6</f>
         <v>0</v>
       </c>
       <c r="CR97" s="3">
+        <f>'hd-to-hd'!E6</f>
         <v>0</v>
       </c>
       <c r="CS97" s="3">
-        <v>0</v>
+        <f>'hd-to-hd'!F6</f>
+        <v>0.5</v>
       </c>
       <c r="CT97" s="3">
+        <f>'hd-to-hd'!G6</f>
         <v>0</v>
       </c>
       <c r="CU97" s="3">
+        <f>'hd-to-hd'!H6</f>
         <v>0</v>
       </c>
       <c r="CV97" s="3">
+        <f>'hd-to-hd'!I6</f>
         <v>0</v>
       </c>
       <c r="CW97" s="3">
+        <f>'hd-to-hd'!J6</f>
         <v>0</v>
       </c>
       <c r="CX97" s="3">
+        <f>'hd-to-hd'!K6</f>
         <v>0</v>
       </c>
       <c r="CY97" s="3">
+        <f>'hd-to-hd'!L6</f>
         <v>0</v>
       </c>
       <c r="CZ97" s="3">
+        <f>'hd-to-hd'!M6</f>
         <v>0</v>
       </c>
       <c r="DA97" s="3">
+        <f>'hd-to-hd'!N6</f>
         <v>0</v>
       </c>
       <c r="DB97" s="3">
+        <f>'hd-to-hd'!O6</f>
         <v>0</v>
       </c>
       <c r="DC97" s="3">
+        <f>'hd-to-hd'!P6</f>
         <v>0</v>
       </c>
       <c r="DD97" s="1">
@@ -40069,51 +40166,67 @@
         <v>0</v>
       </c>
       <c r="CN98" s="3">
+        <f>'hd-to-hd'!A7</f>
         <v>0</v>
       </c>
       <c r="CO98" s="3">
+        <f>'hd-to-hd'!B7</f>
         <v>0</v>
       </c>
       <c r="CP98" s="3">
+        <f>'hd-to-hd'!C7</f>
         <v>0</v>
       </c>
       <c r="CQ98" s="3">
+        <f>'hd-to-hd'!D7</f>
         <v>0</v>
       </c>
       <c r="CR98" s="3">
+        <f>'hd-to-hd'!E7</f>
         <v>0</v>
       </c>
       <c r="CS98" s="3">
+        <f>'hd-to-hd'!F7</f>
         <v>0</v>
       </c>
       <c r="CT98" s="3">
-        <v>0</v>
+        <f>'hd-to-hd'!G7</f>
+        <v>0.5</v>
       </c>
       <c r="CU98" s="3">
+        <f>'hd-to-hd'!H7</f>
         <v>0</v>
       </c>
       <c r="CV98" s="3">
+        <f>'hd-to-hd'!I7</f>
         <v>0</v>
       </c>
       <c r="CW98" s="3">
+        <f>'hd-to-hd'!J7</f>
         <v>0</v>
       </c>
       <c r="CX98" s="3">
+        <f>'hd-to-hd'!K7</f>
         <v>0</v>
       </c>
       <c r="CY98" s="3">
+        <f>'hd-to-hd'!L7</f>
         <v>0</v>
       </c>
       <c r="CZ98" s="3">
+        <f>'hd-to-hd'!M7</f>
         <v>0</v>
       </c>
       <c r="DA98" s="3">
+        <f>'hd-to-hd'!N7</f>
         <v>0</v>
       </c>
       <c r="DB98" s="3">
+        <f>'hd-to-hd'!O7</f>
         <v>0</v>
       </c>
       <c r="DC98" s="3">
+        <f>'hd-to-hd'!P7</f>
         <v>0</v>
       </c>
       <c r="DD98" s="1">
@@ -40456,51 +40569,67 @@
         <v>0</v>
       </c>
       <c r="CN99" s="3">
+        <f>'hd-to-hd'!A8</f>
         <v>0</v>
       </c>
       <c r="CO99" s="3">
+        <f>'hd-to-hd'!B8</f>
         <v>0</v>
       </c>
       <c r="CP99" s="3">
+        <f>'hd-to-hd'!C8</f>
         <v>0</v>
       </c>
       <c r="CQ99" s="3">
+        <f>'hd-to-hd'!D8</f>
         <v>0</v>
       </c>
       <c r="CR99" s="3">
+        <f>'hd-to-hd'!E8</f>
         <v>0</v>
       </c>
       <c r="CS99" s="3">
+        <f>'hd-to-hd'!F8</f>
         <v>0</v>
       </c>
       <c r="CT99" s="3">
+        <f>'hd-to-hd'!G8</f>
         <v>0</v>
       </c>
       <c r="CU99" s="3">
-        <v>0</v>
+        <f>'hd-to-hd'!H8</f>
+        <v>0.5</v>
       </c>
       <c r="CV99" s="3">
+        <f>'hd-to-hd'!I8</f>
         <v>0</v>
       </c>
       <c r="CW99" s="3">
+        <f>'hd-to-hd'!J8</f>
         <v>0</v>
       </c>
       <c r="CX99" s="3">
+        <f>'hd-to-hd'!K8</f>
         <v>0</v>
       </c>
       <c r="CY99" s="3">
+        <f>'hd-to-hd'!L8</f>
         <v>0</v>
       </c>
       <c r="CZ99" s="3">
+        <f>'hd-to-hd'!M8</f>
         <v>0</v>
       </c>
       <c r="DA99" s="3">
+        <f>'hd-to-hd'!N8</f>
         <v>0</v>
       </c>
       <c r="DB99" s="3">
+        <f>'hd-to-hd'!O8</f>
         <v>0</v>
       </c>
       <c r="DC99" s="3">
+        <f>'hd-to-hd'!P8</f>
         <v>0</v>
       </c>
       <c r="DD99" s="1">
@@ -40843,51 +40972,67 @@
         <v>0</v>
       </c>
       <c r="CN100" s="3">
+        <f>'hd-to-hd'!A9</f>
         <v>0</v>
       </c>
       <c r="CO100" s="3">
+        <f>'hd-to-hd'!B9</f>
         <v>0</v>
       </c>
       <c r="CP100" s="3">
+        <f>'hd-to-hd'!C9</f>
         <v>0</v>
       </c>
       <c r="CQ100" s="3">
+        <f>'hd-to-hd'!D9</f>
         <v>0</v>
       </c>
       <c r="CR100" s="3">
+        <f>'hd-to-hd'!E9</f>
         <v>0</v>
       </c>
       <c r="CS100" s="3">
+        <f>'hd-to-hd'!F9</f>
         <v>0</v>
       </c>
       <c r="CT100" s="3">
+        <f>'hd-to-hd'!G9</f>
         <v>0</v>
       </c>
       <c r="CU100" s="3">
+        <f>'hd-to-hd'!H9</f>
         <v>0</v>
       </c>
       <c r="CV100" s="3">
-        <v>0</v>
+        <f>'hd-to-hd'!I9</f>
+        <v>0.5</v>
       </c>
       <c r="CW100" s="3">
+        <f>'hd-to-hd'!J9</f>
         <v>0</v>
       </c>
       <c r="CX100" s="3">
+        <f>'hd-to-hd'!K9</f>
         <v>0</v>
       </c>
       <c r="CY100" s="3">
+        <f>'hd-to-hd'!L9</f>
         <v>0</v>
       </c>
       <c r="CZ100" s="3">
+        <f>'hd-to-hd'!M9</f>
         <v>0</v>
       </c>
       <c r="DA100" s="3">
+        <f>'hd-to-hd'!N9</f>
         <v>0</v>
       </c>
       <c r="DB100" s="3">
+        <f>'hd-to-hd'!O9</f>
         <v>0</v>
       </c>
       <c r="DC100" s="3">
+        <f>'hd-to-hd'!P9</f>
         <v>0</v>
       </c>
       <c r="DD100" s="1">
@@ -41230,51 +41375,67 @@
         <v>0</v>
       </c>
       <c r="CN101" s="3">
+        <f>'hd-to-hd'!A10</f>
         <v>0</v>
       </c>
       <c r="CO101" s="3">
+        <f>'hd-to-hd'!B10</f>
         <v>0</v>
       </c>
       <c r="CP101" s="3">
+        <f>'hd-to-hd'!C10</f>
         <v>0</v>
       </c>
       <c r="CQ101" s="3">
+        <f>'hd-to-hd'!D10</f>
         <v>0</v>
       </c>
       <c r="CR101" s="3">
+        <f>'hd-to-hd'!E10</f>
         <v>0</v>
       </c>
       <c r="CS101" s="3">
+        <f>'hd-to-hd'!F10</f>
         <v>0</v>
       </c>
       <c r="CT101" s="3">
+        <f>'hd-to-hd'!G10</f>
         <v>0</v>
       </c>
       <c r="CU101" s="3">
+        <f>'hd-to-hd'!H10</f>
         <v>0</v>
       </c>
       <c r="CV101" s="3">
+        <f>'hd-to-hd'!I10</f>
         <v>0</v>
       </c>
       <c r="CW101" s="3">
-        <v>0</v>
+        <f>'hd-to-hd'!J10</f>
+        <v>0.5</v>
       </c>
       <c r="CX101" s="3">
+        <f>'hd-to-hd'!K10</f>
         <v>0</v>
       </c>
       <c r="CY101" s="3">
+        <f>'hd-to-hd'!L10</f>
         <v>0</v>
       </c>
       <c r="CZ101" s="3">
+        <f>'hd-to-hd'!M10</f>
         <v>0</v>
       </c>
       <c r="DA101" s="3">
+        <f>'hd-to-hd'!N10</f>
         <v>0</v>
       </c>
       <c r="DB101" s="3">
+        <f>'hd-to-hd'!O10</f>
         <v>0</v>
       </c>
       <c r="DC101" s="3">
+        <f>'hd-to-hd'!P10</f>
         <v>0</v>
       </c>
       <c r="DD101" s="1">
@@ -41617,51 +41778,67 @@
         <v>0</v>
       </c>
       <c r="CN102" s="3">
+        <f>'hd-to-hd'!A11</f>
         <v>0</v>
       </c>
       <c r="CO102" s="3">
+        <f>'hd-to-hd'!B11</f>
         <v>0</v>
       </c>
       <c r="CP102" s="3">
+        <f>'hd-to-hd'!C11</f>
         <v>0</v>
       </c>
       <c r="CQ102" s="3">
+        <f>'hd-to-hd'!D11</f>
         <v>0</v>
       </c>
       <c r="CR102" s="3">
+        <f>'hd-to-hd'!E11</f>
         <v>0</v>
       </c>
       <c r="CS102" s="3">
+        <f>'hd-to-hd'!F11</f>
         <v>0</v>
       </c>
       <c r="CT102" s="3">
+        <f>'hd-to-hd'!G11</f>
         <v>0</v>
       </c>
       <c r="CU102" s="3">
+        <f>'hd-to-hd'!H11</f>
         <v>0</v>
       </c>
       <c r="CV102" s="3">
+        <f>'hd-to-hd'!I11</f>
         <v>0</v>
       </c>
       <c r="CW102" s="3">
+        <f>'hd-to-hd'!J11</f>
         <v>0</v>
       </c>
       <c r="CX102" s="3">
-        <v>0</v>
+        <f>'hd-to-hd'!K11</f>
+        <v>0.5</v>
       </c>
       <c r="CY102" s="3">
+        <f>'hd-to-hd'!L11</f>
         <v>0</v>
       </c>
       <c r="CZ102" s="3">
+        <f>'hd-to-hd'!M11</f>
         <v>0</v>
       </c>
       <c r="DA102" s="3">
+        <f>'hd-to-hd'!N11</f>
         <v>0</v>
       </c>
       <c r="DB102" s="3">
+        <f>'hd-to-hd'!O11</f>
         <v>0</v>
       </c>
       <c r="DC102" s="3">
+        <f>'hd-to-hd'!P11</f>
         <v>0</v>
       </c>
       <c r="DD102" s="1">
@@ -42004,51 +42181,67 @@
         <v>0</v>
       </c>
       <c r="CN103" s="3">
+        <f>'hd-to-hd'!A12</f>
         <v>0</v>
       </c>
       <c r="CO103" s="3">
+        <f>'hd-to-hd'!B12</f>
         <v>0</v>
       </c>
       <c r="CP103" s="3">
+        <f>'hd-to-hd'!C12</f>
         <v>0</v>
       </c>
       <c r="CQ103" s="3">
+        <f>'hd-to-hd'!D12</f>
         <v>0</v>
       </c>
       <c r="CR103" s="3">
+        <f>'hd-to-hd'!E12</f>
         <v>0</v>
       </c>
       <c r="CS103" s="3">
+        <f>'hd-to-hd'!F12</f>
         <v>0</v>
       </c>
       <c r="CT103" s="3">
+        <f>'hd-to-hd'!G12</f>
         <v>0</v>
       </c>
       <c r="CU103" s="3">
+        <f>'hd-to-hd'!H12</f>
         <v>0</v>
       </c>
       <c r="CV103" s="3">
+        <f>'hd-to-hd'!I12</f>
         <v>0</v>
       </c>
       <c r="CW103" s="3">
+        <f>'hd-to-hd'!J12</f>
         <v>0</v>
       </c>
       <c r="CX103" s="3">
+        <f>'hd-to-hd'!K12</f>
         <v>0</v>
       </c>
       <c r="CY103" s="3">
-        <v>0</v>
+        <f>'hd-to-hd'!L12</f>
+        <v>0.5</v>
       </c>
       <c r="CZ103" s="3">
+        <f>'hd-to-hd'!M12</f>
         <v>0</v>
       </c>
       <c r="DA103" s="3">
+        <f>'hd-to-hd'!N12</f>
         <v>0</v>
       </c>
       <c r="DB103" s="3">
+        <f>'hd-to-hd'!O12</f>
         <v>0</v>
       </c>
       <c r="DC103" s="3">
+        <f>'hd-to-hd'!P12</f>
         <v>0</v>
       </c>
       <c r="DD103" s="1">
@@ -42391,51 +42584,67 @@
         <v>0</v>
       </c>
       <c r="CN104" s="3">
+        <f>'hd-to-hd'!A13</f>
         <v>0</v>
       </c>
       <c r="CO104" s="3">
+        <f>'hd-to-hd'!B13</f>
         <v>0</v>
       </c>
       <c r="CP104" s="3">
+        <f>'hd-to-hd'!C13</f>
         <v>0</v>
       </c>
       <c r="CQ104" s="3">
+        <f>'hd-to-hd'!D13</f>
         <v>0</v>
       </c>
       <c r="CR104" s="3">
+        <f>'hd-to-hd'!E13</f>
         <v>0</v>
       </c>
       <c r="CS104" s="3">
+        <f>'hd-to-hd'!F13</f>
         <v>0</v>
       </c>
       <c r="CT104" s="3">
+        <f>'hd-to-hd'!G13</f>
         <v>0</v>
       </c>
       <c r="CU104" s="3">
+        <f>'hd-to-hd'!H13</f>
         <v>0</v>
       </c>
       <c r="CV104" s="3">
+        <f>'hd-to-hd'!I13</f>
         <v>0</v>
       </c>
       <c r="CW104" s="3">
+        <f>'hd-to-hd'!J13</f>
         <v>0</v>
       </c>
       <c r="CX104" s="3">
+        <f>'hd-to-hd'!K13</f>
         <v>0</v>
       </c>
       <c r="CY104" s="3">
+        <f>'hd-to-hd'!L13</f>
         <v>0</v>
       </c>
       <c r="CZ104" s="3">
-        <v>0</v>
+        <f>'hd-to-hd'!M13</f>
+        <v>0.5</v>
       </c>
       <c r="DA104" s="3">
+        <f>'hd-to-hd'!N13</f>
         <v>0</v>
       </c>
       <c r="DB104" s="3">
+        <f>'hd-to-hd'!O13</f>
         <v>0</v>
       </c>
       <c r="DC104" s="3">
+        <f>'hd-to-hd'!P13</f>
         <v>0</v>
       </c>
       <c r="DD104" s="1">
@@ -42778,51 +42987,67 @@
         <v>0</v>
       </c>
       <c r="CN105" s="3">
+        <f>'hd-to-hd'!A14</f>
         <v>0</v>
       </c>
       <c r="CO105" s="3">
+        <f>'hd-to-hd'!B14</f>
         <v>0</v>
       </c>
       <c r="CP105" s="3">
+        <f>'hd-to-hd'!C14</f>
         <v>0</v>
       </c>
       <c r="CQ105" s="3">
+        <f>'hd-to-hd'!D14</f>
         <v>0</v>
       </c>
       <c r="CR105" s="3">
+        <f>'hd-to-hd'!E14</f>
         <v>0</v>
       </c>
       <c r="CS105" s="3">
+        <f>'hd-to-hd'!F14</f>
         <v>0</v>
       </c>
       <c r="CT105" s="3">
+        <f>'hd-to-hd'!G14</f>
         <v>0</v>
       </c>
       <c r="CU105" s="3">
+        <f>'hd-to-hd'!H14</f>
         <v>0</v>
       </c>
       <c r="CV105" s="3">
+        <f>'hd-to-hd'!I14</f>
         <v>0</v>
       </c>
       <c r="CW105" s="3">
+        <f>'hd-to-hd'!J14</f>
         <v>0</v>
       </c>
       <c r="CX105" s="3">
+        <f>'hd-to-hd'!K14</f>
         <v>0</v>
       </c>
       <c r="CY105" s="3">
+        <f>'hd-to-hd'!L14</f>
         <v>0</v>
       </c>
       <c r="CZ105" s="3">
+        <f>'hd-to-hd'!M14</f>
         <v>0</v>
       </c>
       <c r="DA105" s="3">
-        <v>0</v>
+        <f>'hd-to-hd'!N14</f>
+        <v>0.5</v>
       </c>
       <c r="DB105" s="3">
+        <f>'hd-to-hd'!O14</f>
         <v>0</v>
       </c>
       <c r="DC105" s="3">
+        <f>'hd-to-hd'!P14</f>
         <v>0</v>
       </c>
       <c r="DD105" s="1">
@@ -43165,51 +43390,67 @@
         <v>0</v>
       </c>
       <c r="CN106" s="3">
+        <f>'hd-to-hd'!A15</f>
         <v>0</v>
       </c>
       <c r="CO106" s="3">
+        <f>'hd-to-hd'!B15</f>
         <v>0</v>
       </c>
       <c r="CP106" s="3">
+        <f>'hd-to-hd'!C15</f>
         <v>0</v>
       </c>
       <c r="CQ106" s="3">
+        <f>'hd-to-hd'!D15</f>
         <v>0</v>
       </c>
       <c r="CR106" s="3">
+        <f>'hd-to-hd'!E15</f>
         <v>0</v>
       </c>
       <c r="CS106" s="3">
+        <f>'hd-to-hd'!F15</f>
         <v>0</v>
       </c>
       <c r="CT106" s="3">
+        <f>'hd-to-hd'!G15</f>
         <v>0</v>
       </c>
       <c r="CU106" s="3">
+        <f>'hd-to-hd'!H15</f>
         <v>0</v>
       </c>
       <c r="CV106" s="3">
+        <f>'hd-to-hd'!I15</f>
         <v>0</v>
       </c>
       <c r="CW106" s="3">
+        <f>'hd-to-hd'!J15</f>
         <v>0</v>
       </c>
       <c r="CX106" s="3">
+        <f>'hd-to-hd'!K15</f>
         <v>0</v>
       </c>
       <c r="CY106" s="3">
+        <f>'hd-to-hd'!L15</f>
         <v>0</v>
       </c>
       <c r="CZ106" s="3">
+        <f>'hd-to-hd'!M15</f>
         <v>0</v>
       </c>
       <c r="DA106" s="3">
+        <f>'hd-to-hd'!N15</f>
         <v>0</v>
       </c>
       <c r="DB106" s="3">
-        <v>0</v>
+        <f>'hd-to-hd'!O15</f>
+        <v>0.5</v>
       </c>
       <c r="DC106" s="3">
+        <f>'hd-to-hd'!P15</f>
         <v>0</v>
       </c>
       <c r="DD106" s="1">
@@ -43552,52 +43793,68 @@
         <v>0</v>
       </c>
       <c r="CN107" s="3">
+        <f>'hd-to-hd'!A16</f>
         <v>0</v>
       </c>
       <c r="CO107" s="3">
+        <f>'hd-to-hd'!B16</f>
         <v>0</v>
       </c>
       <c r="CP107" s="3">
+        <f>'hd-to-hd'!C16</f>
         <v>0</v>
       </c>
       <c r="CQ107" s="3">
+        <f>'hd-to-hd'!D16</f>
         <v>0</v>
       </c>
       <c r="CR107" s="3">
+        <f>'hd-to-hd'!E16</f>
         <v>0</v>
       </c>
       <c r="CS107" s="3">
+        <f>'hd-to-hd'!F16</f>
         <v>0</v>
       </c>
       <c r="CT107" s="3">
+        <f>'hd-to-hd'!G16</f>
         <v>0</v>
       </c>
       <c r="CU107" s="3">
+        <f>'hd-to-hd'!H16</f>
         <v>0</v>
       </c>
       <c r="CV107" s="3">
+        <f>'hd-to-hd'!I16</f>
         <v>0</v>
       </c>
       <c r="CW107" s="3">
+        <f>'hd-to-hd'!J16</f>
         <v>0</v>
       </c>
       <c r="CX107" s="3">
+        <f>'hd-to-hd'!K16</f>
         <v>0</v>
       </c>
       <c r="CY107" s="3">
+        <f>'hd-to-hd'!L16</f>
         <v>0</v>
       </c>
       <c r="CZ107" s="3">
+        <f>'hd-to-hd'!M16</f>
         <v>0</v>
       </c>
       <c r="DA107" s="3">
+        <f>'hd-to-hd'!N16</f>
         <v>0</v>
       </c>
       <c r="DB107" s="3">
+        <f>'hd-to-hd'!O16</f>
         <v>0</v>
       </c>
       <c r="DC107" s="3">
-        <v>0</v>
+        <f>'hd-to-hd'!P16</f>
+        <v>0.5</v>
       </c>
       <c r="DD107" s="1">
         <f>'hd-to-PFL'!A16 * Gains!$K$10</f>
@@ -49601,8 +49858,31 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="DvPSDTWXIsXHjws5kZJZ3KehB1mLJEnrL7EncVKDX3BRVhxhqdCYjknX7x7iN1lbJrHUfuRc1Xzhbu/jVsdNdw==" saltValue="ZbKZsBTs4xoQaoQgldm0IQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="L1:AA8 AR9:BG10 AB12:BW27 BX11:CM11 L28:AA59 AB60:CM75 CN76:DC91 DD60:DS107">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CN92:DC107">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CN76:DS107 DD60:DS75 AB60:CM75 L28:AA59 AB12:BW27 BX11:CM11 AR9:BG10 L1:AA8">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -51278,7 +51558,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -52927,6 +53207,833 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D2C0FFE-2165-4D18-9B6A-93566384B211}">
+  <dimension ref="A1:P16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0.5</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>0</v>
+      </c>
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1">
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+      <c r="K1">
+        <v>0</v>
+      </c>
+      <c r="L1">
+        <v>0</v>
+      </c>
+      <c r="M1">
+        <v>0</v>
+      </c>
+      <c r="N1">
+        <v>0</v>
+      </c>
+      <c r="O1">
+        <v>0</v>
+      </c>
+      <c r="P1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.5</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0.5</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0.5</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0.5</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.5</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0.5</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0.5</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0.5</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0.5</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0.5</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0.5</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0.5</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0.5</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0.5</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:P16">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EA8753B-3B8C-468F-9869-7705CB6A97BA}">
   <dimension ref="A1:P10"/>
@@ -53456,7 +54563,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -53770,7 +54877,7 @@
         <v>12</v>
       </c>
       <c r="K9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -54292,7 +55399,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="A4:I23"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -54496,7 +55603,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/Theorical_connectivity_matrices.xlsx
+++ b/Theorical_connectivity_matrices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bclem\OneDrive\Documents\GitHub\Megalopta_CX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479B3A45-8977-4B26-A807-6EC6AC77B5EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6393C71-66EF-4D66-87D5-506729724C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{093D5FC8-3546-4B30-B5BC-72449F880B19}"/>
+    <workbookView xWindow="7440" yWindow="768" windowWidth="14556" windowHeight="8880" activeTab="2" xr2:uid="{093D5FC8-3546-4B30-B5BC-72449F880B19}"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="13" r:id="rId1"/>
@@ -459,8 +459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D70C54ED-CF8A-40EC-8537-9A05E3479CC3}">
   <dimension ref="A1:DS123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BO31" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="CI91" sqref="CI91"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AX22" sqref="AX22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3693,67 +3693,67 @@
       </c>
       <c r="AR9">
         <f>'TR-to-PEN'!A1</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS9">
         <f>'TR-to-PEN'!B1</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT9">
         <f>'TR-to-PEN'!C1</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU9">
         <f>'TR-to-PEN'!D1</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV9">
         <f>'TR-to-PEN'!E1</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW9">
         <f>'TR-to-PEN'!F1</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX9">
         <f>'TR-to-PEN'!G1</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY9">
         <f>'TR-to-PEN'!H1</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ9">
         <f>'TR-to-PEN'!I1</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA9">
         <f>'TR-to-PEN'!J1</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB9">
         <f>'TR-to-PEN'!K1</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC9">
         <f>'TR-to-PEN'!L1</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD9">
         <f>'TR-to-PEN'!M1</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE9">
         <f>'TR-to-PEN'!N1</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF9">
         <f>'TR-to-PEN'!O1</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG9">
         <f>'TR-to-PEN'!P1</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH9" s="1">
         <v>0</v>
@@ -4080,67 +4080,67 @@
       </c>
       <c r="AR10">
         <f>'TR-to-PEN'!A2</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS10">
         <f>'TR-to-PEN'!B2</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT10">
         <f>'TR-to-PEN'!C2</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU10">
         <f>'TR-to-PEN'!D2</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV10">
         <f>'TR-to-PEN'!E2</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW10">
         <f>'TR-to-PEN'!F2</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX10">
         <f>'TR-to-PEN'!G2</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY10">
         <f>'TR-to-PEN'!H2</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ10">
         <f>'TR-to-PEN'!I2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA10">
         <f>'TR-to-PEN'!J2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB10">
         <f>'TR-to-PEN'!K2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC10">
         <f>'TR-to-PEN'!L2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD10">
         <f>'TR-to-PEN'!M2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE10">
         <f>'TR-to-PEN'!N2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF10">
         <f>'TR-to-PEN'!O2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG10">
         <f>'TR-to-PEN'!P2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH10" s="1">
         <v>0</v>
@@ -4870,7 +4870,7 @@
       </c>
       <c r="AR12">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!A1 * Gains!$G$5</f>
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="AS12">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!B1 * Gains!$G$5</f>
@@ -5293,7 +5293,7 @@
       </c>
       <c r="AS13">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!B2 * Gains!$G$5</f>
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="AT13">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!C2 * Gains!$G$5</f>
@@ -5716,7 +5716,7 @@
       </c>
       <c r="AT14">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!C3 * Gains!$G$5</f>
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="AU14">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!D3 * Gains!$G$5</f>
@@ -6139,7 +6139,7 @@
       </c>
       <c r="AU15">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!D4 * Gains!$G$5</f>
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="AV15">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!E4 * Gains!$G$5</f>
@@ -6562,7 +6562,7 @@
       </c>
       <c r="AV16">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!E5 * Gains!$G$5</f>
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="AW16">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!F5 * Gains!$G$5</f>
@@ -6985,7 +6985,7 @@
       </c>
       <c r="AW17">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!F6 * Gains!$G$5</f>
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="AX17">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!G6 * Gains!$G$5</f>
@@ -7408,7 +7408,7 @@
       </c>
       <c r="AX18">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!G7 * Gains!$G$5</f>
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="AY18">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!H7 * Gains!$G$5</f>
@@ -7831,7 +7831,7 @@
       </c>
       <c r="AY19">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!H8 * Gains!$G$5</f>
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="AZ19">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!I8 * Gains!$G$5</f>
@@ -8254,7 +8254,7 @@
       </c>
       <c r="AZ20">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!I9 * Gains!$G$5</f>
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="BA20">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!J9 * Gains!$G$5</f>
@@ -8677,7 +8677,7 @@
       </c>
       <c r="BA21">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!J10 * Gains!$G$5</f>
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="BB21">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!K10 * Gains!$G$5</f>
@@ -9099,7 +9099,7 @@
       </c>
       <c r="BB22">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!K11 * Gains!$G$5</f>
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="BC22">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!L11 * Gains!$G$5</f>
@@ -9522,7 +9522,7 @@
       </c>
       <c r="BC23">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!L12 * Gains!$G$5</f>
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="BD23">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!M12 * Gains!$G$5</f>
@@ -9945,7 +9945,7 @@
       </c>
       <c r="BD24">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!M13 * Gains!$G$5</f>
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="BE24">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!N13 * Gains!$G$5</f>
@@ -10368,7 +10368,7 @@
       </c>
       <c r="BE25">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!N14 * Gains!$G$5</f>
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="BF25">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!O14 * Gains!$G$5</f>
@@ -10791,7 +10791,7 @@
       </c>
       <c r="BF26">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!O15 * Gains!$G$5</f>
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="BG26">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!P15 * Gains!$G$5</f>
@@ -10827,11 +10827,11 @@
       </c>
       <c r="BO26">
         <f>'EPG-to-d7'!H15</f>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BP26">
         <f>'EPG-to-d7'!I15</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="BQ26">
         <f>'EPG-to-d7'!J15</f>
@@ -11214,7 +11214,7 @@
       </c>
       <c r="BG27">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!P16 * Gains!$G$5</f>
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="BH27">
         <f>'EPG-to-d7'!A16</f>
@@ -11246,15 +11246,15 @@
       </c>
       <c r="BO27">
         <f>'EPG-to-d7'!H16</f>
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="BP27">
         <f>'EPG-to-d7'!I16</f>
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="BQ27">
         <f>'EPG-to-d7'!J16</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="BR27">
         <f>'EPG-to-d7'!K16</f>
@@ -17657,7 +17657,7 @@
       </c>
       <c r="M44">
         <f>'PEN-to-EPG'!B1 * Gains!$E$7</f>
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="N44">
         <f>'PEN-to-EPG'!C1 * Gains!$E$7</f>
@@ -17689,7 +17689,7 @@
       </c>
       <c r="U44">
         <f>'PEN-to-EPG'!J1 * Gains!$E$7</f>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="V44">
         <f>'PEN-to-EPG'!K1 * Gains!$E$7</f>
@@ -18048,7 +18048,7 @@
       </c>
       <c r="N45">
         <f>'PEN-to-EPG'!C2 * Gains!$E$7</f>
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="O45">
         <f>'PEN-to-EPG'!D2 * Gains!$E$7</f>
@@ -18080,7 +18080,7 @@
       </c>
       <c r="V45">
         <f>'PEN-to-EPG'!K2 * Gains!$E$7</f>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="W45">
         <f>'PEN-to-EPG'!L2 * Gains!$E$7</f>
@@ -18439,7 +18439,7 @@
       </c>
       <c r="O46">
         <f>'PEN-to-EPG'!D3 * Gains!$E$7</f>
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="P46">
         <f>'PEN-to-EPG'!E3 * Gains!$E$7</f>
@@ -18471,7 +18471,7 @@
       </c>
       <c r="W46">
         <f>'PEN-to-EPG'!L3 * Gains!$E$7</f>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="X46">
         <f>'PEN-to-EPG'!M3 * Gains!$E$7</f>
@@ -18830,7 +18830,7 @@
       </c>
       <c r="P47">
         <f>'PEN-to-EPG'!E4 * Gains!$E$7</f>
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="Q47">
         <f>'PEN-to-EPG'!F4 * Gains!$E$7</f>
@@ -18862,7 +18862,7 @@
       </c>
       <c r="X47">
         <f>'PEN-to-EPG'!M4 * Gains!$E$7</f>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="Y47">
         <f>'PEN-to-EPG'!N4 * Gains!$E$7</f>
@@ -19221,7 +19221,7 @@
       </c>
       <c r="Q48">
         <f>'PEN-to-EPG'!F5 * Gains!$E$7</f>
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="R48">
         <f>'PEN-to-EPG'!G5 * Gains!$E$7</f>
@@ -19253,7 +19253,7 @@
       </c>
       <c r="Y48">
         <f>'PEN-to-EPG'!N5 * Gains!$E$7</f>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="Z48">
         <f>'PEN-to-EPG'!O5 * Gains!$E$7</f>
@@ -19612,7 +19612,7 @@
       </c>
       <c r="R49">
         <f>'PEN-to-EPG'!G6 * Gains!$E$7</f>
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="S49">
         <f>'PEN-to-EPG'!H6 * Gains!$E$7</f>
@@ -19644,7 +19644,7 @@
       </c>
       <c r="Z49">
         <f>'PEN-to-EPG'!O6 * Gains!$E$7</f>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AA49">
         <f>'PEN-to-EPG'!P6 * Gains!$E$7</f>
@@ -20003,7 +20003,7 @@
       </c>
       <c r="S50">
         <f>'PEN-to-EPG'!H7 * Gains!$E$7</f>
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="T50">
         <f>'PEN-to-EPG'!I7 * Gains!$E$7</f>
@@ -20035,7 +20035,7 @@
       </c>
       <c r="AA50">
         <f>'PEN-to-EPG'!P7 * Gains!$E$7</f>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AB50" s="1">
         <v>0</v>
@@ -20362,7 +20362,7 @@
       </c>
       <c r="L51">
         <f>'PEN-to-EPG'!A8 * Gains!$E$7</f>
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="M51">
         <f>'PEN-to-EPG'!B8 * Gains!$E$7</f>
@@ -20394,7 +20394,7 @@
       </c>
       <c r="T51">
         <f>'PEN-to-EPG'!I8 * Gains!$E$7</f>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="U51">
         <f>'PEN-to-EPG'!J8 * Gains!$E$7</f>
@@ -20777,7 +20777,7 @@
       </c>
       <c r="S52">
         <f>'PEN-to-EPG'!H9 * Gains!$E$7</f>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="T52">
         <f>'PEN-to-EPG'!I9 * Gains!$E$7</f>
@@ -20809,7 +20809,7 @@
       </c>
       <c r="AA52">
         <f>'PEN-to-EPG'!P9 * Gains!$E$7</f>
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="AB52" s="1">
         <v>0</v>
@@ -21136,7 +21136,7 @@
       </c>
       <c r="L53">
         <f>'PEN-to-EPG'!A10 * Gains!$E$7</f>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="M53">
         <f>'PEN-to-EPG'!B10 * Gains!$E$7</f>
@@ -21168,7 +21168,7 @@
       </c>
       <c r="T53">
         <f>'PEN-to-EPG'!I10 * Gains!$E$7</f>
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="U53">
         <f>'PEN-to-EPG'!J10 * Gains!$E$7</f>
@@ -21527,7 +21527,7 @@
       </c>
       <c r="M54">
         <f>'PEN-to-EPG'!B11 * Gains!$E$7</f>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="N54">
         <f>'PEN-to-EPG'!C11 * Gains!$E$7</f>
@@ -21559,7 +21559,7 @@
       </c>
       <c r="U54">
         <f>'PEN-to-EPG'!J11 * Gains!$E$7</f>
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="V54">
         <f>'PEN-to-EPG'!K11 * Gains!$E$7</f>
@@ -21918,7 +21918,7 @@
       </c>
       <c r="N55">
         <f>'PEN-to-EPG'!C12 * Gains!$E$7</f>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="O55">
         <f>'PEN-to-EPG'!D12 * Gains!$E$7</f>
@@ -21950,7 +21950,7 @@
       </c>
       <c r="V55">
         <f>'PEN-to-EPG'!K12 * Gains!$E$7</f>
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="W55">
         <f>'PEN-to-EPG'!L12 * Gains!$E$7</f>
@@ -22309,7 +22309,7 @@
       </c>
       <c r="O56">
         <f>'PEN-to-EPG'!D13 * Gains!$E$7</f>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="P56">
         <f>'PEN-to-EPG'!E13 * Gains!$E$7</f>
@@ -22341,7 +22341,7 @@
       </c>
       <c r="W56">
         <f>'PEN-to-EPG'!L13 * Gains!$E$7</f>
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="X56">
         <f>'PEN-to-EPG'!M13 * Gains!$E$7</f>
@@ -22700,7 +22700,7 @@
       </c>
       <c r="P57">
         <f>'PEN-to-EPG'!E14 * Gains!$E$7</f>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="Q57">
         <f>'PEN-to-EPG'!F14 * Gains!$E$7</f>
@@ -22732,7 +22732,7 @@
       </c>
       <c r="X57">
         <f>'PEN-to-EPG'!M14 * Gains!$E$7</f>
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="Y57">
         <f>'PEN-to-EPG'!N14 * Gains!$E$7</f>
@@ -23091,7 +23091,7 @@
       </c>
       <c r="Q58">
         <f>'PEN-to-EPG'!F15 * Gains!$E$7</f>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="R58">
         <f>'PEN-to-EPG'!G15 * Gains!$E$7</f>
@@ -23123,7 +23123,7 @@
       </c>
       <c r="Y58">
         <f>'PEN-to-EPG'!N15 * Gains!$E$7</f>
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="Z58">
         <f>'PEN-to-EPG'!O15 * Gains!$E$7</f>
@@ -23482,7 +23482,7 @@
       </c>
       <c r="R59">
         <f>'PEN-to-EPG'!G16 * Gains!$E$7</f>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="S59">
         <f>'PEN-to-EPG'!H16 * Gains!$E$7</f>
@@ -23514,7 +23514,7 @@
       </c>
       <c r="Z59">
         <f>'PEN-to-EPG'!O16 * Gains!$E$7</f>
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="AA59">
         <f>'PEN-to-EPG'!P16 * Gains!$E$7</f>
@@ -49904,7 +49904,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P16" sqref="A1:P16"/>
+      <selection activeCell="P40" sqref="P40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -50731,7 +50731,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:P16"/>
+      <selection activeCell="S38" sqref="S38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -51558,7 +51558,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P36" sqref="P36"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -52385,7 +52385,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -54562,8 +54562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7FFBB60-C9AF-470A-B711-59681D0A1768}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -54725,7 +54725,7 @@
         <v>12</v>
       </c>
       <c r="G5">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="H5" t="s">
         <v>12</v>
@@ -54789,7 +54789,7 @@
         <v>12</v>
       </c>
       <c r="E7">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -54972,7 +54972,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -55399,109 +55399,109 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="J2">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="K2">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="L2">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="M2">
         <v>1</v>
       </c>
-      <c r="F2">
+      <c r="N2">
         <v>1</v>
       </c>
-      <c r="G2">
+      <c r="O2">
         <v>1</v>
       </c>
-      <c r="H2">
+      <c r="P2">
         <v>1</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -56430,7 +56430,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -56464,7 +56464,7 @@
         <v>0</v>
       </c>
       <c r="J1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K1">
         <v>0</v>
@@ -56517,7 +56517,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -56570,7 +56570,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -56623,7 +56623,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -56676,7 +56676,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -56729,7 +56729,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -56782,7 +56782,7 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -56811,7 +56811,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -56858,7 +56858,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -56887,7 +56887,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -56940,7 +56940,7 @@
         <v>0</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -56993,7 +56993,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -57046,7 +57046,7 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -57099,7 +57099,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -57152,7 +57152,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -57205,7 +57205,7 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -57257,7 +57257,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P16" sqref="A1:P16"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -57985,10 +57985,10 @@
         <v>0</v>
       </c>
       <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
         <v>0.2</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -58035,13 +58035,13 @@
         <v>0</v>
       </c>
       <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
         <v>0.6</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>0.2</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>

--- a/Theorical_connectivity_matrices.xlsx
+++ b/Theorical_connectivity_matrices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bclem\OneDrive\Documents\GitHub\Megalopta_CX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6393C71-66EF-4D66-87D5-506729724C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8443CDF1-E517-42FF-B4E1-C1A403691261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7440" yWindow="768" windowWidth="14556" windowHeight="8880" activeTab="2" xr2:uid="{093D5FC8-3546-4B30-B5BC-72449F880B19}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{093D5FC8-3546-4B30-B5BC-72449F880B19}"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="13" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="13">
   <si>
     <t>TS</t>
   </si>
@@ -459,8 +459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D70C54ED-CF8A-40EC-8537-9A05E3479CC3}">
   <dimension ref="A1:DS123"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AX22" sqref="AX22"/>
+    <sheetView topLeftCell="AP29" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="BG66" sqref="BG66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4805,72 +4805,72 @@
         <v>0</v>
       </c>
       <c r="AB12">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!A1</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!A1 * Gains!$F$5</f>
         <v>1</v>
       </c>
       <c r="AC12">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!B1</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!B1 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AD12">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!C1</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!C1 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AE12">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!D1</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!D1 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AF12">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!E1</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!E1 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AG12">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!F1</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!F1 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AH12">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!G1</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!G1 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AI12">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!H1</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!H1 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AJ12">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!I1</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!I1 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AK12">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!J1</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!J1 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AL12">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!K1</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!K1 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AM12">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!L1</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!L1 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AN12">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!M1</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!M1 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AO12">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!N1</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!N1 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AP12">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!O1</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!O1 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AQ12">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!P1</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!P1 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AR12">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!A1 * Gains!$G$5</f>
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="AS12">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!B1 * Gains!$G$5</f>
@@ -4933,67 +4933,67 @@
         <v>0</v>
       </c>
       <c r="BH12">
-        <f>'EPG-to-d7'!A1</f>
+        <f>'EPG-to-d7'!A1 * Gains!$H$5</f>
         <v>1</v>
       </c>
       <c r="BI12">
-        <f>'EPG-to-d7'!B1</f>
+        <f>'EPG-to-d7'!B1 * Gains!$H$5</f>
         <v>0.6</v>
       </c>
       <c r="BJ12">
-        <f>'EPG-to-d7'!C1</f>
+        <f>'EPG-to-d7'!C1 * Gains!$H$5</f>
         <v>0.2</v>
       </c>
       <c r="BK12">
-        <f>'EPG-to-d7'!D1</f>
+        <f>'EPG-to-d7'!D1 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BL12">
-        <f>'EPG-to-d7'!E1</f>
+        <f>'EPG-to-d7'!E1 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BM12">
-        <f>'EPG-to-d7'!F1</f>
+        <f>'EPG-to-d7'!F1 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BN12">
-        <f>'EPG-to-d7'!G1</f>
+        <f>'EPG-to-d7'!G1 * Gains!$H$5</f>
         <v>0.2</v>
       </c>
       <c r="BO12">
-        <f>'EPG-to-d7'!H1</f>
+        <f>'EPG-to-d7'!H1 * Gains!$H$5</f>
         <v>0.6</v>
       </c>
       <c r="BP12">
-        <f>'EPG-to-d7'!I1</f>
+        <f>'EPG-to-d7'!I1 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BQ12">
-        <f>'EPG-to-d7'!J1</f>
+        <f>'EPG-to-d7'!J1 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BR12">
-        <f>'EPG-to-d7'!K1</f>
+        <f>'EPG-to-d7'!K1 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BS12">
-        <f>'EPG-to-d7'!L1</f>
+        <f>'EPG-to-d7'!L1 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BT12">
-        <f>'EPG-to-d7'!M1</f>
+        <f>'EPG-to-d7'!M1 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BU12">
-        <f>'EPG-to-d7'!N1</f>
+        <f>'EPG-to-d7'!N1 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BV12">
-        <f>'EPG-to-d7'!O1</f>
+        <f>'EPG-to-d7'!O1 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BW12">
-        <f>'EPG-to-d7'!P1</f>
+        <f>'EPG-to-d7'!P1 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BX12" s="3">
@@ -5224,67 +5224,67 @@
         <v>0</v>
       </c>
       <c r="AB13">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!A2</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!A2 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AC13">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!B2</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!B2 * Gains!$F$5</f>
         <v>1</v>
       </c>
       <c r="AD13">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!C2</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!C2 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AE13">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!D2</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!D2 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AF13">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!E2</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!E2 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AG13">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!F2</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!F2 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AH13">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!G2</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!G2 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AI13">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!H2</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!H2 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AJ13">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!I2</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!I2 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AK13">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!J2</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!J2 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AL13">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!K2</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!K2 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AM13">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!L2</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!L2 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AN13">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!M2</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!M2 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AO13">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!N2</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!N2 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AP13">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!O2</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!O2 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AQ13">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!P2</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!P2 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AR13">
@@ -5293,7 +5293,7 @@
       </c>
       <c r="AS13">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!B2 * Gains!$G$5</f>
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="AT13">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!C2 * Gains!$G$5</f>
@@ -5352,67 +5352,67 @@
         <v>0</v>
       </c>
       <c r="BH13">
-        <f>'EPG-to-d7'!A2</f>
+        <f>'EPG-to-d7'!A2 * Gains!$H$5</f>
         <v>0.6</v>
       </c>
       <c r="BI13">
-        <f>'EPG-to-d7'!B2</f>
+        <f>'EPG-to-d7'!B2 * Gains!$H$5</f>
         <v>1</v>
       </c>
       <c r="BJ13">
-        <f>'EPG-to-d7'!C2</f>
+        <f>'EPG-to-d7'!C2 * Gains!$H$5</f>
         <v>0.6</v>
       </c>
       <c r="BK13">
-        <f>'EPG-to-d7'!D2</f>
+        <f>'EPG-to-d7'!D2 * Gains!$H$5</f>
         <v>0.2</v>
       </c>
       <c r="BL13">
-        <f>'EPG-to-d7'!E2</f>
+        <f>'EPG-to-d7'!E2 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BM13">
-        <f>'EPG-to-d7'!F2</f>
+        <f>'EPG-to-d7'!F2 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BN13">
-        <f>'EPG-to-d7'!G2</f>
+        <f>'EPG-to-d7'!G2 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BO13">
-        <f>'EPG-to-d7'!H2</f>
+        <f>'EPG-to-d7'!H2 * Gains!$H$5</f>
         <v>0.2</v>
       </c>
       <c r="BP13">
-        <f>'EPG-to-d7'!I2</f>
+        <f>'EPG-to-d7'!I2 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BQ13">
-        <f>'EPG-to-d7'!J2</f>
+        <f>'EPG-to-d7'!J2 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BR13">
-        <f>'EPG-to-d7'!K2</f>
+        <f>'EPG-to-d7'!K2 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BS13">
-        <f>'EPG-to-d7'!L2</f>
+        <f>'EPG-to-d7'!L2 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BT13">
-        <f>'EPG-to-d7'!M2</f>
+        <f>'EPG-to-d7'!M2 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BU13">
-        <f>'EPG-to-d7'!N2</f>
+        <f>'EPG-to-d7'!N2 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BV13">
-        <f>'EPG-to-d7'!O2</f>
+        <f>'EPG-to-d7'!O2 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BW13">
-        <f>'EPG-to-d7'!P2</f>
+        <f>'EPG-to-d7'!P2 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BX13" s="3">
@@ -5643,67 +5643,67 @@
         <v>0</v>
       </c>
       <c r="AB14">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!A3</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!A3 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AC14">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!B3</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!B3 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AD14">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!C3</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!C3 * Gains!$F$5</f>
         <v>1</v>
       </c>
       <c r="AE14">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!D3</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!D3 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AF14">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!E3</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!E3 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AG14">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!F3</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!F3 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AH14">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!G3</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!G3 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AI14">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!H3</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!H3 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AJ14">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!I3</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!I3 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AK14">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!J3</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!J3 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AL14">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!K3</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!K3 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AM14">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!L3</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!L3 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AN14">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!M3</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!M3 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AO14">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!N3</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!N3 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AP14">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!O3</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!O3 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AQ14">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!P3</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!P3 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AR14">
@@ -5716,7 +5716,7 @@
       </c>
       <c r="AT14">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!C3 * Gains!$G$5</f>
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="AU14">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!D3 * Gains!$G$5</f>
@@ -5771,67 +5771,67 @@
         <v>0</v>
       </c>
       <c r="BH14">
-        <f>'EPG-to-d7'!A3</f>
+        <f>'EPG-to-d7'!A3 * Gains!$H$5</f>
         <v>0.2</v>
       </c>
       <c r="BI14">
-        <f>'EPG-to-d7'!B3</f>
+        <f>'EPG-to-d7'!B3 * Gains!$H$5</f>
         <v>0.6</v>
       </c>
       <c r="BJ14">
-        <f>'EPG-to-d7'!C3</f>
+        <f>'EPG-to-d7'!C3 * Gains!$H$5</f>
         <v>1</v>
       </c>
       <c r="BK14">
-        <f>'EPG-to-d7'!D3</f>
+        <f>'EPG-to-d7'!D3 * Gains!$H$5</f>
         <v>0.6</v>
       </c>
       <c r="BL14">
-        <f>'EPG-to-d7'!E3</f>
+        <f>'EPG-to-d7'!E3 * Gains!$H$5</f>
         <v>0.2</v>
       </c>
       <c r="BM14">
-        <f>'EPG-to-d7'!F3</f>
+        <f>'EPG-to-d7'!F3 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BN14">
-        <f>'EPG-to-d7'!G3</f>
+        <f>'EPG-to-d7'!G3 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BO14">
-        <f>'EPG-to-d7'!H3</f>
+        <f>'EPG-to-d7'!H3 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BP14">
-        <f>'EPG-to-d7'!I3</f>
+        <f>'EPG-to-d7'!I3 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BQ14">
-        <f>'EPG-to-d7'!J3</f>
+        <f>'EPG-to-d7'!J3 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BR14">
-        <f>'EPG-to-d7'!K3</f>
+        <f>'EPG-to-d7'!K3 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BS14">
-        <f>'EPG-to-d7'!L3</f>
+        <f>'EPG-to-d7'!L3 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BT14">
-        <f>'EPG-to-d7'!M3</f>
+        <f>'EPG-to-d7'!M3 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BU14">
-        <f>'EPG-to-d7'!N3</f>
+        <f>'EPG-to-d7'!N3 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BV14">
-        <f>'EPG-to-d7'!O3</f>
+        <f>'EPG-to-d7'!O3 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BW14">
-        <f>'EPG-to-d7'!P3</f>
+        <f>'EPG-to-d7'!P3 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BX14" s="3">
@@ -6062,67 +6062,67 @@
         <v>0</v>
       </c>
       <c r="AB15">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!A4</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!A4 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AC15">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!B4</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!B4 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AD15">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!C4</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!C4 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AE15">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!D4</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!D4 * Gains!$F$5</f>
         <v>1</v>
       </c>
       <c r="AF15">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!E4</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!E4 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AG15">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!F4</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!F4 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AH15">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!G4</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!G4 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AI15">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!H4</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!H4 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AJ15">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!I4</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!I4 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AK15">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!J4</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!J4 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AL15">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!K4</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!K4 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AM15">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!L4</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!L4 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AN15">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!M4</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!M4 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AO15">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!N4</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!N4 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AP15">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!O4</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!O4 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AQ15">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!P4</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!P4 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AR15">
@@ -6139,7 +6139,7 @@
       </c>
       <c r="AU15">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!D4 * Gains!$G$5</f>
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="AV15">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!E4 * Gains!$G$5</f>
@@ -6190,67 +6190,67 @@
         <v>0</v>
       </c>
       <c r="BH15">
-        <f>'EPG-to-d7'!A4</f>
+        <f>'EPG-to-d7'!A4 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BI15">
-        <f>'EPG-to-d7'!B4</f>
+        <f>'EPG-to-d7'!B4 * Gains!$H$5</f>
         <v>0.2</v>
       </c>
       <c r="BJ15">
-        <f>'EPG-to-d7'!C4</f>
+        <f>'EPG-to-d7'!C4 * Gains!$H$5</f>
         <v>0.6</v>
       </c>
       <c r="BK15">
-        <f>'EPG-to-d7'!D4</f>
+        <f>'EPG-to-d7'!D4 * Gains!$H$5</f>
         <v>1</v>
       </c>
       <c r="BL15">
-        <f>'EPG-to-d7'!E4</f>
+        <f>'EPG-to-d7'!E4 * Gains!$H$5</f>
         <v>0.6</v>
       </c>
       <c r="BM15">
-        <f>'EPG-to-d7'!F4</f>
+        <f>'EPG-to-d7'!F4 * Gains!$H$5</f>
         <v>0.2</v>
       </c>
       <c r="BN15">
-        <f>'EPG-to-d7'!G4</f>
+        <f>'EPG-to-d7'!G4 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BO15">
-        <f>'EPG-to-d7'!H4</f>
+        <f>'EPG-to-d7'!H4 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BP15">
-        <f>'EPG-to-d7'!I4</f>
+        <f>'EPG-to-d7'!I4 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BQ15">
-        <f>'EPG-to-d7'!J4</f>
+        <f>'EPG-to-d7'!J4 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BR15">
-        <f>'EPG-to-d7'!K4</f>
+        <f>'EPG-to-d7'!K4 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BS15">
-        <f>'EPG-to-d7'!L4</f>
+        <f>'EPG-to-d7'!L4 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BT15">
-        <f>'EPG-to-d7'!M4</f>
+        <f>'EPG-to-d7'!M4 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BU15">
-        <f>'EPG-to-d7'!N4</f>
+        <f>'EPG-to-d7'!N4 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BV15">
-        <f>'EPG-to-d7'!O4</f>
+        <f>'EPG-to-d7'!O4 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BW15">
-        <f>'EPG-to-d7'!P4</f>
+        <f>'EPG-to-d7'!P4 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BX15" s="3">
@@ -6481,67 +6481,67 @@
         <v>0</v>
       </c>
       <c r="AB16">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!A5</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!A5 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AC16">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!B5</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!B5 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AD16">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!C5</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!C5 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AE16">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!D5</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!D5 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AF16">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!E5</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!E5 * Gains!$F$5</f>
         <v>1</v>
       </c>
       <c r="AG16">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!F5</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!F5 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AH16">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!G5</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!G5 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AI16">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!H5</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!H5 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AJ16">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!I5</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!I5 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AK16">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!J5</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!J5 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AL16">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!K5</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!K5 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AM16">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!L5</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!L5 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AN16">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!M5</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!M5 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AO16">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!N5</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!N5 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AP16">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!O5</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!O5 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AQ16">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!P5</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!P5 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AR16">
@@ -6562,7 +6562,7 @@
       </c>
       <c r="AV16">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!E5 * Gains!$G$5</f>
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="AW16">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!F5 * Gains!$G$5</f>
@@ -6609,67 +6609,67 @@
         <v>0</v>
       </c>
       <c r="BH16">
-        <f>'EPG-to-d7'!A5</f>
+        <f>'EPG-to-d7'!A5 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BI16">
-        <f>'EPG-to-d7'!B5</f>
+        <f>'EPG-to-d7'!B5 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BJ16">
-        <f>'EPG-to-d7'!C5</f>
+        <f>'EPG-to-d7'!C5 * Gains!$H$5</f>
         <v>0.2</v>
       </c>
       <c r="BK16">
-        <f>'EPG-to-d7'!D5</f>
+        <f>'EPG-to-d7'!D5 * Gains!$H$5</f>
         <v>0.6</v>
       </c>
       <c r="BL16">
-        <f>'EPG-to-d7'!E5</f>
+        <f>'EPG-to-d7'!E5 * Gains!$H$5</f>
         <v>1</v>
       </c>
       <c r="BM16">
-        <f>'EPG-to-d7'!F5</f>
+        <f>'EPG-to-d7'!F5 * Gains!$H$5</f>
         <v>0.6</v>
       </c>
       <c r="BN16">
-        <f>'EPG-to-d7'!G5</f>
+        <f>'EPG-to-d7'!G5 * Gains!$H$5</f>
         <v>0.2</v>
       </c>
       <c r="BO16">
-        <f>'EPG-to-d7'!H5</f>
+        <f>'EPG-to-d7'!H5 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BP16">
-        <f>'EPG-to-d7'!I5</f>
+        <f>'EPG-to-d7'!I5 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BQ16">
-        <f>'EPG-to-d7'!J5</f>
+        <f>'EPG-to-d7'!J5 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BR16">
-        <f>'EPG-to-d7'!K5</f>
+        <f>'EPG-to-d7'!K5 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BS16">
-        <f>'EPG-to-d7'!L5</f>
+        <f>'EPG-to-d7'!L5 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BT16">
-        <f>'EPG-to-d7'!M5</f>
+        <f>'EPG-to-d7'!M5 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BU16">
-        <f>'EPG-to-d7'!N5</f>
+        <f>'EPG-to-d7'!N5 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BV16">
-        <f>'EPG-to-d7'!O5</f>
+        <f>'EPG-to-d7'!O5 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BW16">
-        <f>'EPG-to-d7'!P5</f>
+        <f>'EPG-to-d7'!P5 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BX16" s="3">
@@ -6900,67 +6900,67 @@
         <v>0</v>
       </c>
       <c r="AB17">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!A6</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!A6 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AC17">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!B6</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!B6 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AD17">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!C6</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!C6 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AE17">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!D6</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!D6 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AF17">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!E6</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!E6 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AG17">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!F6</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!F6 * Gains!$F$5</f>
         <v>1</v>
       </c>
       <c r="AH17">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!G6</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!G6 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AI17">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!H6</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!H6 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AJ17">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!I6</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!I6 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AK17">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!J6</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!J6 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AL17">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!K6</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!K6 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AM17">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!L6</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!L6 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AN17">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!M6</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!M6 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AO17">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!N6</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!N6 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AP17">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!O6</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!O6 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AQ17">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!P6</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!P6 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AR17">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="AW17">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!F6 * Gains!$G$5</f>
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="AX17">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!G6 * Gains!$G$5</f>
@@ -7028,67 +7028,67 @@
         <v>0</v>
       </c>
       <c r="BH17">
-        <f>'EPG-to-d7'!A6</f>
+        <f>'EPG-to-d7'!A6 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BI17">
-        <f>'EPG-to-d7'!B6</f>
+        <f>'EPG-to-d7'!B6 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BJ17">
-        <f>'EPG-to-d7'!C6</f>
+        <f>'EPG-to-d7'!C6 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BK17">
-        <f>'EPG-to-d7'!D6</f>
+        <f>'EPG-to-d7'!D6 * Gains!$H$5</f>
         <v>0.2</v>
       </c>
       <c r="BL17">
-        <f>'EPG-to-d7'!E6</f>
+        <f>'EPG-to-d7'!E6 * Gains!$H$5</f>
         <v>0.6</v>
       </c>
       <c r="BM17">
-        <f>'EPG-to-d7'!F6</f>
+        <f>'EPG-to-d7'!F6 * Gains!$H$5</f>
         <v>1</v>
       </c>
       <c r="BN17">
-        <f>'EPG-to-d7'!G6</f>
+        <f>'EPG-to-d7'!G6 * Gains!$H$5</f>
         <v>0.6</v>
       </c>
       <c r="BO17">
-        <f>'EPG-to-d7'!H6</f>
+        <f>'EPG-to-d7'!H6 * Gains!$H$5</f>
         <v>0.2</v>
       </c>
       <c r="BP17">
-        <f>'EPG-to-d7'!I6</f>
+        <f>'EPG-to-d7'!I6 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BQ17">
-        <f>'EPG-to-d7'!J6</f>
+        <f>'EPG-to-d7'!J6 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BR17">
-        <f>'EPG-to-d7'!K6</f>
+        <f>'EPG-to-d7'!K6 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BS17">
-        <f>'EPG-to-d7'!L6</f>
+        <f>'EPG-to-d7'!L6 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BT17">
-        <f>'EPG-to-d7'!M6</f>
+        <f>'EPG-to-d7'!M6 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BU17">
-        <f>'EPG-to-d7'!N6</f>
+        <f>'EPG-to-d7'!N6 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BV17">
-        <f>'EPG-to-d7'!O6</f>
+        <f>'EPG-to-d7'!O6 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BW17">
-        <f>'EPG-to-d7'!P6</f>
+        <f>'EPG-to-d7'!P6 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BX17" s="3">
@@ -7319,67 +7319,67 @@
         <v>0</v>
       </c>
       <c r="AB18">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!A7</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!A7 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AC18">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!B7</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!B7 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AD18">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!C7</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!C7 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AE18">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!D7</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!D7 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AF18">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!E7</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!E7 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AG18">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!F7</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!F7 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AH18">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!G7</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!G7 * Gains!$F$5</f>
         <v>1</v>
       </c>
       <c r="AI18">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!H7</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!H7 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AJ18">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!I7</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!I7 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AK18">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!J7</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!J7 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AL18">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!K7</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!K7 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AM18">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!L7</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!L7 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AN18">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!M7</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!M7 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AO18">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!N7</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!N7 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AP18">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!O7</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!O7 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AQ18">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!P7</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!P7 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AR18">
@@ -7408,7 +7408,7 @@
       </c>
       <c r="AX18">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!G7 * Gains!$G$5</f>
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="AY18">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!H7 * Gains!$G$5</f>
@@ -7447,67 +7447,67 @@
         <v>0</v>
       </c>
       <c r="BH18">
-        <f>'EPG-to-d7'!A7</f>
+        <f>'EPG-to-d7'!A7 * Gains!$H$5</f>
         <v>0.2</v>
       </c>
       <c r="BI18">
-        <f>'EPG-to-d7'!B7</f>
+        <f>'EPG-to-d7'!B7 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BJ18">
-        <f>'EPG-to-d7'!C7</f>
+        <f>'EPG-to-d7'!C7 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BK18">
-        <f>'EPG-to-d7'!D7</f>
+        <f>'EPG-to-d7'!D7 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BL18">
-        <f>'EPG-to-d7'!E7</f>
+        <f>'EPG-to-d7'!E7 * Gains!$H$5</f>
         <v>0.2</v>
       </c>
       <c r="BM18">
-        <f>'EPG-to-d7'!F7</f>
+        <f>'EPG-to-d7'!F7 * Gains!$H$5</f>
         <v>0.6</v>
       </c>
       <c r="BN18">
-        <f>'EPG-to-d7'!G7</f>
+        <f>'EPG-to-d7'!G7 * Gains!$H$5</f>
         <v>1</v>
       </c>
       <c r="BO18">
-        <f>'EPG-to-d7'!H7</f>
+        <f>'EPG-to-d7'!H7 * Gains!$H$5</f>
         <v>0.6</v>
       </c>
       <c r="BP18">
-        <f>'EPG-to-d7'!I7</f>
+        <f>'EPG-to-d7'!I7 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BQ18">
-        <f>'EPG-to-d7'!J7</f>
+        <f>'EPG-to-d7'!J7 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BR18">
-        <f>'EPG-to-d7'!K7</f>
+        <f>'EPG-to-d7'!K7 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BS18">
-        <f>'EPG-to-d7'!L7</f>
+        <f>'EPG-to-d7'!L7 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BT18">
-        <f>'EPG-to-d7'!M7</f>
+        <f>'EPG-to-d7'!M7 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BU18">
-        <f>'EPG-to-d7'!N7</f>
+        <f>'EPG-to-d7'!N7 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BV18">
-        <f>'EPG-to-d7'!O7</f>
+        <f>'EPG-to-d7'!O7 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BW18">
-        <f>'EPG-to-d7'!P7</f>
+        <f>'EPG-to-d7'!P7 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BX18" s="3">
@@ -7738,67 +7738,67 @@
         <v>0</v>
       </c>
       <c r="AB19">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!A8</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!A8 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AC19">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!B8</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!B8 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AD19">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!C8</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!C8 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AE19">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!D8</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!D8 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AF19">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!E8</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!E8 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AG19">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!F8</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!F8 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AH19">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!G8</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!G8 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AI19">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!H8</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!H8 * Gains!$F$5</f>
         <v>1</v>
       </c>
       <c r="AJ19">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!I8</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!I8 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AK19">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!J8</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!J8 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AL19">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!K8</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!K8 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AM19">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!L8</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!L8 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AN19">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!M8</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!M8 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AO19">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!N8</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!N8 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AP19">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!O8</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!O8 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AQ19">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!P8</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!P8 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AR19">
@@ -7831,7 +7831,7 @@
       </c>
       <c r="AY19">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!H8 * Gains!$G$5</f>
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="AZ19">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!I8 * Gains!$G$5</f>
@@ -7866,67 +7866,67 @@
         <v>0</v>
       </c>
       <c r="BH19">
-        <f>'EPG-to-d7'!A8</f>
+        <f>'EPG-to-d7'!A8 * Gains!$H$5</f>
         <v>0.6</v>
       </c>
       <c r="BI19">
-        <f>'EPG-to-d7'!B8</f>
+        <f>'EPG-to-d7'!B8 * Gains!$H$5</f>
         <v>0.2</v>
       </c>
       <c r="BJ19">
-        <f>'EPG-to-d7'!C8</f>
+        <f>'EPG-to-d7'!C8 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BK19">
-        <f>'EPG-to-d7'!D8</f>
+        <f>'EPG-to-d7'!D8 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BL19">
-        <f>'EPG-to-d7'!E8</f>
+        <f>'EPG-to-d7'!E8 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BM19">
-        <f>'EPG-to-d7'!F8</f>
+        <f>'EPG-to-d7'!F8 * Gains!$H$5</f>
         <v>0.2</v>
       </c>
       <c r="BN19">
-        <f>'EPG-to-d7'!G8</f>
+        <f>'EPG-to-d7'!G8 * Gains!$H$5</f>
         <v>0.6</v>
       </c>
       <c r="BO19">
-        <f>'EPG-to-d7'!H8</f>
+        <f>'EPG-to-d7'!H8 * Gains!$H$5</f>
         <v>1</v>
       </c>
       <c r="BP19">
-        <f>'EPG-to-d7'!I8</f>
+        <f>'EPG-to-d7'!I8 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BQ19">
-        <f>'EPG-to-d7'!J8</f>
+        <f>'EPG-to-d7'!J8 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BR19">
-        <f>'EPG-to-d7'!K8</f>
+        <f>'EPG-to-d7'!K8 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BS19">
-        <f>'EPG-to-d7'!L8</f>
+        <f>'EPG-to-d7'!L8 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BT19">
-        <f>'EPG-to-d7'!M8</f>
+        <f>'EPG-to-d7'!M8 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BU19">
-        <f>'EPG-to-d7'!N8</f>
+        <f>'EPG-to-d7'!N8 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BV19">
-        <f>'EPG-to-d7'!O8</f>
+        <f>'EPG-to-d7'!O8 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BW19">
-        <f>'EPG-to-d7'!P8</f>
+        <f>'EPG-to-d7'!P8 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BX19" s="3">
@@ -8157,67 +8157,67 @@
         <v>0</v>
       </c>
       <c r="AB20">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!A9</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!A9 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AC20">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!B9</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!B9 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AD20">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!C9</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!C9 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AE20">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!D9</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!D9 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AF20">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!E9</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!E9 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AG20">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!F9</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!F9 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AH20">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!G9</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!G9 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AI20">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!H9</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!H9 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AJ20">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!I9</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!I9 * Gains!$F$5</f>
         <v>1</v>
       </c>
       <c r="AK20">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!J9</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!J9 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AL20">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!K9</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!K9 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AM20">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!L9</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!L9 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AN20">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!M9</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!M9 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AO20">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!N9</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!N9 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AP20">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!O9</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!O9 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AQ20">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!P9</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!P9 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AR20">
@@ -8254,7 +8254,7 @@
       </c>
       <c r="AZ20">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!I9 * Gains!$G$5</f>
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="BA20">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!J9 * Gains!$G$5</f>
@@ -8285,67 +8285,67 @@
         <v>0</v>
       </c>
       <c r="BH20">
-        <f>'EPG-to-d7'!A9</f>
+        <f>'EPG-to-d7'!A9 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BI20">
-        <f>'EPG-to-d7'!B9</f>
+        <f>'EPG-to-d7'!B9 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BJ20">
-        <f>'EPG-to-d7'!C9</f>
+        <f>'EPG-to-d7'!C9 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BK20">
-        <f>'EPG-to-d7'!D9</f>
+        <f>'EPG-to-d7'!D9 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BL20">
-        <f>'EPG-to-d7'!E9</f>
+        <f>'EPG-to-d7'!E9 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BM20">
-        <f>'EPG-to-d7'!F9</f>
+        <f>'EPG-to-d7'!F9 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BN20">
-        <f>'EPG-to-d7'!G9</f>
+        <f>'EPG-to-d7'!G9 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BO20">
-        <f>'EPG-to-d7'!H9</f>
+        <f>'EPG-to-d7'!H9 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BP20">
-        <f>'EPG-to-d7'!I9</f>
+        <f>'EPG-to-d7'!I9 * Gains!$H$5</f>
         <v>1</v>
       </c>
       <c r="BQ20">
-        <f>'EPG-to-d7'!J9</f>
+        <f>'EPG-to-d7'!J9 * Gains!$H$5</f>
         <v>0.6</v>
       </c>
       <c r="BR20">
-        <f>'EPG-to-d7'!K9</f>
+        <f>'EPG-to-d7'!K9 * Gains!$H$5</f>
         <v>0.2</v>
       </c>
       <c r="BS20">
-        <f>'EPG-to-d7'!L9</f>
+        <f>'EPG-to-d7'!L9 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BT20">
-        <f>'EPG-to-d7'!M9</f>
+        <f>'EPG-to-d7'!M9 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BU20">
-        <f>'EPG-to-d7'!N9</f>
+        <f>'EPG-to-d7'!N9 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BV20">
-        <f>'EPG-to-d7'!O9</f>
+        <f>'EPG-to-d7'!O9 * Gains!$H$5</f>
         <v>0.2</v>
       </c>
       <c r="BW20">
-        <f>'EPG-to-d7'!P9</f>
+        <f>'EPG-to-d7'!P9 * Gains!$H$5</f>
         <v>0.6</v>
       </c>
       <c r="BX20" s="3">
@@ -8576,67 +8576,67 @@
         <v>0</v>
       </c>
       <c r="AB21">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!A10</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!A10 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AC21">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!B10</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!B10 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AD21">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!C10</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!C10 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AE21">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!D10</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!D10 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AF21">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!E10</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!E10 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AG21">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!F10</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!F10 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AH21">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!G10</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!G10 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AI21">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!H10</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!H10 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AJ21">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!I10</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!I10 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AK21">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!J10</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!J10 * Gains!$F$5</f>
         <v>1</v>
       </c>
       <c r="AL21">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!K10</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!K10 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AM21">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!L10</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!L10 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AN21">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!M10</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!M10 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AO21">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!N10</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!N10 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AP21">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!O10</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!O10 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AQ21">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!P10</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!P10 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AR21">
@@ -8677,7 +8677,7 @@
       </c>
       <c r="BA21">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!J10 * Gains!$G$5</f>
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="BB21">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!K10 * Gains!$G$5</f>
@@ -8704,67 +8704,67 @@
         <v>0</v>
       </c>
       <c r="BH21">
-        <f>'EPG-to-d7'!A10</f>
+        <f>'EPG-to-d7'!A10 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BI21">
-        <f>'EPG-to-d7'!B10</f>
+        <f>'EPG-to-d7'!B10 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BJ21">
-        <f>'EPG-to-d7'!C10</f>
+        <f>'EPG-to-d7'!C10 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BK21">
-        <f>'EPG-to-d7'!D10</f>
+        <f>'EPG-to-d7'!D10 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BL21">
-        <f>'EPG-to-d7'!E10</f>
+        <f>'EPG-to-d7'!E10 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BM21">
-        <f>'EPG-to-d7'!F10</f>
+        <f>'EPG-to-d7'!F10 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BN21">
-        <f>'EPG-to-d7'!G10</f>
+        <f>'EPG-to-d7'!G10 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BO21">
-        <f>'EPG-to-d7'!H10</f>
+        <f>'EPG-to-d7'!H10 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BP21">
-        <f>'EPG-to-d7'!I10</f>
+        <f>'EPG-to-d7'!I10 * Gains!$H$5</f>
         <v>0.6</v>
       </c>
       <c r="BQ21">
-        <f>'EPG-to-d7'!J10</f>
+        <f>'EPG-to-d7'!J10 * Gains!$H$5</f>
         <v>1</v>
       </c>
       <c r="BR21">
-        <f>'EPG-to-d7'!K10</f>
+        <f>'EPG-to-d7'!K10 * Gains!$H$5</f>
         <v>0.6</v>
       </c>
       <c r="BS21">
-        <f>'EPG-to-d7'!L10</f>
+        <f>'EPG-to-d7'!L10 * Gains!$H$5</f>
         <v>0.2</v>
       </c>
       <c r="BT21">
-        <f>'EPG-to-d7'!M10</f>
+        <f>'EPG-to-d7'!M10 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BU21">
-        <f>'EPG-to-d7'!N10</f>
+        <f>'EPG-to-d7'!N10 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BV21">
-        <f>'EPG-to-d7'!O10</f>
+        <f>'EPG-to-d7'!O10 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BW21">
-        <f>'EPG-to-d7'!P10</f>
+        <f>'EPG-to-d7'!P10 * Gains!$H$5</f>
         <v>0.2</v>
       </c>
       <c r="BX21" s="3">
@@ -8995,66 +8995,67 @@
         <v>0</v>
       </c>
       <c r="AB22">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!A11</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!A11 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AC22">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!B11</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!B11 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AD22">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!C11</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!C11 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AE22">
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!D11 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AF22">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!E11</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!E11 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AG22">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!F11</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!F11 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AH22">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!G11</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!G11 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AI22">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!H11</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!H11 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AJ22">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!I11</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!I11 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AK22">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!J11</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!J11 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AL22">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!K11</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!K11 * Gains!$F$5</f>
         <v>1</v>
       </c>
       <c r="AM22">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!L11</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!L11 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AN22">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!M11</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!M11 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AO22">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!N11</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!N11 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AP22">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!O11</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!O11 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AQ22">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!P11</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!P11 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AR22">
@@ -9099,7 +9100,7 @@
       </c>
       <c r="BB22">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!K11 * Gains!$G$5</f>
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="BC22">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!L11 * Gains!$G$5</f>
@@ -9122,67 +9123,67 @@
         <v>0</v>
       </c>
       <c r="BH22">
-        <f>'EPG-to-d7'!A11</f>
+        <f>'EPG-to-d7'!A11 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BI22">
-        <f>'EPG-to-d7'!B11</f>
+        <f>'EPG-to-d7'!B11 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BJ22">
-        <f>'EPG-to-d7'!C11</f>
+        <f>'EPG-to-d7'!C11 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BK22">
-        <f>'EPG-to-d7'!D11</f>
+        <f>'EPG-to-d7'!D11 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BL22">
-        <f>'EPG-to-d7'!E11</f>
+        <f>'EPG-to-d7'!E11 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BM22">
-        <f>'EPG-to-d7'!F11</f>
+        <f>'EPG-to-d7'!F11 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BN22">
-        <f>'EPG-to-d7'!G11</f>
+        <f>'EPG-to-d7'!G11 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BO22">
-        <f>'EPG-to-d7'!H11</f>
+        <f>'EPG-to-d7'!H11 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BP22">
-        <f>'EPG-to-d7'!I11</f>
+        <f>'EPG-to-d7'!I11 * Gains!$H$5</f>
         <v>0.2</v>
       </c>
       <c r="BQ22">
-        <f>'EPG-to-d7'!J11</f>
+        <f>'EPG-to-d7'!J11 * Gains!$H$5</f>
         <v>0.6</v>
       </c>
       <c r="BR22">
-        <f>'EPG-to-d7'!K11</f>
+        <f>'EPG-to-d7'!K11 * Gains!$H$5</f>
         <v>1</v>
       </c>
       <c r="BS22">
-        <f>'EPG-to-d7'!L11</f>
+        <f>'EPG-to-d7'!L11 * Gains!$H$5</f>
         <v>0.6</v>
       </c>
       <c r="BT22">
-        <f>'EPG-to-d7'!M11</f>
+        <f>'EPG-to-d7'!M11 * Gains!$H$5</f>
         <v>0.2</v>
       </c>
       <c r="BU22">
-        <f>'EPG-to-d7'!N11</f>
+        <f>'EPG-to-d7'!N11 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BV22">
-        <f>'EPG-to-d7'!O11</f>
+        <f>'EPG-to-d7'!O11 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BW22">
-        <f>'EPG-to-d7'!P11</f>
+        <f>'EPG-to-d7'!P11 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BX22" s="3">
@@ -9413,67 +9414,67 @@
         <v>0</v>
       </c>
       <c r="AB23">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!A12</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!A12 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AC23">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!B12</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!B12 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AD23">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!C12</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!C12 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AE23">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!D12</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!D12 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AF23">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!E12</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!E12 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AG23">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!F12</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!F12 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AH23">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!G12</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!G12 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AI23">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!H12</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!H12 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AJ23">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!I12</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!I12 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AK23">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!J12</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!J12 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AL23">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!K12</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!K12 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AM23">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!L12</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!L12 * Gains!$F$5</f>
         <v>1</v>
       </c>
       <c r="AN23">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!M12</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!M12 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AO23">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!N12</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!N12 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AP23">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!O12</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!O12 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AQ23">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!P12</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!P12 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AR23">
@@ -9522,7 +9523,7 @@
       </c>
       <c r="BC23">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!L12 * Gains!$G$5</f>
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="BD23">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!M12 * Gains!$G$5</f>
@@ -9541,67 +9542,67 @@
         <v>0</v>
       </c>
       <c r="BH23">
-        <f>'EPG-to-d7'!A12</f>
+        <f>'EPG-to-d7'!A12 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BI23">
-        <f>'EPG-to-d7'!B12</f>
+        <f>'EPG-to-d7'!B12 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BJ23">
-        <f>'EPG-to-d7'!C12</f>
+        <f>'EPG-to-d7'!C12 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BK23">
-        <f>'EPG-to-d7'!D12</f>
+        <f>'EPG-to-d7'!D12 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BL23">
-        <f>'EPG-to-d7'!E12</f>
+        <f>'EPG-to-d7'!E12 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BM23">
-        <f>'EPG-to-d7'!F12</f>
+        <f>'EPG-to-d7'!F12 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BN23">
-        <f>'EPG-to-d7'!G12</f>
+        <f>'EPG-to-d7'!G12 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BO23">
-        <f>'EPG-to-d7'!H12</f>
+        <f>'EPG-to-d7'!H12 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BP23">
-        <f>'EPG-to-d7'!I12</f>
+        <f>'EPG-to-d7'!I12 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BQ23">
-        <f>'EPG-to-d7'!J12</f>
+        <f>'EPG-to-d7'!J12 * Gains!$H$5</f>
         <v>0.2</v>
       </c>
       <c r="BR23">
-        <f>'EPG-to-d7'!K12</f>
+        <f>'EPG-to-d7'!K12 * Gains!$H$5</f>
         <v>0.6</v>
       </c>
       <c r="BS23">
-        <f>'EPG-to-d7'!L12</f>
+        <f>'EPG-to-d7'!L12 * Gains!$H$5</f>
         <v>1</v>
       </c>
       <c r="BT23">
-        <f>'EPG-to-d7'!M12</f>
+        <f>'EPG-to-d7'!M12 * Gains!$H$5</f>
         <v>0.6</v>
       </c>
       <c r="BU23">
-        <f>'EPG-to-d7'!N12</f>
+        <f>'EPG-to-d7'!N12 * Gains!$H$5</f>
         <v>0.2</v>
       </c>
       <c r="BV23">
-        <f>'EPG-to-d7'!O12</f>
+        <f>'EPG-to-d7'!O12 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BW23">
-        <f>'EPG-to-d7'!P12</f>
+        <f>'EPG-to-d7'!P12 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BX23" s="3">
@@ -9832,67 +9833,67 @@
         <v>0</v>
       </c>
       <c r="AB24">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!A13</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!A13 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AC24">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!B13</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!B13 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AD24">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!C13</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!C13 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AE24">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!D13</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!D13 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AF24">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!E13</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!E13 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AG24">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!F13</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!F13 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AH24">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!G13</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!G13 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AI24">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!H13</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!H13 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AJ24">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!I13</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!I13 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AK24">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!J13</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!J13 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AL24">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!K13</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!K13 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AM24">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!L13</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!L13 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AN24">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!M13</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!M13 * Gains!$F$5</f>
         <v>1</v>
       </c>
       <c r="AO24">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!N13</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!N13 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AP24">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!O13</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!O13 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AQ24">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!P13</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!P13 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AR24">
@@ -9945,7 +9946,7 @@
       </c>
       <c r="BD24">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!M13 * Gains!$G$5</f>
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="BE24">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!N13 * Gains!$G$5</f>
@@ -9960,67 +9961,67 @@
         <v>0</v>
       </c>
       <c r="BH24">
-        <f>'EPG-to-d7'!A13</f>
+        <f>'EPG-to-d7'!A13 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BI24">
-        <f>'EPG-to-d7'!B13</f>
+        <f>'EPG-to-d7'!B13 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BJ24">
-        <f>'EPG-to-d7'!C13</f>
+        <f>'EPG-to-d7'!C13 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BK24">
-        <f>'EPG-to-d7'!D13</f>
+        <f>'EPG-to-d7'!D13 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BL24">
-        <f>'EPG-to-d7'!E13</f>
+        <f>'EPG-to-d7'!E13 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BM24">
-        <f>'EPG-to-d7'!F13</f>
+        <f>'EPG-to-d7'!F13 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BN24">
-        <f>'EPG-to-d7'!G13</f>
+        <f>'EPG-to-d7'!G13 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BO24">
-        <f>'EPG-to-d7'!H13</f>
+        <f>'EPG-to-d7'!H13 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BP24">
-        <f>'EPG-to-d7'!I13</f>
+        <f>'EPG-to-d7'!I13 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BQ24">
-        <f>'EPG-to-d7'!J13</f>
+        <f>'EPG-to-d7'!J13 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BR24">
-        <f>'EPG-to-d7'!K13</f>
+        <f>'EPG-to-d7'!K13 * Gains!$H$5</f>
         <v>0.2</v>
       </c>
       <c r="BS24">
-        <f>'EPG-to-d7'!L13</f>
+        <f>'EPG-to-d7'!L13 * Gains!$H$5</f>
         <v>0.6</v>
       </c>
       <c r="BT24">
-        <f>'EPG-to-d7'!M13</f>
+        <f>'EPG-to-d7'!M13 * Gains!$H$5</f>
         <v>1</v>
       </c>
       <c r="BU24">
-        <f>'EPG-to-d7'!N13</f>
+        <f>'EPG-to-d7'!N13 * Gains!$H$5</f>
         <v>0.6</v>
       </c>
       <c r="BV24">
-        <f>'EPG-to-d7'!O13</f>
+        <f>'EPG-to-d7'!O13 * Gains!$H$5</f>
         <v>0.2</v>
       </c>
       <c r="BW24">
-        <f>'EPG-to-d7'!P13</f>
+        <f>'EPG-to-d7'!P13 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BX24" s="3">
@@ -10251,67 +10252,67 @@
         <v>0</v>
       </c>
       <c r="AB25">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!A14</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!A14 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AC25">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!B14</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!B14 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AD25">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!C14</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!C14 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AE25">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!D14</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!D14 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AF25">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!E14</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!E14 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AG25">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!F14</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!F14 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AH25">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!G14</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!G14 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AI25">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!H14</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!H14 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AJ25">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!I14</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!I14 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AK25">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!J14</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!J14 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AL25">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!K14</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!K14 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AM25">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!L14</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!L14 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AN25">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!M14</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!M14 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AO25">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!N14</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!N14 * Gains!$F$5</f>
         <v>1</v>
       </c>
       <c r="AP25">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!O14</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!O14 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AQ25">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!P14</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!P14 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AR25">
@@ -10368,7 +10369,7 @@
       </c>
       <c r="BE25">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!N14 * Gains!$G$5</f>
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="BF25">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!O14 * Gains!$G$5</f>
@@ -10379,67 +10380,67 @@
         <v>0</v>
       </c>
       <c r="BH25">
-        <f>'EPG-to-d7'!A14</f>
+        <f>'EPG-to-d7'!A14 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BI25">
-        <f>'EPG-to-d7'!B14</f>
+        <f>'EPG-to-d7'!B14 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BJ25">
-        <f>'EPG-to-d7'!C14</f>
+        <f>'EPG-to-d7'!C14 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BK25">
-        <f>'EPG-to-d7'!D14</f>
+        <f>'EPG-to-d7'!D14 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BL25">
-        <f>'EPG-to-d7'!E14</f>
+        <f>'EPG-to-d7'!E14 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BM25">
-        <f>'EPG-to-d7'!F14</f>
+        <f>'EPG-to-d7'!F14 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BN25">
-        <f>'EPG-to-d7'!G14</f>
+        <f>'EPG-to-d7'!G14 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BO25">
-        <f>'EPG-to-d7'!H14</f>
+        <f>'EPG-to-d7'!H14 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BP25">
-        <f>'EPG-to-d7'!I14</f>
+        <f>'EPG-to-d7'!I14 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BQ25">
-        <f>'EPG-to-d7'!J14</f>
+        <f>'EPG-to-d7'!J14 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BR25">
-        <f>'EPG-to-d7'!K14</f>
+        <f>'EPG-to-d7'!K14 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BS25">
-        <f>'EPG-to-d7'!L14</f>
+        <f>'EPG-to-d7'!L14 * Gains!$H$5</f>
         <v>0.2</v>
       </c>
       <c r="BT25">
-        <f>'EPG-to-d7'!M14</f>
+        <f>'EPG-to-d7'!M14 * Gains!$H$5</f>
         <v>0.6</v>
       </c>
       <c r="BU25">
-        <f>'EPG-to-d7'!N14</f>
+        <f>'EPG-to-d7'!N14 * Gains!$H$5</f>
         <v>1</v>
       </c>
       <c r="BV25">
-        <f>'EPG-to-d7'!O14</f>
+        <f>'EPG-to-d7'!O14 * Gains!$H$5</f>
         <v>0.6</v>
       </c>
       <c r="BW25">
-        <f>'EPG-to-d7'!P14</f>
+        <f>'EPG-to-d7'!P14 * Gains!$H$5</f>
         <v>0.2</v>
       </c>
       <c r="BX25" s="3">
@@ -10670,67 +10671,67 @@
         <v>0</v>
       </c>
       <c r="AB26">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!A15</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!A15 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AC26">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!B15</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!B15 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AD26">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!C15</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!C15 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AE26">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!D15</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!D15 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AF26">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!E15</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!E15 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AG26">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!F15</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!F15 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AH26">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!G15</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!G15 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AI26">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!H15</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!H15 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AJ26">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!I15</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!I15 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AK26">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!J15</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!J15 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AL26">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!K15</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!K15 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AM26">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!L15</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!L15 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AN26">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!M15</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!M15 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AO26">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!N15</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!N15 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AP26">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!O15</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!O15 * Gains!$F$5</f>
         <v>1</v>
       </c>
       <c r="AQ26">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!P15</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!P15 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AR26">
@@ -10791,74 +10792,74 @@
       </c>
       <c r="BF26">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!O15 * Gains!$G$5</f>
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="BG26">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!P15 * Gains!$G$5</f>
         <v>0</v>
       </c>
       <c r="BH26">
-        <f>'EPG-to-d7'!A15</f>
+        <f>'EPG-to-d7'!A15 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BI26">
-        <f>'EPG-to-d7'!B15</f>
+        <f>'EPG-to-d7'!B15 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BJ26">
-        <f>'EPG-to-d7'!C15</f>
+        <f>'EPG-to-d7'!C15 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BK26">
-        <f>'EPG-to-d7'!D15</f>
+        <f>'EPG-to-d7'!D15 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BL26">
-        <f>'EPG-to-d7'!E15</f>
+        <f>'EPG-to-d7'!E15 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BM26">
-        <f>'EPG-to-d7'!F15</f>
+        <f>'EPG-to-d7'!F15 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BN26">
-        <f>'EPG-to-d7'!G15</f>
+        <f>'EPG-to-d7'!G15 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BO26">
-        <f>'EPG-to-d7'!H15</f>
+        <f>'EPG-to-d7'!H15 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BP26">
-        <f>'EPG-to-d7'!I15</f>
+        <f>'EPG-to-d7'!I15 * Gains!$H$5</f>
         <v>0.2</v>
       </c>
       <c r="BQ26">
-        <f>'EPG-to-d7'!J15</f>
+        <f>'EPG-to-d7'!J15 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BR26">
-        <f>'EPG-to-d7'!K15</f>
+        <f>'EPG-to-d7'!K15 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BS26">
-        <f>'EPG-to-d7'!L15</f>
+        <f>'EPG-to-d7'!L15 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BT26">
-        <f>'EPG-to-d7'!M15</f>
+        <f>'EPG-to-d7'!M15 * Gains!$H$5</f>
         <v>0.2</v>
       </c>
       <c r="BU26">
-        <f>'EPG-to-d7'!N15</f>
+        <f>'EPG-to-d7'!N15 * Gains!$H$5</f>
         <v>0.6</v>
       </c>
       <c r="BV26">
-        <f>'EPG-to-d7'!O15</f>
+        <f>'EPG-to-d7'!O15 * Gains!$H$5</f>
         <v>1</v>
       </c>
       <c r="BW26">
-        <f>'EPG-to-d7'!P15</f>
+        <f>'EPG-to-d7'!P15 * Gains!$H$5</f>
         <v>0.6</v>
       </c>
       <c r="BX26" s="3">
@@ -11089,67 +11090,67 @@
         <v>0</v>
       </c>
       <c r="AB27">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!A16</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!A16 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AC27">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!B16</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!B16 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AD27">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!C16</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!C16 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AE27">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!D16</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!D16 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AF27">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!E16</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!E16 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AG27">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!F16</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!F16 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AH27">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!G16</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!G16 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AI27">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!H16</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!H16 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AJ27">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!I16</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!I16 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AK27">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!J16</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!J16 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AL27">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!K16</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!K16 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AM27">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!L16</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!L16 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AN27">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!M16</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!M16 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AO27">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!N16</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!N16 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AP27">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!O16</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!O16 * Gains!$F$5</f>
         <v>0</v>
       </c>
       <c r="AQ27">
-        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!P16</f>
+        <f>'EPG-to-PEG-PEN_PEG-to-EPG'!P16 * Gains!$F$5</f>
         <v>1</v>
       </c>
       <c r="AR27">
@@ -11214,70 +11215,70 @@
       </c>
       <c r="BG27">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!P16 * Gains!$G$5</f>
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="BH27">
-        <f>'EPG-to-d7'!A16</f>
+        <f>'EPG-to-d7'!A16 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BI27">
-        <f>'EPG-to-d7'!B16</f>
+        <f>'EPG-to-d7'!B16 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BJ27">
-        <f>'EPG-to-d7'!C16</f>
+        <f>'EPG-to-d7'!C16 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BK27">
-        <f>'EPG-to-d7'!D16</f>
+        <f>'EPG-to-d7'!D16 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BL27">
-        <f>'EPG-to-d7'!E16</f>
+        <f>'EPG-to-d7'!E16 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BM27">
-        <f>'EPG-to-d7'!F16</f>
+        <f>'EPG-to-d7'!F16 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BN27">
-        <f>'EPG-to-d7'!G16</f>
+        <f>'EPG-to-d7'!G16 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BO27">
-        <f>'EPG-to-d7'!H16</f>
+        <f>'EPG-to-d7'!H16 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BP27">
-        <f>'EPG-to-d7'!I16</f>
+        <f>'EPG-to-d7'!I16 * Gains!$H$5</f>
         <v>0.6</v>
       </c>
       <c r="BQ27">
-        <f>'EPG-to-d7'!J16</f>
+        <f>'EPG-to-d7'!J16 * Gains!$H$5</f>
         <v>0.2</v>
       </c>
       <c r="BR27">
-        <f>'EPG-to-d7'!K16</f>
+        <f>'EPG-to-d7'!K16 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BS27">
-        <f>'EPG-to-d7'!L16</f>
+        <f>'EPG-to-d7'!L16 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BT27">
-        <f>'EPG-to-d7'!M16</f>
+        <f>'EPG-to-d7'!M16 * Gains!$H$5</f>
         <v>0</v>
       </c>
       <c r="BU27">
-        <f>'EPG-to-d7'!N16</f>
+        <f>'EPG-to-d7'!N16 * Gains!$H$5</f>
         <v>0.2</v>
       </c>
       <c r="BV27">
-        <f>'EPG-to-d7'!O16</f>
+        <f>'EPG-to-d7'!O16 * Gains!$H$5</f>
         <v>0.6</v>
       </c>
       <c r="BW27">
-        <f>'EPG-to-d7'!P16</f>
+        <f>'EPG-to-d7'!P16 * Gains!$H$5</f>
         <v>1</v>
       </c>
       <c r="BX27" s="3">
@@ -11461,7 +11462,7 @@
       </c>
       <c r="L28">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!A1 * Gains!$E$6</f>
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="M28">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!B1 * Gains!$E$6</f>
@@ -11852,7 +11853,7 @@
       </c>
       <c r="M29">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!B2 * Gains!$E$6</f>
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="N29">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!C2 * Gains!$E$6</f>
@@ -12243,7 +12244,7 @@
       </c>
       <c r="N30">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!C3 * Gains!$E$6</f>
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="O30">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!D3 * Gains!$E$6</f>
@@ -12634,7 +12635,7 @@
       </c>
       <c r="O31">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!D4 * Gains!$E$6</f>
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="P31">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!E4 * Gains!$E$6</f>
@@ -13025,7 +13026,7 @@
       </c>
       <c r="P32">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!E5 * Gains!$E$6</f>
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="Q32">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!F5 * Gains!$E$6</f>
@@ -13416,7 +13417,7 @@
       </c>
       <c r="Q33">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!F6 * Gains!$E$6</f>
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="R33">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!G6 * Gains!$E$6</f>
@@ -13807,7 +13808,7 @@
       </c>
       <c r="R34">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!G7 * Gains!$E$6</f>
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="S34">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!H7 * Gains!$E$6</f>
@@ -14198,7 +14199,7 @@
       </c>
       <c r="S35">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!H8 * Gains!$E$6</f>
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="T35">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!I8 * Gains!$E$6</f>
@@ -14589,7 +14590,7 @@
       </c>
       <c r="T36">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!I9 * Gains!$E$6</f>
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="U36">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!J9 * Gains!$E$6</f>
@@ -14980,7 +14981,7 @@
       </c>
       <c r="U37">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!J10 * Gains!$E$6</f>
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="V37">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!K10 * Gains!$E$6</f>
@@ -15371,7 +15372,7 @@
       </c>
       <c r="V38">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!K11 * Gains!$E$6</f>
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="W38">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!L11 * Gains!$E$6</f>
@@ -15762,7 +15763,7 @@
       </c>
       <c r="W39">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!L12 * Gains!$E$6</f>
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="X39">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!M12 * Gains!$E$6</f>
@@ -16153,7 +16154,7 @@
       </c>
       <c r="X40">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!M13 * Gains!$E$6</f>
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="Y40">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!N13 * Gains!$E$6</f>
@@ -16544,7 +16545,7 @@
       </c>
       <c r="Y41">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!N14 * Gains!$E$6</f>
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="Z41">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!O14 * Gains!$E$6</f>
@@ -16935,7 +16936,7 @@
       </c>
       <c r="Z42">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!O15 * Gains!$E$6</f>
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AA42">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!P15 * Gains!$E$6</f>
@@ -17326,7 +17327,7 @@
       </c>
       <c r="AA43">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!P16 * Gains!$E$6</f>
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AB43" s="3">
         <v>0</v>
@@ -17657,7 +17658,7 @@
       </c>
       <c r="M44">
         <f>'PEN-to-EPG'!B1 * Gains!$E$7</f>
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="N44">
         <f>'PEN-to-EPG'!C1 * Gains!$E$7</f>
@@ -17689,7 +17690,7 @@
       </c>
       <c r="U44">
         <f>'PEN-to-EPG'!J1 * Gains!$E$7</f>
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="V44">
         <f>'PEN-to-EPG'!K1 * Gains!$E$7</f>
@@ -18048,7 +18049,7 @@
       </c>
       <c r="N45">
         <f>'PEN-to-EPG'!C2 * Gains!$E$7</f>
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="O45">
         <f>'PEN-to-EPG'!D2 * Gains!$E$7</f>
@@ -18080,7 +18081,7 @@
       </c>
       <c r="V45">
         <f>'PEN-to-EPG'!K2 * Gains!$E$7</f>
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="W45">
         <f>'PEN-to-EPG'!L2 * Gains!$E$7</f>
@@ -18439,7 +18440,7 @@
       </c>
       <c r="O46">
         <f>'PEN-to-EPG'!D3 * Gains!$E$7</f>
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="P46">
         <f>'PEN-to-EPG'!E3 * Gains!$E$7</f>
@@ -18471,7 +18472,7 @@
       </c>
       <c r="W46">
         <f>'PEN-to-EPG'!L3 * Gains!$E$7</f>
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="X46">
         <f>'PEN-to-EPG'!M3 * Gains!$E$7</f>
@@ -18830,7 +18831,7 @@
       </c>
       <c r="P47">
         <f>'PEN-to-EPG'!E4 * Gains!$E$7</f>
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="Q47">
         <f>'PEN-to-EPG'!F4 * Gains!$E$7</f>
@@ -18862,7 +18863,7 @@
       </c>
       <c r="X47">
         <f>'PEN-to-EPG'!M4 * Gains!$E$7</f>
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="Y47">
         <f>'PEN-to-EPG'!N4 * Gains!$E$7</f>
@@ -19221,7 +19222,7 @@
       </c>
       <c r="Q48">
         <f>'PEN-to-EPG'!F5 * Gains!$E$7</f>
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="R48">
         <f>'PEN-to-EPG'!G5 * Gains!$E$7</f>
@@ -19253,7 +19254,7 @@
       </c>
       <c r="Y48">
         <f>'PEN-to-EPG'!N5 * Gains!$E$7</f>
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="Z48">
         <f>'PEN-to-EPG'!O5 * Gains!$E$7</f>
@@ -19612,7 +19613,7 @@
       </c>
       <c r="R49">
         <f>'PEN-to-EPG'!G6 * Gains!$E$7</f>
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="S49">
         <f>'PEN-to-EPG'!H6 * Gains!$E$7</f>
@@ -19644,7 +19645,7 @@
       </c>
       <c r="Z49">
         <f>'PEN-to-EPG'!O6 * Gains!$E$7</f>
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="AA49">
         <f>'PEN-to-EPG'!P6 * Gains!$E$7</f>
@@ -20003,7 +20004,7 @@
       </c>
       <c r="S50">
         <f>'PEN-to-EPG'!H7 * Gains!$E$7</f>
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="T50">
         <f>'PEN-to-EPG'!I7 * Gains!$E$7</f>
@@ -20035,7 +20036,7 @@
       </c>
       <c r="AA50">
         <f>'PEN-to-EPG'!P7 * Gains!$E$7</f>
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="AB50" s="1">
         <v>0</v>
@@ -20362,7 +20363,7 @@
       </c>
       <c r="L51">
         <f>'PEN-to-EPG'!A8 * Gains!$E$7</f>
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="M51">
         <f>'PEN-to-EPG'!B8 * Gains!$E$7</f>
@@ -20394,7 +20395,7 @@
       </c>
       <c r="T51">
         <f>'PEN-to-EPG'!I8 * Gains!$E$7</f>
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="U51">
         <f>'PEN-to-EPG'!J8 * Gains!$E$7</f>
@@ -20777,7 +20778,7 @@
       </c>
       <c r="S52">
         <f>'PEN-to-EPG'!H9 * Gains!$E$7</f>
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="T52">
         <f>'PEN-to-EPG'!I9 * Gains!$E$7</f>
@@ -20809,7 +20810,7 @@
       </c>
       <c r="AA52">
         <f>'PEN-to-EPG'!P9 * Gains!$E$7</f>
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="AB52" s="1">
         <v>0</v>
@@ -21136,7 +21137,7 @@
       </c>
       <c r="L53">
         <f>'PEN-to-EPG'!A10 * Gains!$E$7</f>
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="M53">
         <f>'PEN-to-EPG'!B10 * Gains!$E$7</f>
@@ -21168,7 +21169,7 @@
       </c>
       <c r="T53">
         <f>'PEN-to-EPG'!I10 * Gains!$E$7</f>
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="U53">
         <f>'PEN-to-EPG'!J10 * Gains!$E$7</f>
@@ -21527,7 +21528,7 @@
       </c>
       <c r="M54">
         <f>'PEN-to-EPG'!B11 * Gains!$E$7</f>
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="N54">
         <f>'PEN-to-EPG'!C11 * Gains!$E$7</f>
@@ -21559,7 +21560,7 @@
       </c>
       <c r="U54">
         <f>'PEN-to-EPG'!J11 * Gains!$E$7</f>
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="V54">
         <f>'PEN-to-EPG'!K11 * Gains!$E$7</f>
@@ -21918,7 +21919,7 @@
       </c>
       <c r="N55">
         <f>'PEN-to-EPG'!C12 * Gains!$E$7</f>
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="O55">
         <f>'PEN-to-EPG'!D12 * Gains!$E$7</f>
@@ -21950,7 +21951,7 @@
       </c>
       <c r="V55">
         <f>'PEN-to-EPG'!K12 * Gains!$E$7</f>
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="W55">
         <f>'PEN-to-EPG'!L12 * Gains!$E$7</f>
@@ -22309,7 +22310,7 @@
       </c>
       <c r="O56">
         <f>'PEN-to-EPG'!D13 * Gains!$E$7</f>
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="P56">
         <f>'PEN-to-EPG'!E13 * Gains!$E$7</f>
@@ -22341,7 +22342,7 @@
       </c>
       <c r="W56">
         <f>'PEN-to-EPG'!L13 * Gains!$E$7</f>
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="X56">
         <f>'PEN-to-EPG'!M13 * Gains!$E$7</f>
@@ -22700,7 +22701,7 @@
       </c>
       <c r="P57">
         <f>'PEN-to-EPG'!E14 * Gains!$E$7</f>
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="Q57">
         <f>'PEN-to-EPG'!F14 * Gains!$E$7</f>
@@ -22732,7 +22733,7 @@
       </c>
       <c r="X57">
         <f>'PEN-to-EPG'!M14 * Gains!$E$7</f>
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="Y57">
         <f>'PEN-to-EPG'!N14 * Gains!$E$7</f>
@@ -23091,7 +23092,7 @@
       </c>
       <c r="Q58">
         <f>'PEN-to-EPG'!F15 * Gains!$E$7</f>
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="R58">
         <f>'PEN-to-EPG'!G15 * Gains!$E$7</f>
@@ -23123,7 +23124,7 @@
       </c>
       <c r="Y58">
         <f>'PEN-to-EPG'!N15 * Gains!$E$7</f>
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="Z58">
         <f>'PEN-to-EPG'!O15 * Gains!$E$7</f>
@@ -23482,7 +23483,7 @@
       </c>
       <c r="R59">
         <f>'PEN-to-EPG'!G16 * Gains!$E$7</f>
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="S59">
         <f>'PEN-to-EPG'!H16 * Gains!$E$7</f>
@@ -23514,7 +23515,7 @@
       </c>
       <c r="Z59">
         <f>'PEN-to-EPG'!O16 * Gains!$E$7</f>
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="AA59">
         <f>'PEN-to-EPG'!P16 * Gains!$E$7</f>
@@ -23909,7 +23910,7 @@
       </c>
       <c r="AF60">
         <f>'d7-to-PEG-PEN-PFN-PFL'!E1 * Gains!$F$8</f>
-        <v>-0.2</v>
+        <v>-1</v>
       </c>
       <c r="AG60">
         <f>'d7-to-PEG-PEN-PFN-PFL'!F1 * Gains!$F$8</f>
@@ -23973,7 +23974,7 @@
       </c>
       <c r="AV60">
         <f>'d7-to-PEG-PEN-PFN-PFL'!E1 * Gains!$G$8</f>
-        <v>-0.2</v>
+        <v>-1</v>
       </c>
       <c r="AW60">
         <f>'d7-to-PEG-PEN-PFN-PFL'!F1 * Gains!$G$8</f>
@@ -24020,67 +24021,67 @@
         <v>0</v>
       </c>
       <c r="BH60">
-        <f>'d7-to-d7'!A1</f>
+        <f>'d7-to-d7'!A1 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BI60">
-        <f>'d7-to-d7'!B1</f>
+        <f>'d7-to-d7'!B1 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BJ60">
-        <f>'d7-to-d7'!C1</f>
+        <f>'d7-to-d7'!C1 * Gains!$H$8</f>
         <v>-0.5</v>
       </c>
       <c r="BK60">
-        <f>'d7-to-d7'!D1</f>
+        <f>'d7-to-d7'!D1 * Gains!$H$8</f>
         <v>-1</v>
       </c>
       <c r="BL60">
-        <f>'d7-to-d7'!E1</f>
+        <f>'d7-to-d7'!E1 * Gains!$H$8</f>
         <v>-1</v>
       </c>
       <c r="BM60">
-        <f>'d7-to-d7'!F1</f>
+        <f>'d7-to-d7'!F1 * Gains!$H$8</f>
         <v>-1</v>
       </c>
       <c r="BN60">
-        <f>'d7-to-d7'!G1</f>
+        <f>'d7-to-d7'!G1 * Gains!$H$8</f>
         <v>-0.5</v>
       </c>
       <c r="BO60">
-        <f>'d7-to-d7'!H1</f>
+        <f>'d7-to-d7'!H1 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BP60">
-        <f>'d7-to-d7'!I1</f>
+        <f>'d7-to-d7'!I1 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BQ60">
-        <f>'d7-to-d7'!J1</f>
+        <f>'d7-to-d7'!J1 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BR60">
-        <f>'d7-to-d7'!K1</f>
+        <f>'d7-to-d7'!K1 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BS60">
-        <f>'d7-to-d7'!L1</f>
+        <f>'d7-to-d7'!L1 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BT60">
-        <f>'d7-to-d7'!M1</f>
+        <f>'d7-to-d7'!M1 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BU60">
-        <f>'d7-to-d7'!N1</f>
+        <f>'d7-to-d7'!N1 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BV60">
-        <f>'d7-to-d7'!O1</f>
+        <f>'d7-to-d7'!O1 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BW60">
-        <f>'d7-to-d7'!P1</f>
+        <f>'d7-to-d7'!P1 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BX60">
@@ -24101,7 +24102,7 @@
       </c>
       <c r="CB60">
         <f>'d7-to-PEG-PEN-PFN-PFL'!E1 * Gains!$I$8</f>
-        <v>-0.2</v>
+        <v>-1</v>
       </c>
       <c r="CC60">
         <f>'d7-to-PEG-PEN-PFN-PFL'!F1 * Gains!$I$8</f>
@@ -24213,7 +24214,7 @@
       </c>
       <c r="DH60">
         <f>'d7-to-PEG-PEN-PFN-PFL'!E1 * Gains!$K$8</f>
-        <v>-0.6</v>
+        <v>-1</v>
       </c>
       <c r="DI60">
         <f>'d7-to-PEG-PEN-PFN-PFL'!F1 * Gains!$K$8</f>
@@ -24364,7 +24365,7 @@
       </c>
       <c r="AG61">
         <f>'d7-to-PEG-PEN-PFN-PFL'!F2 * Gains!$F$8</f>
-        <v>-0.2</v>
+        <v>-1</v>
       </c>
       <c r="AH61">
         <f>'d7-to-PEG-PEN-PFN-PFL'!G2 * Gains!$F$8</f>
@@ -24428,7 +24429,7 @@
       </c>
       <c r="AW61">
         <f>'d7-to-PEG-PEN-PFN-PFL'!F2 * Gains!$G$8</f>
-        <v>-0.2</v>
+        <v>-1</v>
       </c>
       <c r="AX61">
         <f>'d7-to-PEG-PEN-PFN-PFL'!G2 * Gains!$G$8</f>
@@ -24471,67 +24472,67 @@
         <v>0</v>
       </c>
       <c r="BH61">
-        <f>'d7-to-d7'!A2</f>
+        <f>'d7-to-d7'!A2 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BI61">
-        <f>'d7-to-d7'!B2</f>
+        <f>'d7-to-d7'!B2 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BJ61">
-        <f>'d7-to-d7'!C2</f>
+        <f>'d7-to-d7'!C2 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BK61">
-        <f>'d7-to-d7'!D2</f>
+        <f>'d7-to-d7'!D2 * Gains!$H$8</f>
         <v>-0.5</v>
       </c>
       <c r="BL61">
-        <f>'d7-to-d7'!E2</f>
+        <f>'d7-to-d7'!E2 * Gains!$H$8</f>
         <v>-1</v>
       </c>
       <c r="BM61">
-        <f>'d7-to-d7'!F2</f>
+        <f>'d7-to-d7'!F2 * Gains!$H$8</f>
         <v>-1</v>
       </c>
       <c r="BN61">
-        <f>'d7-to-d7'!G2</f>
+        <f>'d7-to-d7'!G2 * Gains!$H$8</f>
         <v>-1</v>
       </c>
       <c r="BO61">
-        <f>'d7-to-d7'!H2</f>
+        <f>'d7-to-d7'!H2 * Gains!$H$8</f>
         <v>-0.5</v>
       </c>
       <c r="BP61">
-        <f>'d7-to-d7'!I2</f>
+        <f>'d7-to-d7'!I2 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BQ61">
-        <f>'d7-to-d7'!J2</f>
+        <f>'d7-to-d7'!J2 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BR61">
-        <f>'d7-to-d7'!K2</f>
+        <f>'d7-to-d7'!K2 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BS61">
-        <f>'d7-to-d7'!L2</f>
+        <f>'d7-to-d7'!L2 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BT61">
-        <f>'d7-to-d7'!M2</f>
+        <f>'d7-to-d7'!M2 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BU61">
-        <f>'d7-to-d7'!N2</f>
+        <f>'d7-to-d7'!N2 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BV61">
-        <f>'d7-to-d7'!O2</f>
+        <f>'d7-to-d7'!O2 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BW61">
-        <f>'d7-to-d7'!P2</f>
+        <f>'d7-to-d7'!P2 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BX61">
@@ -24556,7 +24557,7 @@
       </c>
       <c r="CC61">
         <f>'d7-to-PEG-PEN-PFN-PFL'!F2 * Gains!$I$8</f>
-        <v>-0.2</v>
+        <v>-1</v>
       </c>
       <c r="CD61">
         <f>'d7-to-PEG-PEN-PFN-PFL'!G2 * Gains!$I$8</f>
@@ -24668,7 +24669,7 @@
       </c>
       <c r="DI61">
         <f>'d7-to-PEG-PEN-PFN-PFL'!F2 * Gains!$K$8</f>
-        <v>-0.6</v>
+        <v>-1</v>
       </c>
       <c r="DJ61">
         <f>'d7-to-PEG-PEN-PFN-PFL'!G2 * Gains!$K$8</f>
@@ -24819,7 +24820,7 @@
       </c>
       <c r="AH62">
         <f>'d7-to-PEG-PEN-PFN-PFL'!G3 * Gains!$F$8</f>
-        <v>-0.2</v>
+        <v>-1</v>
       </c>
       <c r="AI62">
         <f>'d7-to-PEG-PEN-PFN-PFL'!H3 * Gains!$F$8</f>
@@ -24883,7 +24884,7 @@
       </c>
       <c r="AX62">
         <f>'d7-to-PEG-PEN-PFN-PFL'!G3 * Gains!$G$8</f>
-        <v>-0.2</v>
+        <v>-1</v>
       </c>
       <c r="AY62">
         <f>'d7-to-PEG-PEN-PFN-PFL'!H3 * Gains!$G$8</f>
@@ -24922,67 +24923,67 @@
         <v>0</v>
       </c>
       <c r="BH62">
-        <f>'d7-to-d7'!A3</f>
+        <f>'d7-to-d7'!A3 * Gains!$H$8</f>
         <v>-0.5</v>
       </c>
       <c r="BI62">
-        <f>'d7-to-d7'!B3</f>
+        <f>'d7-to-d7'!B3 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BJ62">
-        <f>'d7-to-d7'!C3</f>
+        <f>'d7-to-d7'!C3 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BK62">
-        <f>'d7-to-d7'!D3</f>
+        <f>'d7-to-d7'!D3 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BL62">
-        <f>'d7-to-d7'!E3</f>
+        <f>'d7-to-d7'!E3 * Gains!$H$8</f>
         <v>-0.5</v>
       </c>
       <c r="BM62">
-        <f>'d7-to-d7'!F3</f>
+        <f>'d7-to-d7'!F3 * Gains!$H$8</f>
         <v>-1</v>
       </c>
       <c r="BN62">
-        <f>'d7-to-d7'!G3</f>
+        <f>'d7-to-d7'!G3 * Gains!$H$8</f>
         <v>-1</v>
       </c>
       <c r="BO62">
-        <f>'d7-to-d7'!H3</f>
+        <f>'d7-to-d7'!H3 * Gains!$H$8</f>
         <v>-1</v>
       </c>
       <c r="BP62">
-        <f>'d7-to-d7'!I3</f>
+        <f>'d7-to-d7'!I3 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BQ62">
-        <f>'d7-to-d7'!J3</f>
+        <f>'d7-to-d7'!J3 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BR62">
-        <f>'d7-to-d7'!K3</f>
+        <f>'d7-to-d7'!K3 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BS62">
-        <f>'d7-to-d7'!L3</f>
+        <f>'d7-to-d7'!L3 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BT62">
-        <f>'d7-to-d7'!M3</f>
+        <f>'d7-to-d7'!M3 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BU62">
-        <f>'d7-to-d7'!N3</f>
+        <f>'d7-to-d7'!N3 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BV62">
-        <f>'d7-to-d7'!O3</f>
+        <f>'d7-to-d7'!O3 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BW62">
-        <f>'d7-to-d7'!P3</f>
+        <f>'d7-to-d7'!P3 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BX62">
@@ -25011,7 +25012,7 @@
       </c>
       <c r="CD62">
         <f>'d7-to-PEG-PEN-PFN-PFL'!G3 * Gains!$I$8</f>
-        <v>-0.2</v>
+        <v>-1</v>
       </c>
       <c r="CE62">
         <f>'d7-to-PEG-PEN-PFN-PFL'!H3 * Gains!$I$8</f>
@@ -25123,7 +25124,7 @@
       </c>
       <c r="DJ62">
         <f>'d7-to-PEG-PEN-PFN-PFL'!G3 * Gains!$K$8</f>
-        <v>-0.6</v>
+        <v>-1</v>
       </c>
       <c r="DK62">
         <f>'d7-to-PEG-PEN-PFN-PFL'!H3 * Gains!$K$8</f>
@@ -25274,7 +25275,7 @@
       </c>
       <c r="AI63">
         <f>'d7-to-PEG-PEN-PFN-PFL'!H4 * Gains!$F$8</f>
-        <v>-0.2</v>
+        <v>-1</v>
       </c>
       <c r="AJ63">
         <f>'d7-to-PEG-PEN-PFN-PFL'!I4 * Gains!$F$8</f>
@@ -25338,7 +25339,7 @@
       </c>
       <c r="AY63">
         <f>'d7-to-PEG-PEN-PFN-PFL'!H4 * Gains!$G$8</f>
-        <v>-0.2</v>
+        <v>-1</v>
       </c>
       <c r="AZ63">
         <f>'d7-to-PEG-PEN-PFN-PFL'!I4 * Gains!$G$8</f>
@@ -25373,67 +25374,67 @@
         <v>0</v>
       </c>
       <c r="BH63">
-        <f>'d7-to-d7'!A4</f>
+        <f>'d7-to-d7'!A4 * Gains!$H$8</f>
         <v>-1</v>
       </c>
       <c r="BI63">
-        <f>'d7-to-d7'!B4</f>
+        <f>'d7-to-d7'!B4 * Gains!$H$8</f>
         <v>-0.5</v>
       </c>
       <c r="BJ63">
-        <f>'d7-to-d7'!C4</f>
+        <f>'d7-to-d7'!C4 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BK63">
-        <f>'d7-to-d7'!D4</f>
+        <f>'d7-to-d7'!D4 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BL63">
-        <f>'d7-to-d7'!E4</f>
+        <f>'d7-to-d7'!E4 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BM63">
-        <f>'d7-to-d7'!F4</f>
+        <f>'d7-to-d7'!F4 * Gains!$H$8</f>
         <v>-0.5</v>
       </c>
       <c r="BN63">
-        <f>'d7-to-d7'!G4</f>
+        <f>'d7-to-d7'!G4 * Gains!$H$8</f>
         <v>-1</v>
       </c>
       <c r="BO63">
-        <f>'d7-to-d7'!H4</f>
+        <f>'d7-to-d7'!H4 * Gains!$H$8</f>
         <v>-1</v>
       </c>
       <c r="BP63">
-        <f>'d7-to-d7'!I4</f>
+        <f>'d7-to-d7'!I4 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BQ63">
-        <f>'d7-to-d7'!J4</f>
+        <f>'d7-to-d7'!J4 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BR63">
-        <f>'d7-to-d7'!K4</f>
+        <f>'d7-to-d7'!K4 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BS63">
-        <f>'d7-to-d7'!L4</f>
+        <f>'d7-to-d7'!L4 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BT63">
-        <f>'d7-to-d7'!M4</f>
+        <f>'d7-to-d7'!M4 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BU63">
-        <f>'d7-to-d7'!N4</f>
+        <f>'d7-to-d7'!N4 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BV63">
-        <f>'d7-to-d7'!O4</f>
+        <f>'d7-to-d7'!O4 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BW63">
-        <f>'d7-to-d7'!P4</f>
+        <f>'d7-to-d7'!P4 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BX63">
@@ -25466,7 +25467,7 @@
       </c>
       <c r="CE63">
         <f>'d7-to-PEG-PEN-PFN-PFL'!H4 * Gains!$I$8</f>
-        <v>-0.2</v>
+        <v>-1</v>
       </c>
       <c r="CF63">
         <f>'d7-to-PEG-PEN-PFN-PFL'!I4 * Gains!$I$8</f>
@@ -25578,7 +25579,7 @@
       </c>
       <c r="DK63">
         <f>'d7-to-PEG-PEN-PFN-PFL'!H4 * Gains!$K$8</f>
-        <v>-0.6</v>
+        <v>-1</v>
       </c>
       <c r="DL63">
         <f>'d7-to-PEG-PEN-PFN-PFL'!I4 * Gains!$K$8</f>
@@ -25697,7 +25698,7 @@
       </c>
       <c r="AB64">
         <f>'d7-to-PEG-PEN-PFN-PFL'!A5 * Gains!$F$8</f>
-        <v>-0.2</v>
+        <v>-1</v>
       </c>
       <c r="AC64">
         <f>'d7-to-PEG-PEN-PFN-PFL'!B5 * Gains!$F$8</f>
@@ -25761,7 +25762,7 @@
       </c>
       <c r="AR64">
         <f>'d7-to-PEG-PEN-PFN-PFL'!A5 * Gains!$G$8</f>
-        <v>-0.2</v>
+        <v>-1</v>
       </c>
       <c r="AS64">
         <f>'d7-to-PEG-PEN-PFN-PFL'!B5 * Gains!$G$8</f>
@@ -25824,72 +25825,72 @@
         <v>0</v>
       </c>
       <c r="BH64">
-        <f>'d7-to-d7'!A5</f>
+        <f>'d7-to-d7'!A5 * Gains!$H$8</f>
         <v>-1</v>
       </c>
       <c r="BI64">
-        <f>'d7-to-d7'!B5</f>
+        <f>'d7-to-d7'!B5 * Gains!$H$8</f>
         <v>-1</v>
       </c>
       <c r="BJ64">
-        <f>'d7-to-d7'!C5</f>
+        <f>'d7-to-d7'!C5 * Gains!$H$8</f>
         <v>-0.5</v>
       </c>
       <c r="BK64">
-        <f>'d7-to-d7'!D5</f>
+        <f>'d7-to-d7'!D5 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BL64">
-        <f>'d7-to-d7'!E5</f>
+        <f>'d7-to-d7'!E5 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BM64">
-        <f>'d7-to-d7'!F5</f>
+        <f>'d7-to-d7'!F5 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BN64">
-        <f>'d7-to-d7'!G5</f>
+        <f>'d7-to-d7'!G5 * Gains!$H$8</f>
         <v>-0.5</v>
       </c>
       <c r="BO64">
-        <f>'d7-to-d7'!H5</f>
+        <f>'d7-to-d7'!H5 * Gains!$H$8</f>
         <v>-1</v>
       </c>
       <c r="BP64">
-        <f>'d7-to-d7'!I5</f>
+        <f>'d7-to-d7'!I5 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BQ64">
-        <f>'d7-to-d7'!J5</f>
+        <f>'d7-to-d7'!J5 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BR64">
-        <f>'d7-to-d7'!K5</f>
+        <f>'d7-to-d7'!K5 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BS64">
-        <f>'d7-to-d7'!L5</f>
+        <f>'d7-to-d7'!L5 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BT64">
-        <f>'d7-to-d7'!M5</f>
+        <f>'d7-to-d7'!M5 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BU64">
-        <f>'d7-to-d7'!N5</f>
+        <f>'d7-to-d7'!N5 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BV64">
-        <f>'d7-to-d7'!O5</f>
+        <f>'d7-to-d7'!O5 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BW64">
-        <f>'d7-to-d7'!P5</f>
+        <f>'d7-to-d7'!P5 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BX64">
         <f>'d7-to-PEG-PEN-PFN-PFL'!A5 * Gains!$I$8</f>
-        <v>-0.2</v>
+        <v>-1</v>
       </c>
       <c r="BY64">
         <f>'d7-to-PEG-PEN-PFN-PFL'!B5 * Gains!$I$8</f>
@@ -26001,7 +26002,7 @@
       </c>
       <c r="DD64">
         <f>'d7-to-PEG-PEN-PFN-PFL'!A5 * Gains!$K$8</f>
-        <v>-0.6</v>
+        <v>-1</v>
       </c>
       <c r="DE64">
         <f>'d7-to-PEG-PEN-PFN-PFL'!B5 * Gains!$K$8</f>
@@ -26152,7 +26153,7 @@
       </c>
       <c r="AC65">
         <f>'d7-to-PEG-PEN-PFN-PFL'!B6 * Gains!$F$8</f>
-        <v>-0.2</v>
+        <v>-1</v>
       </c>
       <c r="AD65">
         <f>'d7-to-PEG-PEN-PFN-PFL'!C6 * Gains!$F$8</f>
@@ -26216,7 +26217,7 @@
       </c>
       <c r="AS65">
         <f>'d7-to-PEG-PEN-PFN-PFL'!B6 * Gains!$G$8</f>
-        <v>-0.2</v>
+        <v>-1</v>
       </c>
       <c r="AT65">
         <f>'d7-to-PEG-PEN-PFN-PFL'!C6 * Gains!$G$8</f>
@@ -26275,67 +26276,67 @@
         <v>0</v>
       </c>
       <c r="BH65">
-        <f>'d7-to-d7'!A6</f>
+        <f>'d7-to-d7'!A6 * Gains!$H$8</f>
         <v>-1</v>
       </c>
       <c r="BI65">
-        <f>'d7-to-d7'!B6</f>
+        <f>'d7-to-d7'!B6 * Gains!$H$8</f>
         <v>-1</v>
       </c>
       <c r="BJ65">
-        <f>'d7-to-d7'!C6</f>
+        <f>'d7-to-d7'!C6 * Gains!$H$8</f>
         <v>-1</v>
       </c>
       <c r="BK65">
-        <f>'d7-to-d7'!D6</f>
+        <f>'d7-to-d7'!D6 * Gains!$H$8</f>
         <v>-0.5</v>
       </c>
       <c r="BL65">
-        <f>'d7-to-d7'!E6</f>
+        <f>'d7-to-d7'!E6 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BM65">
-        <f>'d7-to-d7'!F6</f>
+        <f>'d7-to-d7'!F6 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BN65">
-        <f>'d7-to-d7'!G6</f>
+        <f>'d7-to-d7'!G6 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BO65">
-        <f>'d7-to-d7'!H6</f>
+        <f>'d7-to-d7'!H6 * Gains!$H$8</f>
         <v>-0.5</v>
       </c>
       <c r="BP65">
-        <f>'d7-to-d7'!I6</f>
+        <f>'d7-to-d7'!I6 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BQ65">
-        <f>'d7-to-d7'!J6</f>
+        <f>'d7-to-d7'!J6 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BR65">
-        <f>'d7-to-d7'!K6</f>
+        <f>'d7-to-d7'!K6 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BS65">
-        <f>'d7-to-d7'!L6</f>
+        <f>'d7-to-d7'!L6 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BT65">
-        <f>'d7-to-d7'!M6</f>
+        <f>'d7-to-d7'!M6 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BU65">
-        <f>'d7-to-d7'!N6</f>
+        <f>'d7-to-d7'!N6 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BV65">
-        <f>'d7-to-d7'!O6</f>
+        <f>'d7-to-d7'!O6 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BW65">
-        <f>'d7-to-d7'!P6</f>
+        <f>'d7-to-d7'!P6 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BX65">
@@ -26344,7 +26345,7 @@
       </c>
       <c r="BY65">
         <f>'d7-to-PEG-PEN-PFN-PFL'!B6 * Gains!$I$8</f>
-        <v>-0.2</v>
+        <v>-1</v>
       </c>
       <c r="BZ65">
         <f>'d7-to-PEG-PEN-PFN-PFL'!C6 * Gains!$I$8</f>
@@ -26456,7 +26457,7 @@
       </c>
       <c r="DE65">
         <f>'d7-to-PEG-PEN-PFN-PFL'!B6 * Gains!$K$8</f>
-        <v>-0.6</v>
+        <v>-1</v>
       </c>
       <c r="DF65">
         <f>'d7-to-PEG-PEN-PFN-PFL'!C6 * Gains!$K$8</f>
@@ -26607,7 +26608,7 @@
       </c>
       <c r="AD66">
         <f>'d7-to-PEG-PEN-PFN-PFL'!C7 * Gains!$F$8</f>
-        <v>-0.2</v>
+        <v>-1</v>
       </c>
       <c r="AE66">
         <f>'d7-to-PEG-PEN-PFN-PFL'!D7 * Gains!$F$8</f>
@@ -26671,7 +26672,7 @@
       </c>
       <c r="AT66">
         <f>'d7-to-PEG-PEN-PFN-PFL'!C7 * Gains!$G$8</f>
-        <v>-0.2</v>
+        <v>-1</v>
       </c>
       <c r="AU66">
         <f>'d7-to-PEG-PEN-PFN-PFL'!D7 * Gains!$G$8</f>
@@ -26726,67 +26727,67 @@
         <v>0</v>
       </c>
       <c r="BH66">
-        <f>'d7-to-d7'!A7</f>
+        <f>'d7-to-d7'!A7 * Gains!$H$8</f>
         <v>-0.5</v>
       </c>
       <c r="BI66">
-        <f>'d7-to-d7'!B7</f>
+        <f>'d7-to-d7'!B7 * Gains!$H$8</f>
         <v>-1</v>
       </c>
       <c r="BJ66">
-        <f>'d7-to-d7'!C7</f>
+        <f>'d7-to-d7'!C7 * Gains!$H$8</f>
         <v>-1</v>
       </c>
       <c r="BK66">
-        <f>'d7-to-d7'!D7</f>
+        <f>'d7-to-d7'!D7 * Gains!$H$8</f>
         <v>-1</v>
       </c>
       <c r="BL66">
-        <f>'d7-to-d7'!E7</f>
+        <f>'d7-to-d7'!E7 * Gains!$H$8</f>
         <v>-0.5</v>
       </c>
       <c r="BM66">
-        <f>'d7-to-d7'!F7</f>
+        <f>'d7-to-d7'!F7 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BN66">
-        <f>'d7-to-d7'!G7</f>
+        <f>'d7-to-d7'!G7 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BO66">
-        <f>'d7-to-d7'!H7</f>
+        <f>'d7-to-d7'!H7 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BP66">
-        <f>'d7-to-d7'!I7</f>
+        <f>'d7-to-d7'!I7 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BQ66">
-        <f>'d7-to-d7'!J7</f>
+        <f>'d7-to-d7'!J7 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BR66">
-        <f>'d7-to-d7'!K7</f>
+        <f>'d7-to-d7'!K7 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BS66">
-        <f>'d7-to-d7'!L7</f>
+        <f>'d7-to-d7'!L7 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BT66">
-        <f>'d7-to-d7'!M7</f>
+        <f>'d7-to-d7'!M7 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BU66">
-        <f>'d7-to-d7'!N7</f>
+        <f>'d7-to-d7'!N7 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BV66">
-        <f>'d7-to-d7'!O7</f>
+        <f>'d7-to-d7'!O7 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BW66">
-        <f>'d7-to-d7'!P7</f>
+        <f>'d7-to-d7'!P7 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BX66">
@@ -26799,7 +26800,7 @@
       </c>
       <c r="BZ66">
         <f>'d7-to-PEG-PEN-PFN-PFL'!C7 * Gains!$I$8</f>
-        <v>-0.2</v>
+        <v>-1</v>
       </c>
       <c r="CA66">
         <f>'d7-to-PEG-PEN-PFN-PFL'!D7 * Gains!$I$8</f>
@@ -26911,7 +26912,7 @@
       </c>
       <c r="DF66">
         <f>'d7-to-PEG-PEN-PFN-PFL'!C7 * Gains!$K$8</f>
-        <v>-0.6</v>
+        <v>-1</v>
       </c>
       <c r="DG66">
         <f>'d7-to-PEG-PEN-PFN-PFL'!D7 * Gains!$K$8</f>
@@ -27062,7 +27063,7 @@
       </c>
       <c r="AE67">
         <f>'d7-to-PEG-PEN-PFN-PFL'!D8 * Gains!$F$8</f>
-        <v>-0.2</v>
+        <v>-1</v>
       </c>
       <c r="AF67">
         <f>'d7-to-PEG-PEN-PFN-PFL'!E8 * Gains!$F$8</f>
@@ -27126,7 +27127,7 @@
       </c>
       <c r="AU67">
         <f>'d7-to-PEG-PEN-PFN-PFL'!D8 * Gains!$G$8</f>
-        <v>-0.2</v>
+        <v>-1</v>
       </c>
       <c r="AV67">
         <f>'d7-to-PEG-PEN-PFN-PFL'!E8 * Gains!$G$8</f>
@@ -27177,67 +27178,67 @@
         <v>0</v>
       </c>
       <c r="BH67">
-        <f>'d7-to-d7'!A8</f>
+        <f>'d7-to-d7'!A8 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BI67">
-        <f>'d7-to-d7'!B8</f>
+        <f>'d7-to-d7'!B8 * Gains!$H$8</f>
         <v>-0.5</v>
       </c>
       <c r="BJ67">
-        <f>'d7-to-d7'!C8</f>
+        <f>'d7-to-d7'!C8 * Gains!$H$8</f>
         <v>-1</v>
       </c>
       <c r="BK67">
-        <f>'d7-to-d7'!D8</f>
+        <f>'d7-to-d7'!D8 * Gains!$H$8</f>
         <v>-1</v>
       </c>
       <c r="BL67">
-        <f>'d7-to-d7'!E8</f>
+        <f>'d7-to-d7'!E8 * Gains!$H$8</f>
         <v>-1</v>
       </c>
       <c r="BM67">
-        <f>'d7-to-d7'!F8</f>
+        <f>'d7-to-d7'!F8 * Gains!$H$8</f>
         <v>-0.5</v>
       </c>
       <c r="BN67">
-        <f>'d7-to-d7'!G8</f>
+        <f>'d7-to-d7'!G8 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BO67">
-        <f>'d7-to-d7'!H8</f>
+        <f>'d7-to-d7'!H8 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BP67">
-        <f>'d7-to-d7'!I8</f>
+        <f>'d7-to-d7'!I8 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BQ67">
-        <f>'d7-to-d7'!J8</f>
+        <f>'d7-to-d7'!J8 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BR67">
-        <f>'d7-to-d7'!K8</f>
+        <f>'d7-to-d7'!K8 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BS67">
-        <f>'d7-to-d7'!L8</f>
+        <f>'d7-to-d7'!L8 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BT67">
-        <f>'d7-to-d7'!M8</f>
+        <f>'d7-to-d7'!M8 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BU67">
-        <f>'d7-to-d7'!N8</f>
+        <f>'d7-to-d7'!N8 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BV67">
-        <f>'d7-to-d7'!O8</f>
+        <f>'d7-to-d7'!O8 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BW67">
-        <f>'d7-to-d7'!P8</f>
+        <f>'d7-to-d7'!P8 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BX67">
@@ -27254,7 +27255,7 @@
       </c>
       <c r="CA67">
         <f>'d7-to-PEG-PEN-PFN-PFL'!D8 * Gains!$I$8</f>
-        <v>-0.2</v>
+        <v>-1</v>
       </c>
       <c r="CB67">
         <f>'d7-to-PEG-PEN-PFN-PFL'!E8 * Gains!$I$8</f>
@@ -27366,7 +27367,7 @@
       </c>
       <c r="DG67">
         <f>'d7-to-PEG-PEN-PFN-PFL'!D8 * Gains!$K$8</f>
-        <v>-0.6</v>
+        <v>-1</v>
       </c>
       <c r="DH67">
         <f>'d7-to-PEG-PEN-PFN-PFL'!E8 * Gains!$K$8</f>
@@ -27549,7 +27550,7 @@
       </c>
       <c r="AN68">
         <f>'d7-to-PEG-PEN-PFN-PFL'!M9 * Gains!$F$8</f>
-        <v>-0.2</v>
+        <v>-1</v>
       </c>
       <c r="AO68">
         <f>'d7-to-PEG-PEN-PFN-PFL'!N9 * Gains!$F$8</f>
@@ -27613,7 +27614,7 @@
       </c>
       <c r="BD68">
         <f>'d7-to-PEG-PEN-PFN-PFL'!M9 * Gains!$G$8</f>
-        <v>-0.2</v>
+        <v>-1</v>
       </c>
       <c r="BE68">
         <f>'d7-to-PEG-PEN-PFN-PFL'!N9 * Gains!$G$8</f>
@@ -27628,67 +27629,67 @@
         <v>0</v>
       </c>
       <c r="BH68">
-        <f>'d7-to-d7'!A9</f>
+        <f>'d7-to-d7'!A9 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BI68">
-        <f>'d7-to-d7'!B9</f>
+        <f>'d7-to-d7'!B9 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BJ68">
-        <f>'d7-to-d7'!C9</f>
+        <f>'d7-to-d7'!C9 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BK68">
-        <f>'d7-to-d7'!D9</f>
+        <f>'d7-to-d7'!D9 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BL68">
-        <f>'d7-to-d7'!E9</f>
+        <f>'d7-to-d7'!E9 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BM68">
-        <f>'d7-to-d7'!F9</f>
+        <f>'d7-to-d7'!F9 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BN68">
-        <f>'d7-to-d7'!G9</f>
+        <f>'d7-to-d7'!G9 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BO68">
-        <f>'d7-to-d7'!H9</f>
+        <f>'d7-to-d7'!H9 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BP68">
-        <f>'d7-to-d7'!I9</f>
+        <f>'d7-to-d7'!I9 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BQ68">
-        <f>'d7-to-d7'!J9</f>
+        <f>'d7-to-d7'!J9 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BR68">
-        <f>'d7-to-d7'!K9</f>
+        <f>'d7-to-d7'!K9 * Gains!$H$8</f>
         <v>-0.5</v>
       </c>
       <c r="BS68">
-        <f>'d7-to-d7'!L9</f>
+        <f>'d7-to-d7'!L9 * Gains!$H$8</f>
         <v>-1</v>
       </c>
       <c r="BT68">
-        <f>'d7-to-d7'!M9</f>
+        <f>'d7-to-d7'!M9 * Gains!$H$8</f>
         <v>-1</v>
       </c>
       <c r="BU68">
-        <f>'d7-to-d7'!N9</f>
+        <f>'d7-to-d7'!N9 * Gains!$H$8</f>
         <v>-1</v>
       </c>
       <c r="BV68">
-        <f>'d7-to-d7'!O9</f>
+        <f>'d7-to-d7'!O9 * Gains!$H$8</f>
         <v>-0.5</v>
       </c>
       <c r="BW68">
-        <f>'d7-to-d7'!P9</f>
+        <f>'d7-to-d7'!P9 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BX68">
@@ -27741,7 +27742,7 @@
       </c>
       <c r="CJ68">
         <f>'d7-to-PEG-PEN-PFN-PFL'!M9 * Gains!$I$8</f>
-        <v>-0.2</v>
+        <v>-1</v>
       </c>
       <c r="CK68">
         <f>'d7-to-PEG-PEN-PFN-PFL'!N9 * Gains!$I$8</f>
@@ -27853,7 +27854,7 @@
       </c>
       <c r="DP68">
         <f>'d7-to-PEG-PEN-PFN-PFL'!M9 * Gains!$K$8</f>
-        <v>-0.6</v>
+        <v>-1</v>
       </c>
       <c r="DQ68">
         <f>'d7-to-PEG-PEN-PFN-PFL'!N9 * Gains!$K$8</f>
@@ -28004,7 +28005,7 @@
       </c>
       <c r="AO69">
         <f>'d7-to-PEG-PEN-PFN-PFL'!N10 * Gains!$F$8</f>
-        <v>-0.2</v>
+        <v>-1</v>
       </c>
       <c r="AP69">
         <f>'d7-to-PEG-PEN-PFN-PFL'!O10 * Gains!$F$8</f>
@@ -28068,7 +28069,7 @@
       </c>
       <c r="BE69">
         <f>'d7-to-PEG-PEN-PFN-PFL'!N10 * Gains!$G$8</f>
-        <v>-0.2</v>
+        <v>-1</v>
       </c>
       <c r="BF69">
         <f>'d7-to-PEG-PEN-PFN-PFL'!O10 * Gains!$G$8</f>
@@ -28079,67 +28080,67 @@
         <v>0</v>
       </c>
       <c r="BH69">
-        <f>'d7-to-d7'!A10</f>
+        <f>'d7-to-d7'!A10 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BI69">
-        <f>'d7-to-d7'!B10</f>
+        <f>'d7-to-d7'!B10 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BJ69">
-        <f>'d7-to-d7'!C10</f>
+        <f>'d7-to-d7'!C10 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BK69">
-        <f>'d7-to-d7'!D10</f>
+        <f>'d7-to-d7'!D10 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BL69">
-        <f>'d7-to-d7'!E10</f>
+        <f>'d7-to-d7'!E10 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BM69">
-        <f>'d7-to-d7'!F10</f>
+        <f>'d7-to-d7'!F10 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BN69">
-        <f>'d7-to-d7'!G10</f>
+        <f>'d7-to-d7'!G10 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BO69">
-        <f>'d7-to-d7'!H10</f>
+        <f>'d7-to-d7'!H10 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BP69">
-        <f>'d7-to-d7'!I10</f>
+        <f>'d7-to-d7'!I10 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BQ69">
-        <f>'d7-to-d7'!J10</f>
+        <f>'d7-to-d7'!J10 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BR69">
-        <f>'d7-to-d7'!K10</f>
+        <f>'d7-to-d7'!K10 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BS69">
-        <f>'d7-to-d7'!L10</f>
+        <f>'d7-to-d7'!L10 * Gains!$H$8</f>
         <v>-0.5</v>
       </c>
       <c r="BT69">
-        <f>'d7-to-d7'!M10</f>
+        <f>'d7-to-d7'!M10 * Gains!$H$8</f>
         <v>-1</v>
       </c>
       <c r="BU69">
-        <f>'d7-to-d7'!N10</f>
+        <f>'d7-to-d7'!N10 * Gains!$H$8</f>
         <v>-1</v>
       </c>
       <c r="BV69">
-        <f>'d7-to-d7'!O10</f>
+        <f>'d7-to-d7'!O10 * Gains!$H$8</f>
         <v>-1</v>
       </c>
       <c r="BW69">
-        <f>'d7-to-d7'!P10</f>
+        <f>'d7-to-d7'!P10 * Gains!$H$8</f>
         <v>-0.5</v>
       </c>
       <c r="BX69">
@@ -28196,7 +28197,7 @@
       </c>
       <c r="CK69">
         <f>'d7-to-PEG-PEN-PFN-PFL'!N10 * Gains!$I$8</f>
-        <v>-0.2</v>
+        <v>-1</v>
       </c>
       <c r="CL69">
         <f>'d7-to-PEG-PEN-PFN-PFL'!O10 * Gains!$I$8</f>
@@ -28308,7 +28309,7 @@
       </c>
       <c r="DQ69">
         <f>'d7-to-PEG-PEN-PFN-PFL'!N10 * Gains!$K$8</f>
-        <v>-0.6</v>
+        <v>-1</v>
       </c>
       <c r="DR69">
         <f>'d7-to-PEG-PEN-PFN-PFL'!O10 * Gains!$K$8</f>
@@ -28459,7 +28460,7 @@
       </c>
       <c r="AP70">
         <f>'d7-to-PEG-PEN-PFN-PFL'!O11 * Gains!$F$8</f>
-        <v>-0.2</v>
+        <v>-1</v>
       </c>
       <c r="AQ70">
         <f>'d7-to-PEG-PEN-PFN-PFL'!P11 * Gains!$F$8</f>
@@ -28523,74 +28524,74 @@
       </c>
       <c r="BF70">
         <f>'d7-to-PEG-PEN-PFN-PFL'!O11 * Gains!$G$8</f>
-        <v>-0.2</v>
+        <v>-1</v>
       </c>
       <c r="BG70">
         <f>'d7-to-PEG-PEN-PFN-PFL'!P11 * Gains!$G$8</f>
         <v>0</v>
       </c>
       <c r="BH70">
-        <f>'d7-to-d7'!A11</f>
+        <f>'d7-to-d7'!A11 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BI70">
-        <f>'d7-to-d7'!B11</f>
+        <f>'d7-to-d7'!B11 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BJ70">
-        <f>'d7-to-d7'!C11</f>
+        <f>'d7-to-d7'!C11 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BK70">
-        <f>'d7-to-d7'!D11</f>
+        <f>'d7-to-d7'!D11 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BL70">
-        <f>'d7-to-d7'!E11</f>
+        <f>'d7-to-d7'!E11 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BM70">
-        <f>'d7-to-d7'!F11</f>
+        <f>'d7-to-d7'!F11 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BN70">
-        <f>'d7-to-d7'!G11</f>
+        <f>'d7-to-d7'!G11 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BO70">
-        <f>'d7-to-d7'!H11</f>
+        <f>'d7-to-d7'!H11 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BP70">
-        <f>'d7-to-d7'!I11</f>
+        <f>'d7-to-d7'!I11 * Gains!$H$8</f>
         <v>-0.5</v>
       </c>
       <c r="BQ70">
-        <f>'d7-to-d7'!J11</f>
+        <f>'d7-to-d7'!J11 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BR70">
-        <f>'d7-to-d7'!K11</f>
+        <f>'d7-to-d7'!K11 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BS70">
-        <f>'d7-to-d7'!L11</f>
+        <f>'d7-to-d7'!L11 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BT70">
-        <f>'d7-to-d7'!M11</f>
+        <f>'d7-to-d7'!M11 * Gains!$H$8</f>
         <v>-0.5</v>
       </c>
       <c r="BU70">
-        <f>'d7-to-d7'!N11</f>
+        <f>'d7-to-d7'!N11 * Gains!$H$8</f>
         <v>-1</v>
       </c>
       <c r="BV70">
-        <f>'d7-to-d7'!O11</f>
+        <f>'d7-to-d7'!O11 * Gains!$H$8</f>
         <v>-1</v>
       </c>
       <c r="BW70">
-        <f>'d7-to-d7'!P11</f>
+        <f>'d7-to-d7'!P11 * Gains!$H$8</f>
         <v>-1</v>
       </c>
       <c r="BX70">
@@ -28651,7 +28652,7 @@
       </c>
       <c r="CL70">
         <f>'d7-to-PEG-PEN-PFN-PFL'!O11 * Gains!$I$8</f>
-        <v>-0.2</v>
+        <v>-1</v>
       </c>
       <c r="CM70">
         <f>'d7-to-PEG-PEN-PFN-PFL'!P11 * Gains!$I$8</f>
@@ -28763,7 +28764,7 @@
       </c>
       <c r="DR70">
         <f>'d7-to-PEG-PEN-PFN-PFL'!O11 * Gains!$K$8</f>
-        <v>-0.6</v>
+        <v>-1</v>
       </c>
       <c r="DS70">
         <f>'d7-to-PEG-PEN-PFN-PFL'!P11 * Gains!$K$8</f>
@@ -28914,7 +28915,7 @@
       </c>
       <c r="AQ71">
         <f>'d7-to-PEG-PEN-PFN-PFL'!P12 * Gains!$F$8</f>
-        <v>-0.2</v>
+        <v>-1</v>
       </c>
       <c r="AR71">
         <f>'d7-to-PEG-PEN-PFN-PFL'!A12 * Gains!$G$8</f>
@@ -28978,70 +28979,70 @@
       </c>
       <c r="BG71">
         <f>'d7-to-PEG-PEN-PFN-PFL'!P12 * Gains!$G$8</f>
-        <v>-0.2</v>
+        <v>-1</v>
       </c>
       <c r="BH71">
-        <f>'d7-to-d7'!A12</f>
+        <f>'d7-to-d7'!A12 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BI71">
-        <f>'d7-to-d7'!B12</f>
+        <f>'d7-to-d7'!B12 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BJ71">
-        <f>'d7-to-d7'!C12</f>
+        <f>'d7-to-d7'!C12 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BK71">
-        <f>'d7-to-d7'!D12</f>
+        <f>'d7-to-d7'!D12 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BL71">
-        <f>'d7-to-d7'!E12</f>
+        <f>'d7-to-d7'!E12 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BM71">
-        <f>'d7-to-d7'!F12</f>
+        <f>'d7-to-d7'!F12 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BN71">
-        <f>'d7-to-d7'!G12</f>
+        <f>'d7-to-d7'!G12 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BO71">
-        <f>'d7-to-d7'!H12</f>
+        <f>'d7-to-d7'!H12 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BP71">
-        <f>'d7-to-d7'!I12</f>
+        <f>'d7-to-d7'!I12 * Gains!$H$8</f>
         <v>-1</v>
       </c>
       <c r="BQ71">
-        <f>'d7-to-d7'!J12</f>
+        <f>'d7-to-d7'!J12 * Gains!$H$8</f>
         <v>-0.5</v>
       </c>
       <c r="BR71">
-        <f>'d7-to-d7'!K12</f>
+        <f>'d7-to-d7'!K12 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BS71">
-        <f>'d7-to-d7'!L12</f>
+        <f>'d7-to-d7'!L12 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BT71">
-        <f>'d7-to-d7'!M12</f>
+        <f>'d7-to-d7'!M12 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BU71">
-        <f>'d7-to-d7'!N12</f>
+        <f>'d7-to-d7'!N12 * Gains!$H$8</f>
         <v>-0.5</v>
       </c>
       <c r="BV71">
-        <f>'d7-to-d7'!O12</f>
+        <f>'d7-to-d7'!O12 * Gains!$H$8</f>
         <v>-1</v>
       </c>
       <c r="BW71">
-        <f>'d7-to-d7'!P12</f>
+        <f>'d7-to-d7'!P12 * Gains!$H$8</f>
         <v>-1</v>
       </c>
       <c r="BX71">
@@ -29106,7 +29107,7 @@
       </c>
       <c r="CM71">
         <f>'d7-to-PEG-PEN-PFN-PFL'!P12 * Gains!$I$8</f>
-        <v>-0.2</v>
+        <v>-1</v>
       </c>
       <c r="CN71" s="3">
         <v>0</v>
@@ -29218,7 +29219,7 @@
       </c>
       <c r="DS71">
         <f>'d7-to-PEG-PEN-PFN-PFL'!P12 * Gains!$K$8</f>
-        <v>-0.6</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:123" x14ac:dyDescent="0.25">
@@ -29337,7 +29338,7 @@
       </c>
       <c r="AJ72">
         <f>'d7-to-PEG-PEN-PFN-PFL'!I13 * Gains!$F$8</f>
-        <v>-0.2</v>
+        <v>-1</v>
       </c>
       <c r="AK72">
         <f>'d7-to-PEG-PEN-PFN-PFL'!J13 * Gains!$F$8</f>
@@ -29401,7 +29402,7 @@
       </c>
       <c r="AZ72">
         <f>'d7-to-PEG-PEN-PFN-PFL'!I13 * Gains!$G$8</f>
-        <v>-0.2</v>
+        <v>-1</v>
       </c>
       <c r="BA72">
         <f>'d7-to-PEG-PEN-PFN-PFL'!J13 * Gains!$G$8</f>
@@ -29432,67 +29433,67 @@
         <v>0</v>
       </c>
       <c r="BH72">
-        <f>'d7-to-d7'!A13</f>
+        <f>'d7-to-d7'!A13 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BI72">
-        <f>'d7-to-d7'!B13</f>
+        <f>'d7-to-d7'!B13 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BJ72">
-        <f>'d7-to-d7'!C13</f>
+        <f>'d7-to-d7'!C13 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BK72">
-        <f>'d7-to-d7'!D13</f>
+        <f>'d7-to-d7'!D13 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BL72">
-        <f>'d7-to-d7'!E13</f>
+        <f>'d7-to-d7'!E13 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BM72">
-        <f>'d7-to-d7'!F13</f>
+        <f>'d7-to-d7'!F13 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BN72">
-        <f>'d7-to-d7'!G13</f>
+        <f>'d7-to-d7'!G13 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BO72">
-        <f>'d7-to-d7'!H13</f>
+        <f>'d7-to-d7'!H13 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BP72">
-        <f>'d7-to-d7'!I13</f>
+        <f>'d7-to-d7'!I13 * Gains!$H$8</f>
         <v>-1</v>
       </c>
       <c r="BQ72">
-        <f>'d7-to-d7'!J13</f>
+        <f>'d7-to-d7'!J13 * Gains!$H$8</f>
         <v>-1</v>
       </c>
       <c r="BR72">
-        <f>'d7-to-d7'!K13</f>
+        <f>'d7-to-d7'!K13 * Gains!$H$8</f>
         <v>-0.5</v>
       </c>
       <c r="BS72">
-        <f>'d7-to-d7'!L13</f>
+        <f>'d7-to-d7'!L13 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BT72">
-        <f>'d7-to-d7'!M13</f>
+        <f>'d7-to-d7'!M13 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BU72">
-        <f>'d7-to-d7'!N13</f>
+        <f>'d7-to-d7'!N13 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BV72">
-        <f>'d7-to-d7'!O13</f>
+        <f>'d7-to-d7'!O13 * Gains!$H$8</f>
         <v>-0.5</v>
       </c>
       <c r="BW72">
-        <f>'d7-to-d7'!P13</f>
+        <f>'d7-to-d7'!P13 * Gains!$H$8</f>
         <v>-1</v>
       </c>
       <c r="BX72">
@@ -29529,7 +29530,7 @@
       </c>
       <c r="CF72">
         <f>'d7-to-PEG-PEN-PFN-PFL'!I13 * Gains!$I$8</f>
-        <v>-0.2</v>
+        <v>-1</v>
       </c>
       <c r="CG72">
         <f>'d7-to-PEG-PEN-PFN-PFL'!J13 * Gains!$I$8</f>
@@ -29641,7 +29642,7 @@
       </c>
       <c r="DL72">
         <f>'d7-to-PEG-PEN-PFN-PFL'!I13 * Gains!$K$8</f>
-        <v>-0.6</v>
+        <v>-1</v>
       </c>
       <c r="DM72">
         <f>'d7-to-PEG-PEN-PFN-PFL'!J13 * Gains!$K$8</f>
@@ -29792,7 +29793,7 @@
       </c>
       <c r="AK73">
         <f>'d7-to-PEG-PEN-PFN-PFL'!J14 * Gains!$F$8</f>
-        <v>-0.2</v>
+        <v>-1</v>
       </c>
       <c r="AL73">
         <f>'d7-to-PEG-PEN-PFN-PFL'!K14 * Gains!$F$8</f>
@@ -29856,7 +29857,7 @@
       </c>
       <c r="BA73">
         <f>'d7-to-PEG-PEN-PFN-PFL'!J14 * Gains!$G$8</f>
-        <v>-0.2</v>
+        <v>-1</v>
       </c>
       <c r="BB73">
         <f>'d7-to-PEG-PEN-PFN-PFL'!K14 * Gains!$G$8</f>
@@ -29883,67 +29884,67 @@
         <v>0</v>
       </c>
       <c r="BH73">
-        <f>'d7-to-d7'!A14</f>
+        <f>'d7-to-d7'!A14 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BI73">
-        <f>'d7-to-d7'!B14</f>
+        <f>'d7-to-d7'!B14 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BJ73">
-        <f>'d7-to-d7'!C14</f>
+        <f>'d7-to-d7'!C14 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BK73">
-        <f>'d7-to-d7'!D14</f>
+        <f>'d7-to-d7'!D14 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BL73">
-        <f>'d7-to-d7'!E14</f>
+        <f>'d7-to-d7'!E14 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BM73">
-        <f>'d7-to-d7'!F14</f>
+        <f>'d7-to-d7'!F14 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BN73">
-        <f>'d7-to-d7'!G14</f>
+        <f>'d7-to-d7'!G14 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BO73">
-        <f>'d7-to-d7'!H14</f>
+        <f>'d7-to-d7'!H14 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BP73">
-        <f>'d7-to-d7'!I14</f>
+        <f>'d7-to-d7'!I14 * Gains!$H$8</f>
         <v>-1</v>
       </c>
       <c r="BQ73">
-        <f>'d7-to-d7'!J14</f>
+        <f>'d7-to-d7'!J14 * Gains!$H$8</f>
         <v>-1</v>
       </c>
       <c r="BR73">
-        <f>'d7-to-d7'!K14</f>
+        <f>'d7-to-d7'!K14 * Gains!$H$8</f>
         <v>-1</v>
       </c>
       <c r="BS73">
-        <f>'d7-to-d7'!L14</f>
+        <f>'d7-to-d7'!L14 * Gains!$H$8</f>
         <v>-0.5</v>
       </c>
       <c r="BT73">
-        <f>'d7-to-d7'!M14</f>
+        <f>'d7-to-d7'!M14 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BU73">
-        <f>'d7-to-d7'!N14</f>
+        <f>'d7-to-d7'!N14 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BV73">
-        <f>'d7-to-d7'!O14</f>
+        <f>'d7-to-d7'!O14 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BW73">
-        <f>'d7-to-d7'!P14</f>
+        <f>'d7-to-d7'!P14 * Gains!$H$8</f>
         <v>-0.5</v>
       </c>
       <c r="BX73">
@@ -29984,7 +29985,7 @@
       </c>
       <c r="CG73">
         <f>'d7-to-PEG-PEN-PFN-PFL'!J14 * Gains!$I$8</f>
-        <v>-0.2</v>
+        <v>-1</v>
       </c>
       <c r="CH73">
         <f>'d7-to-PEG-PEN-PFN-PFL'!K14 * Gains!$I$8</f>
@@ -30096,7 +30097,7 @@
       </c>
       <c r="DM73">
         <f>'d7-to-PEG-PEN-PFN-PFL'!J14 * Gains!$K$8</f>
-        <v>-0.6</v>
+        <v>-1</v>
       </c>
       <c r="DN73">
         <f>'d7-to-PEG-PEN-PFN-PFL'!K14 * Gains!$K$8</f>
@@ -30247,7 +30248,7 @@
       </c>
       <c r="AL74">
         <f>'d7-to-PEG-PEN-PFN-PFL'!K15 * Gains!$F$8</f>
-        <v>-0.2</v>
+        <v>-1</v>
       </c>
       <c r="AM74">
         <f>'d7-to-PEG-PEN-PFN-PFL'!L15 * Gains!$F$8</f>
@@ -30311,7 +30312,7 @@
       </c>
       <c r="BB74">
         <f>'d7-to-PEG-PEN-PFN-PFL'!K15 * Gains!$G$8</f>
-        <v>-0.2</v>
+        <v>-1</v>
       </c>
       <c r="BC74">
         <f>'d7-to-PEG-PEN-PFN-PFL'!L15 * Gains!$G$8</f>
@@ -30334,67 +30335,67 @@
         <v>0</v>
       </c>
       <c r="BH74">
-        <f>'d7-to-d7'!A15</f>
+        <f>'d7-to-d7'!A15 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BI74">
-        <f>'d7-to-d7'!B15</f>
+        <f>'d7-to-d7'!B15 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BJ74">
-        <f>'d7-to-d7'!C15</f>
+        <f>'d7-to-d7'!C15 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BK74">
-        <f>'d7-to-d7'!D15</f>
+        <f>'d7-to-d7'!D15 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BL74">
-        <f>'d7-to-d7'!E15</f>
+        <f>'d7-to-d7'!E15 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BM74">
-        <f>'d7-to-d7'!F15</f>
+        <f>'d7-to-d7'!F15 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BN74">
-        <f>'d7-to-d7'!G15</f>
+        <f>'d7-to-d7'!G15 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BO74">
-        <f>'d7-to-d7'!H15</f>
+        <f>'d7-to-d7'!H15 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BP74">
-        <f>'d7-to-d7'!I15</f>
+        <f>'d7-to-d7'!I15 * Gains!$H$8</f>
         <v>-0.5</v>
       </c>
       <c r="BQ74">
-        <f>'d7-to-d7'!J15</f>
+        <f>'d7-to-d7'!J15 * Gains!$H$8</f>
         <v>-1</v>
       </c>
       <c r="BR74">
-        <f>'d7-to-d7'!K15</f>
+        <f>'d7-to-d7'!K15 * Gains!$H$8</f>
         <v>-1</v>
       </c>
       <c r="BS74">
-        <f>'d7-to-d7'!L15</f>
+        <f>'d7-to-d7'!L15 * Gains!$H$8</f>
         <v>-1</v>
       </c>
       <c r="BT74">
-        <f>'d7-to-d7'!M15</f>
+        <f>'d7-to-d7'!M15 * Gains!$H$8</f>
         <v>-0.5</v>
       </c>
       <c r="BU74">
-        <f>'d7-to-d7'!N15</f>
+        <f>'d7-to-d7'!N15 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BV74">
-        <f>'d7-to-d7'!O15</f>
+        <f>'d7-to-d7'!O15 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BW74">
-        <f>'d7-to-d7'!P15</f>
+        <f>'d7-to-d7'!P15 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BX74">
@@ -30439,7 +30440,7 @@
       </c>
       <c r="CH74">
         <f>'d7-to-PEG-PEN-PFN-PFL'!K15 * Gains!$I$8</f>
-        <v>-0.2</v>
+        <v>-1</v>
       </c>
       <c r="CI74">
         <f>'d7-to-PEG-PEN-PFN-PFL'!L15 * Gains!$I$8</f>
@@ -30551,7 +30552,7 @@
       </c>
       <c r="DN74">
         <f>'d7-to-PEG-PEN-PFN-PFL'!K15 * Gains!$K$8</f>
-        <v>-0.6</v>
+        <v>-1</v>
       </c>
       <c r="DO74">
         <f>'d7-to-PEG-PEN-PFN-PFL'!L15 * Gains!$K$8</f>
@@ -30702,7 +30703,7 @@
       </c>
       <c r="AM75">
         <f>'d7-to-PEG-PEN-PFN-PFL'!L16 * Gains!$F$8</f>
-        <v>-0.2</v>
+        <v>-1</v>
       </c>
       <c r="AN75">
         <f>'d7-to-PEG-PEN-PFN-PFL'!M16 * Gains!$F$8</f>
@@ -30766,7 +30767,7 @@
       </c>
       <c r="BC75">
         <f>'d7-to-PEG-PEN-PFN-PFL'!L16 * Gains!$G$8</f>
-        <v>-0.2</v>
+        <v>-1</v>
       </c>
       <c r="BD75">
         <f>'d7-to-PEG-PEN-PFN-PFL'!M16 * Gains!$G$8</f>
@@ -30785,67 +30786,67 @@
         <v>0</v>
       </c>
       <c r="BH75">
-        <f>'d7-to-d7'!A16</f>
+        <f>'d7-to-d7'!A16 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BI75">
-        <f>'d7-to-d7'!B16</f>
+        <f>'d7-to-d7'!B16 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BJ75">
-        <f>'d7-to-d7'!C16</f>
+        <f>'d7-to-d7'!C16 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BK75">
-        <f>'d7-to-d7'!D16</f>
+        <f>'d7-to-d7'!D16 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BL75">
-        <f>'d7-to-d7'!E16</f>
+        <f>'d7-to-d7'!E16 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BM75">
-        <f>'d7-to-d7'!F16</f>
+        <f>'d7-to-d7'!F16 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BN75">
-        <f>'d7-to-d7'!G16</f>
+        <f>'d7-to-d7'!G16 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BO75">
-        <f>'d7-to-d7'!H16</f>
+        <f>'d7-to-d7'!H16 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BP75">
-        <f>'d7-to-d7'!I16</f>
+        <f>'d7-to-d7'!I16 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BQ75">
-        <f>'d7-to-d7'!J16</f>
+        <f>'d7-to-d7'!J16 * Gains!$H$8</f>
         <v>-0.5</v>
       </c>
       <c r="BR75">
-        <f>'d7-to-d7'!K16</f>
+        <f>'d7-to-d7'!K16 * Gains!$H$8</f>
         <v>-1</v>
       </c>
       <c r="BS75">
-        <f>'d7-to-d7'!L16</f>
+        <f>'d7-to-d7'!L16 * Gains!$H$8</f>
         <v>-1</v>
       </c>
       <c r="BT75">
-        <f>'d7-to-d7'!M16</f>
+        <f>'d7-to-d7'!M16 * Gains!$H$8</f>
         <v>-1</v>
       </c>
       <c r="BU75">
-        <f>'d7-to-d7'!N16</f>
+        <f>'d7-to-d7'!N16 * Gains!$H$8</f>
         <v>-0.5</v>
       </c>
       <c r="BV75">
-        <f>'d7-to-d7'!O16</f>
+        <f>'d7-to-d7'!O16 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BW75">
-        <f>'d7-to-d7'!P16</f>
+        <f>'d7-to-d7'!P16 * Gains!$H$8</f>
         <v>0</v>
       </c>
       <c r="BX75">
@@ -30894,7 +30895,7 @@
       </c>
       <c r="CI75">
         <f>'d7-to-PEG-PEN-PFN-PFL'!L16 * Gains!$I$8</f>
-        <v>-0.2</v>
+        <v>-1</v>
       </c>
       <c r="CJ75">
         <f>'d7-to-PEG-PEN-PFN-PFL'!M16 * Gains!$I$8</f>
@@ -31006,7 +31007,7 @@
       </c>
       <c r="DO75">
         <f>'d7-to-PEG-PEN-PFN-PFL'!L16 * Gains!$K$8</f>
-        <v>-0.6</v>
+        <v>-1</v>
       </c>
       <c r="DP75">
         <f>'d7-to-PEG-PEN-PFN-PFL'!M16 * Gains!$K$8</f>
@@ -31369,7 +31370,7 @@
       </c>
       <c r="DE76" s="3">
         <f>'PFN-to-PFL-hd'!B1 * Gains!$K$9</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="DF76" s="3">
         <f>'PFN-to-PFL-hd'!C1 * Gains!$K$9</f>
@@ -31776,7 +31777,7 @@
       </c>
       <c r="DF77" s="3">
         <f>'PFN-to-PFL-hd'!C2 * Gains!$K$9</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="DG77" s="3">
         <f>'PFN-to-PFL-hd'!D2 * Gains!$K$9</f>
@@ -32183,7 +32184,7 @@
       </c>
       <c r="DG78" s="3">
         <f>'PFN-to-PFL-hd'!D3 * Gains!$K$9</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="DH78" s="3">
         <f>'PFN-to-PFL-hd'!E3 * Gains!$K$9</f>
@@ -32590,7 +32591,7 @@
       </c>
       <c r="DH79" s="3">
         <f>'PFN-to-PFL-hd'!E4 * Gains!$K$9</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="DI79" s="3">
         <f>'PFN-to-PFL-hd'!F4 * Gains!$K$9</f>
@@ -32997,7 +32998,7 @@
       </c>
       <c r="DI80" s="3">
         <f>'PFN-to-PFL-hd'!F5 * Gains!$K$9</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="DJ80" s="3">
         <f>'PFN-to-PFL-hd'!G5 * Gains!$K$9</f>
@@ -33404,7 +33405,7 @@
       </c>
       <c r="DJ81" s="3">
         <f>'PFN-to-PFL-hd'!G6 * Gains!$K$9</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="DK81" s="3">
         <f>'PFN-to-PFL-hd'!H6 * Gains!$K$9</f>
@@ -33811,7 +33812,7 @@
       </c>
       <c r="DK82" s="3">
         <f>'PFN-to-PFL-hd'!H7 * Gains!$K$9</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="DL82" s="3">
         <f>'PFN-to-PFL-hd'!I7 * Gains!$K$9</f>
@@ -34186,7 +34187,7 @@
       </c>
       <c r="DD83" s="3">
         <f>'PFN-to-PFL-hd'!A8 * Gains!$K$9</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="DE83" s="3">
         <f>'PFN-to-PFL-hd'!B8 * Gains!$K$9</f>
@@ -34649,7 +34650,7 @@
       </c>
       <c r="DS84" s="3">
         <f>'PFN-to-PFL-hd'!P9 * Gains!$K$9</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="85" spans="1:123" x14ac:dyDescent="0.25">
@@ -35024,7 +35025,7 @@
       </c>
       <c r="DL85" s="3">
         <f>'PFN-to-PFL-hd'!I10 * Gains!$K$9</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="DM85" s="3">
         <f>'PFN-to-PFL-hd'!J10 * Gains!$K$9</f>
@@ -35431,7 +35432,7 @@
       </c>
       <c r="DM86" s="3">
         <f>'PFN-to-PFL-hd'!J11 * Gains!$K$9</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="DN86" s="3">
         <f>'PFN-to-PFL-hd'!K11 * Gains!$K$9</f>
@@ -35838,7 +35839,7 @@
       </c>
       <c r="DN87" s="3">
         <f>'PFN-to-PFL-hd'!K12 * Gains!$K$9</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="DO87" s="3">
         <f>'PFN-to-PFL-hd'!L12 * Gains!$K$9</f>
@@ -36245,7 +36246,7 @@
       </c>
       <c r="DO88" s="3">
         <f>'PFN-to-PFL-hd'!L13 * Gains!$K$9</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="DP88" s="3">
         <f>'PFN-to-PFL-hd'!M13 * Gains!$K$9</f>
@@ -36652,7 +36653,7 @@
       </c>
       <c r="DP89" s="3">
         <f>'PFN-to-PFL-hd'!M14 * Gains!$K$9</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="DQ89" s="3">
         <f>'PFN-to-PFL-hd'!N14 * Gains!$K$9</f>
@@ -37059,7 +37060,7 @@
       </c>
       <c r="DQ90" s="3">
         <f>'PFN-to-PFL-hd'!N15 * Gains!$K$9</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="DR90" s="3">
         <f>'PFN-to-PFL-hd'!O15 * Gains!$K$9</f>
@@ -37466,7 +37467,7 @@
       </c>
       <c r="DR91" s="3">
         <f>'PFN-to-PFL-hd'!O16 * Gains!$K$9</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="DS91" s="3">
         <f>'PFN-to-PFL-hd'!P16 * Gains!$K$9</f>
@@ -37845,7 +37846,7 @@
       </c>
       <c r="DL92" s="1">
         <f>'hd-to-PFL'!I1 * Gains!$K$10</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="DM92" s="1">
         <f>'hd-to-PFL'!J1 * Gains!$K$10</f>
@@ -38252,7 +38253,7 @@
       </c>
       <c r="DM93" s="1">
         <f>'hd-to-PFL'!J2 * Gains!$K$10</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="DN93" s="1">
         <f>'hd-to-PFL'!K2 * Gains!$K$10</f>
@@ -38659,7 +38660,7 @@
       </c>
       <c r="DN94" s="1">
         <f>'hd-to-PFL'!K3 * Gains!$K$10</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="DO94" s="1">
         <f>'hd-to-PFL'!L3 * Gains!$K$10</f>
@@ -39066,7 +39067,7 @@
       </c>
       <c r="DO95" s="1">
         <f>'hd-to-PFL'!L4 * Gains!$K$10</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="DP95" s="1">
         <f>'hd-to-PFL'!M4 * Gains!$K$10</f>
@@ -39473,7 +39474,7 @@
       </c>
       <c r="DP96" s="1">
         <f>'hd-to-PFL'!M5 * Gains!$K$10</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="DQ96" s="1">
         <f>'hd-to-PFL'!N5 * Gains!$K$10</f>
@@ -39880,7 +39881,7 @@
       </c>
       <c r="DQ97" s="1">
         <f>'hd-to-PFL'!N6 * Gains!$K$10</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="DR97" s="1">
         <f>'hd-to-PFL'!O6 * Gains!$K$10</f>
@@ -40287,7 +40288,7 @@
       </c>
       <c r="DR98" s="1">
         <f>'hd-to-PFL'!O7 * Gains!$K$10</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="DS98" s="1">
         <f>'hd-to-PFL'!P7 * Gains!$K$10</f>
@@ -40694,7 +40695,7 @@
       </c>
       <c r="DS99" s="1">
         <f>'hd-to-PFL'!P8 * Gains!$K$10</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:123" x14ac:dyDescent="0.25">
@@ -41037,7 +41038,7 @@
       </c>
       <c r="DD100" s="1">
         <f>'hd-to-PFL'!A9 * Gains!$K$10</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="DE100" s="1">
         <f>'hd-to-PFL'!B9 * Gains!$K$10</f>
@@ -41444,7 +41445,7 @@
       </c>
       <c r="DE101" s="1">
         <f>'hd-to-PFL'!B10 * Gains!$K$10</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="DF101" s="1">
         <f>'hd-to-PFL'!C10 * Gains!$K$10</f>
@@ -41851,7 +41852,7 @@
       </c>
       <c r="DF102" s="1">
         <f>'hd-to-PFL'!C11 * Gains!$K$10</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="DG102" s="1">
         <f>'hd-to-PFL'!D11 * Gains!$K$10</f>
@@ -42258,7 +42259,7 @@
       </c>
       <c r="DG103" s="1">
         <f>'hd-to-PFL'!D12 * Gains!$K$10</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="DH103" s="1">
         <f>'hd-to-PFL'!E12 * Gains!$K$10</f>
@@ -42665,7 +42666,7 @@
       </c>
       <c r="DH104" s="1">
         <f>'hd-to-PFL'!E13 * Gains!$K$10</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="DI104" s="1">
         <f>'hd-to-PFL'!F13 * Gains!$K$10</f>
@@ -43072,7 +43073,7 @@
       </c>
       <c r="DI105" s="1">
         <f>'hd-to-PFL'!F14 * Gains!$K$10</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="DJ105" s="1">
         <f>'hd-to-PFL'!G14 * Gains!$K$10</f>
@@ -43479,7 +43480,7 @@
       </c>
       <c r="DJ106" s="1">
         <f>'hd-to-PFL'!G15 * Gains!$K$10</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="DK106" s="1">
         <f>'hd-to-PFL'!H15 * Gains!$K$10</f>
@@ -43886,7 +43887,7 @@
       </c>
       <c r="DK107" s="1">
         <f>'hd-to-PFL'!H16 * Gains!$K$10</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="DL107" s="1">
         <f>'hd-to-PFL'!I16 * Gains!$K$10</f>
@@ -54563,7 +54564,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -54721,14 +54722,14 @@
       <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" t="s">
-        <v>12</v>
+      <c r="F5">
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.05</v>
-      </c>
-      <c r="H5" t="s">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
       </c>
       <c r="I5" t="s">
         <v>12</v>
@@ -54754,7 +54755,7 @@
         <v>12</v>
       </c>
       <c r="E6">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
@@ -54789,7 +54790,7 @@
         <v>12</v>
       </c>
       <c r="E7">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -54827,22 +54828,22 @@
         <v>12</v>
       </c>
       <c r="F8">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.2</v>
-      </c>
-      <c r="H8" t="s">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
         <v>12</v>
       </c>
       <c r="K8">
-        <v>0.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -54877,7 +54878,7 @@
         <v>12</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -54912,7 +54913,7 @@
         <v>12</v>
       </c>
       <c r="K10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -56430,7 +56431,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -57257,7 +57258,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/Theorical_connectivity_matrices.xlsx
+++ b/Theorical_connectivity_matrices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bclem\OneDrive\Documents\GitHub\Megalopta_CX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8443CDF1-E517-42FF-B4E1-C1A403691261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7BE9C51-C518-4246-825B-6C1655D041A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{093D5FC8-3546-4B30-B5BC-72449F880B19}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{093D5FC8-3546-4B30-B5BC-72449F880B19}"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="13" r:id="rId1"/>
@@ -4806,7 +4806,7 @@
       </c>
       <c r="AB12">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!A1 * Gains!$F$5</f>
-        <v>1</v>
+        <v>0.24</v>
       </c>
       <c r="AC12">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!B1 * Gains!$F$5</f>
@@ -4870,7 +4870,7 @@
       </c>
       <c r="AR12">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!A1 * Gains!$G$5</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS12">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!B1 * Gains!$G$5</f>
@@ -4934,15 +4934,15 @@
       </c>
       <c r="BH12">
         <f>'EPG-to-d7'!A1 * Gains!$H$5</f>
-        <v>1</v>
+        <v>0.79</v>
       </c>
       <c r="BI12">
         <f>'EPG-to-d7'!B1 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="BJ12">
         <f>'EPG-to-d7'!C1 * Gains!$H$5</f>
-        <v>0.2</v>
+        <v>0.15800000000000003</v>
       </c>
       <c r="BK12">
         <f>'EPG-to-d7'!D1 * Gains!$H$5</f>
@@ -4958,11 +4958,11 @@
       </c>
       <c r="BN12">
         <f>'EPG-to-d7'!G1 * Gains!$H$5</f>
-        <v>0.2</v>
+        <v>0.15800000000000003</v>
       </c>
       <c r="BO12">
         <f>'EPG-to-d7'!H1 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="BP12">
         <f>'EPG-to-d7'!I1 * Gains!$H$5</f>
@@ -5229,7 +5229,7 @@
       </c>
       <c r="AC13">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!B2 * Gains!$F$5</f>
-        <v>1</v>
+        <v>0.24</v>
       </c>
       <c r="AD13">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!C2 * Gains!$F$5</f>
@@ -5293,7 +5293,7 @@
       </c>
       <c r="AS13">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!B2 * Gains!$G$5</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT13">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!C2 * Gains!$G$5</f>
@@ -5353,19 +5353,19 @@
       </c>
       <c r="BH13">
         <f>'EPG-to-d7'!A2 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="BI13">
         <f>'EPG-to-d7'!B2 * Gains!$H$5</f>
-        <v>1</v>
+        <v>0.79</v>
       </c>
       <c r="BJ13">
         <f>'EPG-to-d7'!C2 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="BK13">
         <f>'EPG-to-d7'!D2 * Gains!$H$5</f>
-        <v>0.2</v>
+        <v>0.15800000000000003</v>
       </c>
       <c r="BL13">
         <f>'EPG-to-d7'!E2 * Gains!$H$5</f>
@@ -5381,7 +5381,7 @@
       </c>
       <c r="BO13">
         <f>'EPG-to-d7'!H2 * Gains!$H$5</f>
-        <v>0.2</v>
+        <v>0.15800000000000003</v>
       </c>
       <c r="BP13">
         <f>'EPG-to-d7'!I2 * Gains!$H$5</f>
@@ -5652,7 +5652,7 @@
       </c>
       <c r="AD14">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!C3 * Gains!$F$5</f>
-        <v>1</v>
+        <v>0.24</v>
       </c>
       <c r="AE14">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!D3 * Gains!$F$5</f>
@@ -5716,7 +5716,7 @@
       </c>
       <c r="AT14">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!C3 * Gains!$G$5</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU14">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!D3 * Gains!$G$5</f>
@@ -5772,23 +5772,23 @@
       </c>
       <c r="BH14">
         <f>'EPG-to-d7'!A3 * Gains!$H$5</f>
-        <v>0.2</v>
+        <v>0.15800000000000003</v>
       </c>
       <c r="BI14">
         <f>'EPG-to-d7'!B3 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="BJ14">
         <f>'EPG-to-d7'!C3 * Gains!$H$5</f>
-        <v>1</v>
+        <v>0.79</v>
       </c>
       <c r="BK14">
         <f>'EPG-to-d7'!D3 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="BL14">
         <f>'EPG-to-d7'!E3 * Gains!$H$5</f>
-        <v>0.2</v>
+        <v>0.15800000000000003</v>
       </c>
       <c r="BM14">
         <f>'EPG-to-d7'!F3 * Gains!$H$5</f>
@@ -6075,7 +6075,7 @@
       </c>
       <c r="AE15">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!D4 * Gains!$F$5</f>
-        <v>1</v>
+        <v>0.24</v>
       </c>
       <c r="AF15">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!E4 * Gains!$F$5</f>
@@ -6139,7 +6139,7 @@
       </c>
       <c r="AU15">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!D4 * Gains!$G$5</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV15">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!E4 * Gains!$G$5</f>
@@ -6195,23 +6195,23 @@
       </c>
       <c r="BI15">
         <f>'EPG-to-d7'!B4 * Gains!$H$5</f>
-        <v>0.2</v>
+        <v>0.15800000000000003</v>
       </c>
       <c r="BJ15">
         <f>'EPG-to-d7'!C4 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="BK15">
         <f>'EPG-to-d7'!D4 * Gains!$H$5</f>
-        <v>1</v>
+        <v>0.79</v>
       </c>
       <c r="BL15">
         <f>'EPG-to-d7'!E4 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="BM15">
         <f>'EPG-to-d7'!F4 * Gains!$H$5</f>
-        <v>0.2</v>
+        <v>0.15800000000000003</v>
       </c>
       <c r="BN15">
         <f>'EPG-to-d7'!G4 * Gains!$H$5</f>
@@ -6498,7 +6498,7 @@
       </c>
       <c r="AF16">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!E5 * Gains!$F$5</f>
-        <v>1</v>
+        <v>0.24</v>
       </c>
       <c r="AG16">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!F5 * Gains!$F$5</f>
@@ -6562,7 +6562,7 @@
       </c>
       <c r="AV16">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!E5 * Gains!$G$5</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW16">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!F5 * Gains!$G$5</f>
@@ -6618,23 +6618,23 @@
       </c>
       <c r="BJ16">
         <f>'EPG-to-d7'!C5 * Gains!$H$5</f>
-        <v>0.2</v>
+        <v>0.15800000000000003</v>
       </c>
       <c r="BK16">
         <f>'EPG-to-d7'!D5 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="BL16">
         <f>'EPG-to-d7'!E5 * Gains!$H$5</f>
-        <v>1</v>
+        <v>0.79</v>
       </c>
       <c r="BM16">
         <f>'EPG-to-d7'!F5 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="BN16">
         <f>'EPG-to-d7'!G5 * Gains!$H$5</f>
-        <v>0.2</v>
+        <v>0.15800000000000003</v>
       </c>
       <c r="BO16">
         <f>'EPG-to-d7'!H5 * Gains!$H$5</f>
@@ -6921,7 +6921,7 @@
       </c>
       <c r="AG17">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!F6 * Gains!$F$5</f>
-        <v>1</v>
+        <v>0.24</v>
       </c>
       <c r="AH17">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!G6 * Gains!$F$5</f>
@@ -6985,7 +6985,7 @@
       </c>
       <c r="AW17">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!F6 * Gains!$G$5</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX17">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!G6 * Gains!$G$5</f>
@@ -7041,23 +7041,23 @@
       </c>
       <c r="BK17">
         <f>'EPG-to-d7'!D6 * Gains!$H$5</f>
-        <v>0.2</v>
+        <v>0.15800000000000003</v>
       </c>
       <c r="BL17">
         <f>'EPG-to-d7'!E6 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="BM17">
         <f>'EPG-to-d7'!F6 * Gains!$H$5</f>
-        <v>1</v>
+        <v>0.79</v>
       </c>
       <c r="BN17">
         <f>'EPG-to-d7'!G6 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="BO17">
         <f>'EPG-to-d7'!H6 * Gains!$H$5</f>
-        <v>0.2</v>
+        <v>0.15800000000000003</v>
       </c>
       <c r="BP17">
         <f>'EPG-to-d7'!I6 * Gains!$H$5</f>
@@ -7344,7 +7344,7 @@
       </c>
       <c r="AH18">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!G7 * Gains!$F$5</f>
-        <v>1</v>
+        <v>0.24</v>
       </c>
       <c r="AI18">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!H7 * Gains!$F$5</f>
@@ -7408,7 +7408,7 @@
       </c>
       <c r="AX18">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!G7 * Gains!$G$5</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY18">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!H7 * Gains!$G$5</f>
@@ -7448,7 +7448,7 @@
       </c>
       <c r="BH18">
         <f>'EPG-to-d7'!A7 * Gains!$H$5</f>
-        <v>0.2</v>
+        <v>0.15800000000000003</v>
       </c>
       <c r="BI18">
         <f>'EPG-to-d7'!B7 * Gains!$H$5</f>
@@ -7464,19 +7464,19 @@
       </c>
       <c r="BL18">
         <f>'EPG-to-d7'!E7 * Gains!$H$5</f>
-        <v>0.2</v>
+        <v>0.15800000000000003</v>
       </c>
       <c r="BM18">
         <f>'EPG-to-d7'!F7 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="BN18">
         <f>'EPG-to-d7'!G7 * Gains!$H$5</f>
-        <v>1</v>
+        <v>0.79</v>
       </c>
       <c r="BO18">
         <f>'EPG-to-d7'!H7 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="BP18">
         <f>'EPG-to-d7'!I7 * Gains!$H$5</f>
@@ -7767,7 +7767,7 @@
       </c>
       <c r="AI19">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!H8 * Gains!$F$5</f>
-        <v>1</v>
+        <v>0.24</v>
       </c>
       <c r="AJ19">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!I8 * Gains!$F$5</f>
@@ -7831,7 +7831,7 @@
       </c>
       <c r="AY19">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!H8 * Gains!$G$5</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ19">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!I8 * Gains!$G$5</f>
@@ -7867,11 +7867,11 @@
       </c>
       <c r="BH19">
         <f>'EPG-to-d7'!A8 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="BI19">
         <f>'EPG-to-d7'!B8 * Gains!$H$5</f>
-        <v>0.2</v>
+        <v>0.15800000000000003</v>
       </c>
       <c r="BJ19">
         <f>'EPG-to-d7'!C8 * Gains!$H$5</f>
@@ -7887,15 +7887,15 @@
       </c>
       <c r="BM19">
         <f>'EPG-to-d7'!F8 * Gains!$H$5</f>
-        <v>0.2</v>
+        <v>0.15800000000000003</v>
       </c>
       <c r="BN19">
         <f>'EPG-to-d7'!G8 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="BO19">
         <f>'EPG-to-d7'!H8 * Gains!$H$5</f>
-        <v>1</v>
+        <v>0.79</v>
       </c>
       <c r="BP19">
         <f>'EPG-to-d7'!I8 * Gains!$H$5</f>
@@ -8190,7 +8190,7 @@
       </c>
       <c r="AJ20">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!I9 * Gains!$F$5</f>
-        <v>1</v>
+        <v>0.24</v>
       </c>
       <c r="AK20">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!J9 * Gains!$F$5</f>
@@ -8254,7 +8254,7 @@
       </c>
       <c r="AZ20">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!I9 * Gains!$G$5</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA20">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!J9 * Gains!$G$5</f>
@@ -8318,15 +8318,15 @@
       </c>
       <c r="BP20">
         <f>'EPG-to-d7'!I9 * Gains!$H$5</f>
-        <v>1</v>
+        <v>0.79</v>
       </c>
       <c r="BQ20">
         <f>'EPG-to-d7'!J9 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="BR20">
         <f>'EPG-to-d7'!K9 * Gains!$H$5</f>
-        <v>0.2</v>
+        <v>0.15800000000000003</v>
       </c>
       <c r="BS20">
         <f>'EPG-to-d7'!L9 * Gains!$H$5</f>
@@ -8342,11 +8342,11 @@
       </c>
       <c r="BV20">
         <f>'EPG-to-d7'!O9 * Gains!$H$5</f>
-        <v>0.2</v>
+        <v>0.15800000000000003</v>
       </c>
       <c r="BW20">
         <f>'EPG-to-d7'!P9 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="BX20" s="3">
         <v>0</v>
@@ -8613,7 +8613,7 @@
       </c>
       <c r="AK21">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!J10 * Gains!$F$5</f>
-        <v>1</v>
+        <v>0.24</v>
       </c>
       <c r="AL21">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!K10 * Gains!$F$5</f>
@@ -8677,7 +8677,7 @@
       </c>
       <c r="BA21">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!J10 * Gains!$G$5</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB21">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!K10 * Gains!$G$5</f>
@@ -8737,19 +8737,19 @@
       </c>
       <c r="BP21">
         <f>'EPG-to-d7'!I10 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="BQ21">
         <f>'EPG-to-d7'!J10 * Gains!$H$5</f>
-        <v>1</v>
+        <v>0.79</v>
       </c>
       <c r="BR21">
         <f>'EPG-to-d7'!K10 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="BS21">
         <f>'EPG-to-d7'!L10 * Gains!$H$5</f>
-        <v>0.2</v>
+        <v>0.15800000000000003</v>
       </c>
       <c r="BT21">
         <f>'EPG-to-d7'!M10 * Gains!$H$5</f>
@@ -8765,7 +8765,7 @@
       </c>
       <c r="BW21">
         <f>'EPG-to-d7'!P10 * Gains!$H$5</f>
-        <v>0.2</v>
+        <v>0.15800000000000003</v>
       </c>
       <c r="BX21" s="3">
         <v>0</v>
@@ -9036,7 +9036,7 @@
       </c>
       <c r="AL22">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!K11 * Gains!$F$5</f>
-        <v>1</v>
+        <v>0.24</v>
       </c>
       <c r="AM22">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!L11 * Gains!$F$5</f>
@@ -9100,7 +9100,7 @@
       </c>
       <c r="BB22">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!K11 * Gains!$G$5</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC22">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!L11 * Gains!$G$5</f>
@@ -9156,23 +9156,23 @@
       </c>
       <c r="BP22">
         <f>'EPG-to-d7'!I11 * Gains!$H$5</f>
-        <v>0.2</v>
+        <v>0.15800000000000003</v>
       </c>
       <c r="BQ22">
         <f>'EPG-to-d7'!J11 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="BR22">
         <f>'EPG-to-d7'!K11 * Gains!$H$5</f>
-        <v>1</v>
+        <v>0.79</v>
       </c>
       <c r="BS22">
         <f>'EPG-to-d7'!L11 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="BT22">
         <f>'EPG-to-d7'!M11 * Gains!$H$5</f>
-        <v>0.2</v>
+        <v>0.15800000000000003</v>
       </c>
       <c r="BU22">
         <f>'EPG-to-d7'!N11 * Gains!$H$5</f>
@@ -9459,7 +9459,7 @@
       </c>
       <c r="AM23">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!L12 * Gains!$F$5</f>
-        <v>1</v>
+        <v>0.24</v>
       </c>
       <c r="AN23">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!M12 * Gains!$F$5</f>
@@ -9523,7 +9523,7 @@
       </c>
       <c r="BC23">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!L12 * Gains!$G$5</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD23">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!M12 * Gains!$G$5</f>
@@ -9579,23 +9579,23 @@
       </c>
       <c r="BQ23">
         <f>'EPG-to-d7'!J12 * Gains!$H$5</f>
-        <v>0.2</v>
+        <v>0.15800000000000003</v>
       </c>
       <c r="BR23">
         <f>'EPG-to-d7'!K12 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="BS23">
         <f>'EPG-to-d7'!L12 * Gains!$H$5</f>
-        <v>1</v>
+        <v>0.79</v>
       </c>
       <c r="BT23">
         <f>'EPG-to-d7'!M12 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="BU23">
         <f>'EPG-to-d7'!N12 * Gains!$H$5</f>
-        <v>0.2</v>
+        <v>0.15800000000000003</v>
       </c>
       <c r="BV23">
         <f>'EPG-to-d7'!O12 * Gains!$H$5</f>
@@ -9882,7 +9882,7 @@
       </c>
       <c r="AN24">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!M13 * Gains!$F$5</f>
-        <v>1</v>
+        <v>0.24</v>
       </c>
       <c r="AO24">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!N13 * Gains!$F$5</f>
@@ -9946,7 +9946,7 @@
       </c>
       <c r="BD24">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!M13 * Gains!$G$5</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE24">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!N13 * Gains!$G$5</f>
@@ -10002,23 +10002,23 @@
       </c>
       <c r="BR24">
         <f>'EPG-to-d7'!K13 * Gains!$H$5</f>
-        <v>0.2</v>
+        <v>0.15800000000000003</v>
       </c>
       <c r="BS24">
         <f>'EPG-to-d7'!L13 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="BT24">
         <f>'EPG-to-d7'!M13 * Gains!$H$5</f>
-        <v>1</v>
+        <v>0.79</v>
       </c>
       <c r="BU24">
         <f>'EPG-to-d7'!N13 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="BV24">
         <f>'EPG-to-d7'!O13 * Gains!$H$5</f>
-        <v>0.2</v>
+        <v>0.15800000000000003</v>
       </c>
       <c r="BW24">
         <f>'EPG-to-d7'!P13 * Gains!$H$5</f>
@@ -10305,7 +10305,7 @@
       </c>
       <c r="AO25">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!N14 * Gains!$F$5</f>
-        <v>1</v>
+        <v>0.24</v>
       </c>
       <c r="AP25">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!O14 * Gains!$F$5</f>
@@ -10369,7 +10369,7 @@
       </c>
       <c r="BE25">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!N14 * Gains!$G$5</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF25">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!O14 * Gains!$G$5</f>
@@ -10425,23 +10425,23 @@
       </c>
       <c r="BS25">
         <f>'EPG-to-d7'!L14 * Gains!$H$5</f>
-        <v>0.2</v>
+        <v>0.15800000000000003</v>
       </c>
       <c r="BT25">
         <f>'EPG-to-d7'!M14 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="BU25">
         <f>'EPG-to-d7'!N14 * Gains!$H$5</f>
-        <v>1</v>
+        <v>0.79</v>
       </c>
       <c r="BV25">
         <f>'EPG-to-d7'!O14 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="BW25">
         <f>'EPG-to-d7'!P14 * Gains!$H$5</f>
-        <v>0.2</v>
+        <v>0.15800000000000003</v>
       </c>
       <c r="BX25" s="3">
         <v>0</v>
@@ -10728,7 +10728,7 @@
       </c>
       <c r="AP26">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!O15 * Gains!$F$5</f>
-        <v>1</v>
+        <v>0.24</v>
       </c>
       <c r="AQ26">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!P15 * Gains!$F$5</f>
@@ -10792,7 +10792,7 @@
       </c>
       <c r="BF26">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!O15 * Gains!$G$5</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG26">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!P15 * Gains!$G$5</f>
@@ -10832,7 +10832,7 @@
       </c>
       <c r="BP26">
         <f>'EPG-to-d7'!I15 * Gains!$H$5</f>
-        <v>0.2</v>
+        <v>0.15800000000000003</v>
       </c>
       <c r="BQ26">
         <f>'EPG-to-d7'!J15 * Gains!$H$5</f>
@@ -10848,19 +10848,19 @@
       </c>
       <c r="BT26">
         <f>'EPG-to-d7'!M15 * Gains!$H$5</f>
-        <v>0.2</v>
+        <v>0.15800000000000003</v>
       </c>
       <c r="BU26">
         <f>'EPG-to-d7'!N15 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="BV26">
         <f>'EPG-to-d7'!O15 * Gains!$H$5</f>
-        <v>1</v>
+        <v>0.79</v>
       </c>
       <c r="BW26">
         <f>'EPG-to-d7'!P15 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="BX26" s="3">
         <v>0</v>
@@ -11151,7 +11151,7 @@
       </c>
       <c r="AQ27">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!P16 * Gains!$F$5</f>
-        <v>1</v>
+        <v>0.24</v>
       </c>
       <c r="AR27">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!A16 * Gains!$G$5</f>
@@ -11215,7 +11215,7 @@
       </c>
       <c r="BG27">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!P16 * Gains!$G$5</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH27">
         <f>'EPG-to-d7'!A16 * Gains!$H$5</f>
@@ -11251,11 +11251,11 @@
       </c>
       <c r="BP27">
         <f>'EPG-to-d7'!I16 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="BQ27">
         <f>'EPG-to-d7'!J16 * Gains!$H$5</f>
-        <v>0.2</v>
+        <v>0.15800000000000003</v>
       </c>
       <c r="BR27">
         <f>'EPG-to-d7'!K16 * Gains!$H$5</f>
@@ -11271,15 +11271,15 @@
       </c>
       <c r="BU27">
         <f>'EPG-to-d7'!N16 * Gains!$H$5</f>
-        <v>0.2</v>
+        <v>0.15800000000000003</v>
       </c>
       <c r="BV27">
         <f>'EPG-to-d7'!O16 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="BW27">
         <f>'EPG-to-d7'!P16 * Gains!$H$5</f>
-        <v>1</v>
+        <v>0.79</v>
       </c>
       <c r="BX27" s="3">
         <v>0</v>
@@ -11462,7 +11462,7 @@
       </c>
       <c r="L28">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!A1 * Gains!$E$6</f>
-        <v>1</v>
+        <v>0.68</v>
       </c>
       <c r="M28">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!B1 * Gains!$E$6</f>
@@ -11853,7 +11853,7 @@
       </c>
       <c r="M29">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!B2 * Gains!$E$6</f>
-        <v>1</v>
+        <v>0.68</v>
       </c>
       <c r="N29">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!C2 * Gains!$E$6</f>
@@ -12244,7 +12244,7 @@
       </c>
       <c r="N30">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!C3 * Gains!$E$6</f>
-        <v>1</v>
+        <v>0.68</v>
       </c>
       <c r="O30">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!D3 * Gains!$E$6</f>
@@ -12635,7 +12635,7 @@
       </c>
       <c r="O31">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!D4 * Gains!$E$6</f>
-        <v>1</v>
+        <v>0.68</v>
       </c>
       <c r="P31">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!E4 * Gains!$E$6</f>
@@ -13026,7 +13026,7 @@
       </c>
       <c r="P32">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!E5 * Gains!$E$6</f>
-        <v>1</v>
+        <v>0.68</v>
       </c>
       <c r="Q32">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!F5 * Gains!$E$6</f>
@@ -13417,7 +13417,7 @@
       </c>
       <c r="Q33">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!F6 * Gains!$E$6</f>
-        <v>1</v>
+        <v>0.68</v>
       </c>
       <c r="R33">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!G6 * Gains!$E$6</f>
@@ -13808,7 +13808,7 @@
       </c>
       <c r="R34">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!G7 * Gains!$E$6</f>
-        <v>1</v>
+        <v>0.68</v>
       </c>
       <c r="S34">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!H7 * Gains!$E$6</f>
@@ -14199,7 +14199,7 @@
       </c>
       <c r="S35">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!H8 * Gains!$E$6</f>
-        <v>1</v>
+        <v>0.68</v>
       </c>
       <c r="T35">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!I8 * Gains!$E$6</f>
@@ -14590,7 +14590,7 @@
       </c>
       <c r="T36">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!I9 * Gains!$E$6</f>
-        <v>1</v>
+        <v>0.68</v>
       </c>
       <c r="U36">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!J9 * Gains!$E$6</f>
@@ -14981,7 +14981,7 @@
       </c>
       <c r="U37">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!J10 * Gains!$E$6</f>
-        <v>1</v>
+        <v>0.68</v>
       </c>
       <c r="V37">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!K10 * Gains!$E$6</f>
@@ -15372,7 +15372,7 @@
       </c>
       <c r="V38">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!K11 * Gains!$E$6</f>
-        <v>1</v>
+        <v>0.68</v>
       </c>
       <c r="W38">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!L11 * Gains!$E$6</f>
@@ -15763,7 +15763,7 @@
       </c>
       <c r="W39">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!L12 * Gains!$E$6</f>
-        <v>1</v>
+        <v>0.68</v>
       </c>
       <c r="X39">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!M12 * Gains!$E$6</f>
@@ -16154,7 +16154,7 @@
       </c>
       <c r="X40">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!M13 * Gains!$E$6</f>
-        <v>1</v>
+        <v>0.68</v>
       </c>
       <c r="Y40">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!N13 * Gains!$E$6</f>
@@ -16545,7 +16545,7 @@
       </c>
       <c r="Y41">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!N14 * Gains!$E$6</f>
-        <v>1</v>
+        <v>0.68</v>
       </c>
       <c r="Z41">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!O14 * Gains!$E$6</f>
@@ -16936,7 +16936,7 @@
       </c>
       <c r="Z42">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!O15 * Gains!$E$6</f>
-        <v>1</v>
+        <v>0.68</v>
       </c>
       <c r="AA42">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!P15 * Gains!$E$6</f>
@@ -17327,7 +17327,7 @@
       </c>
       <c r="AA43">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!P16 * Gains!$E$6</f>
-        <v>1</v>
+        <v>0.68</v>
       </c>
       <c r="AB43" s="3">
         <v>0</v>
@@ -17658,7 +17658,7 @@
       </c>
       <c r="M44">
         <f>'PEN-to-EPG'!B1 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N44">
         <f>'PEN-to-EPG'!C1 * Gains!$E$7</f>
@@ -17690,7 +17690,7 @@
       </c>
       <c r="U44">
         <f>'PEN-to-EPG'!J1 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V44">
         <f>'PEN-to-EPG'!K1 * Gains!$E$7</f>
@@ -18049,7 +18049,7 @@
       </c>
       <c r="N45">
         <f>'PEN-to-EPG'!C2 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O45">
         <f>'PEN-to-EPG'!D2 * Gains!$E$7</f>
@@ -18081,7 +18081,7 @@
       </c>
       <c r="V45">
         <f>'PEN-to-EPG'!K2 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W45">
         <f>'PEN-to-EPG'!L2 * Gains!$E$7</f>
@@ -18440,7 +18440,7 @@
       </c>
       <c r="O46">
         <f>'PEN-to-EPG'!D3 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P46">
         <f>'PEN-to-EPG'!E3 * Gains!$E$7</f>
@@ -18472,7 +18472,7 @@
       </c>
       <c r="W46">
         <f>'PEN-to-EPG'!L3 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X46">
         <f>'PEN-to-EPG'!M3 * Gains!$E$7</f>
@@ -18831,7 +18831,7 @@
       </c>
       <c r="P47">
         <f>'PEN-to-EPG'!E4 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
         <f>'PEN-to-EPG'!F4 * Gains!$E$7</f>
@@ -18863,7 +18863,7 @@
       </c>
       <c r="X47">
         <f>'PEN-to-EPG'!M4 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y47">
         <f>'PEN-to-EPG'!N4 * Gains!$E$7</f>
@@ -19222,7 +19222,7 @@
       </c>
       <c r="Q48">
         <f>'PEN-to-EPG'!F5 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R48">
         <f>'PEN-to-EPG'!G5 * Gains!$E$7</f>
@@ -19254,7 +19254,7 @@
       </c>
       <c r="Y48">
         <f>'PEN-to-EPG'!N5 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z48">
         <f>'PEN-to-EPG'!O5 * Gains!$E$7</f>
@@ -19613,7 +19613,7 @@
       </c>
       <c r="R49">
         <f>'PEN-to-EPG'!G6 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S49">
         <f>'PEN-to-EPG'!H6 * Gains!$E$7</f>
@@ -19645,7 +19645,7 @@
       </c>
       <c r="Z49">
         <f>'PEN-to-EPG'!O6 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA49">
         <f>'PEN-to-EPG'!P6 * Gains!$E$7</f>
@@ -20004,7 +20004,7 @@
       </c>
       <c r="S50">
         <f>'PEN-to-EPG'!H7 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T50">
         <f>'PEN-to-EPG'!I7 * Gains!$E$7</f>
@@ -20036,7 +20036,7 @@
       </c>
       <c r="AA50">
         <f>'PEN-to-EPG'!P7 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB50" s="1">
         <v>0</v>
@@ -20363,7 +20363,7 @@
       </c>
       <c r="L51">
         <f>'PEN-to-EPG'!A8 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M51">
         <f>'PEN-to-EPG'!B8 * Gains!$E$7</f>
@@ -20395,7 +20395,7 @@
       </c>
       <c r="T51">
         <f>'PEN-to-EPG'!I8 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U51">
         <f>'PEN-to-EPG'!J8 * Gains!$E$7</f>
@@ -20778,7 +20778,7 @@
       </c>
       <c r="S52">
         <f>'PEN-to-EPG'!H9 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T52">
         <f>'PEN-to-EPG'!I9 * Gains!$E$7</f>
@@ -20810,7 +20810,7 @@
       </c>
       <c r="AA52">
         <f>'PEN-to-EPG'!P9 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB52" s="1">
         <v>0</v>
@@ -21137,7 +21137,7 @@
       </c>
       <c r="L53">
         <f>'PEN-to-EPG'!A10 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M53">
         <f>'PEN-to-EPG'!B10 * Gains!$E$7</f>
@@ -21169,7 +21169,7 @@
       </c>
       <c r="T53">
         <f>'PEN-to-EPG'!I10 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U53">
         <f>'PEN-to-EPG'!J10 * Gains!$E$7</f>
@@ -21528,7 +21528,7 @@
       </c>
       <c r="M54">
         <f>'PEN-to-EPG'!B11 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N54">
         <f>'PEN-to-EPG'!C11 * Gains!$E$7</f>
@@ -21560,7 +21560,7 @@
       </c>
       <c r="U54">
         <f>'PEN-to-EPG'!J11 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V54">
         <f>'PEN-to-EPG'!K11 * Gains!$E$7</f>
@@ -21919,7 +21919,7 @@
       </c>
       <c r="N55">
         <f>'PEN-to-EPG'!C12 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O55">
         <f>'PEN-to-EPG'!D12 * Gains!$E$7</f>
@@ -21951,7 +21951,7 @@
       </c>
       <c r="V55">
         <f>'PEN-to-EPG'!K12 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W55">
         <f>'PEN-to-EPG'!L12 * Gains!$E$7</f>
@@ -22310,7 +22310,7 @@
       </c>
       <c r="O56">
         <f>'PEN-to-EPG'!D13 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P56">
         <f>'PEN-to-EPG'!E13 * Gains!$E$7</f>
@@ -22342,7 +22342,7 @@
       </c>
       <c r="W56">
         <f>'PEN-to-EPG'!L13 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X56">
         <f>'PEN-to-EPG'!M13 * Gains!$E$7</f>
@@ -22701,7 +22701,7 @@
       </c>
       <c r="P57">
         <f>'PEN-to-EPG'!E14 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
         <f>'PEN-to-EPG'!F14 * Gains!$E$7</f>
@@ -22733,7 +22733,7 @@
       </c>
       <c r="X57">
         <f>'PEN-to-EPG'!M14 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y57">
         <f>'PEN-to-EPG'!N14 * Gains!$E$7</f>
@@ -23092,7 +23092,7 @@
       </c>
       <c r="Q58">
         <f>'PEN-to-EPG'!F15 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R58">
         <f>'PEN-to-EPG'!G15 * Gains!$E$7</f>
@@ -23124,7 +23124,7 @@
       </c>
       <c r="Y58">
         <f>'PEN-to-EPG'!N15 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z58">
         <f>'PEN-to-EPG'!O15 * Gains!$E$7</f>
@@ -23483,7 +23483,7 @@
       </c>
       <c r="R59">
         <f>'PEN-to-EPG'!G16 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S59">
         <f>'PEN-to-EPG'!H16 * Gains!$E$7</f>
@@ -23515,7 +23515,7 @@
       </c>
       <c r="Z59">
         <f>'PEN-to-EPG'!O16 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA59">
         <f>'PEN-to-EPG'!P16 * Gains!$E$7</f>
@@ -23910,7 +23910,7 @@
       </c>
       <c r="AF60">
         <f>'d7-to-PEG-PEN-PFN-PFL'!E1 * Gains!$F$8</f>
-        <v>-1</v>
+        <v>-0.44</v>
       </c>
       <c r="AG60">
         <f>'d7-to-PEG-PEN-PFN-PFL'!F1 * Gains!$F$8</f>
@@ -23974,7 +23974,7 @@
       </c>
       <c r="AV60">
         <f>'d7-to-PEG-PEN-PFN-PFL'!E1 * Gains!$G$8</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AW60">
         <f>'d7-to-PEG-PEN-PFN-PFL'!F1 * Gains!$G$8</f>
@@ -24030,23 +24030,23 @@
       </c>
       <c r="BJ60">
         <f>'d7-to-d7'!C1 * Gains!$H$8</f>
-        <v>-0.5</v>
+        <v>-0.44500000000000001</v>
       </c>
       <c r="BK60">
         <f>'d7-to-d7'!D1 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.89</v>
       </c>
       <c r="BL60">
         <f>'d7-to-d7'!E1 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.89</v>
       </c>
       <c r="BM60">
         <f>'d7-to-d7'!F1 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.89</v>
       </c>
       <c r="BN60">
         <f>'d7-to-d7'!G1 * Gains!$H$8</f>
-        <v>-0.5</v>
+        <v>-0.44500000000000001</v>
       </c>
       <c r="BO60">
         <f>'d7-to-d7'!H1 * Gains!$H$8</f>
@@ -24365,7 +24365,7 @@
       </c>
       <c r="AG61">
         <f>'d7-to-PEG-PEN-PFN-PFL'!F2 * Gains!$F$8</f>
-        <v>-1</v>
+        <v>-0.44</v>
       </c>
       <c r="AH61">
         <f>'d7-to-PEG-PEN-PFN-PFL'!G2 * Gains!$F$8</f>
@@ -24429,7 +24429,7 @@
       </c>
       <c r="AW61">
         <f>'d7-to-PEG-PEN-PFN-PFL'!F2 * Gains!$G$8</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AX61">
         <f>'d7-to-PEG-PEN-PFN-PFL'!G2 * Gains!$G$8</f>
@@ -24485,23 +24485,23 @@
       </c>
       <c r="BK61">
         <f>'d7-to-d7'!D2 * Gains!$H$8</f>
-        <v>-0.5</v>
+        <v>-0.44500000000000001</v>
       </c>
       <c r="BL61">
         <f>'d7-to-d7'!E2 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.89</v>
       </c>
       <c r="BM61">
         <f>'d7-to-d7'!F2 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.89</v>
       </c>
       <c r="BN61">
         <f>'d7-to-d7'!G2 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.89</v>
       </c>
       <c r="BO61">
         <f>'d7-to-d7'!H2 * Gains!$H$8</f>
-        <v>-0.5</v>
+        <v>-0.44500000000000001</v>
       </c>
       <c r="BP61">
         <f>'d7-to-d7'!I2 * Gains!$H$8</f>
@@ -24820,7 +24820,7 @@
       </c>
       <c r="AH62">
         <f>'d7-to-PEG-PEN-PFN-PFL'!G3 * Gains!$F$8</f>
-        <v>-1</v>
+        <v>-0.44</v>
       </c>
       <c r="AI62">
         <f>'d7-to-PEG-PEN-PFN-PFL'!H3 * Gains!$F$8</f>
@@ -24884,7 +24884,7 @@
       </c>
       <c r="AX62">
         <f>'d7-to-PEG-PEN-PFN-PFL'!G3 * Gains!$G$8</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AY62">
         <f>'d7-to-PEG-PEN-PFN-PFL'!H3 * Gains!$G$8</f>
@@ -24924,7 +24924,7 @@
       </c>
       <c r="BH62">
         <f>'d7-to-d7'!A3 * Gains!$H$8</f>
-        <v>-0.5</v>
+        <v>-0.44500000000000001</v>
       </c>
       <c r="BI62">
         <f>'d7-to-d7'!B3 * Gains!$H$8</f>
@@ -24940,19 +24940,19 @@
       </c>
       <c r="BL62">
         <f>'d7-to-d7'!E3 * Gains!$H$8</f>
-        <v>-0.5</v>
+        <v>-0.44500000000000001</v>
       </c>
       <c r="BM62">
         <f>'d7-to-d7'!F3 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.89</v>
       </c>
       <c r="BN62">
         <f>'d7-to-d7'!G3 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.89</v>
       </c>
       <c r="BO62">
         <f>'d7-to-d7'!H3 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.89</v>
       </c>
       <c r="BP62">
         <f>'d7-to-d7'!I3 * Gains!$H$8</f>
@@ -25275,7 +25275,7 @@
       </c>
       <c r="AI63">
         <f>'d7-to-PEG-PEN-PFN-PFL'!H4 * Gains!$F$8</f>
-        <v>-1</v>
+        <v>-0.44</v>
       </c>
       <c r="AJ63">
         <f>'d7-to-PEG-PEN-PFN-PFL'!I4 * Gains!$F$8</f>
@@ -25339,7 +25339,7 @@
       </c>
       <c r="AY63">
         <f>'d7-to-PEG-PEN-PFN-PFL'!H4 * Gains!$G$8</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AZ63">
         <f>'d7-to-PEG-PEN-PFN-PFL'!I4 * Gains!$G$8</f>
@@ -25375,11 +25375,11 @@
       </c>
       <c r="BH63">
         <f>'d7-to-d7'!A4 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.89</v>
       </c>
       <c r="BI63">
         <f>'d7-to-d7'!B4 * Gains!$H$8</f>
-        <v>-0.5</v>
+        <v>-0.44500000000000001</v>
       </c>
       <c r="BJ63">
         <f>'d7-to-d7'!C4 * Gains!$H$8</f>
@@ -25395,15 +25395,15 @@
       </c>
       <c r="BM63">
         <f>'d7-to-d7'!F4 * Gains!$H$8</f>
-        <v>-0.5</v>
+        <v>-0.44500000000000001</v>
       </c>
       <c r="BN63">
         <f>'d7-to-d7'!G4 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.89</v>
       </c>
       <c r="BO63">
         <f>'d7-to-d7'!H4 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.89</v>
       </c>
       <c r="BP63">
         <f>'d7-to-d7'!I4 * Gains!$H$8</f>
@@ -25698,7 +25698,7 @@
       </c>
       <c r="AB64">
         <f>'d7-to-PEG-PEN-PFN-PFL'!A5 * Gains!$F$8</f>
-        <v>-1</v>
+        <v>-0.44</v>
       </c>
       <c r="AC64">
         <f>'d7-to-PEG-PEN-PFN-PFL'!B5 * Gains!$F$8</f>
@@ -25762,7 +25762,7 @@
       </c>
       <c r="AR64">
         <f>'d7-to-PEG-PEN-PFN-PFL'!A5 * Gains!$G$8</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AS64">
         <f>'d7-to-PEG-PEN-PFN-PFL'!B5 * Gains!$G$8</f>
@@ -25826,15 +25826,15 @@
       </c>
       <c r="BH64">
         <f>'d7-to-d7'!A5 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.89</v>
       </c>
       <c r="BI64">
         <f>'d7-to-d7'!B5 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.89</v>
       </c>
       <c r="BJ64">
         <f>'d7-to-d7'!C5 * Gains!$H$8</f>
-        <v>-0.5</v>
+        <v>-0.44500000000000001</v>
       </c>
       <c r="BK64">
         <f>'d7-to-d7'!D5 * Gains!$H$8</f>
@@ -25850,11 +25850,11 @@
       </c>
       <c r="BN64">
         <f>'d7-to-d7'!G5 * Gains!$H$8</f>
-        <v>-0.5</v>
+        <v>-0.44500000000000001</v>
       </c>
       <c r="BO64">
         <f>'d7-to-d7'!H5 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.89</v>
       </c>
       <c r="BP64">
         <f>'d7-to-d7'!I5 * Gains!$H$8</f>
@@ -26153,7 +26153,7 @@
       </c>
       <c r="AC65">
         <f>'d7-to-PEG-PEN-PFN-PFL'!B6 * Gains!$F$8</f>
-        <v>-1</v>
+        <v>-0.44</v>
       </c>
       <c r="AD65">
         <f>'d7-to-PEG-PEN-PFN-PFL'!C6 * Gains!$F$8</f>
@@ -26217,7 +26217,7 @@
       </c>
       <c r="AS65">
         <f>'d7-to-PEG-PEN-PFN-PFL'!B6 * Gains!$G$8</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AT65">
         <f>'d7-to-PEG-PEN-PFN-PFL'!C6 * Gains!$G$8</f>
@@ -26277,19 +26277,19 @@
       </c>
       <c r="BH65">
         <f>'d7-to-d7'!A6 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.89</v>
       </c>
       <c r="BI65">
         <f>'d7-to-d7'!B6 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.89</v>
       </c>
       <c r="BJ65">
         <f>'d7-to-d7'!C6 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.89</v>
       </c>
       <c r="BK65">
         <f>'d7-to-d7'!D6 * Gains!$H$8</f>
-        <v>-0.5</v>
+        <v>-0.44500000000000001</v>
       </c>
       <c r="BL65">
         <f>'d7-to-d7'!E6 * Gains!$H$8</f>
@@ -26305,7 +26305,7 @@
       </c>
       <c r="BO65">
         <f>'d7-to-d7'!H6 * Gains!$H$8</f>
-        <v>-0.5</v>
+        <v>-0.44500000000000001</v>
       </c>
       <c r="BP65">
         <f>'d7-to-d7'!I6 * Gains!$H$8</f>
@@ -26608,7 +26608,7 @@
       </c>
       <c r="AD66">
         <f>'d7-to-PEG-PEN-PFN-PFL'!C7 * Gains!$F$8</f>
-        <v>-1</v>
+        <v>-0.44</v>
       </c>
       <c r="AE66">
         <f>'d7-to-PEG-PEN-PFN-PFL'!D7 * Gains!$F$8</f>
@@ -26672,7 +26672,7 @@
       </c>
       <c r="AT66">
         <f>'d7-to-PEG-PEN-PFN-PFL'!C7 * Gains!$G$8</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AU66">
         <f>'d7-to-PEG-PEN-PFN-PFL'!D7 * Gains!$G$8</f>
@@ -26728,23 +26728,23 @@
       </c>
       <c r="BH66">
         <f>'d7-to-d7'!A7 * Gains!$H$8</f>
-        <v>-0.5</v>
+        <v>-0.44500000000000001</v>
       </c>
       <c r="BI66">
         <f>'d7-to-d7'!B7 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.89</v>
       </c>
       <c r="BJ66">
         <f>'d7-to-d7'!C7 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.89</v>
       </c>
       <c r="BK66">
         <f>'d7-to-d7'!D7 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.89</v>
       </c>
       <c r="BL66">
         <f>'d7-to-d7'!E7 * Gains!$H$8</f>
-        <v>-0.5</v>
+        <v>-0.44500000000000001</v>
       </c>
       <c r="BM66">
         <f>'d7-to-d7'!F7 * Gains!$H$8</f>
@@ -27063,7 +27063,7 @@
       </c>
       <c r="AE67">
         <f>'d7-to-PEG-PEN-PFN-PFL'!D8 * Gains!$F$8</f>
-        <v>-1</v>
+        <v>-0.44</v>
       </c>
       <c r="AF67">
         <f>'d7-to-PEG-PEN-PFN-PFL'!E8 * Gains!$F$8</f>
@@ -27127,7 +27127,7 @@
       </c>
       <c r="AU67">
         <f>'d7-to-PEG-PEN-PFN-PFL'!D8 * Gains!$G$8</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AV67">
         <f>'d7-to-PEG-PEN-PFN-PFL'!E8 * Gains!$G$8</f>
@@ -27183,23 +27183,23 @@
       </c>
       <c r="BI67">
         <f>'d7-to-d7'!B8 * Gains!$H$8</f>
-        <v>-0.5</v>
+        <v>-0.44500000000000001</v>
       </c>
       <c r="BJ67">
         <f>'d7-to-d7'!C8 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.89</v>
       </c>
       <c r="BK67">
         <f>'d7-to-d7'!D8 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.89</v>
       </c>
       <c r="BL67">
         <f>'d7-to-d7'!E8 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.89</v>
       </c>
       <c r="BM67">
         <f>'d7-to-d7'!F8 * Gains!$H$8</f>
-        <v>-0.5</v>
+        <v>-0.44500000000000001</v>
       </c>
       <c r="BN67">
         <f>'d7-to-d7'!G8 * Gains!$H$8</f>
@@ -27550,7 +27550,7 @@
       </c>
       <c r="AN68">
         <f>'d7-to-PEG-PEN-PFN-PFL'!M9 * Gains!$F$8</f>
-        <v>-1</v>
+        <v>-0.44</v>
       </c>
       <c r="AO68">
         <f>'d7-to-PEG-PEN-PFN-PFL'!N9 * Gains!$F$8</f>
@@ -27614,7 +27614,7 @@
       </c>
       <c r="BD68">
         <f>'d7-to-PEG-PEN-PFN-PFL'!M9 * Gains!$G$8</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BE68">
         <f>'d7-to-PEG-PEN-PFN-PFL'!N9 * Gains!$G$8</f>
@@ -27670,23 +27670,23 @@
       </c>
       <c r="BR68">
         <f>'d7-to-d7'!K9 * Gains!$H$8</f>
-        <v>-0.5</v>
+        <v>-0.44500000000000001</v>
       </c>
       <c r="BS68">
         <f>'d7-to-d7'!L9 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.89</v>
       </c>
       <c r="BT68">
         <f>'d7-to-d7'!M9 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.89</v>
       </c>
       <c r="BU68">
         <f>'d7-to-d7'!N9 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.89</v>
       </c>
       <c r="BV68">
         <f>'d7-to-d7'!O9 * Gains!$H$8</f>
-        <v>-0.5</v>
+        <v>-0.44500000000000001</v>
       </c>
       <c r="BW68">
         <f>'d7-to-d7'!P9 * Gains!$H$8</f>
@@ -28005,7 +28005,7 @@
       </c>
       <c r="AO69">
         <f>'d7-to-PEG-PEN-PFN-PFL'!N10 * Gains!$F$8</f>
-        <v>-1</v>
+        <v>-0.44</v>
       </c>
       <c r="AP69">
         <f>'d7-to-PEG-PEN-PFN-PFL'!O10 * Gains!$F$8</f>
@@ -28069,7 +28069,7 @@
       </c>
       <c r="BE69">
         <f>'d7-to-PEG-PEN-PFN-PFL'!N10 * Gains!$G$8</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BF69">
         <f>'d7-to-PEG-PEN-PFN-PFL'!O10 * Gains!$G$8</f>
@@ -28125,23 +28125,23 @@
       </c>
       <c r="BS69">
         <f>'d7-to-d7'!L10 * Gains!$H$8</f>
-        <v>-0.5</v>
+        <v>-0.44500000000000001</v>
       </c>
       <c r="BT69">
         <f>'d7-to-d7'!M10 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.89</v>
       </c>
       <c r="BU69">
         <f>'d7-to-d7'!N10 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.89</v>
       </c>
       <c r="BV69">
         <f>'d7-to-d7'!O10 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.89</v>
       </c>
       <c r="BW69">
         <f>'d7-to-d7'!P10 * Gains!$H$8</f>
-        <v>-0.5</v>
+        <v>-0.44500000000000001</v>
       </c>
       <c r="BX69">
         <f>'d7-to-PEG-PEN-PFN-PFL'!A10 * Gains!$I$8</f>
@@ -28460,7 +28460,7 @@
       </c>
       <c r="AP70">
         <f>'d7-to-PEG-PEN-PFN-PFL'!O11 * Gains!$F$8</f>
-        <v>-1</v>
+        <v>-0.44</v>
       </c>
       <c r="AQ70">
         <f>'d7-to-PEG-PEN-PFN-PFL'!P11 * Gains!$F$8</f>
@@ -28524,7 +28524,7 @@
       </c>
       <c r="BF70">
         <f>'d7-to-PEG-PEN-PFN-PFL'!O11 * Gains!$G$8</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BG70">
         <f>'d7-to-PEG-PEN-PFN-PFL'!P11 * Gains!$G$8</f>
@@ -28564,7 +28564,7 @@
       </c>
       <c r="BP70">
         <f>'d7-to-d7'!I11 * Gains!$H$8</f>
-        <v>-0.5</v>
+        <v>-0.44500000000000001</v>
       </c>
       <c r="BQ70">
         <f>'d7-to-d7'!J11 * Gains!$H$8</f>
@@ -28580,19 +28580,19 @@
       </c>
       <c r="BT70">
         <f>'d7-to-d7'!M11 * Gains!$H$8</f>
-        <v>-0.5</v>
+        <v>-0.44500000000000001</v>
       </c>
       <c r="BU70">
         <f>'d7-to-d7'!N11 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.89</v>
       </c>
       <c r="BV70">
         <f>'d7-to-d7'!O11 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.89</v>
       </c>
       <c r="BW70">
         <f>'d7-to-d7'!P11 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.89</v>
       </c>
       <c r="BX70">
         <f>'d7-to-PEG-PEN-PFN-PFL'!A11 * Gains!$I$8</f>
@@ -28915,7 +28915,7 @@
       </c>
       <c r="AQ71">
         <f>'d7-to-PEG-PEN-PFN-PFL'!P12 * Gains!$F$8</f>
-        <v>-1</v>
+        <v>-0.44</v>
       </c>
       <c r="AR71">
         <f>'d7-to-PEG-PEN-PFN-PFL'!A12 * Gains!$G$8</f>
@@ -28979,7 +28979,7 @@
       </c>
       <c r="BG71">
         <f>'d7-to-PEG-PEN-PFN-PFL'!P12 * Gains!$G$8</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BH71">
         <f>'d7-to-d7'!A12 * Gains!$H$8</f>
@@ -29015,11 +29015,11 @@
       </c>
       <c r="BP71">
         <f>'d7-to-d7'!I12 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.89</v>
       </c>
       <c r="BQ71">
         <f>'d7-to-d7'!J12 * Gains!$H$8</f>
-        <v>-0.5</v>
+        <v>-0.44500000000000001</v>
       </c>
       <c r="BR71">
         <f>'d7-to-d7'!K12 * Gains!$H$8</f>
@@ -29035,15 +29035,15 @@
       </c>
       <c r="BU71">
         <f>'d7-to-d7'!N12 * Gains!$H$8</f>
-        <v>-0.5</v>
+        <v>-0.44500000000000001</v>
       </c>
       <c r="BV71">
         <f>'d7-to-d7'!O12 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.89</v>
       </c>
       <c r="BW71">
         <f>'d7-to-d7'!P12 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.89</v>
       </c>
       <c r="BX71">
         <f>'d7-to-PEG-PEN-PFN-PFL'!A12 * Gains!$I$8</f>
@@ -29338,7 +29338,7 @@
       </c>
       <c r="AJ72">
         <f>'d7-to-PEG-PEN-PFN-PFL'!I13 * Gains!$F$8</f>
-        <v>-1</v>
+        <v>-0.44</v>
       </c>
       <c r="AK72">
         <f>'d7-to-PEG-PEN-PFN-PFL'!J13 * Gains!$F$8</f>
@@ -29402,7 +29402,7 @@
       </c>
       <c r="AZ72">
         <f>'d7-to-PEG-PEN-PFN-PFL'!I13 * Gains!$G$8</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BA72">
         <f>'d7-to-PEG-PEN-PFN-PFL'!J13 * Gains!$G$8</f>
@@ -29466,15 +29466,15 @@
       </c>
       <c r="BP72">
         <f>'d7-to-d7'!I13 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.89</v>
       </c>
       <c r="BQ72">
         <f>'d7-to-d7'!J13 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.89</v>
       </c>
       <c r="BR72">
         <f>'d7-to-d7'!K13 * Gains!$H$8</f>
-        <v>-0.5</v>
+        <v>-0.44500000000000001</v>
       </c>
       <c r="BS72">
         <f>'d7-to-d7'!L13 * Gains!$H$8</f>
@@ -29490,11 +29490,11 @@
       </c>
       <c r="BV72">
         <f>'d7-to-d7'!O13 * Gains!$H$8</f>
-        <v>-0.5</v>
+        <v>-0.44500000000000001</v>
       </c>
       <c r="BW72">
         <f>'d7-to-d7'!P13 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.89</v>
       </c>
       <c r="BX72">
         <f>'d7-to-PEG-PEN-PFN-PFL'!A13 * Gains!$I$8</f>
@@ -29793,7 +29793,7 @@
       </c>
       <c r="AK73">
         <f>'d7-to-PEG-PEN-PFN-PFL'!J14 * Gains!$F$8</f>
-        <v>-1</v>
+        <v>-0.44</v>
       </c>
       <c r="AL73">
         <f>'d7-to-PEG-PEN-PFN-PFL'!K14 * Gains!$F$8</f>
@@ -29857,7 +29857,7 @@
       </c>
       <c r="BA73">
         <f>'d7-to-PEG-PEN-PFN-PFL'!J14 * Gains!$G$8</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BB73">
         <f>'d7-to-PEG-PEN-PFN-PFL'!K14 * Gains!$G$8</f>
@@ -29917,19 +29917,19 @@
       </c>
       <c r="BP73">
         <f>'d7-to-d7'!I14 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.89</v>
       </c>
       <c r="BQ73">
         <f>'d7-to-d7'!J14 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.89</v>
       </c>
       <c r="BR73">
         <f>'d7-to-d7'!K14 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.89</v>
       </c>
       <c r="BS73">
         <f>'d7-to-d7'!L14 * Gains!$H$8</f>
-        <v>-0.5</v>
+        <v>-0.44500000000000001</v>
       </c>
       <c r="BT73">
         <f>'d7-to-d7'!M14 * Gains!$H$8</f>
@@ -29945,7 +29945,7 @@
       </c>
       <c r="BW73">
         <f>'d7-to-d7'!P14 * Gains!$H$8</f>
-        <v>-0.5</v>
+        <v>-0.44500000000000001</v>
       </c>
       <c r="BX73">
         <f>'d7-to-PEG-PEN-PFN-PFL'!A14 * Gains!$I$8</f>
@@ -30248,7 +30248,7 @@
       </c>
       <c r="AL74">
         <f>'d7-to-PEG-PEN-PFN-PFL'!K15 * Gains!$F$8</f>
-        <v>-1</v>
+        <v>-0.44</v>
       </c>
       <c r="AM74">
         <f>'d7-to-PEG-PEN-PFN-PFL'!L15 * Gains!$F$8</f>
@@ -30312,7 +30312,7 @@
       </c>
       <c r="BB74">
         <f>'d7-to-PEG-PEN-PFN-PFL'!K15 * Gains!$G$8</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BC74">
         <f>'d7-to-PEG-PEN-PFN-PFL'!L15 * Gains!$G$8</f>
@@ -30368,23 +30368,23 @@
       </c>
       <c r="BP74">
         <f>'d7-to-d7'!I15 * Gains!$H$8</f>
-        <v>-0.5</v>
+        <v>-0.44500000000000001</v>
       </c>
       <c r="BQ74">
         <f>'d7-to-d7'!J15 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.89</v>
       </c>
       <c r="BR74">
         <f>'d7-to-d7'!K15 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.89</v>
       </c>
       <c r="BS74">
         <f>'d7-to-d7'!L15 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.89</v>
       </c>
       <c r="BT74">
         <f>'d7-to-d7'!M15 * Gains!$H$8</f>
-        <v>-0.5</v>
+        <v>-0.44500000000000001</v>
       </c>
       <c r="BU74">
         <f>'d7-to-d7'!N15 * Gains!$H$8</f>
@@ -30703,7 +30703,7 @@
       </c>
       <c r="AM75">
         <f>'d7-to-PEG-PEN-PFN-PFL'!L16 * Gains!$F$8</f>
-        <v>-1</v>
+        <v>-0.44</v>
       </c>
       <c r="AN75">
         <f>'d7-to-PEG-PEN-PFN-PFL'!M16 * Gains!$F$8</f>
@@ -30767,7 +30767,7 @@
       </c>
       <c r="BC75">
         <f>'d7-to-PEG-PEN-PFN-PFL'!L16 * Gains!$G$8</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BD75">
         <f>'d7-to-PEG-PEN-PFN-PFL'!M16 * Gains!$G$8</f>
@@ -30823,23 +30823,23 @@
       </c>
       <c r="BQ75">
         <f>'d7-to-d7'!J16 * Gains!$H$8</f>
-        <v>-0.5</v>
+        <v>-0.44500000000000001</v>
       </c>
       <c r="BR75">
         <f>'d7-to-d7'!K16 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.89</v>
       </c>
       <c r="BS75">
         <f>'d7-to-d7'!L16 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.89</v>
       </c>
       <c r="BT75">
         <f>'d7-to-d7'!M16 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.89</v>
       </c>
       <c r="BU75">
         <f>'d7-to-d7'!N16 * Gains!$H$8</f>
-        <v>-0.5</v>
+        <v>-0.44500000000000001</v>
       </c>
       <c r="BV75">
         <f>'d7-to-d7'!O16 * Gains!$H$8</f>
@@ -54564,7 +54564,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -54723,13 +54723,13 @@
         <v>12</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.24</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0.79</v>
       </c>
       <c r="I5" t="s">
         <v>12</v>
@@ -54755,7 +54755,7 @@
         <v>12</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0.68</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
@@ -54790,7 +54790,7 @@
         <v>12</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -54828,13 +54828,13 @@
         <v>12</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.44</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="I8">
         <v>1</v>

--- a/Theorical_connectivity_matrices.xlsx
+++ b/Theorical_connectivity_matrices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bclem\OneDrive\Documents\GitHub\Megalopta_CX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7BE9C51-C518-4246-825B-6C1655D041A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337C19B4-8C89-446A-B8C8-0484784C467D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{093D5FC8-3546-4B30-B5BC-72449F880B19}"/>
   </bookViews>
@@ -460,7 +460,7 @@
   <dimension ref="A1:DS123"/>
   <sheetViews>
     <sheetView topLeftCell="AP29" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="BG66" sqref="BG66"/>
+      <selection activeCell="AZ96" sqref="AZ96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4806,7 +4806,7 @@
       </c>
       <c r="AB12">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!A1 * Gains!$F$5</f>
-        <v>0.24</v>
+        <v>1</v>
       </c>
       <c r="AC12">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!B1 * Gains!$F$5</f>
@@ -4870,7 +4870,7 @@
       </c>
       <c r="AR12">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!A1 * Gains!$G$5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS12">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!B1 * Gains!$G$5</f>
@@ -4934,15 +4934,15 @@
       </c>
       <c r="BH12">
         <f>'EPG-to-d7'!A1 * Gains!$H$5</f>
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="BI12">
         <f>'EPG-to-d7'!B1 * Gains!$H$5</f>
-        <v>0.47399999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="BJ12">
         <f>'EPG-to-d7'!C1 * Gains!$H$5</f>
-        <v>0.15800000000000003</v>
+        <v>0.2</v>
       </c>
       <c r="BK12">
         <f>'EPG-to-d7'!D1 * Gains!$H$5</f>
@@ -4958,11 +4958,11 @@
       </c>
       <c r="BN12">
         <f>'EPG-to-d7'!G1 * Gains!$H$5</f>
-        <v>0.15800000000000003</v>
+        <v>0.2</v>
       </c>
       <c r="BO12">
         <f>'EPG-to-d7'!H1 * Gains!$H$5</f>
-        <v>0.47399999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="BP12">
         <f>'EPG-to-d7'!I1 * Gains!$H$5</f>
@@ -5229,7 +5229,7 @@
       </c>
       <c r="AC13">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!B2 * Gains!$F$5</f>
-        <v>0.24</v>
+        <v>1</v>
       </c>
       <c r="AD13">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!C2 * Gains!$F$5</f>
@@ -5293,7 +5293,7 @@
       </c>
       <c r="AS13">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!B2 * Gains!$G$5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT13">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!C2 * Gains!$G$5</f>
@@ -5353,19 +5353,19 @@
       </c>
       <c r="BH13">
         <f>'EPG-to-d7'!A2 * Gains!$H$5</f>
-        <v>0.47399999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="BI13">
         <f>'EPG-to-d7'!B2 * Gains!$H$5</f>
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="BJ13">
         <f>'EPG-to-d7'!C2 * Gains!$H$5</f>
-        <v>0.47399999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="BK13">
         <f>'EPG-to-d7'!D2 * Gains!$H$5</f>
-        <v>0.15800000000000003</v>
+        <v>0.2</v>
       </c>
       <c r="BL13">
         <f>'EPG-to-d7'!E2 * Gains!$H$5</f>
@@ -5381,7 +5381,7 @@
       </c>
       <c r="BO13">
         <f>'EPG-to-d7'!H2 * Gains!$H$5</f>
-        <v>0.15800000000000003</v>
+        <v>0.2</v>
       </c>
       <c r="BP13">
         <f>'EPG-to-d7'!I2 * Gains!$H$5</f>
@@ -5652,7 +5652,7 @@
       </c>
       <c r="AD14">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!C3 * Gains!$F$5</f>
-        <v>0.24</v>
+        <v>1</v>
       </c>
       <c r="AE14">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!D3 * Gains!$F$5</f>
@@ -5716,7 +5716,7 @@
       </c>
       <c r="AT14">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!C3 * Gains!$G$5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU14">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!D3 * Gains!$G$5</f>
@@ -5772,23 +5772,23 @@
       </c>
       <c r="BH14">
         <f>'EPG-to-d7'!A3 * Gains!$H$5</f>
-        <v>0.15800000000000003</v>
+        <v>0.2</v>
       </c>
       <c r="BI14">
         <f>'EPG-to-d7'!B3 * Gains!$H$5</f>
-        <v>0.47399999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="BJ14">
         <f>'EPG-to-d7'!C3 * Gains!$H$5</f>
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="BK14">
         <f>'EPG-to-d7'!D3 * Gains!$H$5</f>
-        <v>0.47399999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="BL14">
         <f>'EPG-to-d7'!E3 * Gains!$H$5</f>
-        <v>0.15800000000000003</v>
+        <v>0.2</v>
       </c>
       <c r="BM14">
         <f>'EPG-to-d7'!F3 * Gains!$H$5</f>
@@ -6075,7 +6075,7 @@
       </c>
       <c r="AE15">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!D4 * Gains!$F$5</f>
-        <v>0.24</v>
+        <v>1</v>
       </c>
       <c r="AF15">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!E4 * Gains!$F$5</f>
@@ -6139,7 +6139,7 @@
       </c>
       <c r="AU15">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!D4 * Gains!$G$5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV15">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!E4 * Gains!$G$5</f>
@@ -6195,23 +6195,23 @@
       </c>
       <c r="BI15">
         <f>'EPG-to-d7'!B4 * Gains!$H$5</f>
-        <v>0.15800000000000003</v>
+        <v>0.2</v>
       </c>
       <c r="BJ15">
         <f>'EPG-to-d7'!C4 * Gains!$H$5</f>
-        <v>0.47399999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="BK15">
         <f>'EPG-to-d7'!D4 * Gains!$H$5</f>
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="BL15">
         <f>'EPG-to-d7'!E4 * Gains!$H$5</f>
-        <v>0.47399999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="BM15">
         <f>'EPG-to-d7'!F4 * Gains!$H$5</f>
-        <v>0.15800000000000003</v>
+        <v>0.2</v>
       </c>
       <c r="BN15">
         <f>'EPG-to-d7'!G4 * Gains!$H$5</f>
@@ -6498,7 +6498,7 @@
       </c>
       <c r="AF16">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!E5 * Gains!$F$5</f>
-        <v>0.24</v>
+        <v>1</v>
       </c>
       <c r="AG16">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!F5 * Gains!$F$5</f>
@@ -6562,7 +6562,7 @@
       </c>
       <c r="AV16">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!E5 * Gains!$G$5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW16">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!F5 * Gains!$G$5</f>
@@ -6618,23 +6618,23 @@
       </c>
       <c r="BJ16">
         <f>'EPG-to-d7'!C5 * Gains!$H$5</f>
-        <v>0.15800000000000003</v>
+        <v>0.2</v>
       </c>
       <c r="BK16">
         <f>'EPG-to-d7'!D5 * Gains!$H$5</f>
-        <v>0.47399999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="BL16">
         <f>'EPG-to-d7'!E5 * Gains!$H$5</f>
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="BM16">
         <f>'EPG-to-d7'!F5 * Gains!$H$5</f>
-        <v>0.47399999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="BN16">
         <f>'EPG-to-d7'!G5 * Gains!$H$5</f>
-        <v>0.15800000000000003</v>
+        <v>0.2</v>
       </c>
       <c r="BO16">
         <f>'EPG-to-d7'!H5 * Gains!$H$5</f>
@@ -6921,7 +6921,7 @@
       </c>
       <c r="AG17">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!F6 * Gains!$F$5</f>
-        <v>0.24</v>
+        <v>1</v>
       </c>
       <c r="AH17">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!G6 * Gains!$F$5</f>
@@ -6985,7 +6985,7 @@
       </c>
       <c r="AW17">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!F6 * Gains!$G$5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX17">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!G6 * Gains!$G$5</f>
@@ -7041,23 +7041,23 @@
       </c>
       <c r="BK17">
         <f>'EPG-to-d7'!D6 * Gains!$H$5</f>
-        <v>0.15800000000000003</v>
+        <v>0.2</v>
       </c>
       <c r="BL17">
         <f>'EPG-to-d7'!E6 * Gains!$H$5</f>
-        <v>0.47399999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="BM17">
         <f>'EPG-to-d7'!F6 * Gains!$H$5</f>
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="BN17">
         <f>'EPG-to-d7'!G6 * Gains!$H$5</f>
-        <v>0.47399999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="BO17">
         <f>'EPG-to-d7'!H6 * Gains!$H$5</f>
-        <v>0.15800000000000003</v>
+        <v>0.2</v>
       </c>
       <c r="BP17">
         <f>'EPG-to-d7'!I6 * Gains!$H$5</f>
@@ -7344,7 +7344,7 @@
       </c>
       <c r="AH18">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!G7 * Gains!$F$5</f>
-        <v>0.24</v>
+        <v>1</v>
       </c>
       <c r="AI18">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!H7 * Gains!$F$5</f>
@@ -7408,7 +7408,7 @@
       </c>
       <c r="AX18">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!G7 * Gains!$G$5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY18">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!H7 * Gains!$G$5</f>
@@ -7448,7 +7448,7 @@
       </c>
       <c r="BH18">
         <f>'EPG-to-d7'!A7 * Gains!$H$5</f>
-        <v>0.15800000000000003</v>
+        <v>0.2</v>
       </c>
       <c r="BI18">
         <f>'EPG-to-d7'!B7 * Gains!$H$5</f>
@@ -7464,19 +7464,19 @@
       </c>
       <c r="BL18">
         <f>'EPG-to-d7'!E7 * Gains!$H$5</f>
-        <v>0.15800000000000003</v>
+        <v>0.2</v>
       </c>
       <c r="BM18">
         <f>'EPG-to-d7'!F7 * Gains!$H$5</f>
-        <v>0.47399999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="BN18">
         <f>'EPG-to-d7'!G7 * Gains!$H$5</f>
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="BO18">
         <f>'EPG-to-d7'!H7 * Gains!$H$5</f>
-        <v>0.47399999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="BP18">
         <f>'EPG-to-d7'!I7 * Gains!$H$5</f>
@@ -7767,7 +7767,7 @@
       </c>
       <c r="AI19">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!H8 * Gains!$F$5</f>
-        <v>0.24</v>
+        <v>1</v>
       </c>
       <c r="AJ19">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!I8 * Gains!$F$5</f>
@@ -7831,7 +7831,7 @@
       </c>
       <c r="AY19">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!H8 * Gains!$G$5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ19">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!I8 * Gains!$G$5</f>
@@ -7867,11 +7867,11 @@
       </c>
       <c r="BH19">
         <f>'EPG-to-d7'!A8 * Gains!$H$5</f>
-        <v>0.47399999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="BI19">
         <f>'EPG-to-d7'!B8 * Gains!$H$5</f>
-        <v>0.15800000000000003</v>
+        <v>0.2</v>
       </c>
       <c r="BJ19">
         <f>'EPG-to-d7'!C8 * Gains!$H$5</f>
@@ -7887,15 +7887,15 @@
       </c>
       <c r="BM19">
         <f>'EPG-to-d7'!F8 * Gains!$H$5</f>
-        <v>0.15800000000000003</v>
+        <v>0.2</v>
       </c>
       <c r="BN19">
         <f>'EPG-to-d7'!G8 * Gains!$H$5</f>
-        <v>0.47399999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="BO19">
         <f>'EPG-to-d7'!H8 * Gains!$H$5</f>
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="BP19">
         <f>'EPG-to-d7'!I8 * Gains!$H$5</f>
@@ -8190,7 +8190,7 @@
       </c>
       <c r="AJ20">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!I9 * Gains!$F$5</f>
-        <v>0.24</v>
+        <v>1</v>
       </c>
       <c r="AK20">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!J9 * Gains!$F$5</f>
@@ -8254,7 +8254,7 @@
       </c>
       <c r="AZ20">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!I9 * Gains!$G$5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA20">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!J9 * Gains!$G$5</f>
@@ -8318,15 +8318,15 @@
       </c>
       <c r="BP20">
         <f>'EPG-to-d7'!I9 * Gains!$H$5</f>
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="BQ20">
         <f>'EPG-to-d7'!J9 * Gains!$H$5</f>
-        <v>0.47399999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="BR20">
         <f>'EPG-to-d7'!K9 * Gains!$H$5</f>
-        <v>0.15800000000000003</v>
+        <v>0.2</v>
       </c>
       <c r="BS20">
         <f>'EPG-to-d7'!L9 * Gains!$H$5</f>
@@ -8342,11 +8342,11 @@
       </c>
       <c r="BV20">
         <f>'EPG-to-d7'!O9 * Gains!$H$5</f>
-        <v>0.15800000000000003</v>
+        <v>0.2</v>
       </c>
       <c r="BW20">
         <f>'EPG-to-d7'!P9 * Gains!$H$5</f>
-        <v>0.47399999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="BX20" s="3">
         <v>0</v>
@@ -8613,7 +8613,7 @@
       </c>
       <c r="AK21">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!J10 * Gains!$F$5</f>
-        <v>0.24</v>
+        <v>1</v>
       </c>
       <c r="AL21">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!K10 * Gains!$F$5</f>
@@ -8677,7 +8677,7 @@
       </c>
       <c r="BA21">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!J10 * Gains!$G$5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB21">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!K10 * Gains!$G$5</f>
@@ -8737,19 +8737,19 @@
       </c>
       <c r="BP21">
         <f>'EPG-to-d7'!I10 * Gains!$H$5</f>
-        <v>0.47399999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="BQ21">
         <f>'EPG-to-d7'!J10 * Gains!$H$5</f>
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="BR21">
         <f>'EPG-to-d7'!K10 * Gains!$H$5</f>
-        <v>0.47399999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="BS21">
         <f>'EPG-to-d7'!L10 * Gains!$H$5</f>
-        <v>0.15800000000000003</v>
+        <v>0.2</v>
       </c>
       <c r="BT21">
         <f>'EPG-to-d7'!M10 * Gains!$H$5</f>
@@ -8765,7 +8765,7 @@
       </c>
       <c r="BW21">
         <f>'EPG-to-d7'!P10 * Gains!$H$5</f>
-        <v>0.15800000000000003</v>
+        <v>0.2</v>
       </c>
       <c r="BX21" s="3">
         <v>0</v>
@@ -9036,7 +9036,7 @@
       </c>
       <c r="AL22">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!K11 * Gains!$F$5</f>
-        <v>0.24</v>
+        <v>1</v>
       </c>
       <c r="AM22">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!L11 * Gains!$F$5</f>
@@ -9100,7 +9100,7 @@
       </c>
       <c r="BB22">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!K11 * Gains!$G$5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC22">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!L11 * Gains!$G$5</f>
@@ -9156,23 +9156,23 @@
       </c>
       <c r="BP22">
         <f>'EPG-to-d7'!I11 * Gains!$H$5</f>
-        <v>0.15800000000000003</v>
+        <v>0.2</v>
       </c>
       <c r="BQ22">
         <f>'EPG-to-d7'!J11 * Gains!$H$5</f>
-        <v>0.47399999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="BR22">
         <f>'EPG-to-d7'!K11 * Gains!$H$5</f>
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="BS22">
         <f>'EPG-to-d7'!L11 * Gains!$H$5</f>
-        <v>0.47399999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="BT22">
         <f>'EPG-to-d7'!M11 * Gains!$H$5</f>
-        <v>0.15800000000000003</v>
+        <v>0.2</v>
       </c>
       <c r="BU22">
         <f>'EPG-to-d7'!N11 * Gains!$H$5</f>
@@ -9459,7 +9459,7 @@
       </c>
       <c r="AM23">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!L12 * Gains!$F$5</f>
-        <v>0.24</v>
+        <v>1</v>
       </c>
       <c r="AN23">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!M12 * Gains!$F$5</f>
@@ -9523,7 +9523,7 @@
       </c>
       <c r="BC23">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!L12 * Gains!$G$5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD23">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!M12 * Gains!$G$5</f>
@@ -9579,23 +9579,23 @@
       </c>
       <c r="BQ23">
         <f>'EPG-to-d7'!J12 * Gains!$H$5</f>
-        <v>0.15800000000000003</v>
+        <v>0.2</v>
       </c>
       <c r="BR23">
         <f>'EPG-to-d7'!K12 * Gains!$H$5</f>
-        <v>0.47399999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="BS23">
         <f>'EPG-to-d7'!L12 * Gains!$H$5</f>
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="BT23">
         <f>'EPG-to-d7'!M12 * Gains!$H$5</f>
-        <v>0.47399999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="BU23">
         <f>'EPG-to-d7'!N12 * Gains!$H$5</f>
-        <v>0.15800000000000003</v>
+        <v>0.2</v>
       </c>
       <c r="BV23">
         <f>'EPG-to-d7'!O12 * Gains!$H$5</f>
@@ -9882,7 +9882,7 @@
       </c>
       <c r="AN24">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!M13 * Gains!$F$5</f>
-        <v>0.24</v>
+        <v>1</v>
       </c>
       <c r="AO24">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!N13 * Gains!$F$5</f>
@@ -9946,7 +9946,7 @@
       </c>
       <c r="BD24">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!M13 * Gains!$G$5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE24">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!N13 * Gains!$G$5</f>
@@ -10002,23 +10002,23 @@
       </c>
       <c r="BR24">
         <f>'EPG-to-d7'!K13 * Gains!$H$5</f>
-        <v>0.15800000000000003</v>
+        <v>0.2</v>
       </c>
       <c r="BS24">
         <f>'EPG-to-d7'!L13 * Gains!$H$5</f>
-        <v>0.47399999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="BT24">
         <f>'EPG-to-d7'!M13 * Gains!$H$5</f>
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="BU24">
         <f>'EPG-to-d7'!N13 * Gains!$H$5</f>
-        <v>0.47399999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="BV24">
         <f>'EPG-to-d7'!O13 * Gains!$H$5</f>
-        <v>0.15800000000000003</v>
+        <v>0.2</v>
       </c>
       <c r="BW24">
         <f>'EPG-to-d7'!P13 * Gains!$H$5</f>
@@ -10305,7 +10305,7 @@
       </c>
       <c r="AO25">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!N14 * Gains!$F$5</f>
-        <v>0.24</v>
+        <v>1</v>
       </c>
       <c r="AP25">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!O14 * Gains!$F$5</f>
@@ -10369,7 +10369,7 @@
       </c>
       <c r="BE25">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!N14 * Gains!$G$5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF25">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!O14 * Gains!$G$5</f>
@@ -10425,23 +10425,23 @@
       </c>
       <c r="BS25">
         <f>'EPG-to-d7'!L14 * Gains!$H$5</f>
-        <v>0.15800000000000003</v>
+        <v>0.2</v>
       </c>
       <c r="BT25">
         <f>'EPG-to-d7'!M14 * Gains!$H$5</f>
-        <v>0.47399999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="BU25">
         <f>'EPG-to-d7'!N14 * Gains!$H$5</f>
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="BV25">
         <f>'EPG-to-d7'!O14 * Gains!$H$5</f>
-        <v>0.47399999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="BW25">
         <f>'EPG-to-d7'!P14 * Gains!$H$5</f>
-        <v>0.15800000000000003</v>
+        <v>0.2</v>
       </c>
       <c r="BX25" s="3">
         <v>0</v>
@@ -10728,7 +10728,7 @@
       </c>
       <c r="AP26">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!O15 * Gains!$F$5</f>
-        <v>0.24</v>
+        <v>1</v>
       </c>
       <c r="AQ26">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!P15 * Gains!$F$5</f>
@@ -10792,7 +10792,7 @@
       </c>
       <c r="BF26">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!O15 * Gains!$G$5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG26">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!P15 * Gains!$G$5</f>
@@ -10832,7 +10832,7 @@
       </c>
       <c r="BP26">
         <f>'EPG-to-d7'!I15 * Gains!$H$5</f>
-        <v>0.15800000000000003</v>
+        <v>0.2</v>
       </c>
       <c r="BQ26">
         <f>'EPG-to-d7'!J15 * Gains!$H$5</f>
@@ -10848,19 +10848,19 @@
       </c>
       <c r="BT26">
         <f>'EPG-to-d7'!M15 * Gains!$H$5</f>
-        <v>0.15800000000000003</v>
+        <v>0.2</v>
       </c>
       <c r="BU26">
         <f>'EPG-to-d7'!N15 * Gains!$H$5</f>
-        <v>0.47399999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="BV26">
         <f>'EPG-to-d7'!O15 * Gains!$H$5</f>
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="BW26">
         <f>'EPG-to-d7'!P15 * Gains!$H$5</f>
-        <v>0.47399999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="BX26" s="3">
         <v>0</v>
@@ -11151,7 +11151,7 @@
       </c>
       <c r="AQ27">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!P16 * Gains!$F$5</f>
-        <v>0.24</v>
+        <v>1</v>
       </c>
       <c r="AR27">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!A16 * Gains!$G$5</f>
@@ -11215,7 +11215,7 @@
       </c>
       <c r="BG27">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!P16 * Gains!$G$5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH27">
         <f>'EPG-to-d7'!A16 * Gains!$H$5</f>
@@ -11251,11 +11251,11 @@
       </c>
       <c r="BP27">
         <f>'EPG-to-d7'!I16 * Gains!$H$5</f>
-        <v>0.47399999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="BQ27">
         <f>'EPG-to-d7'!J16 * Gains!$H$5</f>
-        <v>0.15800000000000003</v>
+        <v>0.2</v>
       </c>
       <c r="BR27">
         <f>'EPG-to-d7'!K16 * Gains!$H$5</f>
@@ -11271,15 +11271,15 @@
       </c>
       <c r="BU27">
         <f>'EPG-to-d7'!N16 * Gains!$H$5</f>
-        <v>0.15800000000000003</v>
+        <v>0.2</v>
       </c>
       <c r="BV27">
         <f>'EPG-to-d7'!O16 * Gains!$H$5</f>
-        <v>0.47399999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="BW27">
         <f>'EPG-to-d7'!P16 * Gains!$H$5</f>
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="BX27" s="3">
         <v>0</v>
@@ -11462,7 +11462,7 @@
       </c>
       <c r="L28">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!A1 * Gains!$E$6</f>
-        <v>0.68</v>
+        <v>1</v>
       </c>
       <c r="M28">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!B1 * Gains!$E$6</f>
@@ -11853,7 +11853,7 @@
       </c>
       <c r="M29">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!B2 * Gains!$E$6</f>
-        <v>0.68</v>
+        <v>1</v>
       </c>
       <c r="N29">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!C2 * Gains!$E$6</f>
@@ -12244,7 +12244,7 @@
       </c>
       <c r="N30">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!C3 * Gains!$E$6</f>
-        <v>0.68</v>
+        <v>1</v>
       </c>
       <c r="O30">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!D3 * Gains!$E$6</f>
@@ -12635,7 +12635,7 @@
       </c>
       <c r="O31">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!D4 * Gains!$E$6</f>
-        <v>0.68</v>
+        <v>1</v>
       </c>
       <c r="P31">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!E4 * Gains!$E$6</f>
@@ -13026,7 +13026,7 @@
       </c>
       <c r="P32">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!E5 * Gains!$E$6</f>
-        <v>0.68</v>
+        <v>1</v>
       </c>
       <c r="Q32">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!F5 * Gains!$E$6</f>
@@ -13417,7 +13417,7 @@
       </c>
       <c r="Q33">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!F6 * Gains!$E$6</f>
-        <v>0.68</v>
+        <v>1</v>
       </c>
       <c r="R33">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!G6 * Gains!$E$6</f>
@@ -13808,7 +13808,7 @@
       </c>
       <c r="R34">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!G7 * Gains!$E$6</f>
-        <v>0.68</v>
+        <v>1</v>
       </c>
       <c r="S34">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!H7 * Gains!$E$6</f>
@@ -14199,7 +14199,7 @@
       </c>
       <c r="S35">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!H8 * Gains!$E$6</f>
-        <v>0.68</v>
+        <v>1</v>
       </c>
       <c r="T35">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!I8 * Gains!$E$6</f>
@@ -14590,7 +14590,7 @@
       </c>
       <c r="T36">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!I9 * Gains!$E$6</f>
-        <v>0.68</v>
+        <v>1</v>
       </c>
       <c r="U36">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!J9 * Gains!$E$6</f>
@@ -14981,7 +14981,7 @@
       </c>
       <c r="U37">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!J10 * Gains!$E$6</f>
-        <v>0.68</v>
+        <v>1</v>
       </c>
       <c r="V37">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!K10 * Gains!$E$6</f>
@@ -15372,7 +15372,7 @@
       </c>
       <c r="V38">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!K11 * Gains!$E$6</f>
-        <v>0.68</v>
+        <v>1</v>
       </c>
       <c r="W38">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!L11 * Gains!$E$6</f>
@@ -15763,7 +15763,7 @@
       </c>
       <c r="W39">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!L12 * Gains!$E$6</f>
-        <v>0.68</v>
+        <v>1</v>
       </c>
       <c r="X39">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!M12 * Gains!$E$6</f>
@@ -16154,7 +16154,7 @@
       </c>
       <c r="X40">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!M13 * Gains!$E$6</f>
-        <v>0.68</v>
+        <v>1</v>
       </c>
       <c r="Y40">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!N13 * Gains!$E$6</f>
@@ -16545,7 +16545,7 @@
       </c>
       <c r="Y41">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!N14 * Gains!$E$6</f>
-        <v>0.68</v>
+        <v>1</v>
       </c>
       <c r="Z41">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!O14 * Gains!$E$6</f>
@@ -16936,7 +16936,7 @@
       </c>
       <c r="Z42">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!O15 * Gains!$E$6</f>
-        <v>0.68</v>
+        <v>1</v>
       </c>
       <c r="AA42">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!P15 * Gains!$E$6</f>
@@ -17327,7 +17327,7 @@
       </c>
       <c r="AA43">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!P16 * Gains!$E$6</f>
-        <v>0.68</v>
+        <v>1</v>
       </c>
       <c r="AB43" s="3">
         <v>0</v>
@@ -17682,7 +17682,7 @@
       </c>
       <c r="S44">
         <f>'PEN-to-EPG'!H1 * Gains!$E$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T44">
         <f>'PEN-to-EPG'!I1 * Gains!$E$7</f>
@@ -17714,7 +17714,7 @@
       </c>
       <c r="AA44">
         <f>'PEN-to-EPG'!P1 * Gains!$E$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB44" s="1">
         <v>0</v>
@@ -18041,7 +18041,7 @@
       </c>
       <c r="L45">
         <f>'PEN-to-EPG'!A2 * Gains!$E$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45">
         <f>'PEN-to-EPG'!B2 * Gains!$E$7</f>
@@ -18073,7 +18073,7 @@
       </c>
       <c r="T45">
         <f>'PEN-to-EPG'!I2 * Gains!$E$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U45">
         <f>'PEN-to-EPG'!J2 * Gains!$E$7</f>
@@ -18432,7 +18432,7 @@
       </c>
       <c r="M46">
         <f>'PEN-to-EPG'!B3 * Gains!$E$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N46">
         <f>'PEN-to-EPG'!C3 * Gains!$E$7</f>
@@ -18464,7 +18464,7 @@
       </c>
       <c r="U46">
         <f>'PEN-to-EPG'!J3 * Gains!$E$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V46">
         <f>'PEN-to-EPG'!K3 * Gains!$E$7</f>
@@ -18823,7 +18823,7 @@
       </c>
       <c r="N47">
         <f>'PEN-to-EPG'!C4 * Gains!$E$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O47">
         <f>'PEN-to-EPG'!D4 * Gains!$E$7</f>
@@ -18855,7 +18855,7 @@
       </c>
       <c r="V47">
         <f>'PEN-to-EPG'!K4 * Gains!$E$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W47">
         <f>'PEN-to-EPG'!L4 * Gains!$E$7</f>
@@ -19214,7 +19214,7 @@
       </c>
       <c r="O48">
         <f>'PEN-to-EPG'!D5 * Gains!$E$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P48">
         <f>'PEN-to-EPG'!E5 * Gains!$E$7</f>
@@ -19246,7 +19246,7 @@
       </c>
       <c r="W48">
         <f>'PEN-to-EPG'!L5 * Gains!$E$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X48">
         <f>'PEN-to-EPG'!M5 * Gains!$E$7</f>
@@ -19605,7 +19605,7 @@
       </c>
       <c r="P49">
         <f>'PEN-to-EPG'!E6 * Gains!$E$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49">
         <f>'PEN-to-EPG'!F6 * Gains!$E$7</f>
@@ -19637,7 +19637,7 @@
       </c>
       <c r="X49">
         <f>'PEN-to-EPG'!M6 * Gains!$E$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y49">
         <f>'PEN-to-EPG'!N6 * Gains!$E$7</f>
@@ -19996,7 +19996,7 @@
       </c>
       <c r="Q50">
         <f>'PEN-to-EPG'!F7 * Gains!$E$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R50">
         <f>'PEN-to-EPG'!G7 * Gains!$E$7</f>
@@ -20028,7 +20028,7 @@
       </c>
       <c r="Y50">
         <f>'PEN-to-EPG'!N7 * Gains!$E$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z50">
         <f>'PEN-to-EPG'!O7 * Gains!$E$7</f>
@@ -20387,7 +20387,7 @@
       </c>
       <c r="R51">
         <f>'PEN-to-EPG'!G8 * Gains!$E$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S51">
         <f>'PEN-to-EPG'!H8 * Gains!$E$7</f>
@@ -20419,7 +20419,7 @@
       </c>
       <c r="Z51">
         <f>'PEN-to-EPG'!O8 * Gains!$E$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA51">
         <f>'PEN-to-EPG'!P8 * Gains!$E$7</f>
@@ -20754,7 +20754,7 @@
       </c>
       <c r="M52">
         <f>'PEN-to-EPG'!B9 * Gains!$E$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N52">
         <f>'PEN-to-EPG'!C9 * Gains!$E$7</f>
@@ -20786,7 +20786,7 @@
       </c>
       <c r="U52">
         <f>'PEN-to-EPG'!J9 * Gains!$E$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V52">
         <f>'PEN-to-EPG'!K9 * Gains!$E$7</f>
@@ -21145,7 +21145,7 @@
       </c>
       <c r="N53">
         <f>'PEN-to-EPG'!C10 * Gains!$E$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O53">
         <f>'PEN-to-EPG'!D10 * Gains!$E$7</f>
@@ -21177,7 +21177,7 @@
       </c>
       <c r="V53">
         <f>'PEN-to-EPG'!K10 * Gains!$E$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W53">
         <f>'PEN-to-EPG'!L10 * Gains!$E$7</f>
@@ -21536,7 +21536,7 @@
       </c>
       <c r="O54">
         <f>'PEN-to-EPG'!D11 * Gains!$E$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P54">
         <f>'PEN-to-EPG'!E11 * Gains!$E$7</f>
@@ -21568,7 +21568,7 @@
       </c>
       <c r="W54">
         <f>'PEN-to-EPG'!L11 * Gains!$E$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X54">
         <f>'PEN-to-EPG'!M11 * Gains!$E$7</f>
@@ -21927,7 +21927,7 @@
       </c>
       <c r="P55">
         <f>'PEN-to-EPG'!E12 * Gains!$E$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55">
         <f>'PEN-to-EPG'!F12 * Gains!$E$7</f>
@@ -21959,7 +21959,7 @@
       </c>
       <c r="X55">
         <f>'PEN-to-EPG'!M12 * Gains!$E$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y55">
         <f>'PEN-to-EPG'!N12 * Gains!$E$7</f>
@@ -22318,7 +22318,7 @@
       </c>
       <c r="Q56">
         <f>'PEN-to-EPG'!F13 * Gains!$E$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R56">
         <f>'PEN-to-EPG'!G13 * Gains!$E$7</f>
@@ -22350,7 +22350,7 @@
       </c>
       <c r="Y56">
         <f>'PEN-to-EPG'!N13 * Gains!$E$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z56">
         <f>'PEN-to-EPG'!O13 * Gains!$E$7</f>
@@ -22709,7 +22709,7 @@
       </c>
       <c r="R57">
         <f>'PEN-to-EPG'!G14 * Gains!$E$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S57">
         <f>'PEN-to-EPG'!H14 * Gains!$E$7</f>
@@ -22741,7 +22741,7 @@
       </c>
       <c r="Z57">
         <f>'PEN-to-EPG'!O14 * Gains!$E$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA57">
         <f>'PEN-to-EPG'!P14 * Gains!$E$7</f>
@@ -23100,7 +23100,7 @@
       </c>
       <c r="S58">
         <f>'PEN-to-EPG'!H15 * Gains!$E$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T58">
         <f>'PEN-to-EPG'!I15 * Gains!$E$7</f>
@@ -23132,7 +23132,7 @@
       </c>
       <c r="AA58">
         <f>'PEN-to-EPG'!P15 * Gains!$E$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB58" s="1">
         <v>0</v>
@@ -23459,7 +23459,7 @@
       </c>
       <c r="L59">
         <f>'PEN-to-EPG'!A16 * Gains!$E$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M59">
         <f>'PEN-to-EPG'!B16 * Gains!$E$7</f>
@@ -23491,7 +23491,7 @@
       </c>
       <c r="T59">
         <f>'PEN-to-EPG'!I16 * Gains!$E$7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U59">
         <f>'PEN-to-EPG'!J16 * Gains!$E$7</f>
@@ -23910,7 +23910,7 @@
       </c>
       <c r="AF60">
         <f>'d7-to-PEG-PEN-PFN-PFL'!E1 * Gains!$F$8</f>
-        <v>-0.44</v>
+        <v>-1</v>
       </c>
       <c r="AG60">
         <f>'d7-to-PEG-PEN-PFN-PFL'!F1 * Gains!$F$8</f>
@@ -23974,7 +23974,7 @@
       </c>
       <c r="AV60">
         <f>'d7-to-PEG-PEN-PFN-PFL'!E1 * Gains!$G$8</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AW60">
         <f>'d7-to-PEG-PEN-PFN-PFL'!F1 * Gains!$G$8</f>
@@ -24030,23 +24030,23 @@
       </c>
       <c r="BJ60">
         <f>'d7-to-d7'!C1 * Gains!$H$8</f>
-        <v>-0.44500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="BK60">
         <f>'d7-to-d7'!D1 * Gains!$H$8</f>
-        <v>-0.89</v>
+        <v>-1</v>
       </c>
       <c r="BL60">
         <f>'d7-to-d7'!E1 * Gains!$H$8</f>
-        <v>-0.89</v>
+        <v>-1</v>
       </c>
       <c r="BM60">
         <f>'d7-to-d7'!F1 * Gains!$H$8</f>
-        <v>-0.89</v>
+        <v>-1</v>
       </c>
       <c r="BN60">
         <f>'d7-to-d7'!G1 * Gains!$H$8</f>
-        <v>-0.44500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="BO60">
         <f>'d7-to-d7'!H1 * Gains!$H$8</f>
@@ -24365,7 +24365,7 @@
       </c>
       <c r="AG61">
         <f>'d7-to-PEG-PEN-PFN-PFL'!F2 * Gains!$F$8</f>
-        <v>-0.44</v>
+        <v>-1</v>
       </c>
       <c r="AH61">
         <f>'d7-to-PEG-PEN-PFN-PFL'!G2 * Gains!$F$8</f>
@@ -24429,7 +24429,7 @@
       </c>
       <c r="AW61">
         <f>'d7-to-PEG-PEN-PFN-PFL'!F2 * Gains!$G$8</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AX61">
         <f>'d7-to-PEG-PEN-PFN-PFL'!G2 * Gains!$G$8</f>
@@ -24485,23 +24485,23 @@
       </c>
       <c r="BK61">
         <f>'d7-to-d7'!D2 * Gains!$H$8</f>
-        <v>-0.44500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="BL61">
         <f>'d7-to-d7'!E2 * Gains!$H$8</f>
-        <v>-0.89</v>
+        <v>-1</v>
       </c>
       <c r="BM61">
         <f>'d7-to-d7'!F2 * Gains!$H$8</f>
-        <v>-0.89</v>
+        <v>-1</v>
       </c>
       <c r="BN61">
         <f>'d7-to-d7'!G2 * Gains!$H$8</f>
-        <v>-0.89</v>
+        <v>-1</v>
       </c>
       <c r="BO61">
         <f>'d7-to-d7'!H2 * Gains!$H$8</f>
-        <v>-0.44500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="BP61">
         <f>'d7-to-d7'!I2 * Gains!$H$8</f>
@@ -24820,7 +24820,7 @@
       </c>
       <c r="AH62">
         <f>'d7-to-PEG-PEN-PFN-PFL'!G3 * Gains!$F$8</f>
-        <v>-0.44</v>
+        <v>-1</v>
       </c>
       <c r="AI62">
         <f>'d7-to-PEG-PEN-PFN-PFL'!H3 * Gains!$F$8</f>
@@ -24884,7 +24884,7 @@
       </c>
       <c r="AX62">
         <f>'d7-to-PEG-PEN-PFN-PFL'!G3 * Gains!$G$8</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AY62">
         <f>'d7-to-PEG-PEN-PFN-PFL'!H3 * Gains!$G$8</f>
@@ -24924,7 +24924,7 @@
       </c>
       <c r="BH62">
         <f>'d7-to-d7'!A3 * Gains!$H$8</f>
-        <v>-0.44500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="BI62">
         <f>'d7-to-d7'!B3 * Gains!$H$8</f>
@@ -24940,19 +24940,19 @@
       </c>
       <c r="BL62">
         <f>'d7-to-d7'!E3 * Gains!$H$8</f>
-        <v>-0.44500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="BM62">
         <f>'d7-to-d7'!F3 * Gains!$H$8</f>
-        <v>-0.89</v>
+        <v>-1</v>
       </c>
       <c r="BN62">
         <f>'d7-to-d7'!G3 * Gains!$H$8</f>
-        <v>-0.89</v>
+        <v>-1</v>
       </c>
       <c r="BO62">
         <f>'d7-to-d7'!H3 * Gains!$H$8</f>
-        <v>-0.89</v>
+        <v>-1</v>
       </c>
       <c r="BP62">
         <f>'d7-to-d7'!I3 * Gains!$H$8</f>
@@ -25275,7 +25275,7 @@
       </c>
       <c r="AI63">
         <f>'d7-to-PEG-PEN-PFN-PFL'!H4 * Gains!$F$8</f>
-        <v>-0.44</v>
+        <v>-1</v>
       </c>
       <c r="AJ63">
         <f>'d7-to-PEG-PEN-PFN-PFL'!I4 * Gains!$F$8</f>
@@ -25339,7 +25339,7 @@
       </c>
       <c r="AY63">
         <f>'d7-to-PEG-PEN-PFN-PFL'!H4 * Gains!$G$8</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AZ63">
         <f>'d7-to-PEG-PEN-PFN-PFL'!I4 * Gains!$G$8</f>
@@ -25375,11 +25375,11 @@
       </c>
       <c r="BH63">
         <f>'d7-to-d7'!A4 * Gains!$H$8</f>
-        <v>-0.89</v>
+        <v>-1</v>
       </c>
       <c r="BI63">
         <f>'d7-to-d7'!B4 * Gains!$H$8</f>
-        <v>-0.44500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="BJ63">
         <f>'d7-to-d7'!C4 * Gains!$H$8</f>
@@ -25395,15 +25395,15 @@
       </c>
       <c r="BM63">
         <f>'d7-to-d7'!F4 * Gains!$H$8</f>
-        <v>-0.44500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="BN63">
         <f>'d7-to-d7'!G4 * Gains!$H$8</f>
-        <v>-0.89</v>
+        <v>-1</v>
       </c>
       <c r="BO63">
         <f>'d7-to-d7'!H4 * Gains!$H$8</f>
-        <v>-0.89</v>
+        <v>-1</v>
       </c>
       <c r="BP63">
         <f>'d7-to-d7'!I4 * Gains!$H$8</f>
@@ -25698,7 +25698,7 @@
       </c>
       <c r="AB64">
         <f>'d7-to-PEG-PEN-PFN-PFL'!A5 * Gains!$F$8</f>
-        <v>-0.44</v>
+        <v>-1</v>
       </c>
       <c r="AC64">
         <f>'d7-to-PEG-PEN-PFN-PFL'!B5 * Gains!$F$8</f>
@@ -25762,7 +25762,7 @@
       </c>
       <c r="AR64">
         <f>'d7-to-PEG-PEN-PFN-PFL'!A5 * Gains!$G$8</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AS64">
         <f>'d7-to-PEG-PEN-PFN-PFL'!B5 * Gains!$G$8</f>
@@ -25826,15 +25826,15 @@
       </c>
       <c r="BH64">
         <f>'d7-to-d7'!A5 * Gains!$H$8</f>
-        <v>-0.89</v>
+        <v>-1</v>
       </c>
       <c r="BI64">
         <f>'d7-to-d7'!B5 * Gains!$H$8</f>
-        <v>-0.89</v>
+        <v>-1</v>
       </c>
       <c r="BJ64">
         <f>'d7-to-d7'!C5 * Gains!$H$8</f>
-        <v>-0.44500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="BK64">
         <f>'d7-to-d7'!D5 * Gains!$H$8</f>
@@ -25850,11 +25850,11 @@
       </c>
       <c r="BN64">
         <f>'d7-to-d7'!G5 * Gains!$H$8</f>
-        <v>-0.44500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="BO64">
         <f>'d7-to-d7'!H5 * Gains!$H$8</f>
-        <v>-0.89</v>
+        <v>-1</v>
       </c>
       <c r="BP64">
         <f>'d7-to-d7'!I5 * Gains!$H$8</f>
@@ -26153,7 +26153,7 @@
       </c>
       <c r="AC65">
         <f>'d7-to-PEG-PEN-PFN-PFL'!B6 * Gains!$F$8</f>
-        <v>-0.44</v>
+        <v>-1</v>
       </c>
       <c r="AD65">
         <f>'d7-to-PEG-PEN-PFN-PFL'!C6 * Gains!$F$8</f>
@@ -26217,7 +26217,7 @@
       </c>
       <c r="AS65">
         <f>'d7-to-PEG-PEN-PFN-PFL'!B6 * Gains!$G$8</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AT65">
         <f>'d7-to-PEG-PEN-PFN-PFL'!C6 * Gains!$G$8</f>
@@ -26277,19 +26277,19 @@
       </c>
       <c r="BH65">
         <f>'d7-to-d7'!A6 * Gains!$H$8</f>
-        <v>-0.89</v>
+        <v>-1</v>
       </c>
       <c r="BI65">
         <f>'d7-to-d7'!B6 * Gains!$H$8</f>
-        <v>-0.89</v>
+        <v>-1</v>
       </c>
       <c r="BJ65">
         <f>'d7-to-d7'!C6 * Gains!$H$8</f>
-        <v>-0.89</v>
+        <v>-1</v>
       </c>
       <c r="BK65">
         <f>'d7-to-d7'!D6 * Gains!$H$8</f>
-        <v>-0.44500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="BL65">
         <f>'d7-to-d7'!E6 * Gains!$H$8</f>
@@ -26305,7 +26305,7 @@
       </c>
       <c r="BO65">
         <f>'d7-to-d7'!H6 * Gains!$H$8</f>
-        <v>-0.44500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="BP65">
         <f>'d7-to-d7'!I6 * Gains!$H$8</f>
@@ -26608,7 +26608,7 @@
       </c>
       <c r="AD66">
         <f>'d7-to-PEG-PEN-PFN-PFL'!C7 * Gains!$F$8</f>
-        <v>-0.44</v>
+        <v>-1</v>
       </c>
       <c r="AE66">
         <f>'d7-to-PEG-PEN-PFN-PFL'!D7 * Gains!$F$8</f>
@@ -26672,7 +26672,7 @@
       </c>
       <c r="AT66">
         <f>'d7-to-PEG-PEN-PFN-PFL'!C7 * Gains!$G$8</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AU66">
         <f>'d7-to-PEG-PEN-PFN-PFL'!D7 * Gains!$G$8</f>
@@ -26728,23 +26728,23 @@
       </c>
       <c r="BH66">
         <f>'d7-to-d7'!A7 * Gains!$H$8</f>
-        <v>-0.44500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="BI66">
         <f>'d7-to-d7'!B7 * Gains!$H$8</f>
-        <v>-0.89</v>
+        <v>-1</v>
       </c>
       <c r="BJ66">
         <f>'d7-to-d7'!C7 * Gains!$H$8</f>
-        <v>-0.89</v>
+        <v>-1</v>
       </c>
       <c r="BK66">
         <f>'d7-to-d7'!D7 * Gains!$H$8</f>
-        <v>-0.89</v>
+        <v>-1</v>
       </c>
       <c r="BL66">
         <f>'d7-to-d7'!E7 * Gains!$H$8</f>
-        <v>-0.44500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="BM66">
         <f>'d7-to-d7'!F7 * Gains!$H$8</f>
@@ -27063,7 +27063,7 @@
       </c>
       <c r="AE67">
         <f>'d7-to-PEG-PEN-PFN-PFL'!D8 * Gains!$F$8</f>
-        <v>-0.44</v>
+        <v>-1</v>
       </c>
       <c r="AF67">
         <f>'d7-to-PEG-PEN-PFN-PFL'!E8 * Gains!$F$8</f>
@@ -27127,7 +27127,7 @@
       </c>
       <c r="AU67">
         <f>'d7-to-PEG-PEN-PFN-PFL'!D8 * Gains!$G$8</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AV67">
         <f>'d7-to-PEG-PEN-PFN-PFL'!E8 * Gains!$G$8</f>
@@ -27183,23 +27183,23 @@
       </c>
       <c r="BI67">
         <f>'d7-to-d7'!B8 * Gains!$H$8</f>
-        <v>-0.44500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="BJ67">
         <f>'d7-to-d7'!C8 * Gains!$H$8</f>
-        <v>-0.89</v>
+        <v>-1</v>
       </c>
       <c r="BK67">
         <f>'d7-to-d7'!D8 * Gains!$H$8</f>
-        <v>-0.89</v>
+        <v>-1</v>
       </c>
       <c r="BL67">
         <f>'d7-to-d7'!E8 * Gains!$H$8</f>
-        <v>-0.89</v>
+        <v>-1</v>
       </c>
       <c r="BM67">
         <f>'d7-to-d7'!F8 * Gains!$H$8</f>
-        <v>-0.44500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="BN67">
         <f>'d7-to-d7'!G8 * Gains!$H$8</f>
@@ -27550,7 +27550,7 @@
       </c>
       <c r="AN68">
         <f>'d7-to-PEG-PEN-PFN-PFL'!M9 * Gains!$F$8</f>
-        <v>-0.44</v>
+        <v>-1</v>
       </c>
       <c r="AO68">
         <f>'d7-to-PEG-PEN-PFN-PFL'!N9 * Gains!$F$8</f>
@@ -27614,7 +27614,7 @@
       </c>
       <c r="BD68">
         <f>'d7-to-PEG-PEN-PFN-PFL'!M9 * Gains!$G$8</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BE68">
         <f>'d7-to-PEG-PEN-PFN-PFL'!N9 * Gains!$G$8</f>
@@ -27670,23 +27670,23 @@
       </c>
       <c r="BR68">
         <f>'d7-to-d7'!K9 * Gains!$H$8</f>
-        <v>-0.44500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="BS68">
         <f>'d7-to-d7'!L9 * Gains!$H$8</f>
-        <v>-0.89</v>
+        <v>-1</v>
       </c>
       <c r="BT68">
         <f>'d7-to-d7'!M9 * Gains!$H$8</f>
-        <v>-0.89</v>
+        <v>-1</v>
       </c>
       <c r="BU68">
         <f>'d7-to-d7'!N9 * Gains!$H$8</f>
-        <v>-0.89</v>
+        <v>-1</v>
       </c>
       <c r="BV68">
         <f>'d7-to-d7'!O9 * Gains!$H$8</f>
-        <v>-0.44500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="BW68">
         <f>'d7-to-d7'!P9 * Gains!$H$8</f>
@@ -28005,7 +28005,7 @@
       </c>
       <c r="AO69">
         <f>'d7-to-PEG-PEN-PFN-PFL'!N10 * Gains!$F$8</f>
-        <v>-0.44</v>
+        <v>-1</v>
       </c>
       <c r="AP69">
         <f>'d7-to-PEG-PEN-PFN-PFL'!O10 * Gains!$F$8</f>
@@ -28069,7 +28069,7 @@
       </c>
       <c r="BE69">
         <f>'d7-to-PEG-PEN-PFN-PFL'!N10 * Gains!$G$8</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BF69">
         <f>'d7-to-PEG-PEN-PFN-PFL'!O10 * Gains!$G$8</f>
@@ -28125,23 +28125,23 @@
       </c>
       <c r="BS69">
         <f>'d7-to-d7'!L10 * Gains!$H$8</f>
-        <v>-0.44500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="BT69">
         <f>'d7-to-d7'!M10 * Gains!$H$8</f>
-        <v>-0.89</v>
+        <v>-1</v>
       </c>
       <c r="BU69">
         <f>'d7-to-d7'!N10 * Gains!$H$8</f>
-        <v>-0.89</v>
+        <v>-1</v>
       </c>
       <c r="BV69">
         <f>'d7-to-d7'!O10 * Gains!$H$8</f>
-        <v>-0.89</v>
+        <v>-1</v>
       </c>
       <c r="BW69">
         <f>'d7-to-d7'!P10 * Gains!$H$8</f>
-        <v>-0.44500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="BX69">
         <f>'d7-to-PEG-PEN-PFN-PFL'!A10 * Gains!$I$8</f>
@@ -28460,7 +28460,7 @@
       </c>
       <c r="AP70">
         <f>'d7-to-PEG-PEN-PFN-PFL'!O11 * Gains!$F$8</f>
-        <v>-0.44</v>
+        <v>-1</v>
       </c>
       <c r="AQ70">
         <f>'d7-to-PEG-PEN-PFN-PFL'!P11 * Gains!$F$8</f>
@@ -28524,7 +28524,7 @@
       </c>
       <c r="BF70">
         <f>'d7-to-PEG-PEN-PFN-PFL'!O11 * Gains!$G$8</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BG70">
         <f>'d7-to-PEG-PEN-PFN-PFL'!P11 * Gains!$G$8</f>
@@ -28564,7 +28564,7 @@
       </c>
       <c r="BP70">
         <f>'d7-to-d7'!I11 * Gains!$H$8</f>
-        <v>-0.44500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="BQ70">
         <f>'d7-to-d7'!J11 * Gains!$H$8</f>
@@ -28580,19 +28580,19 @@
       </c>
       <c r="BT70">
         <f>'d7-to-d7'!M11 * Gains!$H$8</f>
-        <v>-0.44500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="BU70">
         <f>'d7-to-d7'!N11 * Gains!$H$8</f>
-        <v>-0.89</v>
+        <v>-1</v>
       </c>
       <c r="BV70">
         <f>'d7-to-d7'!O11 * Gains!$H$8</f>
-        <v>-0.89</v>
+        <v>-1</v>
       </c>
       <c r="BW70">
         <f>'d7-to-d7'!P11 * Gains!$H$8</f>
-        <v>-0.89</v>
+        <v>-1</v>
       </c>
       <c r="BX70">
         <f>'d7-to-PEG-PEN-PFN-PFL'!A11 * Gains!$I$8</f>
@@ -28915,7 +28915,7 @@
       </c>
       <c r="AQ71">
         <f>'d7-to-PEG-PEN-PFN-PFL'!P12 * Gains!$F$8</f>
-        <v>-0.44</v>
+        <v>-1</v>
       </c>
       <c r="AR71">
         <f>'d7-to-PEG-PEN-PFN-PFL'!A12 * Gains!$G$8</f>
@@ -28979,7 +28979,7 @@
       </c>
       <c r="BG71">
         <f>'d7-to-PEG-PEN-PFN-PFL'!P12 * Gains!$G$8</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BH71">
         <f>'d7-to-d7'!A12 * Gains!$H$8</f>
@@ -29015,11 +29015,11 @@
       </c>
       <c r="BP71">
         <f>'d7-to-d7'!I12 * Gains!$H$8</f>
-        <v>-0.89</v>
+        <v>-1</v>
       </c>
       <c r="BQ71">
         <f>'d7-to-d7'!J12 * Gains!$H$8</f>
-        <v>-0.44500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="BR71">
         <f>'d7-to-d7'!K12 * Gains!$H$8</f>
@@ -29035,15 +29035,15 @@
       </c>
       <c r="BU71">
         <f>'d7-to-d7'!N12 * Gains!$H$8</f>
-        <v>-0.44500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="BV71">
         <f>'d7-to-d7'!O12 * Gains!$H$8</f>
-        <v>-0.89</v>
+        <v>-1</v>
       </c>
       <c r="BW71">
         <f>'d7-to-d7'!P12 * Gains!$H$8</f>
-        <v>-0.89</v>
+        <v>-1</v>
       </c>
       <c r="BX71">
         <f>'d7-to-PEG-PEN-PFN-PFL'!A12 * Gains!$I$8</f>
@@ -29338,7 +29338,7 @@
       </c>
       <c r="AJ72">
         <f>'d7-to-PEG-PEN-PFN-PFL'!I13 * Gains!$F$8</f>
-        <v>-0.44</v>
+        <v>-1</v>
       </c>
       <c r="AK72">
         <f>'d7-to-PEG-PEN-PFN-PFL'!J13 * Gains!$F$8</f>
@@ -29402,7 +29402,7 @@
       </c>
       <c r="AZ72">
         <f>'d7-to-PEG-PEN-PFN-PFL'!I13 * Gains!$G$8</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BA72">
         <f>'d7-to-PEG-PEN-PFN-PFL'!J13 * Gains!$G$8</f>
@@ -29466,15 +29466,15 @@
       </c>
       <c r="BP72">
         <f>'d7-to-d7'!I13 * Gains!$H$8</f>
-        <v>-0.89</v>
+        <v>-1</v>
       </c>
       <c r="BQ72">
         <f>'d7-to-d7'!J13 * Gains!$H$8</f>
-        <v>-0.89</v>
+        <v>-1</v>
       </c>
       <c r="BR72">
         <f>'d7-to-d7'!K13 * Gains!$H$8</f>
-        <v>-0.44500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="BS72">
         <f>'d7-to-d7'!L13 * Gains!$H$8</f>
@@ -29490,11 +29490,11 @@
       </c>
       <c r="BV72">
         <f>'d7-to-d7'!O13 * Gains!$H$8</f>
-        <v>-0.44500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="BW72">
         <f>'d7-to-d7'!P13 * Gains!$H$8</f>
-        <v>-0.89</v>
+        <v>-1</v>
       </c>
       <c r="BX72">
         <f>'d7-to-PEG-PEN-PFN-PFL'!A13 * Gains!$I$8</f>
@@ -29793,7 +29793,7 @@
       </c>
       <c r="AK73">
         <f>'d7-to-PEG-PEN-PFN-PFL'!J14 * Gains!$F$8</f>
-        <v>-0.44</v>
+        <v>-1</v>
       </c>
       <c r="AL73">
         <f>'d7-to-PEG-PEN-PFN-PFL'!K14 * Gains!$F$8</f>
@@ -29857,7 +29857,7 @@
       </c>
       <c r="BA73">
         <f>'d7-to-PEG-PEN-PFN-PFL'!J14 * Gains!$G$8</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BB73">
         <f>'d7-to-PEG-PEN-PFN-PFL'!K14 * Gains!$G$8</f>
@@ -29917,19 +29917,19 @@
       </c>
       <c r="BP73">
         <f>'d7-to-d7'!I14 * Gains!$H$8</f>
-        <v>-0.89</v>
+        <v>-1</v>
       </c>
       <c r="BQ73">
         <f>'d7-to-d7'!J14 * Gains!$H$8</f>
-        <v>-0.89</v>
+        <v>-1</v>
       </c>
       <c r="BR73">
         <f>'d7-to-d7'!K14 * Gains!$H$8</f>
-        <v>-0.89</v>
+        <v>-1</v>
       </c>
       <c r="BS73">
         <f>'d7-to-d7'!L14 * Gains!$H$8</f>
-        <v>-0.44500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="BT73">
         <f>'d7-to-d7'!M14 * Gains!$H$8</f>
@@ -29945,7 +29945,7 @@
       </c>
       <c r="BW73">
         <f>'d7-to-d7'!P14 * Gains!$H$8</f>
-        <v>-0.44500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="BX73">
         <f>'d7-to-PEG-PEN-PFN-PFL'!A14 * Gains!$I$8</f>
@@ -30248,7 +30248,7 @@
       </c>
       <c r="AL74">
         <f>'d7-to-PEG-PEN-PFN-PFL'!K15 * Gains!$F$8</f>
-        <v>-0.44</v>
+        <v>-1</v>
       </c>
       <c r="AM74">
         <f>'d7-to-PEG-PEN-PFN-PFL'!L15 * Gains!$F$8</f>
@@ -30312,7 +30312,7 @@
       </c>
       <c r="BB74">
         <f>'d7-to-PEG-PEN-PFN-PFL'!K15 * Gains!$G$8</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BC74">
         <f>'d7-to-PEG-PEN-PFN-PFL'!L15 * Gains!$G$8</f>
@@ -30368,23 +30368,23 @@
       </c>
       <c r="BP74">
         <f>'d7-to-d7'!I15 * Gains!$H$8</f>
-        <v>-0.44500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="BQ74">
         <f>'d7-to-d7'!J15 * Gains!$H$8</f>
-        <v>-0.89</v>
+        <v>-1</v>
       </c>
       <c r="BR74">
         <f>'d7-to-d7'!K15 * Gains!$H$8</f>
-        <v>-0.89</v>
+        <v>-1</v>
       </c>
       <c r="BS74">
         <f>'d7-to-d7'!L15 * Gains!$H$8</f>
-        <v>-0.89</v>
+        <v>-1</v>
       </c>
       <c r="BT74">
         <f>'d7-to-d7'!M15 * Gains!$H$8</f>
-        <v>-0.44500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="BU74">
         <f>'d7-to-d7'!N15 * Gains!$H$8</f>
@@ -30703,7 +30703,7 @@
       </c>
       <c r="AM75">
         <f>'d7-to-PEG-PEN-PFN-PFL'!L16 * Gains!$F$8</f>
-        <v>-0.44</v>
+        <v>-1</v>
       </c>
       <c r="AN75">
         <f>'d7-to-PEG-PEN-PFN-PFL'!M16 * Gains!$F$8</f>
@@ -30767,7 +30767,7 @@
       </c>
       <c r="BC75">
         <f>'d7-to-PEG-PEN-PFN-PFL'!L16 * Gains!$G$8</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BD75">
         <f>'d7-to-PEG-PEN-PFN-PFL'!M16 * Gains!$G$8</f>
@@ -30823,23 +30823,23 @@
       </c>
       <c r="BQ75">
         <f>'d7-to-d7'!J16 * Gains!$H$8</f>
-        <v>-0.44500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="BR75">
         <f>'d7-to-d7'!K16 * Gains!$H$8</f>
-        <v>-0.89</v>
+        <v>-1</v>
       </c>
       <c r="BS75">
         <f>'d7-to-d7'!L16 * Gains!$H$8</f>
-        <v>-0.89</v>
+        <v>-1</v>
       </c>
       <c r="BT75">
         <f>'d7-to-d7'!M16 * Gains!$H$8</f>
-        <v>-0.89</v>
+        <v>-1</v>
       </c>
       <c r="BU75">
         <f>'d7-to-d7'!N16 * Gains!$H$8</f>
-        <v>-0.44500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="BV75">
         <f>'d7-to-d7'!O16 * Gains!$H$8</f>
@@ -31306,7 +31306,7 @@
       </c>
       <c r="CO76" s="1">
         <f>'PFN-to-PFL-hd'!B1</f>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="CP76" s="1">
         <f>'PFN-to-PFL-hd'!C1</f>
@@ -31370,7 +31370,7 @@
       </c>
       <c r="DE76" s="3">
         <f>'PFN-to-PFL-hd'!B1 * Gains!$K$9</f>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="DF76" s="3">
         <f>'PFN-to-PFL-hd'!C1 * Gains!$K$9</f>
@@ -31713,7 +31713,7 @@
       </c>
       <c r="CP77" s="1">
         <f>'PFN-to-PFL-hd'!C2</f>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="CQ77" s="1">
         <f>'PFN-to-PFL-hd'!D2</f>
@@ -31777,7 +31777,7 @@
       </c>
       <c r="DF77" s="3">
         <f>'PFN-to-PFL-hd'!C2 * Gains!$K$9</f>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="DG77" s="3">
         <f>'PFN-to-PFL-hd'!D2 * Gains!$K$9</f>
@@ -32120,7 +32120,7 @@
       </c>
       <c r="CQ78" s="1">
         <f>'PFN-to-PFL-hd'!D3</f>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="CR78" s="1">
         <f>'PFN-to-PFL-hd'!E3</f>
@@ -32184,7 +32184,7 @@
       </c>
       <c r="DG78" s="3">
         <f>'PFN-to-PFL-hd'!D3 * Gains!$K$9</f>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="DH78" s="3">
         <f>'PFN-to-PFL-hd'!E3 * Gains!$K$9</f>
@@ -32527,7 +32527,7 @@
       </c>
       <c r="CR79" s="1">
         <f>'PFN-to-PFL-hd'!E4</f>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="CS79" s="1">
         <f>'PFN-to-PFL-hd'!F4</f>
@@ -32591,7 +32591,7 @@
       </c>
       <c r="DH79" s="3">
         <f>'PFN-to-PFL-hd'!E4 * Gains!$K$9</f>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="DI79" s="3">
         <f>'PFN-to-PFL-hd'!F4 * Gains!$K$9</f>
@@ -32934,7 +32934,7 @@
       </c>
       <c r="CS80" s="1">
         <f>'PFN-to-PFL-hd'!F5</f>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="CT80" s="1">
         <f>'PFN-to-PFL-hd'!G5</f>
@@ -32998,7 +32998,7 @@
       </c>
       <c r="DI80" s="3">
         <f>'PFN-to-PFL-hd'!F5 * Gains!$K$9</f>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="DJ80" s="3">
         <f>'PFN-to-PFL-hd'!G5 * Gains!$K$9</f>
@@ -33341,7 +33341,7 @@
       </c>
       <c r="CT81" s="1">
         <f>'PFN-to-PFL-hd'!G6</f>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="CU81" s="1">
         <f>'PFN-to-PFL-hd'!H6</f>
@@ -33405,7 +33405,7 @@
       </c>
       <c r="DJ81" s="3">
         <f>'PFN-to-PFL-hd'!G6 * Gains!$K$9</f>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="DK81" s="3">
         <f>'PFN-to-PFL-hd'!H6 * Gains!$K$9</f>
@@ -33748,7 +33748,7 @@
       </c>
       <c r="CU82" s="1">
         <f>'PFN-to-PFL-hd'!H7</f>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="CV82" s="1">
         <f>'PFN-to-PFL-hd'!I7</f>
@@ -33812,7 +33812,7 @@
       </c>
       <c r="DK82" s="3">
         <f>'PFN-to-PFL-hd'!H7 * Gains!$K$9</f>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="DL82" s="3">
         <f>'PFN-to-PFL-hd'!I7 * Gains!$K$9</f>
@@ -34123,7 +34123,7 @@
       </c>
       <c r="CN83" s="1">
         <f>'PFN-to-PFL-hd'!A8</f>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="CO83" s="1">
         <f>'PFN-to-PFL-hd'!B8</f>
@@ -34187,7 +34187,7 @@
       </c>
       <c r="DD83" s="3">
         <f>'PFN-to-PFL-hd'!A8 * Gains!$K$9</f>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="DE83" s="3">
         <f>'PFN-to-PFL-hd'!B8 * Gains!$K$9</f>
@@ -34586,7 +34586,7 @@
       </c>
       <c r="DC84" s="1">
         <f>'PFN-to-PFL-hd'!P9</f>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="DD84" s="3">
         <f>'PFN-to-PFL-hd'!A9 * Gains!$K$9</f>
@@ -34650,7 +34650,7 @@
       </c>
       <c r="DS84" s="3">
         <f>'PFN-to-PFL-hd'!P9 * Gains!$K$9</f>
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:123" x14ac:dyDescent="0.25">
@@ -34961,7 +34961,7 @@
       </c>
       <c r="CV85" s="1">
         <f>'PFN-to-PFL-hd'!I10</f>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="CW85" s="1">
         <f>'PFN-to-PFL-hd'!J10</f>
@@ -35025,7 +35025,7 @@
       </c>
       <c r="DL85" s="3">
         <f>'PFN-to-PFL-hd'!I10 * Gains!$K$9</f>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="DM85" s="3">
         <f>'PFN-to-PFL-hd'!J10 * Gains!$K$9</f>
@@ -35368,7 +35368,7 @@
       </c>
       <c r="CW86" s="1">
         <f>'PFN-to-PFL-hd'!J11</f>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="CX86" s="1">
         <f>'PFN-to-PFL-hd'!K11</f>
@@ -35432,7 +35432,7 @@
       </c>
       <c r="DM86" s="3">
         <f>'PFN-to-PFL-hd'!J11 * Gains!$K$9</f>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="DN86" s="3">
         <f>'PFN-to-PFL-hd'!K11 * Gains!$K$9</f>
@@ -35775,7 +35775,7 @@
       </c>
       <c r="CX87" s="1">
         <f>'PFN-to-PFL-hd'!K12</f>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="CY87" s="1">
         <f>'PFN-to-PFL-hd'!L12</f>
@@ -35839,7 +35839,7 @@
       </c>
       <c r="DN87" s="3">
         <f>'PFN-to-PFL-hd'!K12 * Gains!$K$9</f>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="DO87" s="3">
         <f>'PFN-to-PFL-hd'!L12 * Gains!$K$9</f>
@@ -36182,7 +36182,7 @@
       </c>
       <c r="CY88" s="1">
         <f>'PFN-to-PFL-hd'!L13</f>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="CZ88" s="1">
         <f>'PFN-to-PFL-hd'!M13</f>
@@ -36246,7 +36246,7 @@
       </c>
       <c r="DO88" s="3">
         <f>'PFN-to-PFL-hd'!L13 * Gains!$K$9</f>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="DP88" s="3">
         <f>'PFN-to-PFL-hd'!M13 * Gains!$K$9</f>
@@ -36589,7 +36589,7 @@
       </c>
       <c r="CZ89" s="1">
         <f>'PFN-to-PFL-hd'!M14</f>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="DA89" s="1">
         <f>'PFN-to-PFL-hd'!N14</f>
@@ -36653,7 +36653,7 @@
       </c>
       <c r="DP89" s="3">
         <f>'PFN-to-PFL-hd'!M14 * Gains!$K$9</f>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="DQ89" s="3">
         <f>'PFN-to-PFL-hd'!N14 * Gains!$K$9</f>
@@ -36996,7 +36996,7 @@
       </c>
       <c r="DA90" s="1">
         <f>'PFN-to-PFL-hd'!N15</f>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="DB90" s="1">
         <f>'PFN-to-PFL-hd'!O15</f>
@@ -37060,7 +37060,7 @@
       </c>
       <c r="DQ90" s="3">
         <f>'PFN-to-PFL-hd'!N15 * Gains!$K$9</f>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="DR90" s="3">
         <f>'PFN-to-PFL-hd'!O15 * Gains!$K$9</f>
@@ -37403,7 +37403,7 @@
       </c>
       <c r="DB91" s="1">
         <f>'PFN-to-PFL-hd'!O16</f>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="DC91" s="1">
         <f>'PFN-to-PFL-hd'!P16</f>
@@ -37467,7 +37467,7 @@
       </c>
       <c r="DR91" s="3">
         <f>'PFN-to-PFL-hd'!O16 * Gains!$K$9</f>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="DS91" s="3">
         <f>'PFN-to-PFL-hd'!P16 * Gains!$K$9</f>
@@ -37750,7 +37750,7 @@
       </c>
       <c r="CN92" s="3">
         <f>'hd-to-hd'!A1</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="CO92" s="3">
         <f>'hd-to-hd'!B1</f>
@@ -38157,7 +38157,7 @@
       </c>
       <c r="CO93" s="3">
         <f>'hd-to-hd'!B2</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="CP93" s="3">
         <f>'hd-to-hd'!C2</f>
@@ -38564,7 +38564,7 @@
       </c>
       <c r="CP94" s="3">
         <f>'hd-to-hd'!C3</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="CQ94" s="3">
         <f>'hd-to-hd'!D3</f>
@@ -38971,7 +38971,7 @@
       </c>
       <c r="CQ95" s="3">
         <f>'hd-to-hd'!D4</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="CR95" s="3">
         <f>'hd-to-hd'!E4</f>
@@ -39378,7 +39378,7 @@
       </c>
       <c r="CR96" s="3">
         <f>'hd-to-hd'!E5</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="CS96" s="3">
         <f>'hd-to-hd'!F5</f>
@@ -39785,7 +39785,7 @@
       </c>
       <c r="CS97" s="3">
         <f>'hd-to-hd'!F6</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="CT97" s="3">
         <f>'hd-to-hd'!G6</f>
@@ -40192,7 +40192,7 @@
       </c>
       <c r="CT98" s="3">
         <f>'hd-to-hd'!G7</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="CU98" s="3">
         <f>'hd-to-hd'!H7</f>
@@ -40599,7 +40599,7 @@
       </c>
       <c r="CU99" s="3">
         <f>'hd-to-hd'!H8</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="CV99" s="3">
         <f>'hd-to-hd'!I8</f>
@@ -41006,7 +41006,7 @@
       </c>
       <c r="CV100" s="3">
         <f>'hd-to-hd'!I9</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="CW100" s="3">
         <f>'hd-to-hd'!J9</f>
@@ -41413,7 +41413,7 @@
       </c>
       <c r="CW101" s="3">
         <f>'hd-to-hd'!J10</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="CX101" s="3">
         <f>'hd-to-hd'!K10</f>
@@ -41820,7 +41820,7 @@
       </c>
       <c r="CX102" s="3">
         <f>'hd-to-hd'!K11</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="CY102" s="3">
         <f>'hd-to-hd'!L11</f>
@@ -42227,7 +42227,7 @@
       </c>
       <c r="CY103" s="3">
         <f>'hd-to-hd'!L12</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="CZ103" s="3">
         <f>'hd-to-hd'!M12</f>
@@ -42634,7 +42634,7 @@
       </c>
       <c r="CZ104" s="3">
         <f>'hd-to-hd'!M13</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="DA104" s="3">
         <f>'hd-to-hd'!N13</f>
@@ -43041,7 +43041,7 @@
       </c>
       <c r="DA105" s="3">
         <f>'hd-to-hd'!N14</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="DB105" s="3">
         <f>'hd-to-hd'!O14</f>
@@ -43448,7 +43448,7 @@
       </c>
       <c r="DB106" s="3">
         <f>'hd-to-hd'!O15</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="DC106" s="3">
         <f>'hd-to-hd'!P15</f>
@@ -43855,7 +43855,7 @@
       </c>
       <c r="DC107" s="3">
         <f>'hd-to-hd'!P16</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="DD107" s="1">
         <f>'hd-to-PFL'!A16 * Gains!$K$10</f>
@@ -49905,7 +49905,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P40" sqref="P40"/>
+      <selection sqref="A1:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -51559,7 +51559,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection sqref="A1:P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -51569,7 +51569,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="C1">
         <v>0</v>
@@ -51622,7 +51622,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -51675,7 +51675,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -51728,7 +51728,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -51781,7 +51781,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -51834,7 +51834,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -51887,7 +51887,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -51916,7 +51916,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -52011,7 +52011,7 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -52040,7 +52040,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -52093,7 +52093,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -52146,7 +52146,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -52199,7 +52199,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -52252,7 +52252,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -52305,7 +52305,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -52358,7 +52358,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -53220,7 +53220,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -53273,7 +53273,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -53326,7 +53326,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -53379,7 +53379,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -53432,7 +53432,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -53485,7 +53485,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -53538,7 +53538,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -53591,7 +53591,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -53644,7 +53644,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -53697,7 +53697,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -53750,7 +53750,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -53803,7 +53803,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -53856,7 +53856,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -53909,7 +53909,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -53962,7 +53962,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -54015,7 +54015,7 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -54040,7 +54040,7 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -54564,7 +54564,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -54723,13 +54723,13 @@
         <v>12</v>
       </c>
       <c r="F5">
-        <v>0.24</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="I5" t="s">
         <v>12</v>
@@ -54755,7 +54755,7 @@
         <v>12</v>
       </c>
       <c r="E6">
-        <v>0.68</v>
+        <v>1</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
@@ -54790,7 +54790,7 @@
         <v>12</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -54828,13 +54828,13 @@
         <v>12</v>
       </c>
       <c r="F8">
-        <v>0.44</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -55400,7 +55400,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -55604,7 +55604,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+      <selection activeCell="A9" sqref="A9:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -56431,7 +56431,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -56441,84 +56441,84 @@
         <v>0</v>
       </c>
       <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>0</v>
+      </c>
+      <c r="H1">
         <v>1</v>
       </c>
-      <c r="C1">
-        <v>0</v>
-      </c>
-      <c r="D1">
-        <v>0</v>
-      </c>
-      <c r="E1">
-        <v>0</v>
-      </c>
-      <c r="F1">
-        <v>0</v>
-      </c>
-      <c r="G1">
-        <v>0</v>
-      </c>
-      <c r="H1">
-        <v>0</v>
-      </c>
       <c r="I1">
         <v>0</v>
       </c>
       <c r="J1">
+        <v>0</v>
+      </c>
+      <c r="K1">
+        <v>0</v>
+      </c>
+      <c r="L1">
+        <v>0</v>
+      </c>
+      <c r="M1">
+        <v>0</v>
+      </c>
+      <c r="N1">
+        <v>0</v>
+      </c>
+      <c r="O1">
+        <v>0</v>
+      </c>
+      <c r="P1">
         <v>1</v>
-      </c>
-      <c r="K1">
-        <v>0</v>
-      </c>
-      <c r="L1">
-        <v>0</v>
-      </c>
-      <c r="M1">
-        <v>0</v>
-      </c>
-      <c r="N1">
-        <v>0</v>
-      </c>
-      <c r="O1">
-        <v>0</v>
-      </c>
-      <c r="P1">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
         <v>1</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -56541,37 +56541,37 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
         <v>1</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -56594,37 +56594,37 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
         <v>1</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -56647,37 +56647,37 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
         <v>1</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -56700,37 +56700,37 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
         <v>1</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -56753,84 +56753,84 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
         <v>1</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
         <v>1</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
         <v>1</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -56841,7 +56841,7 @@
         <v>0</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -56859,14 +56859,14 @@
         <v>0</v>
       </c>
       <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
         <v>1</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
       <c r="K9">
         <v>0</v>
       </c>
@@ -56883,19 +56883,19 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
         <v>1</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
       <c r="D10">
         <v>0</v>
       </c>
@@ -56912,13 +56912,13 @@
         <v>0</v>
       </c>
       <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
         <v>1</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -56941,14 +56941,14 @@
         <v>0</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
         <v>1</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
       <c r="E11">
         <v>0</v>
       </c>
@@ -56965,13 +56965,13 @@
         <v>0</v>
       </c>
       <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
         <v>1</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -56994,14 +56994,14 @@
         <v>0</v>
       </c>
       <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
         <v>1</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
       <c r="F12">
         <v>0</v>
       </c>
@@ -57018,13 +57018,13 @@
         <v>0</v>
       </c>
       <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
         <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -57047,14 +57047,14 @@
         <v>0</v>
       </c>
       <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
         <v>1</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
       <c r="G13">
         <v>0</v>
       </c>
@@ -57071,13 +57071,13 @@
         <v>0</v>
       </c>
       <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
         <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -57100,14 +57100,14 @@
         <v>0</v>
       </c>
       <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
         <v>1</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
       <c r="H14">
         <v>0</v>
       </c>
@@ -57124,13 +57124,13 @@
         <v>0</v>
       </c>
       <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
         <v>1</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -57153,14 +57153,14 @@
         <v>0</v>
       </c>
       <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>1</v>
       </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
       <c r="I15">
         <v>0</v>
       </c>
@@ -57177,18 +57177,18 @@
         <v>0</v>
       </c>
       <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
         <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -57206,14 +57206,14 @@
         <v>0</v>
       </c>
       <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
         <v>1</v>
       </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
       <c r="J16">
         <v>0</v>
       </c>
@@ -57230,7 +57230,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -57258,7 +57258,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/Theorical_connectivity_matrices.xlsx
+++ b/Theorical_connectivity_matrices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bclem\OneDrive\Documents\GitHub\Megalopta_CX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337C19B4-8C89-446A-B8C8-0484784C467D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E508C6BD-1131-478F-A3BE-A35550C22C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{093D5FC8-3546-4B30-B5BC-72449F880B19}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{093D5FC8-3546-4B30-B5BC-72449F880B19}"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="13" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="13">
   <si>
     <t>TS</t>
   </si>
@@ -459,8 +459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D70C54ED-CF8A-40EC-8537-9A05E3479CC3}">
   <dimension ref="A1:DS123"/>
   <sheetViews>
-    <sheetView topLeftCell="AP29" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AZ96" sqref="AZ96"/>
+    <sheetView topLeftCell="M1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U49" sqref="U49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -24030,11 +24030,11 @@
       </c>
       <c r="BJ60">
         <f>'d7-to-d7'!C1 * Gains!$H$8</f>
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="BK60">
         <f>'d7-to-d7'!D1 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.6</v>
       </c>
       <c r="BL60">
         <f>'d7-to-d7'!E1 * Gains!$H$8</f>
@@ -24042,11 +24042,11 @@
       </c>
       <c r="BM60">
         <f>'d7-to-d7'!F1 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.6</v>
       </c>
       <c r="BN60">
         <f>'d7-to-d7'!G1 * Gains!$H$8</f>
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="BO60">
         <f>'d7-to-d7'!H1 * Gains!$H$8</f>
@@ -24485,11 +24485,11 @@
       </c>
       <c r="BK61">
         <f>'d7-to-d7'!D2 * Gains!$H$8</f>
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="BL61">
         <f>'d7-to-d7'!E2 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.6</v>
       </c>
       <c r="BM61">
         <f>'d7-to-d7'!F2 * Gains!$H$8</f>
@@ -24497,11 +24497,11 @@
       </c>
       <c r="BN61">
         <f>'d7-to-d7'!G2 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.6</v>
       </c>
       <c r="BO61">
         <f>'d7-to-d7'!H2 * Gains!$H$8</f>
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="BP61">
         <f>'d7-to-d7'!I2 * Gains!$H$8</f>
@@ -24924,7 +24924,7 @@
       </c>
       <c r="BH62">
         <f>'d7-to-d7'!A3 * Gains!$H$8</f>
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="BI62">
         <f>'d7-to-d7'!B3 * Gains!$H$8</f>
@@ -24940,11 +24940,11 @@
       </c>
       <c r="BL62">
         <f>'d7-to-d7'!E3 * Gains!$H$8</f>
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="BM62">
         <f>'d7-to-d7'!F3 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.6</v>
       </c>
       <c r="BN62">
         <f>'d7-to-d7'!G3 * Gains!$H$8</f>
@@ -24952,7 +24952,7 @@
       </c>
       <c r="BO62">
         <f>'d7-to-d7'!H3 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.6</v>
       </c>
       <c r="BP62">
         <f>'d7-to-d7'!I3 * Gains!$H$8</f>
@@ -25375,11 +25375,11 @@
       </c>
       <c r="BH63">
         <f>'d7-to-d7'!A4 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.6</v>
       </c>
       <c r="BI63">
         <f>'d7-to-d7'!B4 * Gains!$H$8</f>
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="BJ63">
         <f>'d7-to-d7'!C4 * Gains!$H$8</f>
@@ -25395,11 +25395,11 @@
       </c>
       <c r="BM63">
         <f>'d7-to-d7'!F4 * Gains!$H$8</f>
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="BN63">
         <f>'d7-to-d7'!G4 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.6</v>
       </c>
       <c r="BO63">
         <f>'d7-to-d7'!H4 * Gains!$H$8</f>
@@ -25830,11 +25830,11 @@
       </c>
       <c r="BI64">
         <f>'d7-to-d7'!B5 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.6</v>
       </c>
       <c r="BJ64">
         <f>'d7-to-d7'!C5 * Gains!$H$8</f>
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="BK64">
         <f>'d7-to-d7'!D5 * Gains!$H$8</f>
@@ -25850,11 +25850,11 @@
       </c>
       <c r="BN64">
         <f>'d7-to-d7'!G5 * Gains!$H$8</f>
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="BO64">
         <f>'d7-to-d7'!H5 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.6</v>
       </c>
       <c r="BP64">
         <f>'d7-to-d7'!I5 * Gains!$H$8</f>
@@ -26277,7 +26277,7 @@
       </c>
       <c r="BH65">
         <f>'d7-to-d7'!A6 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.6</v>
       </c>
       <c r="BI65">
         <f>'d7-to-d7'!B6 * Gains!$H$8</f>
@@ -26285,11 +26285,11 @@
       </c>
       <c r="BJ65">
         <f>'d7-to-d7'!C6 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.6</v>
       </c>
       <c r="BK65">
         <f>'d7-to-d7'!D6 * Gains!$H$8</f>
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="BL65">
         <f>'d7-to-d7'!E6 * Gains!$H$8</f>
@@ -26305,7 +26305,7 @@
       </c>
       <c r="BO65">
         <f>'d7-to-d7'!H6 * Gains!$H$8</f>
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="BP65">
         <f>'d7-to-d7'!I6 * Gains!$H$8</f>
@@ -26728,11 +26728,11 @@
       </c>
       <c r="BH66">
         <f>'d7-to-d7'!A7 * Gains!$H$8</f>
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="BI66">
         <f>'d7-to-d7'!B7 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.6</v>
       </c>
       <c r="BJ66">
         <f>'d7-to-d7'!C7 * Gains!$H$8</f>
@@ -26740,11 +26740,11 @@
       </c>
       <c r="BK66">
         <f>'d7-to-d7'!D7 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.6</v>
       </c>
       <c r="BL66">
         <f>'d7-to-d7'!E7 * Gains!$H$8</f>
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="BM66">
         <f>'d7-to-d7'!F7 * Gains!$H$8</f>
@@ -27183,11 +27183,11 @@
       </c>
       <c r="BI67">
         <f>'d7-to-d7'!B8 * Gains!$H$8</f>
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="BJ67">
         <f>'d7-to-d7'!C8 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.6</v>
       </c>
       <c r="BK67">
         <f>'d7-to-d7'!D8 * Gains!$H$8</f>
@@ -27195,11 +27195,11 @@
       </c>
       <c r="BL67">
         <f>'d7-to-d7'!E8 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.6</v>
       </c>
       <c r="BM67">
         <f>'d7-to-d7'!F8 * Gains!$H$8</f>
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="BN67">
         <f>'d7-to-d7'!G8 * Gains!$H$8</f>
@@ -27670,11 +27670,11 @@
       </c>
       <c r="BR68">
         <f>'d7-to-d7'!K9 * Gains!$H$8</f>
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="BS68">
         <f>'d7-to-d7'!L9 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.6</v>
       </c>
       <c r="BT68">
         <f>'d7-to-d7'!M9 * Gains!$H$8</f>
@@ -27682,11 +27682,11 @@
       </c>
       <c r="BU68">
         <f>'d7-to-d7'!N9 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.6</v>
       </c>
       <c r="BV68">
         <f>'d7-to-d7'!O9 * Gains!$H$8</f>
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="BW68">
         <f>'d7-to-d7'!P9 * Gains!$H$8</f>
@@ -28125,11 +28125,11 @@
       </c>
       <c r="BS69">
         <f>'d7-to-d7'!L10 * Gains!$H$8</f>
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="BT69">
         <f>'d7-to-d7'!M10 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.6</v>
       </c>
       <c r="BU69">
         <f>'d7-to-d7'!N10 * Gains!$H$8</f>
@@ -28137,11 +28137,11 @@
       </c>
       <c r="BV69">
         <f>'d7-to-d7'!O10 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.6</v>
       </c>
       <c r="BW69">
         <f>'d7-to-d7'!P10 * Gains!$H$8</f>
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="BX69">
         <f>'d7-to-PEG-PEN-PFN-PFL'!A10 * Gains!$I$8</f>
@@ -28564,7 +28564,7 @@
       </c>
       <c r="BP70">
         <f>'d7-to-d7'!I11 * Gains!$H$8</f>
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="BQ70">
         <f>'d7-to-d7'!J11 * Gains!$H$8</f>
@@ -28580,11 +28580,11 @@
       </c>
       <c r="BT70">
         <f>'d7-to-d7'!M11 * Gains!$H$8</f>
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="BU70">
         <f>'d7-to-d7'!N11 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.6</v>
       </c>
       <c r="BV70">
         <f>'d7-to-d7'!O11 * Gains!$H$8</f>
@@ -28592,7 +28592,7 @@
       </c>
       <c r="BW70">
         <f>'d7-to-d7'!P11 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.6</v>
       </c>
       <c r="BX70">
         <f>'d7-to-PEG-PEN-PFN-PFL'!A11 * Gains!$I$8</f>
@@ -29015,11 +29015,11 @@
       </c>
       <c r="BP71">
         <f>'d7-to-d7'!I12 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.6</v>
       </c>
       <c r="BQ71">
         <f>'d7-to-d7'!J12 * Gains!$H$8</f>
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="BR71">
         <f>'d7-to-d7'!K12 * Gains!$H$8</f>
@@ -29035,11 +29035,11 @@
       </c>
       <c r="BU71">
         <f>'d7-to-d7'!N12 * Gains!$H$8</f>
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="BV71">
         <f>'d7-to-d7'!O12 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.6</v>
       </c>
       <c r="BW71">
         <f>'d7-to-d7'!P12 * Gains!$H$8</f>
@@ -29470,11 +29470,11 @@
       </c>
       <c r="BQ72">
         <f>'d7-to-d7'!J13 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.6</v>
       </c>
       <c r="BR72">
         <f>'d7-to-d7'!K13 * Gains!$H$8</f>
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="BS72">
         <f>'d7-to-d7'!L13 * Gains!$H$8</f>
@@ -29490,11 +29490,11 @@
       </c>
       <c r="BV72">
         <f>'d7-to-d7'!O13 * Gains!$H$8</f>
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="BW72">
         <f>'d7-to-d7'!P13 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.6</v>
       </c>
       <c r="BX72">
         <f>'d7-to-PEG-PEN-PFN-PFL'!A13 * Gains!$I$8</f>
@@ -29917,7 +29917,7 @@
       </c>
       <c r="BP73">
         <f>'d7-to-d7'!I14 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.6</v>
       </c>
       <c r="BQ73">
         <f>'d7-to-d7'!J14 * Gains!$H$8</f>
@@ -29925,11 +29925,11 @@
       </c>
       <c r="BR73">
         <f>'d7-to-d7'!K14 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.6</v>
       </c>
       <c r="BS73">
         <f>'d7-to-d7'!L14 * Gains!$H$8</f>
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="BT73">
         <f>'d7-to-d7'!M14 * Gains!$H$8</f>
@@ -29945,7 +29945,7 @@
       </c>
       <c r="BW73">
         <f>'d7-to-d7'!P14 * Gains!$H$8</f>
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="BX73">
         <f>'d7-to-PEG-PEN-PFN-PFL'!A14 * Gains!$I$8</f>
@@ -30368,11 +30368,11 @@
       </c>
       <c r="BP74">
         <f>'d7-to-d7'!I15 * Gains!$H$8</f>
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="BQ74">
         <f>'d7-to-d7'!J15 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.6</v>
       </c>
       <c r="BR74">
         <f>'d7-to-d7'!K15 * Gains!$H$8</f>
@@ -30380,11 +30380,11 @@
       </c>
       <c r="BS74">
         <f>'d7-to-d7'!L15 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.6</v>
       </c>
       <c r="BT74">
         <f>'d7-to-d7'!M15 * Gains!$H$8</f>
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="BU74">
         <f>'d7-to-d7'!N15 * Gains!$H$8</f>
@@ -30823,11 +30823,11 @@
       </c>
       <c r="BQ75">
         <f>'d7-to-d7'!J16 * Gains!$H$8</f>
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="BR75">
         <f>'d7-to-d7'!K16 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.6</v>
       </c>
       <c r="BS75">
         <f>'d7-to-d7'!L16 * Gains!$H$8</f>
@@ -30835,11 +30835,11 @@
       </c>
       <c r="BT75">
         <f>'d7-to-d7'!M16 * Gains!$H$8</f>
-        <v>-1</v>
+        <v>-0.6</v>
       </c>
       <c r="BU75">
         <f>'d7-to-d7'!N16 * Gains!$H$8</f>
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="BV75">
         <f>'d7-to-d7'!O16 * Gains!$H$8</f>
@@ -31301,67 +31301,67 @@
         <v>0</v>
       </c>
       <c r="CN76" s="1">
-        <f>'PFN-to-PFL-hd'!A1</f>
+        <f>'PFN-to-PFL-hd'!A1 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CO76" s="1">
-        <f>'PFN-to-PFL-hd'!B1</f>
+        <f>'PFN-to-PFL-hd'!B1 * Gains!$J$9</f>
         <v>1</v>
       </c>
       <c r="CP76" s="1">
-        <f>'PFN-to-PFL-hd'!C1</f>
+        <f>'PFN-to-PFL-hd'!C1 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CQ76" s="1">
-        <f>'PFN-to-PFL-hd'!D1</f>
+        <f>'PFN-to-PFL-hd'!D1 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CR76" s="1">
-        <f>'PFN-to-PFL-hd'!E1</f>
+        <f>'PFN-to-PFL-hd'!E1 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CS76" s="1">
-        <f>'PFN-to-PFL-hd'!F1</f>
+        <f>'PFN-to-PFL-hd'!F1 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CT76" s="1">
-        <f>'PFN-to-PFL-hd'!G1</f>
+        <f>'PFN-to-PFL-hd'!G1 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CU76" s="1">
-        <f>'PFN-to-PFL-hd'!H1</f>
+        <f>'PFN-to-PFL-hd'!H1 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CV76" s="1">
-        <f>'PFN-to-PFL-hd'!I1</f>
+        <f>'PFN-to-PFL-hd'!I1 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CW76" s="1">
-        <f>'PFN-to-PFL-hd'!J1</f>
+        <f>'PFN-to-PFL-hd'!J1 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CX76" s="1">
-        <f>'PFN-to-PFL-hd'!K1</f>
+        <f>'PFN-to-PFL-hd'!K1 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CY76" s="1">
-        <f>'PFN-to-PFL-hd'!L1</f>
+        <f>'PFN-to-PFL-hd'!L1 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CZ76" s="1">
-        <f>'PFN-to-PFL-hd'!M1</f>
+        <f>'PFN-to-PFL-hd'!M1 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DA76" s="1">
-        <f>'PFN-to-PFL-hd'!N1</f>
+        <f>'PFN-to-PFL-hd'!N1 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DB76" s="1">
-        <f>'PFN-to-PFL-hd'!O1</f>
+        <f>'PFN-to-PFL-hd'!O1 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DC76" s="1">
-        <f>'PFN-to-PFL-hd'!P1</f>
+        <f>'PFN-to-PFL-hd'!P1 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DD76" s="3">
@@ -31704,67 +31704,67 @@
         <v>0</v>
       </c>
       <c r="CN77" s="1">
-        <f>'PFN-to-PFL-hd'!A2</f>
+        <f>'PFN-to-PFL-hd'!A2 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CO77" s="1">
-        <f>'PFN-to-PFL-hd'!B2</f>
+        <f>'PFN-to-PFL-hd'!B2 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CP77" s="1">
-        <f>'PFN-to-PFL-hd'!C2</f>
+        <f>'PFN-to-PFL-hd'!C2 * Gains!$J$9</f>
         <v>1</v>
       </c>
       <c r="CQ77" s="1">
-        <f>'PFN-to-PFL-hd'!D2</f>
+        <f>'PFN-to-PFL-hd'!D2 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CR77" s="1">
-        <f>'PFN-to-PFL-hd'!E2</f>
+        <f>'PFN-to-PFL-hd'!E2 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CS77" s="1">
-        <f>'PFN-to-PFL-hd'!F2</f>
+        <f>'PFN-to-PFL-hd'!F2 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CT77" s="1">
-        <f>'PFN-to-PFL-hd'!G2</f>
+        <f>'PFN-to-PFL-hd'!G2 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CU77" s="1">
-        <f>'PFN-to-PFL-hd'!H2</f>
+        <f>'PFN-to-PFL-hd'!H2 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CV77" s="1">
-        <f>'PFN-to-PFL-hd'!I2</f>
+        <f>'PFN-to-PFL-hd'!I2 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CW77" s="1">
-        <f>'PFN-to-PFL-hd'!J2</f>
+        <f>'PFN-to-PFL-hd'!J2 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CX77" s="1">
-        <f>'PFN-to-PFL-hd'!K2</f>
+        <f>'PFN-to-PFL-hd'!K2 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CY77" s="1">
-        <f>'PFN-to-PFL-hd'!L2</f>
+        <f>'PFN-to-PFL-hd'!L2 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CZ77" s="1">
-        <f>'PFN-to-PFL-hd'!M2</f>
+        <f>'PFN-to-PFL-hd'!M2 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DA77" s="1">
-        <f>'PFN-to-PFL-hd'!N2</f>
+        <f>'PFN-to-PFL-hd'!N2 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DB77" s="1">
-        <f>'PFN-to-PFL-hd'!O2</f>
+        <f>'PFN-to-PFL-hd'!O2 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DC77" s="1">
-        <f>'PFN-to-PFL-hd'!P2</f>
+        <f>'PFN-to-PFL-hd'!P2 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DD77" s="3">
@@ -32107,67 +32107,67 @@
         <v>0</v>
       </c>
       <c r="CN78" s="1">
-        <f>'PFN-to-PFL-hd'!A3</f>
+        <f>'PFN-to-PFL-hd'!A3 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CO78" s="1">
-        <f>'PFN-to-PFL-hd'!B3</f>
+        <f>'PFN-to-PFL-hd'!B3 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CP78" s="1">
-        <f>'PFN-to-PFL-hd'!C3</f>
+        <f>'PFN-to-PFL-hd'!C3 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CQ78" s="1">
-        <f>'PFN-to-PFL-hd'!D3</f>
+        <f>'PFN-to-PFL-hd'!D3 * Gains!$J$9</f>
         <v>1</v>
       </c>
       <c r="CR78" s="1">
-        <f>'PFN-to-PFL-hd'!E3</f>
+        <f>'PFN-to-PFL-hd'!E3 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CS78" s="1">
-        <f>'PFN-to-PFL-hd'!F3</f>
+        <f>'PFN-to-PFL-hd'!F3 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CT78" s="1">
-        <f>'PFN-to-PFL-hd'!G3</f>
+        <f>'PFN-to-PFL-hd'!G3 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CU78" s="1">
-        <f>'PFN-to-PFL-hd'!H3</f>
+        <f>'PFN-to-PFL-hd'!H3 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CV78" s="1">
-        <f>'PFN-to-PFL-hd'!I3</f>
+        <f>'PFN-to-PFL-hd'!I3 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CW78" s="1">
-        <f>'PFN-to-PFL-hd'!J3</f>
+        <f>'PFN-to-PFL-hd'!J3 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CX78" s="1">
-        <f>'PFN-to-PFL-hd'!K3</f>
+        <f>'PFN-to-PFL-hd'!K3 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CY78" s="1">
-        <f>'PFN-to-PFL-hd'!L3</f>
+        <f>'PFN-to-PFL-hd'!L3 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CZ78" s="1">
-        <f>'PFN-to-PFL-hd'!M3</f>
+        <f>'PFN-to-PFL-hd'!M3 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DA78" s="1">
-        <f>'PFN-to-PFL-hd'!N3</f>
+        <f>'PFN-to-PFL-hd'!N3 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DB78" s="1">
-        <f>'PFN-to-PFL-hd'!O3</f>
+        <f>'PFN-to-PFL-hd'!O3 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DC78" s="1">
-        <f>'PFN-to-PFL-hd'!P3</f>
+        <f>'PFN-to-PFL-hd'!P3 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DD78" s="3">
@@ -32510,67 +32510,67 @@
         <v>0</v>
       </c>
       <c r="CN79" s="1">
-        <f>'PFN-to-PFL-hd'!A4</f>
+        <f>'PFN-to-PFL-hd'!A4 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CO79" s="1">
-        <f>'PFN-to-PFL-hd'!B4</f>
+        <f>'PFN-to-PFL-hd'!B4 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CP79" s="1">
-        <f>'PFN-to-PFL-hd'!C4</f>
+        <f>'PFN-to-PFL-hd'!C4 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CQ79" s="1">
-        <f>'PFN-to-PFL-hd'!D4</f>
+        <f>'PFN-to-PFL-hd'!D4 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CR79" s="1">
-        <f>'PFN-to-PFL-hd'!E4</f>
+        <f>'PFN-to-PFL-hd'!E4 * Gains!$J$9</f>
         <v>1</v>
       </c>
       <c r="CS79" s="1">
-        <f>'PFN-to-PFL-hd'!F4</f>
+        <f>'PFN-to-PFL-hd'!F4 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CT79" s="1">
-        <f>'PFN-to-PFL-hd'!G4</f>
+        <f>'PFN-to-PFL-hd'!G4 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CU79" s="1">
-        <f>'PFN-to-PFL-hd'!H4</f>
+        <f>'PFN-to-PFL-hd'!H4 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CV79" s="1">
-        <f>'PFN-to-PFL-hd'!I4</f>
+        <f>'PFN-to-PFL-hd'!I4 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CW79" s="1">
-        <f>'PFN-to-PFL-hd'!J4</f>
+        <f>'PFN-to-PFL-hd'!J4 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CX79" s="1">
-        <f>'PFN-to-PFL-hd'!K4</f>
+        <f>'PFN-to-PFL-hd'!K4 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CY79" s="1">
-        <f>'PFN-to-PFL-hd'!L4</f>
+        <f>'PFN-to-PFL-hd'!L4 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CZ79" s="1">
-        <f>'PFN-to-PFL-hd'!M4</f>
+        <f>'PFN-to-PFL-hd'!M4 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DA79" s="1">
-        <f>'PFN-to-PFL-hd'!N4</f>
+        <f>'PFN-to-PFL-hd'!N4 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DB79" s="1">
-        <f>'PFN-to-PFL-hd'!O4</f>
+        <f>'PFN-to-PFL-hd'!O4 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DC79" s="1">
-        <f>'PFN-to-PFL-hd'!P4</f>
+        <f>'PFN-to-PFL-hd'!P4 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DD79" s="3">
@@ -32913,67 +32913,67 @@
         <v>0</v>
       </c>
       <c r="CN80" s="1">
-        <f>'PFN-to-PFL-hd'!A5</f>
+        <f>'PFN-to-PFL-hd'!A5 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CO80" s="1">
-        <f>'PFN-to-PFL-hd'!B5</f>
+        <f>'PFN-to-PFL-hd'!B5 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CP80" s="1">
-        <f>'PFN-to-PFL-hd'!C5</f>
+        <f>'PFN-to-PFL-hd'!C5 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CQ80" s="1">
-        <f>'PFN-to-PFL-hd'!D5</f>
+        <f>'PFN-to-PFL-hd'!D5 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CR80" s="1">
-        <f>'PFN-to-PFL-hd'!E5</f>
+        <f>'PFN-to-PFL-hd'!E5 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CS80" s="1">
-        <f>'PFN-to-PFL-hd'!F5</f>
+        <f>'PFN-to-PFL-hd'!F5 * Gains!$J$9</f>
         <v>1</v>
       </c>
       <c r="CT80" s="1">
-        <f>'PFN-to-PFL-hd'!G5</f>
+        <f>'PFN-to-PFL-hd'!G5 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CU80" s="1">
-        <f>'PFN-to-PFL-hd'!H5</f>
+        <f>'PFN-to-PFL-hd'!H5 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CV80" s="1">
-        <f>'PFN-to-PFL-hd'!I5</f>
+        <f>'PFN-to-PFL-hd'!I5 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CW80" s="1">
-        <f>'PFN-to-PFL-hd'!J5</f>
+        <f>'PFN-to-PFL-hd'!J5 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CX80" s="1">
-        <f>'PFN-to-PFL-hd'!K5</f>
+        <f>'PFN-to-PFL-hd'!K5 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CY80" s="1">
-        <f>'PFN-to-PFL-hd'!L5</f>
+        <f>'PFN-to-PFL-hd'!L5 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CZ80" s="1">
-        <f>'PFN-to-PFL-hd'!M5</f>
+        <f>'PFN-to-PFL-hd'!M5 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DA80" s="1">
-        <f>'PFN-to-PFL-hd'!N5</f>
+        <f>'PFN-to-PFL-hd'!N5 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DB80" s="1">
-        <f>'PFN-to-PFL-hd'!O5</f>
+        <f>'PFN-to-PFL-hd'!O5 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DC80" s="1">
-        <f>'PFN-to-PFL-hd'!P5</f>
+        <f>'PFN-to-PFL-hd'!P5 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DD80" s="3">
@@ -33316,67 +33316,67 @@
         <v>0</v>
       </c>
       <c r="CN81" s="1">
-        <f>'PFN-to-PFL-hd'!A6</f>
+        <f>'PFN-to-PFL-hd'!A6 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CO81" s="1">
-        <f>'PFN-to-PFL-hd'!B6</f>
+        <f>'PFN-to-PFL-hd'!B6 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CP81" s="1">
-        <f>'PFN-to-PFL-hd'!C6</f>
+        <f>'PFN-to-PFL-hd'!C6 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CQ81" s="1">
-        <f>'PFN-to-PFL-hd'!D6</f>
+        <f>'PFN-to-PFL-hd'!D6 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CR81" s="1">
-        <f>'PFN-to-PFL-hd'!E6</f>
+        <f>'PFN-to-PFL-hd'!E6 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CS81" s="1">
-        <f>'PFN-to-PFL-hd'!F6</f>
+        <f>'PFN-to-PFL-hd'!F6 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CT81" s="1">
-        <f>'PFN-to-PFL-hd'!G6</f>
+        <f>'PFN-to-PFL-hd'!G6 * Gains!$J$9</f>
         <v>1</v>
       </c>
       <c r="CU81" s="1">
-        <f>'PFN-to-PFL-hd'!H6</f>
+        <f>'PFN-to-PFL-hd'!H6 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CV81" s="1">
-        <f>'PFN-to-PFL-hd'!I6</f>
+        <f>'PFN-to-PFL-hd'!I6 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CW81" s="1">
-        <f>'PFN-to-PFL-hd'!J6</f>
+        <f>'PFN-to-PFL-hd'!J6 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CX81" s="1">
-        <f>'PFN-to-PFL-hd'!K6</f>
+        <f>'PFN-to-PFL-hd'!K6 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CY81" s="1">
-        <f>'PFN-to-PFL-hd'!L6</f>
+        <f>'PFN-to-PFL-hd'!L6 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CZ81" s="1">
-        <f>'PFN-to-PFL-hd'!M6</f>
+        <f>'PFN-to-PFL-hd'!M6 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DA81" s="1">
-        <f>'PFN-to-PFL-hd'!N6</f>
+        <f>'PFN-to-PFL-hd'!N6 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DB81" s="1">
-        <f>'PFN-to-PFL-hd'!O6</f>
+        <f>'PFN-to-PFL-hd'!O6 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DC81" s="1">
-        <f>'PFN-to-PFL-hd'!P6</f>
+        <f>'PFN-to-PFL-hd'!P6 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DD81" s="3">
@@ -33719,67 +33719,67 @@
         <v>0</v>
       </c>
       <c r="CN82" s="1">
-        <f>'PFN-to-PFL-hd'!A7</f>
+        <f>'PFN-to-PFL-hd'!A7 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CO82" s="1">
-        <f>'PFN-to-PFL-hd'!B7</f>
+        <f>'PFN-to-PFL-hd'!B7 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CP82" s="1">
-        <f>'PFN-to-PFL-hd'!C7</f>
+        <f>'PFN-to-PFL-hd'!C7 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CQ82" s="1">
-        <f>'PFN-to-PFL-hd'!D7</f>
+        <f>'PFN-to-PFL-hd'!D7 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CR82" s="1">
-        <f>'PFN-to-PFL-hd'!E7</f>
+        <f>'PFN-to-PFL-hd'!E7 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CS82" s="1">
-        <f>'PFN-to-PFL-hd'!F7</f>
+        <f>'PFN-to-PFL-hd'!F7 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CT82" s="1">
-        <f>'PFN-to-PFL-hd'!G7</f>
+        <f>'PFN-to-PFL-hd'!G7 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CU82" s="1">
-        <f>'PFN-to-PFL-hd'!H7</f>
+        <f>'PFN-to-PFL-hd'!H7 * Gains!$J$9</f>
         <v>1</v>
       </c>
       <c r="CV82" s="1">
-        <f>'PFN-to-PFL-hd'!I7</f>
+        <f>'PFN-to-PFL-hd'!I7 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CW82" s="1">
-        <f>'PFN-to-PFL-hd'!J7</f>
+        <f>'PFN-to-PFL-hd'!J7 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CX82" s="1">
-        <f>'PFN-to-PFL-hd'!K7</f>
+        <f>'PFN-to-PFL-hd'!K7 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CY82" s="1">
-        <f>'PFN-to-PFL-hd'!L7</f>
+        <f>'PFN-to-PFL-hd'!L7 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CZ82" s="1">
-        <f>'PFN-to-PFL-hd'!M7</f>
+        <f>'PFN-to-PFL-hd'!M7 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DA82" s="1">
-        <f>'PFN-to-PFL-hd'!N7</f>
+        <f>'PFN-to-PFL-hd'!N7 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DB82" s="1">
-        <f>'PFN-to-PFL-hd'!O7</f>
+        <f>'PFN-to-PFL-hd'!O7 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DC82" s="1">
-        <f>'PFN-to-PFL-hd'!P7</f>
+        <f>'PFN-to-PFL-hd'!P7 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DD82" s="3">
@@ -34122,67 +34122,67 @@
         <v>0</v>
       </c>
       <c r="CN83" s="1">
-        <f>'PFN-to-PFL-hd'!A8</f>
+        <f>'PFN-to-PFL-hd'!A8 * Gains!$J$9</f>
         <v>1</v>
       </c>
       <c r="CO83" s="1">
-        <f>'PFN-to-PFL-hd'!B8</f>
+        <f>'PFN-to-PFL-hd'!B8 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CP83" s="1">
-        <f>'PFN-to-PFL-hd'!C8</f>
+        <f>'PFN-to-PFL-hd'!C8 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CQ83" s="1">
-        <f>'PFN-to-PFL-hd'!D8</f>
+        <f>'PFN-to-PFL-hd'!D8 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CR83" s="1">
-        <f>'PFN-to-PFL-hd'!E8</f>
+        <f>'PFN-to-PFL-hd'!E8 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CS83" s="1">
-        <f>'PFN-to-PFL-hd'!F8</f>
+        <f>'PFN-to-PFL-hd'!F8 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CT83" s="1">
-        <f>'PFN-to-PFL-hd'!G8</f>
+        <f>'PFN-to-PFL-hd'!G8 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CU83" s="1">
-        <f>'PFN-to-PFL-hd'!H8</f>
+        <f>'PFN-to-PFL-hd'!H8 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CV83" s="1">
-        <f>'PFN-to-PFL-hd'!I8</f>
+        <f>'PFN-to-PFL-hd'!I8 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CW83" s="1">
-        <f>'PFN-to-PFL-hd'!J8</f>
+        <f>'PFN-to-PFL-hd'!J8 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CX83" s="1">
-        <f>'PFN-to-PFL-hd'!K8</f>
+        <f>'PFN-to-PFL-hd'!K8 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CY83" s="1">
-        <f>'PFN-to-PFL-hd'!L8</f>
+        <f>'PFN-to-PFL-hd'!L8 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CZ83" s="1">
-        <f>'PFN-to-PFL-hd'!M8</f>
+        <f>'PFN-to-PFL-hd'!M8 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DA83" s="1">
-        <f>'PFN-to-PFL-hd'!N8</f>
+        <f>'PFN-to-PFL-hd'!N8 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DB83" s="1">
-        <f>'PFN-to-PFL-hd'!O8</f>
+        <f>'PFN-to-PFL-hd'!O8 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DC83" s="1">
-        <f>'PFN-to-PFL-hd'!P8</f>
+        <f>'PFN-to-PFL-hd'!P8 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DD83" s="3">
@@ -34525,67 +34525,67 @@
         <v>0</v>
       </c>
       <c r="CN84" s="1">
-        <f>'PFN-to-PFL-hd'!A9</f>
+        <f>'PFN-to-PFL-hd'!A9 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CO84" s="1">
-        <f>'PFN-to-PFL-hd'!B9</f>
+        <f>'PFN-to-PFL-hd'!B9 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CP84" s="1">
-        <f>'PFN-to-PFL-hd'!C9</f>
+        <f>'PFN-to-PFL-hd'!C9 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CQ84" s="1">
-        <f>'PFN-to-PFL-hd'!D9</f>
+        <f>'PFN-to-PFL-hd'!D9 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CR84" s="1">
-        <f>'PFN-to-PFL-hd'!E9</f>
+        <f>'PFN-to-PFL-hd'!E9 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CS84" s="1">
-        <f>'PFN-to-PFL-hd'!F9</f>
+        <f>'PFN-to-PFL-hd'!F9 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CT84" s="1">
-        <f>'PFN-to-PFL-hd'!G9</f>
+        <f>'PFN-to-PFL-hd'!G9 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CU84" s="1">
-        <f>'PFN-to-PFL-hd'!H9</f>
+        <f>'PFN-to-PFL-hd'!H9 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CV84" s="1">
-        <f>'PFN-to-PFL-hd'!I9</f>
+        <f>'PFN-to-PFL-hd'!I9 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CW84" s="1">
-        <f>'PFN-to-PFL-hd'!J9</f>
+        <f>'PFN-to-PFL-hd'!J9 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CX84" s="1">
-        <f>'PFN-to-PFL-hd'!K9</f>
+        <f>'PFN-to-PFL-hd'!K9 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CY84" s="1">
-        <f>'PFN-to-PFL-hd'!L9</f>
+        <f>'PFN-to-PFL-hd'!L9 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CZ84" s="1">
-        <f>'PFN-to-PFL-hd'!M9</f>
+        <f>'PFN-to-PFL-hd'!M9 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DA84" s="1">
-        <f>'PFN-to-PFL-hd'!N9</f>
+        <f>'PFN-to-PFL-hd'!N9 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DB84" s="1">
-        <f>'PFN-to-PFL-hd'!O9</f>
+        <f>'PFN-to-PFL-hd'!O9 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DC84" s="1">
-        <f>'PFN-to-PFL-hd'!P9</f>
+        <f>'PFN-to-PFL-hd'!P9 * Gains!$J$9</f>
         <v>1</v>
       </c>
       <c r="DD84" s="3">
@@ -34928,67 +34928,67 @@
         <v>0</v>
       </c>
       <c r="CN85" s="1">
-        <f>'PFN-to-PFL-hd'!A10</f>
+        <f>'PFN-to-PFL-hd'!A10 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CO85" s="1">
-        <f>'PFN-to-PFL-hd'!B10</f>
+        <f>'PFN-to-PFL-hd'!B10 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CP85" s="1">
-        <f>'PFN-to-PFL-hd'!C10</f>
+        <f>'PFN-to-PFL-hd'!C10 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CQ85" s="1">
-        <f>'PFN-to-PFL-hd'!D10</f>
+        <f>'PFN-to-PFL-hd'!D10 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CR85" s="1">
-        <f>'PFN-to-PFL-hd'!E10</f>
+        <f>'PFN-to-PFL-hd'!E10 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CS85" s="1">
-        <f>'PFN-to-PFL-hd'!F10</f>
+        <f>'PFN-to-PFL-hd'!F10 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CT85" s="1">
-        <f>'PFN-to-PFL-hd'!G10</f>
+        <f>'PFN-to-PFL-hd'!G10 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CU85" s="1">
-        <f>'PFN-to-PFL-hd'!H10</f>
+        <f>'PFN-to-PFL-hd'!H10 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CV85" s="1">
-        <f>'PFN-to-PFL-hd'!I10</f>
+        <f>'PFN-to-PFL-hd'!I10 * Gains!$J$9</f>
         <v>1</v>
       </c>
       <c r="CW85" s="1">
-        <f>'PFN-to-PFL-hd'!J10</f>
+        <f>'PFN-to-PFL-hd'!J10 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CX85" s="1">
-        <f>'PFN-to-PFL-hd'!K10</f>
+        <f>'PFN-to-PFL-hd'!K10 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CY85" s="1">
-        <f>'PFN-to-PFL-hd'!L10</f>
+        <f>'PFN-to-PFL-hd'!L10 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CZ85" s="1">
-        <f>'PFN-to-PFL-hd'!M10</f>
+        <f>'PFN-to-PFL-hd'!M10 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DA85" s="1">
-        <f>'PFN-to-PFL-hd'!N10</f>
+        <f>'PFN-to-PFL-hd'!N10 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DB85" s="1">
-        <f>'PFN-to-PFL-hd'!O10</f>
+        <f>'PFN-to-PFL-hd'!O10 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DC85" s="1">
-        <f>'PFN-to-PFL-hd'!P10</f>
+        <f>'PFN-to-PFL-hd'!P10 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DD85" s="3">
@@ -35331,67 +35331,67 @@
         <v>0</v>
       </c>
       <c r="CN86" s="1">
-        <f>'PFN-to-PFL-hd'!A11</f>
+        <f>'PFN-to-PFL-hd'!A11 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CO86" s="1">
-        <f>'PFN-to-PFL-hd'!B11</f>
+        <f>'PFN-to-PFL-hd'!B11 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CP86" s="1">
-        <f>'PFN-to-PFL-hd'!C11</f>
+        <f>'PFN-to-PFL-hd'!C11 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CQ86" s="1">
-        <f>'PFN-to-PFL-hd'!D11</f>
+        <f>'PFN-to-PFL-hd'!D11 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CR86" s="1">
-        <f>'PFN-to-PFL-hd'!E11</f>
+        <f>'PFN-to-PFL-hd'!E11 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CS86" s="1">
-        <f>'PFN-to-PFL-hd'!F11</f>
+        <f>'PFN-to-PFL-hd'!F11 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CT86" s="1">
-        <f>'PFN-to-PFL-hd'!G11</f>
+        <f>'PFN-to-PFL-hd'!G11 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CU86" s="1">
-        <f>'PFN-to-PFL-hd'!H11</f>
+        <f>'PFN-to-PFL-hd'!H11 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CV86" s="1">
-        <f>'PFN-to-PFL-hd'!I11</f>
+        <f>'PFN-to-PFL-hd'!I11 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CW86" s="1">
-        <f>'PFN-to-PFL-hd'!J11</f>
+        <f>'PFN-to-PFL-hd'!J11 * Gains!$J$9</f>
         <v>1</v>
       </c>
       <c r="CX86" s="1">
-        <f>'PFN-to-PFL-hd'!K11</f>
+        <f>'PFN-to-PFL-hd'!K11 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CY86" s="1">
-        <f>'PFN-to-PFL-hd'!L11</f>
+        <f>'PFN-to-PFL-hd'!L11 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CZ86" s="1">
-        <f>'PFN-to-PFL-hd'!M11</f>
+        <f>'PFN-to-PFL-hd'!M11 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DA86" s="1">
-        <f>'PFN-to-PFL-hd'!N11</f>
+        <f>'PFN-to-PFL-hd'!N11 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DB86" s="1">
-        <f>'PFN-to-PFL-hd'!O11</f>
+        <f>'PFN-to-PFL-hd'!O11 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DC86" s="1">
-        <f>'PFN-to-PFL-hd'!P11</f>
+        <f>'PFN-to-PFL-hd'!P11 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DD86" s="3">
@@ -35734,67 +35734,67 @@
         <v>0</v>
       </c>
       <c r="CN87" s="1">
-        <f>'PFN-to-PFL-hd'!A12</f>
+        <f>'PFN-to-PFL-hd'!A12 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CO87" s="1">
-        <f>'PFN-to-PFL-hd'!B12</f>
+        <f>'PFN-to-PFL-hd'!B12 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CP87" s="1">
-        <f>'PFN-to-PFL-hd'!C12</f>
+        <f>'PFN-to-PFL-hd'!C12 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CQ87" s="1">
-        <f>'PFN-to-PFL-hd'!D12</f>
+        <f>'PFN-to-PFL-hd'!D12 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CR87" s="1">
-        <f>'PFN-to-PFL-hd'!E12</f>
+        <f>'PFN-to-PFL-hd'!E12 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CS87" s="1">
-        <f>'PFN-to-PFL-hd'!F12</f>
+        <f>'PFN-to-PFL-hd'!F12 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CT87" s="1">
-        <f>'PFN-to-PFL-hd'!G12</f>
+        <f>'PFN-to-PFL-hd'!G12 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CU87" s="1">
-        <f>'PFN-to-PFL-hd'!H12</f>
+        <f>'PFN-to-PFL-hd'!H12 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CV87" s="1">
-        <f>'PFN-to-PFL-hd'!I12</f>
+        <f>'PFN-to-PFL-hd'!I12 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CW87" s="1">
-        <f>'PFN-to-PFL-hd'!J12</f>
+        <f>'PFN-to-PFL-hd'!J12 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CX87" s="1">
-        <f>'PFN-to-PFL-hd'!K12</f>
+        <f>'PFN-to-PFL-hd'!K12 * Gains!$J$9</f>
         <v>1</v>
       </c>
       <c r="CY87" s="1">
-        <f>'PFN-to-PFL-hd'!L12</f>
+        <f>'PFN-to-PFL-hd'!L12 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CZ87" s="1">
-        <f>'PFN-to-PFL-hd'!M12</f>
+        <f>'PFN-to-PFL-hd'!M12 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DA87" s="1">
-        <f>'PFN-to-PFL-hd'!N12</f>
+        <f>'PFN-to-PFL-hd'!N12 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DB87" s="1">
-        <f>'PFN-to-PFL-hd'!O12</f>
+        <f>'PFN-to-PFL-hd'!O12 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DC87" s="1">
-        <f>'PFN-to-PFL-hd'!P12</f>
+        <f>'PFN-to-PFL-hd'!P12 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DD87" s="3">
@@ -36137,67 +36137,67 @@
         <v>0</v>
       </c>
       <c r="CN88" s="1">
-        <f>'PFN-to-PFL-hd'!A13</f>
+        <f>'PFN-to-PFL-hd'!A13 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CO88" s="1">
-        <f>'PFN-to-PFL-hd'!B13</f>
+        <f>'PFN-to-PFL-hd'!B13 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CP88" s="1">
-        <f>'PFN-to-PFL-hd'!C13</f>
+        <f>'PFN-to-PFL-hd'!C13 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CQ88" s="1">
-        <f>'PFN-to-PFL-hd'!D13</f>
+        <f>'PFN-to-PFL-hd'!D13 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CR88" s="1">
-        <f>'PFN-to-PFL-hd'!E13</f>
+        <f>'PFN-to-PFL-hd'!E13 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CS88" s="1">
-        <f>'PFN-to-PFL-hd'!F13</f>
+        <f>'PFN-to-PFL-hd'!F13 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CT88" s="1">
-        <f>'PFN-to-PFL-hd'!G13</f>
+        <f>'PFN-to-PFL-hd'!G13 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CU88" s="1">
-        <f>'PFN-to-PFL-hd'!H13</f>
+        <f>'PFN-to-PFL-hd'!H13 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CV88" s="1">
-        <f>'PFN-to-PFL-hd'!I13</f>
+        <f>'PFN-to-PFL-hd'!I13 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CW88" s="1">
-        <f>'PFN-to-PFL-hd'!J13</f>
+        <f>'PFN-to-PFL-hd'!J13 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CX88" s="1">
-        <f>'PFN-to-PFL-hd'!K13</f>
+        <f>'PFN-to-PFL-hd'!K13 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CY88" s="1">
-        <f>'PFN-to-PFL-hd'!L13</f>
+        <f>'PFN-to-PFL-hd'!L13 * Gains!$J$9</f>
         <v>1</v>
       </c>
       <c r="CZ88" s="1">
-        <f>'PFN-to-PFL-hd'!M13</f>
+        <f>'PFN-to-PFL-hd'!M13 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DA88" s="1">
-        <f>'PFN-to-PFL-hd'!N13</f>
+        <f>'PFN-to-PFL-hd'!N13 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DB88" s="1">
-        <f>'PFN-to-PFL-hd'!O13</f>
+        <f>'PFN-to-PFL-hd'!O13 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DC88" s="1">
-        <f>'PFN-to-PFL-hd'!P13</f>
+        <f>'PFN-to-PFL-hd'!P13 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DD88" s="3">
@@ -36540,67 +36540,67 @@
         <v>0</v>
       </c>
       <c r="CN89" s="1">
-        <f>'PFN-to-PFL-hd'!A14</f>
+        <f>'PFN-to-PFL-hd'!A14 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CO89" s="1">
-        <f>'PFN-to-PFL-hd'!B14</f>
+        <f>'PFN-to-PFL-hd'!B14 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CP89" s="1">
-        <f>'PFN-to-PFL-hd'!C14</f>
+        <f>'PFN-to-PFL-hd'!C14 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CQ89" s="1">
-        <f>'PFN-to-PFL-hd'!D14</f>
+        <f>'PFN-to-PFL-hd'!D14 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CR89" s="1">
-        <f>'PFN-to-PFL-hd'!E14</f>
+        <f>'PFN-to-PFL-hd'!E14 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CS89" s="1">
-        <f>'PFN-to-PFL-hd'!F14</f>
+        <f>'PFN-to-PFL-hd'!F14 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CT89" s="1">
-        <f>'PFN-to-PFL-hd'!G14</f>
+        <f>'PFN-to-PFL-hd'!G14 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CU89" s="1">
-        <f>'PFN-to-PFL-hd'!H14</f>
+        <f>'PFN-to-PFL-hd'!H14 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CV89" s="1">
-        <f>'PFN-to-PFL-hd'!I14</f>
+        <f>'PFN-to-PFL-hd'!I14 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CW89" s="1">
-        <f>'PFN-to-PFL-hd'!J14</f>
+        <f>'PFN-to-PFL-hd'!J14 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CX89" s="1">
-        <f>'PFN-to-PFL-hd'!K14</f>
+        <f>'PFN-to-PFL-hd'!K14 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CY89" s="1">
-        <f>'PFN-to-PFL-hd'!L14</f>
+        <f>'PFN-to-PFL-hd'!L14 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CZ89" s="1">
-        <f>'PFN-to-PFL-hd'!M14</f>
+        <f>'PFN-to-PFL-hd'!M14 * Gains!$J$9</f>
         <v>1</v>
       </c>
       <c r="DA89" s="1">
-        <f>'PFN-to-PFL-hd'!N14</f>
+        <f>'PFN-to-PFL-hd'!N14 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DB89" s="1">
-        <f>'PFN-to-PFL-hd'!O14</f>
+        <f>'PFN-to-PFL-hd'!O14 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DC89" s="1">
-        <f>'PFN-to-PFL-hd'!P14</f>
+        <f>'PFN-to-PFL-hd'!P14 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DD89" s="3">
@@ -36943,67 +36943,67 @@
         <v>0</v>
       </c>
       <c r="CN90" s="1">
-        <f>'PFN-to-PFL-hd'!A15</f>
+        <f>'PFN-to-PFL-hd'!A15 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CO90" s="1">
-        <f>'PFN-to-PFL-hd'!B15</f>
+        <f>'PFN-to-PFL-hd'!B15 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CP90" s="1">
-        <f>'PFN-to-PFL-hd'!C15</f>
+        <f>'PFN-to-PFL-hd'!C15 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CQ90" s="1">
-        <f>'PFN-to-PFL-hd'!D15</f>
+        <f>'PFN-to-PFL-hd'!D15 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CR90" s="1">
-        <f>'PFN-to-PFL-hd'!E15</f>
+        <f>'PFN-to-PFL-hd'!E15 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CS90" s="1">
-        <f>'PFN-to-PFL-hd'!F15</f>
+        <f>'PFN-to-PFL-hd'!F15 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CT90" s="1">
-        <f>'PFN-to-PFL-hd'!G15</f>
+        <f>'PFN-to-PFL-hd'!G15 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CU90" s="1">
-        <f>'PFN-to-PFL-hd'!H15</f>
+        <f>'PFN-to-PFL-hd'!H15 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CV90" s="1">
-        <f>'PFN-to-PFL-hd'!I15</f>
+        <f>'PFN-to-PFL-hd'!I15 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CW90" s="1">
-        <f>'PFN-to-PFL-hd'!J15</f>
+        <f>'PFN-to-PFL-hd'!J15 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CX90" s="1">
-        <f>'PFN-to-PFL-hd'!K15</f>
+        <f>'PFN-to-PFL-hd'!K15 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CY90" s="1">
-        <f>'PFN-to-PFL-hd'!L15</f>
+        <f>'PFN-to-PFL-hd'!L15 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CZ90" s="1">
-        <f>'PFN-to-PFL-hd'!M15</f>
+        <f>'PFN-to-PFL-hd'!M15 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DA90" s="1">
-        <f>'PFN-to-PFL-hd'!N15</f>
+        <f>'PFN-to-PFL-hd'!N15 * Gains!$J$9</f>
         <v>1</v>
       </c>
       <c r="DB90" s="1">
-        <f>'PFN-to-PFL-hd'!O15</f>
+        <f>'PFN-to-PFL-hd'!O15 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DC90" s="1">
-        <f>'PFN-to-PFL-hd'!P15</f>
+        <f>'PFN-to-PFL-hd'!P15 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DD90" s="3">
@@ -37346,67 +37346,67 @@
         <v>0</v>
       </c>
       <c r="CN91" s="1">
-        <f>'PFN-to-PFL-hd'!A16</f>
+        <f>'PFN-to-PFL-hd'!A16 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CO91" s="1">
-        <f>'PFN-to-PFL-hd'!B16</f>
+        <f>'PFN-to-PFL-hd'!B16 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CP91" s="1">
-        <f>'PFN-to-PFL-hd'!C16</f>
+        <f>'PFN-to-PFL-hd'!C16 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CQ91" s="1">
-        <f>'PFN-to-PFL-hd'!D16</f>
+        <f>'PFN-to-PFL-hd'!D16 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CR91" s="1">
-        <f>'PFN-to-PFL-hd'!E16</f>
+        <f>'PFN-to-PFL-hd'!E16 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CS91" s="1">
-        <f>'PFN-to-PFL-hd'!F16</f>
+        <f>'PFN-to-PFL-hd'!F16 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CT91" s="1">
-        <f>'PFN-to-PFL-hd'!G16</f>
+        <f>'PFN-to-PFL-hd'!G16 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CU91" s="1">
-        <f>'PFN-to-PFL-hd'!H16</f>
+        <f>'PFN-to-PFL-hd'!H16 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CV91" s="1">
-        <f>'PFN-to-PFL-hd'!I16</f>
+        <f>'PFN-to-PFL-hd'!I16 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CW91" s="1">
-        <f>'PFN-to-PFL-hd'!J16</f>
+        <f>'PFN-to-PFL-hd'!J16 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CX91" s="1">
-        <f>'PFN-to-PFL-hd'!K16</f>
+        <f>'PFN-to-PFL-hd'!K16 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CY91" s="1">
-        <f>'PFN-to-PFL-hd'!L16</f>
+        <f>'PFN-to-PFL-hd'!L16 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CZ91" s="1">
-        <f>'PFN-to-PFL-hd'!M16</f>
+        <f>'PFN-to-PFL-hd'!M16 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DA91" s="1">
-        <f>'PFN-to-PFL-hd'!N16</f>
+        <f>'PFN-to-PFL-hd'!N16 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DB91" s="1">
-        <f>'PFN-to-PFL-hd'!O16</f>
+        <f>'PFN-to-PFL-hd'!O16 * Gains!$J$9</f>
         <v>1</v>
       </c>
       <c r="DC91" s="1">
-        <f>'PFN-to-PFL-hd'!P16</f>
+        <f>'PFN-to-PFL-hd'!P16 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DD91" s="3">
@@ -37749,67 +37749,67 @@
         <v>0</v>
       </c>
       <c r="CN92" s="3">
-        <f>'hd-to-hd'!A1</f>
+        <f>'hd-to-hd'!A1 * Gains!$J$10</f>
         <v>1</v>
       </c>
       <c r="CO92" s="3">
-        <f>'hd-to-hd'!B1</f>
+        <f>'hd-to-hd'!B1 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CP92" s="3">
-        <f>'hd-to-hd'!C1</f>
+        <f>'hd-to-hd'!C1 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CQ92" s="3">
-        <f>'hd-to-hd'!D1</f>
+        <f>'hd-to-hd'!D1 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CR92" s="3">
-        <f>'hd-to-hd'!E1</f>
+        <f>'hd-to-hd'!E1 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CS92" s="3">
-        <f>'hd-to-hd'!F1</f>
+        <f>'hd-to-hd'!F1 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CT92" s="3">
-        <f>'hd-to-hd'!G1</f>
+        <f>'hd-to-hd'!G1 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CU92" s="3">
-        <f>'hd-to-hd'!H1</f>
+        <f>'hd-to-hd'!H1 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CV92" s="3">
-        <f>'hd-to-hd'!I1</f>
+        <f>'hd-to-hd'!I1 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CW92" s="3">
-        <f>'hd-to-hd'!J1</f>
+        <f>'hd-to-hd'!J1 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CX92" s="3">
-        <f>'hd-to-hd'!K1</f>
+        <f>'hd-to-hd'!K1 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CY92" s="3">
-        <f>'hd-to-hd'!L1</f>
+        <f>'hd-to-hd'!L1 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CZ92" s="3">
-        <f>'hd-to-hd'!M1</f>
+        <f>'hd-to-hd'!M1 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="DA92" s="3">
-        <f>'hd-to-hd'!N1</f>
+        <f>'hd-to-hd'!N1 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="DB92" s="3">
-        <f>'hd-to-hd'!O1</f>
+        <f>'hd-to-hd'!O1 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="DC92" s="3">
-        <f>'hd-to-hd'!P1</f>
+        <f>'hd-to-hd'!P1 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="DD92" s="1">
@@ -38152,67 +38152,67 @@
         <v>0</v>
       </c>
       <c r="CN93" s="3">
-        <f>'hd-to-hd'!A2</f>
+        <f>'hd-to-hd'!A2 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CO93" s="3">
-        <f>'hd-to-hd'!B2</f>
+        <f>'hd-to-hd'!B2 * Gains!$J$10</f>
         <v>1</v>
       </c>
       <c r="CP93" s="3">
-        <f>'hd-to-hd'!C2</f>
+        <f>'hd-to-hd'!C2 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CQ93" s="3">
-        <f>'hd-to-hd'!D2</f>
+        <f>'hd-to-hd'!D2 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CR93" s="3">
-        <f>'hd-to-hd'!E2</f>
+        <f>'hd-to-hd'!E2 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CS93" s="3">
-        <f>'hd-to-hd'!F2</f>
+        <f>'hd-to-hd'!F2 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CT93" s="3">
-        <f>'hd-to-hd'!G2</f>
+        <f>'hd-to-hd'!G2 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CU93" s="3">
-        <f>'hd-to-hd'!H2</f>
+        <f>'hd-to-hd'!H2 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CV93" s="3">
-        <f>'hd-to-hd'!I2</f>
+        <f>'hd-to-hd'!I2 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CW93" s="3">
-        <f>'hd-to-hd'!J2</f>
+        <f>'hd-to-hd'!J2 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CX93" s="3">
-        <f>'hd-to-hd'!K2</f>
+        <f>'hd-to-hd'!K2 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CY93" s="3">
-        <f>'hd-to-hd'!L2</f>
+        <f>'hd-to-hd'!L2 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CZ93" s="3">
-        <f>'hd-to-hd'!M2</f>
+        <f>'hd-to-hd'!M2 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="DA93" s="3">
-        <f>'hd-to-hd'!N2</f>
+        <f>'hd-to-hd'!N2 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="DB93" s="3">
-        <f>'hd-to-hd'!O2</f>
+        <f>'hd-to-hd'!O2 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="DC93" s="3">
-        <f>'hd-to-hd'!P2</f>
+        <f>'hd-to-hd'!P2 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="DD93" s="1">
@@ -38555,67 +38555,67 @@
         <v>0</v>
       </c>
       <c r="CN94" s="3">
-        <f>'hd-to-hd'!A3</f>
+        <f>'hd-to-hd'!A3 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CO94" s="3">
-        <f>'hd-to-hd'!B3</f>
+        <f>'hd-to-hd'!B3 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CP94" s="3">
-        <f>'hd-to-hd'!C3</f>
+        <f>'hd-to-hd'!C3 * Gains!$J$10</f>
         <v>1</v>
       </c>
       <c r="CQ94" s="3">
-        <f>'hd-to-hd'!D3</f>
+        <f>'hd-to-hd'!D3 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CR94" s="3">
-        <f>'hd-to-hd'!E3</f>
+        <f>'hd-to-hd'!E3 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CS94" s="3">
-        <f>'hd-to-hd'!F3</f>
+        <f>'hd-to-hd'!F3 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CT94" s="3">
-        <f>'hd-to-hd'!G3</f>
+        <f>'hd-to-hd'!G3 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CU94" s="3">
-        <f>'hd-to-hd'!H3</f>
+        <f>'hd-to-hd'!H3 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CV94" s="3">
-        <f>'hd-to-hd'!I3</f>
+        <f>'hd-to-hd'!I3 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CW94" s="3">
-        <f>'hd-to-hd'!J3</f>
+        <f>'hd-to-hd'!J3 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CX94" s="3">
-        <f>'hd-to-hd'!K3</f>
+        <f>'hd-to-hd'!K3 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CY94" s="3">
-        <f>'hd-to-hd'!L3</f>
+        <f>'hd-to-hd'!L3 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CZ94" s="3">
-        <f>'hd-to-hd'!M3</f>
+        <f>'hd-to-hd'!M3 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="DA94" s="3">
-        <f>'hd-to-hd'!N3</f>
+        <f>'hd-to-hd'!N3 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="DB94" s="3">
-        <f>'hd-to-hd'!O3</f>
+        <f>'hd-to-hd'!O3 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="DC94" s="3">
-        <f>'hd-to-hd'!P3</f>
+        <f>'hd-to-hd'!P3 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="DD94" s="1">
@@ -38958,67 +38958,67 @@
         <v>0</v>
       </c>
       <c r="CN95" s="3">
-        <f>'hd-to-hd'!A4</f>
+        <f>'hd-to-hd'!A4 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CO95" s="3">
-        <f>'hd-to-hd'!B4</f>
+        <f>'hd-to-hd'!B4 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CP95" s="3">
-        <f>'hd-to-hd'!C4</f>
+        <f>'hd-to-hd'!C4 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CQ95" s="3">
-        <f>'hd-to-hd'!D4</f>
+        <f>'hd-to-hd'!D4 * Gains!$J$10</f>
         <v>1</v>
       </c>
       <c r="CR95" s="3">
-        <f>'hd-to-hd'!E4</f>
+        <f>'hd-to-hd'!E4 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CS95" s="3">
-        <f>'hd-to-hd'!F4</f>
+        <f>'hd-to-hd'!F4 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CT95" s="3">
-        <f>'hd-to-hd'!G4</f>
+        <f>'hd-to-hd'!G4 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CU95" s="3">
-        <f>'hd-to-hd'!H4</f>
+        <f>'hd-to-hd'!H4 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CV95" s="3">
-        <f>'hd-to-hd'!I4</f>
+        <f>'hd-to-hd'!I4 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CW95" s="3">
-        <f>'hd-to-hd'!J4</f>
+        <f>'hd-to-hd'!J4 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CX95" s="3">
-        <f>'hd-to-hd'!K4</f>
+        <f>'hd-to-hd'!K4 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CY95" s="3">
-        <f>'hd-to-hd'!L4</f>
+        <f>'hd-to-hd'!L4 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CZ95" s="3">
-        <f>'hd-to-hd'!M4</f>
+        <f>'hd-to-hd'!M4 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="DA95" s="3">
-        <f>'hd-to-hd'!N4</f>
+        <f>'hd-to-hd'!N4 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="DB95" s="3">
-        <f>'hd-to-hd'!O4</f>
+        <f>'hd-to-hd'!O4 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="DC95" s="3">
-        <f>'hd-to-hd'!P4</f>
+        <f>'hd-to-hd'!P4 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="DD95" s="1">
@@ -39361,67 +39361,67 @@
         <v>0</v>
       </c>
       <c r="CN96" s="3">
-        <f>'hd-to-hd'!A5</f>
+        <f>'hd-to-hd'!A5 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CO96" s="3">
-        <f>'hd-to-hd'!B5</f>
+        <f>'hd-to-hd'!B5 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CP96" s="3">
-        <f>'hd-to-hd'!C5</f>
+        <f>'hd-to-hd'!C5 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CQ96" s="3">
-        <f>'hd-to-hd'!D5</f>
+        <f>'hd-to-hd'!D5 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CR96" s="3">
-        <f>'hd-to-hd'!E5</f>
+        <f>'hd-to-hd'!E5 * Gains!$J$10</f>
         <v>1</v>
       </c>
       <c r="CS96" s="3">
-        <f>'hd-to-hd'!F5</f>
+        <f>'hd-to-hd'!F5 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CT96" s="3">
-        <f>'hd-to-hd'!G5</f>
+        <f>'hd-to-hd'!G5 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CU96" s="3">
-        <f>'hd-to-hd'!H5</f>
+        <f>'hd-to-hd'!H5 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CV96" s="3">
-        <f>'hd-to-hd'!I5</f>
+        <f>'hd-to-hd'!I5 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CW96" s="3">
-        <f>'hd-to-hd'!J5</f>
+        <f>'hd-to-hd'!J5 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CX96" s="3">
-        <f>'hd-to-hd'!K5</f>
+        <f>'hd-to-hd'!K5 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CY96" s="3">
-        <f>'hd-to-hd'!L5</f>
+        <f>'hd-to-hd'!L5 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CZ96" s="3">
-        <f>'hd-to-hd'!M5</f>
+        <f>'hd-to-hd'!M5 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="DA96" s="3">
-        <f>'hd-to-hd'!N5</f>
+        <f>'hd-to-hd'!N5 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="DB96" s="3">
-        <f>'hd-to-hd'!O5</f>
+        <f>'hd-to-hd'!O5 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="DC96" s="3">
-        <f>'hd-to-hd'!P5</f>
+        <f>'hd-to-hd'!P5 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="DD96" s="1">
@@ -39764,67 +39764,67 @@
         <v>0</v>
       </c>
       <c r="CN97" s="3">
-        <f>'hd-to-hd'!A6</f>
+        <f>'hd-to-hd'!A6 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CO97" s="3">
-        <f>'hd-to-hd'!B6</f>
+        <f>'hd-to-hd'!B6 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CP97" s="3">
-        <f>'hd-to-hd'!C6</f>
+        <f>'hd-to-hd'!C6 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CQ97" s="3">
-        <f>'hd-to-hd'!D6</f>
+        <f>'hd-to-hd'!D6 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CR97" s="3">
-        <f>'hd-to-hd'!E6</f>
+        <f>'hd-to-hd'!E6 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CS97" s="3">
-        <f>'hd-to-hd'!F6</f>
+        <f>'hd-to-hd'!F6 * Gains!$J$10</f>
         <v>1</v>
       </c>
       <c r="CT97" s="3">
-        <f>'hd-to-hd'!G6</f>
+        <f>'hd-to-hd'!G6 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CU97" s="3">
-        <f>'hd-to-hd'!H6</f>
+        <f>'hd-to-hd'!H6 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CV97" s="3">
-        <f>'hd-to-hd'!I6</f>
+        <f>'hd-to-hd'!I6 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CW97" s="3">
-        <f>'hd-to-hd'!J6</f>
+        <f>'hd-to-hd'!J6 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CX97" s="3">
-        <f>'hd-to-hd'!K6</f>
+        <f>'hd-to-hd'!K6 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CY97" s="3">
-        <f>'hd-to-hd'!L6</f>
+        <f>'hd-to-hd'!L6 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CZ97" s="3">
-        <f>'hd-to-hd'!M6</f>
+        <f>'hd-to-hd'!M6 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="DA97" s="3">
-        <f>'hd-to-hd'!N6</f>
+        <f>'hd-to-hd'!N6 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="DB97" s="3">
-        <f>'hd-to-hd'!O6</f>
+        <f>'hd-to-hd'!O6 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="DC97" s="3">
-        <f>'hd-to-hd'!P6</f>
+        <f>'hd-to-hd'!P6 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="DD97" s="1">
@@ -40167,67 +40167,67 @@
         <v>0</v>
       </c>
       <c r="CN98" s="3">
-        <f>'hd-to-hd'!A7</f>
+        <f>'hd-to-hd'!A7 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CO98" s="3">
-        <f>'hd-to-hd'!B7</f>
+        <f>'hd-to-hd'!B7 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CP98" s="3">
-        <f>'hd-to-hd'!C7</f>
+        <f>'hd-to-hd'!C7 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CQ98" s="3">
-        <f>'hd-to-hd'!D7</f>
+        <f>'hd-to-hd'!D7 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CR98" s="3">
-        <f>'hd-to-hd'!E7</f>
+        <f>'hd-to-hd'!E7 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CS98" s="3">
-        <f>'hd-to-hd'!F7</f>
+        <f>'hd-to-hd'!F7 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CT98" s="3">
-        <f>'hd-to-hd'!G7</f>
+        <f>'hd-to-hd'!G7 * Gains!$J$10</f>
         <v>1</v>
       </c>
       <c r="CU98" s="3">
-        <f>'hd-to-hd'!H7</f>
+        <f>'hd-to-hd'!H7 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CV98" s="3">
-        <f>'hd-to-hd'!I7</f>
+        <f>'hd-to-hd'!I7 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CW98" s="3">
-        <f>'hd-to-hd'!J7</f>
+        <f>'hd-to-hd'!J7 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CX98" s="3">
-        <f>'hd-to-hd'!K7</f>
+        <f>'hd-to-hd'!K7 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CY98" s="3">
-        <f>'hd-to-hd'!L7</f>
+        <f>'hd-to-hd'!L7 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CZ98" s="3">
-        <f>'hd-to-hd'!M7</f>
+        <f>'hd-to-hd'!M7 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="DA98" s="3">
-        <f>'hd-to-hd'!N7</f>
+        <f>'hd-to-hd'!N7 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="DB98" s="3">
-        <f>'hd-to-hd'!O7</f>
+        <f>'hd-to-hd'!O7 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="DC98" s="3">
-        <f>'hd-to-hd'!P7</f>
+        <f>'hd-to-hd'!P7 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="DD98" s="1">
@@ -40570,67 +40570,67 @@
         <v>0</v>
       </c>
       <c r="CN99" s="3">
-        <f>'hd-to-hd'!A8</f>
+        <f>'hd-to-hd'!A8 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CO99" s="3">
-        <f>'hd-to-hd'!B8</f>
+        <f>'hd-to-hd'!B8 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CP99" s="3">
-        <f>'hd-to-hd'!C8</f>
+        <f>'hd-to-hd'!C8 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CQ99" s="3">
-        <f>'hd-to-hd'!D8</f>
+        <f>'hd-to-hd'!D8 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CR99" s="3">
-        <f>'hd-to-hd'!E8</f>
+        <f>'hd-to-hd'!E8 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CS99" s="3">
-        <f>'hd-to-hd'!F8</f>
+        <f>'hd-to-hd'!F8 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CT99" s="3">
-        <f>'hd-to-hd'!G8</f>
+        <f>'hd-to-hd'!G8 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CU99" s="3">
-        <f>'hd-to-hd'!H8</f>
+        <f>'hd-to-hd'!H8 * Gains!$J$10</f>
         <v>1</v>
       </c>
       <c r="CV99" s="3">
-        <f>'hd-to-hd'!I8</f>
+        <f>'hd-to-hd'!I8 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CW99" s="3">
-        <f>'hd-to-hd'!J8</f>
+        <f>'hd-to-hd'!J8 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CX99" s="3">
-        <f>'hd-to-hd'!K8</f>
+        <f>'hd-to-hd'!K8 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CY99" s="3">
-        <f>'hd-to-hd'!L8</f>
+        <f>'hd-to-hd'!L8 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CZ99" s="3">
-        <f>'hd-to-hd'!M8</f>
+        <f>'hd-to-hd'!M8 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="DA99" s="3">
-        <f>'hd-to-hd'!N8</f>
+        <f>'hd-to-hd'!N8 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="DB99" s="3">
-        <f>'hd-to-hd'!O8</f>
+        <f>'hd-to-hd'!O8 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="DC99" s="3">
-        <f>'hd-to-hd'!P8</f>
+        <f>'hd-to-hd'!P8 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="DD99" s="1">
@@ -40973,67 +40973,67 @@
         <v>0</v>
       </c>
       <c r="CN100" s="3">
-        <f>'hd-to-hd'!A9</f>
+        <f>'hd-to-hd'!A9 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CO100" s="3">
-        <f>'hd-to-hd'!B9</f>
+        <f>'hd-to-hd'!B9 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CP100" s="3">
-        <f>'hd-to-hd'!C9</f>
+        <f>'hd-to-hd'!C9 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CQ100" s="3">
-        <f>'hd-to-hd'!D9</f>
+        <f>'hd-to-hd'!D9 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CR100" s="3">
-        <f>'hd-to-hd'!E9</f>
+        <f>'hd-to-hd'!E9 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CS100" s="3">
-        <f>'hd-to-hd'!F9</f>
+        <f>'hd-to-hd'!F9 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CT100" s="3">
-        <f>'hd-to-hd'!G9</f>
+        <f>'hd-to-hd'!G9 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CU100" s="3">
-        <f>'hd-to-hd'!H9</f>
+        <f>'hd-to-hd'!H9 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CV100" s="3">
-        <f>'hd-to-hd'!I9</f>
+        <f>'hd-to-hd'!I9 * Gains!$J$10</f>
         <v>1</v>
       </c>
       <c r="CW100" s="3">
-        <f>'hd-to-hd'!J9</f>
+        <f>'hd-to-hd'!J9 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CX100" s="3">
-        <f>'hd-to-hd'!K9</f>
+        <f>'hd-to-hd'!K9 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CY100" s="3">
-        <f>'hd-to-hd'!L9</f>
+        <f>'hd-to-hd'!L9 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CZ100" s="3">
-        <f>'hd-to-hd'!M9</f>
+        <f>'hd-to-hd'!M9 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="DA100" s="3">
-        <f>'hd-to-hd'!N9</f>
+        <f>'hd-to-hd'!N9 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="DB100" s="3">
-        <f>'hd-to-hd'!O9</f>
+        <f>'hd-to-hd'!O9 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="DC100" s="3">
-        <f>'hd-to-hd'!P9</f>
+        <f>'hd-to-hd'!P9 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="DD100" s="1">
@@ -41376,67 +41376,67 @@
         <v>0</v>
       </c>
       <c r="CN101" s="3">
-        <f>'hd-to-hd'!A10</f>
+        <f>'hd-to-hd'!A10 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CO101" s="3">
-        <f>'hd-to-hd'!B10</f>
+        <f>'hd-to-hd'!B10 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CP101" s="3">
-        <f>'hd-to-hd'!C10</f>
+        <f>'hd-to-hd'!C10 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CQ101" s="3">
-        <f>'hd-to-hd'!D10</f>
+        <f>'hd-to-hd'!D10 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CR101" s="3">
-        <f>'hd-to-hd'!E10</f>
+        <f>'hd-to-hd'!E10 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CS101" s="3">
-        <f>'hd-to-hd'!F10</f>
+        <f>'hd-to-hd'!F10 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CT101" s="3">
-        <f>'hd-to-hd'!G10</f>
+        <f>'hd-to-hd'!G10 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CU101" s="3">
-        <f>'hd-to-hd'!H10</f>
+        <f>'hd-to-hd'!H10 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CV101" s="3">
-        <f>'hd-to-hd'!I10</f>
+        <f>'hd-to-hd'!I10 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CW101" s="3">
-        <f>'hd-to-hd'!J10</f>
+        <f>'hd-to-hd'!J10 * Gains!$J$10</f>
         <v>1</v>
       </c>
       <c r="CX101" s="3">
-        <f>'hd-to-hd'!K10</f>
+        <f>'hd-to-hd'!K10 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CY101" s="3">
-        <f>'hd-to-hd'!L10</f>
+        <f>'hd-to-hd'!L10 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CZ101" s="3">
-        <f>'hd-to-hd'!M10</f>
+        <f>'hd-to-hd'!M10 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="DA101" s="3">
-        <f>'hd-to-hd'!N10</f>
+        <f>'hd-to-hd'!N10 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="DB101" s="3">
-        <f>'hd-to-hd'!O10</f>
+        <f>'hd-to-hd'!O10 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="DC101" s="3">
-        <f>'hd-to-hd'!P10</f>
+        <f>'hd-to-hd'!P10 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="DD101" s="1">
@@ -41779,67 +41779,67 @@
         <v>0</v>
       </c>
       <c r="CN102" s="3">
-        <f>'hd-to-hd'!A11</f>
+        <f>'hd-to-hd'!A11 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CO102" s="3">
-        <f>'hd-to-hd'!B11</f>
+        <f>'hd-to-hd'!B11 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CP102" s="3">
-        <f>'hd-to-hd'!C11</f>
+        <f>'hd-to-hd'!C11 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CQ102" s="3">
-        <f>'hd-to-hd'!D11</f>
+        <f>'hd-to-hd'!D11 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CR102" s="3">
-        <f>'hd-to-hd'!E11</f>
+        <f>'hd-to-hd'!E11 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CS102" s="3">
-        <f>'hd-to-hd'!F11</f>
+        <f>'hd-to-hd'!F11 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CT102" s="3">
-        <f>'hd-to-hd'!G11</f>
+        <f>'hd-to-hd'!G11 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CU102" s="3">
-        <f>'hd-to-hd'!H11</f>
+        <f>'hd-to-hd'!H11 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CV102" s="3">
-        <f>'hd-to-hd'!I11</f>
+        <f>'hd-to-hd'!I11 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CW102" s="3">
-        <f>'hd-to-hd'!J11</f>
+        <f>'hd-to-hd'!J11 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CX102" s="3">
-        <f>'hd-to-hd'!K11</f>
+        <f>'hd-to-hd'!K11 * Gains!$J$10</f>
         <v>1</v>
       </c>
       <c r="CY102" s="3">
-        <f>'hd-to-hd'!L11</f>
+        <f>'hd-to-hd'!L11 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CZ102" s="3">
-        <f>'hd-to-hd'!M11</f>
+        <f>'hd-to-hd'!M11 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="DA102" s="3">
-        <f>'hd-to-hd'!N11</f>
+        <f>'hd-to-hd'!N11 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="DB102" s="3">
-        <f>'hd-to-hd'!O11</f>
+        <f>'hd-to-hd'!O11 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="DC102" s="3">
-        <f>'hd-to-hd'!P11</f>
+        <f>'hd-to-hd'!P11 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="DD102" s="1">
@@ -42182,67 +42182,67 @@
         <v>0</v>
       </c>
       <c r="CN103" s="3">
-        <f>'hd-to-hd'!A12</f>
+        <f>'hd-to-hd'!A12 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CO103" s="3">
-        <f>'hd-to-hd'!B12</f>
+        <f>'hd-to-hd'!B12 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CP103" s="3">
-        <f>'hd-to-hd'!C12</f>
+        <f>'hd-to-hd'!C12 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CQ103" s="3">
-        <f>'hd-to-hd'!D12</f>
+        <f>'hd-to-hd'!D12 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CR103" s="3">
-        <f>'hd-to-hd'!E12</f>
+        <f>'hd-to-hd'!E12 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CS103" s="3">
-        <f>'hd-to-hd'!F12</f>
+        <f>'hd-to-hd'!F12 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CT103" s="3">
-        <f>'hd-to-hd'!G12</f>
+        <f>'hd-to-hd'!G12 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CU103" s="3">
-        <f>'hd-to-hd'!H12</f>
+        <f>'hd-to-hd'!H12 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CV103" s="3">
-        <f>'hd-to-hd'!I12</f>
+        <f>'hd-to-hd'!I12 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CW103" s="3">
-        <f>'hd-to-hd'!J12</f>
+        <f>'hd-to-hd'!J12 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CX103" s="3">
-        <f>'hd-to-hd'!K12</f>
+        <f>'hd-to-hd'!K12 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CY103" s="3">
-        <f>'hd-to-hd'!L12</f>
+        <f>'hd-to-hd'!L12 * Gains!$J$10</f>
         <v>1</v>
       </c>
       <c r="CZ103" s="3">
-        <f>'hd-to-hd'!M12</f>
+        <f>'hd-to-hd'!M12 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="DA103" s="3">
-        <f>'hd-to-hd'!N12</f>
+        <f>'hd-to-hd'!N12 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="DB103" s="3">
-        <f>'hd-to-hd'!O12</f>
+        <f>'hd-to-hd'!O12 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="DC103" s="3">
-        <f>'hd-to-hd'!P12</f>
+        <f>'hd-to-hd'!P12 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="DD103" s="1">
@@ -42585,67 +42585,67 @@
         <v>0</v>
       </c>
       <c r="CN104" s="3">
-        <f>'hd-to-hd'!A13</f>
+        <f>'hd-to-hd'!A13 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CO104" s="3">
-        <f>'hd-to-hd'!B13</f>
+        <f>'hd-to-hd'!B13 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CP104" s="3">
-        <f>'hd-to-hd'!C13</f>
+        <f>'hd-to-hd'!C13 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CQ104" s="3">
-        <f>'hd-to-hd'!D13</f>
+        <f>'hd-to-hd'!D13 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CR104" s="3">
-        <f>'hd-to-hd'!E13</f>
+        <f>'hd-to-hd'!E13 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CS104" s="3">
-        <f>'hd-to-hd'!F13</f>
+        <f>'hd-to-hd'!F13 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CT104" s="3">
-        <f>'hd-to-hd'!G13</f>
+        <f>'hd-to-hd'!G13 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CU104" s="3">
-        <f>'hd-to-hd'!H13</f>
+        <f>'hd-to-hd'!H13 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CV104" s="3">
-        <f>'hd-to-hd'!I13</f>
+        <f>'hd-to-hd'!I13 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CW104" s="3">
-        <f>'hd-to-hd'!J13</f>
+        <f>'hd-to-hd'!J13 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CX104" s="3">
-        <f>'hd-to-hd'!K13</f>
+        <f>'hd-to-hd'!K13 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CY104" s="3">
-        <f>'hd-to-hd'!L13</f>
+        <f>'hd-to-hd'!L13 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CZ104" s="3">
-        <f>'hd-to-hd'!M13</f>
+        <f>'hd-to-hd'!M13 * Gains!$J$10</f>
         <v>1</v>
       </c>
       <c r="DA104" s="3">
-        <f>'hd-to-hd'!N13</f>
+        <f>'hd-to-hd'!N13 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="DB104" s="3">
-        <f>'hd-to-hd'!O13</f>
+        <f>'hd-to-hd'!O13 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="DC104" s="3">
-        <f>'hd-to-hd'!P13</f>
+        <f>'hd-to-hd'!P13 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="DD104" s="1">
@@ -42988,67 +42988,67 @@
         <v>0</v>
       </c>
       <c r="CN105" s="3">
-        <f>'hd-to-hd'!A14</f>
+        <f>'hd-to-hd'!A14 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CO105" s="3">
-        <f>'hd-to-hd'!B14</f>
+        <f>'hd-to-hd'!B14 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CP105" s="3">
-        <f>'hd-to-hd'!C14</f>
+        <f>'hd-to-hd'!C14 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CQ105" s="3">
-        <f>'hd-to-hd'!D14</f>
+        <f>'hd-to-hd'!D14 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CR105" s="3">
-        <f>'hd-to-hd'!E14</f>
+        <f>'hd-to-hd'!E14 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CS105" s="3">
-        <f>'hd-to-hd'!F14</f>
+        <f>'hd-to-hd'!F14 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CT105" s="3">
-        <f>'hd-to-hd'!G14</f>
+        <f>'hd-to-hd'!G14 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CU105" s="3">
-        <f>'hd-to-hd'!H14</f>
+        <f>'hd-to-hd'!H14 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CV105" s="3">
-        <f>'hd-to-hd'!I14</f>
+        <f>'hd-to-hd'!I14 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CW105" s="3">
-        <f>'hd-to-hd'!J14</f>
+        <f>'hd-to-hd'!J14 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CX105" s="3">
-        <f>'hd-to-hd'!K14</f>
+        <f>'hd-to-hd'!K14 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CY105" s="3">
-        <f>'hd-to-hd'!L14</f>
+        <f>'hd-to-hd'!L14 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CZ105" s="3">
-        <f>'hd-to-hd'!M14</f>
+        <f>'hd-to-hd'!M14 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="DA105" s="3">
-        <f>'hd-to-hd'!N14</f>
+        <f>'hd-to-hd'!N14 * Gains!$J$10</f>
         <v>1</v>
       </c>
       <c r="DB105" s="3">
-        <f>'hd-to-hd'!O14</f>
+        <f>'hd-to-hd'!O14 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="DC105" s="3">
-        <f>'hd-to-hd'!P14</f>
+        <f>'hd-to-hd'!P14 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="DD105" s="1">
@@ -43391,67 +43391,67 @@
         <v>0</v>
       </c>
       <c r="CN106" s="3">
-        <f>'hd-to-hd'!A15</f>
+        <f>'hd-to-hd'!A15 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CO106" s="3">
-        <f>'hd-to-hd'!B15</f>
+        <f>'hd-to-hd'!B15 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CP106" s="3">
-        <f>'hd-to-hd'!C15</f>
+        <f>'hd-to-hd'!C15 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CQ106" s="3">
-        <f>'hd-to-hd'!D15</f>
+        <f>'hd-to-hd'!D15 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CR106" s="3">
-        <f>'hd-to-hd'!E15</f>
+        <f>'hd-to-hd'!E15 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CS106" s="3">
-        <f>'hd-to-hd'!F15</f>
+        <f>'hd-to-hd'!F15 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CT106" s="3">
-        <f>'hd-to-hd'!G15</f>
+        <f>'hd-to-hd'!G15 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CU106" s="3">
-        <f>'hd-to-hd'!H15</f>
+        <f>'hd-to-hd'!H15 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CV106" s="3">
-        <f>'hd-to-hd'!I15</f>
+        <f>'hd-to-hd'!I15 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CW106" s="3">
-        <f>'hd-to-hd'!J15</f>
+        <f>'hd-to-hd'!J15 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CX106" s="3">
-        <f>'hd-to-hd'!K15</f>
+        <f>'hd-to-hd'!K15 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CY106" s="3">
-        <f>'hd-to-hd'!L15</f>
+        <f>'hd-to-hd'!L15 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CZ106" s="3">
-        <f>'hd-to-hd'!M15</f>
+        <f>'hd-to-hd'!M15 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="DA106" s="3">
-        <f>'hd-to-hd'!N15</f>
+        <f>'hd-to-hd'!N15 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="DB106" s="3">
-        <f>'hd-to-hd'!O15</f>
+        <f>'hd-to-hd'!O15 * Gains!$J$10</f>
         <v>1</v>
       </c>
       <c r="DC106" s="3">
-        <f>'hd-to-hd'!P15</f>
+        <f>'hd-to-hd'!P15 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="DD106" s="1">
@@ -43794,67 +43794,67 @@
         <v>0</v>
       </c>
       <c r="CN107" s="3">
-        <f>'hd-to-hd'!A16</f>
+        <f>'hd-to-hd'!A16 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CO107" s="3">
-        <f>'hd-to-hd'!B16</f>
+        <f>'hd-to-hd'!B16 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CP107" s="3">
-        <f>'hd-to-hd'!C16</f>
+        <f>'hd-to-hd'!C16 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CQ107" s="3">
-        <f>'hd-to-hd'!D16</f>
+        <f>'hd-to-hd'!D16 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CR107" s="3">
-        <f>'hd-to-hd'!E16</f>
+        <f>'hd-to-hd'!E16 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CS107" s="3">
-        <f>'hd-to-hd'!F16</f>
+        <f>'hd-to-hd'!F16 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CT107" s="3">
-        <f>'hd-to-hd'!G16</f>
+        <f>'hd-to-hd'!G16 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CU107" s="3">
-        <f>'hd-to-hd'!H16</f>
+        <f>'hd-to-hd'!H16 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CV107" s="3">
-        <f>'hd-to-hd'!I16</f>
+        <f>'hd-to-hd'!I16 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CW107" s="3">
-        <f>'hd-to-hd'!J16</f>
+        <f>'hd-to-hd'!J16 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CX107" s="3">
-        <f>'hd-to-hd'!K16</f>
+        <f>'hd-to-hd'!K16 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CY107" s="3">
-        <f>'hd-to-hd'!L16</f>
+        <f>'hd-to-hd'!L16 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="CZ107" s="3">
-        <f>'hd-to-hd'!M16</f>
+        <f>'hd-to-hd'!M16 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="DA107" s="3">
-        <f>'hd-to-hd'!N16</f>
+        <f>'hd-to-hd'!N16 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="DB107" s="3">
-        <f>'hd-to-hd'!O16</f>
+        <f>'hd-to-hd'!O16 * Gains!$J$10</f>
         <v>0</v>
       </c>
       <c r="DC107" s="3">
-        <f>'hd-to-hd'!P16</f>
+        <f>'hd-to-hd'!P16 * Gains!$J$10</f>
         <v>1</v>
       </c>
       <c r="DD107" s="1">
@@ -49905,7 +49905,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H8"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -49918,19 +49918,19 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>-0.6</v>
       </c>
       <c r="E1">
         <v>-1</v>
       </c>
       <c r="F1">
-        <v>-1</v>
+        <v>-0.6</v>
       </c>
       <c r="G1">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="H1">
         <v>0</v>
@@ -49971,19 +49971,19 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="E2">
-        <v>-1</v>
+        <v>-0.6</v>
       </c>
       <c r="F2">
         <v>-1</v>
       </c>
       <c r="G2">
-        <v>-1</v>
+        <v>-0.6</v>
       </c>
       <c r="H2">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -50012,7 +50012,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -50024,16 +50024,16 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="F3">
-        <v>-1</v>
+        <v>-0.6</v>
       </c>
       <c r="G3">
         <v>-1</v>
       </c>
       <c r="H3">
-        <v>-1</v>
+        <v>-0.6</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -50062,10 +50062,10 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>-1</v>
+        <v>-0.6</v>
       </c>
       <c r="B4">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -50077,10 +50077,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="G4">
-        <v>-1</v>
+        <v>-0.6</v>
       </c>
       <c r="H4">
         <v>-1</v>
@@ -50115,10 +50115,10 @@
         <v>-1</v>
       </c>
       <c r="B5">
-        <v>-1</v>
+        <v>-0.6</v>
       </c>
       <c r="C5">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -50130,10 +50130,10 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="H5">
-        <v>-1</v>
+        <v>-0.6</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -50162,16 +50162,16 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>-1</v>
+        <v>-0.6</v>
       </c>
       <c r="B6">
         <v>-1</v>
       </c>
       <c r="C6">
-        <v>-1</v>
+        <v>-0.6</v>
       </c>
       <c r="D6">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -50183,7 +50183,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -50212,19 +50212,19 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="B7">
-        <v>-1</v>
+        <v>-0.6</v>
       </c>
       <c r="C7">
         <v>-1</v>
       </c>
       <c r="D7">
-        <v>-1</v>
+        <v>-0.6</v>
       </c>
       <c r="E7">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -50265,19 +50265,19 @@
         <v>0</v>
       </c>
       <c r="B8">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>-0.6</v>
       </c>
       <c r="D8">
         <v>-1</v>
       </c>
       <c r="E8">
-        <v>-1</v>
+        <v>-0.6</v>
       </c>
       <c r="F8">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -50342,19 +50342,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="L9">
-        <v>-1</v>
+        <v>-0.6</v>
       </c>
       <c r="M9">
         <v>-1</v>
       </c>
       <c r="N9">
-        <v>-1</v>
+        <v>-0.6</v>
       </c>
       <c r="O9">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -50395,19 +50395,19 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="M10">
-        <v>-1</v>
+        <v>-0.6</v>
       </c>
       <c r="N10">
         <v>-1</v>
       </c>
       <c r="O10">
-        <v>-1</v>
+        <v>-0.6</v>
       </c>
       <c r="P10">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -50436,7 +50436,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -50448,16 +50448,16 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="N11">
-        <v>-1</v>
+        <v>-0.6</v>
       </c>
       <c r="O11">
         <v>-1</v>
       </c>
       <c r="P11">
-        <v>-1</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -50486,10 +50486,10 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>-1</v>
+        <v>-0.6</v>
       </c>
       <c r="J12">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -50501,10 +50501,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="O12">
-        <v>-1</v>
+        <v>-0.6</v>
       </c>
       <c r="P12">
         <v>-1</v>
@@ -50539,10 +50539,10 @@
         <v>-1</v>
       </c>
       <c r="J13">
-        <v>-1</v>
+        <v>-0.6</v>
       </c>
       <c r="K13">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -50554,10 +50554,10 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="P13">
-        <v>-1</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -50586,16 +50586,16 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>-1</v>
+        <v>-0.6</v>
       </c>
       <c r="J14">
         <v>-1</v>
       </c>
       <c r="K14">
-        <v>-1</v>
+        <v>-0.6</v>
       </c>
       <c r="L14">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -50607,7 +50607,7 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -50636,19 +50636,19 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="J15">
-        <v>-1</v>
+        <v>-0.6</v>
       </c>
       <c r="K15">
         <v>-1</v>
       </c>
       <c r="L15">
-        <v>-1</v>
+        <v>-0.6</v>
       </c>
       <c r="M15">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -50689,19 +50689,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="K16">
-        <v>-1</v>
+        <v>-0.6</v>
       </c>
       <c r="L16">
         <v>-1</v>
       </c>
       <c r="M16">
-        <v>-1</v>
+        <v>-0.6</v>
       </c>
       <c r="N16">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -54564,7 +54564,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -54874,8 +54874,8 @@
       <c r="I9" t="s">
         <v>12</v>
       </c>
-      <c r="J9" t="s">
-        <v>12</v>
+      <c r="J9">
+        <v>1</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -54909,8 +54909,8 @@
       <c r="I10" t="s">
         <v>12</v>
       </c>
-      <c r="J10" t="s">
-        <v>12</v>
+      <c r="J10">
+        <v>1</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -57258,7 +57258,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/Theorical_connectivity_matrices.xlsx
+++ b/Theorical_connectivity_matrices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bclem\OneDrive\Documents\GitHub\Megalopta_CX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E508C6BD-1131-478F-A3BE-A35550C22C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0AA2AC-0107-4EA2-83D0-67C42EEF0994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{093D5FC8-3546-4B30-B5BC-72449F880B19}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="2" activeTab="2" xr2:uid="{093D5FC8-3546-4B30-B5BC-72449F880B19}"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="13" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="13">
   <si>
     <t>TS</t>
   </si>
@@ -459,8 +459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D70C54ED-CF8A-40EC-8537-9A05E3479CC3}">
   <dimension ref="A1:DS123"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U49" sqref="U49"/>
+    <sheetView topLeftCell="AI1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AR9" sqref="AR9:BG10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -500,67 +500,67 @@
         <v>0</v>
       </c>
       <c r="L1">
-        <f>'CIU-to-EPG'!A1</f>
+        <f>'CIU-to-EPG'!A1 * Gains!$E$2</f>
         <v>1</v>
       </c>
       <c r="M1">
-        <f>'CIU-to-EPG'!B1</f>
+        <f>'CIU-to-EPG'!B1 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="N1">
-        <f>'CIU-to-EPG'!C1</f>
+        <f>'CIU-to-EPG'!C1 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="O1">
-        <f>'CIU-to-EPG'!D1</f>
+        <f>'CIU-to-EPG'!D1 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="P1">
-        <f>'CIU-to-EPG'!E1</f>
+        <f>'CIU-to-EPG'!E1 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="Q1">
-        <f>'CIU-to-EPG'!F1</f>
+        <f>'CIU-to-EPG'!F1 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="R1">
-        <f>'CIU-to-EPG'!G1</f>
+        <f>'CIU-to-EPG'!G1 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="S1">
-        <f>'CIU-to-EPG'!H1</f>
+        <f>'CIU-to-EPG'!H1 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="T1">
-        <f>'CIU-to-EPG'!I1</f>
+        <f>'CIU-to-EPG'!I1 * Gains!$E$2</f>
         <v>1</v>
       </c>
       <c r="U1">
-        <f>'CIU-to-EPG'!J1</f>
+        <f>'CIU-to-EPG'!J1 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="V1">
-        <f>'CIU-to-EPG'!K1</f>
+        <f>'CIU-to-EPG'!K1 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="W1">
-        <f>'CIU-to-EPG'!L1</f>
+        <f>'CIU-to-EPG'!L1 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="X1">
-        <f>'CIU-to-EPG'!M1</f>
+        <f>'CIU-to-EPG'!M1 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="Y1">
-        <f>'CIU-to-EPG'!N1</f>
+        <f>'CIU-to-EPG'!N1 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="Z1">
-        <f>'CIU-to-EPG'!O1</f>
+        <f>'CIU-to-EPG'!O1 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="AA1">
-        <f>'CIU-to-EPG'!P1</f>
+        <f>'CIU-to-EPG'!P1 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="AB1" s="3">
@@ -887,67 +887,67 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <f>'CIU-to-EPG'!A2</f>
+        <f>'CIU-to-EPG'!A2 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="M2">
-        <f>'CIU-to-EPG'!B2</f>
+        <f>'CIU-to-EPG'!B2 * Gains!$E$2</f>
         <v>1</v>
       </c>
       <c r="N2">
-        <f>'CIU-to-EPG'!C2</f>
+        <f>'CIU-to-EPG'!C2 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="O2">
-        <f>'CIU-to-EPG'!D2</f>
+        <f>'CIU-to-EPG'!D2 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="P2">
-        <f>'CIU-to-EPG'!E2</f>
+        <f>'CIU-to-EPG'!E2 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="Q2">
-        <f>'CIU-to-EPG'!F2</f>
+        <f>'CIU-to-EPG'!F2 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="R2">
-        <f>'CIU-to-EPG'!G2</f>
+        <f>'CIU-to-EPG'!G2 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="S2">
-        <f>'CIU-to-EPG'!H2</f>
+        <f>'CIU-to-EPG'!H2 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="T2">
-        <f>'CIU-to-EPG'!I2</f>
+        <f>'CIU-to-EPG'!I2 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="U2">
-        <f>'CIU-to-EPG'!J2</f>
+        <f>'CIU-to-EPG'!J2 * Gains!$E$2</f>
         <v>1</v>
       </c>
       <c r="V2">
-        <f>'CIU-to-EPG'!K2</f>
+        <f>'CIU-to-EPG'!K2 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="W2">
-        <f>'CIU-to-EPG'!L2</f>
+        <f>'CIU-to-EPG'!L2 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="X2">
-        <f>'CIU-to-EPG'!M2</f>
+        <f>'CIU-to-EPG'!M2 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="Y2">
-        <f>'CIU-to-EPG'!N2</f>
+        <f>'CIU-to-EPG'!N2 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="Z2">
-        <f>'CIU-to-EPG'!O2</f>
+        <f>'CIU-to-EPG'!O2 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="AA2">
-        <f>'CIU-to-EPG'!P2</f>
+        <f>'CIU-to-EPG'!P2 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="AB2" s="3">
@@ -1274,67 +1274,67 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <f>'CIU-to-EPG'!A3</f>
+        <f>'CIU-to-EPG'!A3 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="M3">
-        <f>'CIU-to-EPG'!B3</f>
+        <f>'CIU-to-EPG'!B3 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="N3">
-        <f>'CIU-to-EPG'!C3</f>
+        <f>'CIU-to-EPG'!C3 * Gains!$E$2</f>
         <v>1</v>
       </c>
       <c r="O3">
-        <f>'CIU-to-EPG'!D3</f>
+        <f>'CIU-to-EPG'!D3 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="P3">
-        <f>'CIU-to-EPG'!E3</f>
+        <f>'CIU-to-EPG'!E3 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="Q3">
-        <f>'CIU-to-EPG'!F3</f>
+        <f>'CIU-to-EPG'!F3 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="R3">
-        <f>'CIU-to-EPG'!G3</f>
+        <f>'CIU-to-EPG'!G3 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="S3">
-        <f>'CIU-to-EPG'!H3</f>
+        <f>'CIU-to-EPG'!H3 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="T3">
-        <f>'CIU-to-EPG'!I3</f>
+        <f>'CIU-to-EPG'!I3 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="U3">
-        <f>'CIU-to-EPG'!J3</f>
+        <f>'CIU-to-EPG'!J3 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="V3">
-        <f>'CIU-to-EPG'!K3</f>
+        <f>'CIU-to-EPG'!K3 * Gains!$E$2</f>
         <v>1</v>
       </c>
       <c r="W3">
-        <f>'CIU-to-EPG'!L3</f>
+        <f>'CIU-to-EPG'!L3 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="X3">
-        <f>'CIU-to-EPG'!M3</f>
+        <f>'CIU-to-EPG'!M3 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="Y3">
-        <f>'CIU-to-EPG'!N3</f>
+        <f>'CIU-to-EPG'!N3 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="Z3">
-        <f>'CIU-to-EPG'!O3</f>
+        <f>'CIU-to-EPG'!O3 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="AA3">
-        <f>'CIU-to-EPG'!P3</f>
+        <f>'CIU-to-EPG'!P3 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="AB3" s="3">
@@ -1661,67 +1661,67 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <f>'CIU-to-EPG'!A4</f>
+        <f>'CIU-to-EPG'!A4 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="M4">
-        <f>'CIU-to-EPG'!B4</f>
+        <f>'CIU-to-EPG'!B4 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="N4">
-        <f>'CIU-to-EPG'!C4</f>
+        <f>'CIU-to-EPG'!C4 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="O4">
-        <f>'CIU-to-EPG'!D4</f>
+        <f>'CIU-to-EPG'!D4 * Gains!$E$2</f>
         <v>1</v>
       </c>
       <c r="P4">
-        <f>'CIU-to-EPG'!E4</f>
+        <f>'CIU-to-EPG'!E4 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="Q4">
-        <f>'CIU-to-EPG'!F4</f>
+        <f>'CIU-to-EPG'!F4 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="R4">
-        <f>'CIU-to-EPG'!G4</f>
+        <f>'CIU-to-EPG'!G4 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="S4">
-        <f>'CIU-to-EPG'!H4</f>
+        <f>'CIU-to-EPG'!H4 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="T4">
-        <f>'CIU-to-EPG'!I4</f>
+        <f>'CIU-to-EPG'!I4 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="U4">
-        <f>'CIU-to-EPG'!J4</f>
+        <f>'CIU-to-EPG'!J4 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="V4">
-        <f>'CIU-to-EPG'!K4</f>
+        <f>'CIU-to-EPG'!K4 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="W4">
-        <f>'CIU-to-EPG'!L4</f>
+        <f>'CIU-to-EPG'!L4 * Gains!$E$2</f>
         <v>1</v>
       </c>
       <c r="X4">
-        <f>'CIU-to-EPG'!M4</f>
+        <f>'CIU-to-EPG'!M4 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="Y4">
-        <f>'CIU-to-EPG'!N4</f>
+        <f>'CIU-to-EPG'!N4 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="Z4">
-        <f>'CIU-to-EPG'!O4</f>
+        <f>'CIU-to-EPG'!O4 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="AA4">
-        <f>'CIU-to-EPG'!P4</f>
+        <f>'CIU-to-EPG'!P4 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="AB4" s="3">
@@ -2048,67 +2048,67 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <f>'CIU-to-EPG'!A5</f>
+        <f>'CIU-to-EPG'!A5 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="M5">
-        <f>'CIU-to-EPG'!B5</f>
+        <f>'CIU-to-EPG'!B5 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="N5">
-        <f>'CIU-to-EPG'!C5</f>
+        <f>'CIU-to-EPG'!C5 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="O5">
-        <f>'CIU-to-EPG'!D5</f>
+        <f>'CIU-to-EPG'!D5 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="P5">
-        <f>'CIU-to-EPG'!E5</f>
+        <f>'CIU-to-EPG'!E5 * Gains!$E$2</f>
         <v>1</v>
       </c>
       <c r="Q5">
-        <f>'CIU-to-EPG'!F5</f>
+        <f>'CIU-to-EPG'!F5 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="R5">
-        <f>'CIU-to-EPG'!G5</f>
+        <f>'CIU-to-EPG'!G5 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="S5">
-        <f>'CIU-to-EPG'!H5</f>
+        <f>'CIU-to-EPG'!H5 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="T5">
-        <f>'CIU-to-EPG'!I5</f>
+        <f>'CIU-to-EPG'!I5 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="U5">
-        <f>'CIU-to-EPG'!J5</f>
+        <f>'CIU-to-EPG'!J5 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="V5">
-        <f>'CIU-to-EPG'!K5</f>
+        <f>'CIU-to-EPG'!K5 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="W5">
-        <f>'CIU-to-EPG'!L5</f>
+        <f>'CIU-to-EPG'!L5 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="X5">
-        <f>'CIU-to-EPG'!M5</f>
+        <f>'CIU-to-EPG'!M5 * Gains!$E$2</f>
         <v>1</v>
       </c>
       <c r="Y5">
-        <f>'CIU-to-EPG'!N5</f>
+        <f>'CIU-to-EPG'!N5 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="Z5">
-        <f>'CIU-to-EPG'!O5</f>
+        <f>'CIU-to-EPG'!O5 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="AA5">
-        <f>'CIU-to-EPG'!P5</f>
+        <f>'CIU-to-EPG'!P5 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="AB5" s="3">
@@ -2435,67 +2435,67 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <f>'CIU-to-EPG'!A6</f>
+        <f>'CIU-to-EPG'!A6 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="M6">
-        <f>'CIU-to-EPG'!B6</f>
+        <f>'CIU-to-EPG'!B6 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="N6">
-        <f>'CIU-to-EPG'!C6</f>
+        <f>'CIU-to-EPG'!C6 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="O6">
-        <f>'CIU-to-EPG'!D6</f>
+        <f>'CIU-to-EPG'!D6 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="P6">
-        <f>'CIU-to-EPG'!E6</f>
+        <f>'CIU-to-EPG'!E6 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="Q6">
-        <f>'CIU-to-EPG'!F6</f>
+        <f>'CIU-to-EPG'!F6 * Gains!$E$2</f>
         <v>1</v>
       </c>
       <c r="R6">
-        <f>'CIU-to-EPG'!G6</f>
+        <f>'CIU-to-EPG'!G6 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="S6">
-        <f>'CIU-to-EPG'!H6</f>
+        <f>'CIU-to-EPG'!H6 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="T6">
-        <f>'CIU-to-EPG'!I6</f>
+        <f>'CIU-to-EPG'!I6 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="U6">
-        <f>'CIU-to-EPG'!J6</f>
+        <f>'CIU-to-EPG'!J6 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="V6">
-        <f>'CIU-to-EPG'!K6</f>
+        <f>'CIU-to-EPG'!K6 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="W6">
-        <f>'CIU-to-EPG'!L6</f>
+        <f>'CIU-to-EPG'!L6 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="X6">
-        <f>'CIU-to-EPG'!M6</f>
+        <f>'CIU-to-EPG'!M6 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="Y6">
-        <f>'CIU-to-EPG'!N6</f>
+        <f>'CIU-to-EPG'!N6 * Gains!$E$2</f>
         <v>1</v>
       </c>
       <c r="Z6">
-        <f>'CIU-to-EPG'!O6</f>
+        <f>'CIU-to-EPG'!O6 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="AA6">
-        <f>'CIU-to-EPG'!P6</f>
+        <f>'CIU-to-EPG'!P6 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="AB6" s="3">
@@ -2822,67 +2822,67 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <f>'CIU-to-EPG'!A7</f>
+        <f>'CIU-to-EPG'!A7 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="M7">
-        <f>'CIU-to-EPG'!B7</f>
+        <f>'CIU-to-EPG'!B7 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="N7">
-        <f>'CIU-to-EPG'!C7</f>
+        <f>'CIU-to-EPG'!C7 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="O7">
-        <f>'CIU-to-EPG'!D7</f>
+        <f>'CIU-to-EPG'!D7 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="P7">
-        <f>'CIU-to-EPG'!E7</f>
+        <f>'CIU-to-EPG'!E7 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="Q7">
-        <f>'CIU-to-EPG'!F7</f>
+        <f>'CIU-to-EPG'!F7 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="R7">
-        <f>'CIU-to-EPG'!G7</f>
+        <f>'CIU-to-EPG'!G7 * Gains!$E$2</f>
         <v>1</v>
       </c>
       <c r="S7">
-        <f>'CIU-to-EPG'!H7</f>
+        <f>'CIU-to-EPG'!H7 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="T7">
-        <f>'CIU-to-EPG'!I7</f>
+        <f>'CIU-to-EPG'!I7 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="U7">
-        <f>'CIU-to-EPG'!J7</f>
+        <f>'CIU-to-EPG'!J7 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="V7">
-        <f>'CIU-to-EPG'!K7</f>
+        <f>'CIU-to-EPG'!K7 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="W7">
-        <f>'CIU-to-EPG'!L7</f>
+        <f>'CIU-to-EPG'!L7 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="X7">
-        <f>'CIU-to-EPG'!M7</f>
+        <f>'CIU-to-EPG'!M7 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="Y7">
-        <f>'CIU-to-EPG'!N7</f>
+        <f>'CIU-to-EPG'!N7 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="Z7">
-        <f>'CIU-to-EPG'!O7</f>
+        <f>'CIU-to-EPG'!O7 * Gains!$E$2</f>
         <v>1</v>
       </c>
       <c r="AA7">
-        <f>'CIU-to-EPG'!P7</f>
+        <f>'CIU-to-EPG'!P7 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="AB7" s="3">
@@ -3209,67 +3209,67 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <f>'CIU-to-EPG'!A8</f>
+        <f>'CIU-to-EPG'!A8 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="M8">
-        <f>'CIU-to-EPG'!B8</f>
+        <f>'CIU-to-EPG'!B8 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="N8">
-        <f>'CIU-to-EPG'!C8</f>
+        <f>'CIU-to-EPG'!C8 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="O8">
-        <f>'CIU-to-EPG'!D8</f>
+        <f>'CIU-to-EPG'!D8 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="P8">
-        <f>'CIU-to-EPG'!E8</f>
+        <f>'CIU-to-EPG'!E8 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="Q8">
-        <f>'CIU-to-EPG'!F8</f>
+        <f>'CIU-to-EPG'!F8 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="R8">
-        <f>'CIU-to-EPG'!G8</f>
+        <f>'CIU-to-EPG'!G8 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="S8">
-        <f>'CIU-to-EPG'!H8</f>
+        <f>'CIU-to-EPG'!H8 * Gains!$E$2</f>
         <v>1</v>
       </c>
       <c r="T8">
-        <f>'CIU-to-EPG'!I8</f>
+        <f>'CIU-to-EPG'!I8 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="U8">
-        <f>'CIU-to-EPG'!J8</f>
+        <f>'CIU-to-EPG'!J8 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="V8">
-        <f>'CIU-to-EPG'!K8</f>
+        <f>'CIU-to-EPG'!K8 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="W8">
-        <f>'CIU-to-EPG'!L8</f>
+        <f>'CIU-to-EPG'!L8 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="X8">
-        <f>'CIU-to-EPG'!M8</f>
+        <f>'CIU-to-EPG'!M8 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="Y8">
-        <f>'CIU-to-EPG'!N8</f>
+        <f>'CIU-to-EPG'!N8 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="Z8">
-        <f>'CIU-to-EPG'!O8</f>
+        <f>'CIU-to-EPG'!O8 * Gains!$E$2</f>
         <v>0</v>
       </c>
       <c r="AA8">
-        <f>'CIU-to-EPG'!P8</f>
+        <f>'CIU-to-EPG'!P8 * Gains!$E$2</f>
         <v>1</v>
       </c>
       <c r="AB8" s="3">
@@ -3692,67 +3692,67 @@
         <v>0</v>
       </c>
       <c r="AR9">
-        <f>'TR-to-PEN'!A1</f>
-        <v>1</v>
+        <f>'TR-to-PEN'!A1 * Gains!$G$3</f>
+        <v>0.8</v>
       </c>
       <c r="AS9">
-        <f>'TR-to-PEN'!B1</f>
-        <v>1</v>
+        <f>'TR-to-PEN'!B1 * Gains!$G$3</f>
+        <v>0.8</v>
       </c>
       <c r="AT9">
-        <f>'TR-to-PEN'!C1</f>
-        <v>1</v>
+        <f>'TR-to-PEN'!C1 * Gains!$G$3</f>
+        <v>0.8</v>
       </c>
       <c r="AU9">
-        <f>'TR-to-PEN'!D1</f>
-        <v>1</v>
+        <f>'TR-to-PEN'!D1 * Gains!$G$3</f>
+        <v>0.8</v>
       </c>
       <c r="AV9">
-        <f>'TR-to-PEN'!E1</f>
-        <v>1</v>
+        <f>'TR-to-PEN'!E1 * Gains!$G$3</f>
+        <v>0.8</v>
       </c>
       <c r="AW9">
-        <f>'TR-to-PEN'!F1</f>
-        <v>1</v>
+        <f>'TR-to-PEN'!F1 * Gains!$G$3</f>
+        <v>0.8</v>
       </c>
       <c r="AX9">
-        <f>'TR-to-PEN'!G1</f>
-        <v>1</v>
+        <f>'TR-to-PEN'!G1 * Gains!$G$3</f>
+        <v>0.8</v>
       </c>
       <c r="AY9">
-        <f>'TR-to-PEN'!H1</f>
-        <v>1</v>
+        <f>'TR-to-PEN'!H1 * Gains!$G$3</f>
+        <v>0.8</v>
       </c>
       <c r="AZ9">
-        <f>'TR-to-PEN'!I1</f>
+        <f>'TR-to-PEN'!I1 * Gains!$G$3</f>
         <v>0</v>
       </c>
       <c r="BA9">
-        <f>'TR-to-PEN'!J1</f>
+        <f>'TR-to-PEN'!J1 * Gains!$G$3</f>
         <v>0</v>
       </c>
       <c r="BB9">
-        <f>'TR-to-PEN'!K1</f>
+        <f>'TR-to-PEN'!K1 * Gains!$G$3</f>
         <v>0</v>
       </c>
       <c r="BC9">
-        <f>'TR-to-PEN'!L1</f>
+        <f>'TR-to-PEN'!L1 * Gains!$G$3</f>
         <v>0</v>
       </c>
       <c r="BD9">
-        <f>'TR-to-PEN'!M1</f>
+        <f>'TR-to-PEN'!M1 * Gains!$G$3</f>
         <v>0</v>
       </c>
       <c r="BE9">
-        <f>'TR-to-PEN'!N1</f>
+        <f>'TR-to-PEN'!N1 * Gains!$G$3</f>
         <v>0</v>
       </c>
       <c r="BF9">
-        <f>'TR-to-PEN'!O1</f>
+        <f>'TR-to-PEN'!O1 * Gains!$G$3</f>
         <v>0</v>
       </c>
       <c r="BG9">
-        <f>'TR-to-PEN'!P1</f>
+        <f>'TR-to-PEN'!P1 * Gains!$G$3</f>
         <v>0</v>
       </c>
       <c r="BH9" s="1">
@@ -4079,68 +4079,68 @@
         <v>0</v>
       </c>
       <c r="AR10">
-        <f>'TR-to-PEN'!A2</f>
+        <f>'TR-to-PEN'!A2 * Gains!$G$3</f>
         <v>0</v>
       </c>
       <c r="AS10">
-        <f>'TR-to-PEN'!B2</f>
+        <f>'TR-to-PEN'!B2 * Gains!$G$3</f>
         <v>0</v>
       </c>
       <c r="AT10">
-        <f>'TR-to-PEN'!C2</f>
+        <f>'TR-to-PEN'!C2 * Gains!$G$3</f>
         <v>0</v>
       </c>
       <c r="AU10">
-        <f>'TR-to-PEN'!D2</f>
+        <f>'TR-to-PEN'!D2 * Gains!$G$3</f>
         <v>0</v>
       </c>
       <c r="AV10">
-        <f>'TR-to-PEN'!E2</f>
+        <f>'TR-to-PEN'!E2 * Gains!$G$3</f>
         <v>0</v>
       </c>
       <c r="AW10">
-        <f>'TR-to-PEN'!F2</f>
+        <f>'TR-to-PEN'!F2 * Gains!$G$3</f>
         <v>0</v>
       </c>
       <c r="AX10">
-        <f>'TR-to-PEN'!G2</f>
+        <f>'TR-to-PEN'!G2 * Gains!$G$3</f>
         <v>0</v>
       </c>
       <c r="AY10">
-        <f>'TR-to-PEN'!H2</f>
+        <f>'TR-to-PEN'!H2 * Gains!$G$3</f>
         <v>0</v>
       </c>
       <c r="AZ10">
-        <f>'TR-to-PEN'!I2</f>
-        <v>1</v>
+        <f>'TR-to-PEN'!I2 * Gains!$G$3</f>
+        <v>0.8</v>
       </c>
       <c r="BA10">
-        <f>'TR-to-PEN'!J2</f>
-        <v>1</v>
+        <f>'TR-to-PEN'!J2 * Gains!$G$3</f>
+        <v>0.8</v>
       </c>
       <c r="BB10">
-        <f>'TR-to-PEN'!K2</f>
-        <v>1</v>
+        <f>'TR-to-PEN'!K2 * Gains!$G$3</f>
+        <v>0.8</v>
       </c>
       <c r="BC10">
-        <f>'TR-to-PEN'!L2</f>
-        <v>1</v>
+        <f>'TR-to-PEN'!L2 * Gains!$G$3</f>
+        <v>0.8</v>
       </c>
       <c r="BD10">
-        <f>'TR-to-PEN'!M2</f>
-        <v>1</v>
+        <f>'TR-to-PEN'!M2 * Gains!$G$3</f>
+        <v>0.8</v>
       </c>
       <c r="BE10">
-        <f>'TR-to-PEN'!N2</f>
-        <v>1</v>
+        <f>'TR-to-PEN'!N2 * Gains!$G$3</f>
+        <v>0.8</v>
       </c>
       <c r="BF10">
-        <f>'TR-to-PEN'!O2</f>
-        <v>1</v>
+        <f>'TR-to-PEN'!O2 * Gains!$G$3</f>
+        <v>0.8</v>
       </c>
       <c r="BG10">
-        <f>'TR-to-PEN'!P2</f>
-        <v>1</v>
+        <f>'TR-to-PEN'!P2 * Gains!$G$3</f>
+        <v>0.8</v>
       </c>
       <c r="BH10" s="1">
         <v>0</v>
@@ -4806,7 +4806,7 @@
       </c>
       <c r="AB12">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!A1 * Gains!$F$5</f>
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AC12">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!B1 * Gains!$F$5</f>
@@ -4870,7 +4870,7 @@
       </c>
       <c r="AR12">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!A1 * Gains!$G$5</f>
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="AS12">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!B1 * Gains!$G$5</f>
@@ -4938,11 +4938,11 @@
       </c>
       <c r="BI12">
         <f>'EPG-to-d7'!B1 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="BJ12">
         <f>'EPG-to-d7'!C1 * Gains!$H$5</f>
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="BK12">
         <f>'EPG-to-d7'!D1 * Gains!$H$5</f>
@@ -4958,11 +4958,11 @@
       </c>
       <c r="BN12">
         <f>'EPG-to-d7'!G1 * Gains!$H$5</f>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BO12">
         <f>'EPG-to-d7'!H1 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="BP12">
         <f>'EPG-to-d7'!I1 * Gains!$H$5</f>
@@ -5229,7 +5229,7 @@
       </c>
       <c r="AC13">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!B2 * Gains!$F$5</f>
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AD13">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!C2 * Gains!$F$5</f>
@@ -5293,7 +5293,7 @@
       </c>
       <c r="AS13">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!B2 * Gains!$G$5</f>
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="AT13">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!C2 * Gains!$G$5</f>
@@ -5353,7 +5353,7 @@
       </c>
       <c r="BH13">
         <f>'EPG-to-d7'!A2 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="BI13">
         <f>'EPG-to-d7'!B2 * Gains!$H$5</f>
@@ -5361,11 +5361,11 @@
       </c>
       <c r="BJ13">
         <f>'EPG-to-d7'!C2 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="BK13">
         <f>'EPG-to-d7'!D2 * Gains!$H$5</f>
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="BL13">
         <f>'EPG-to-d7'!E2 * Gains!$H$5</f>
@@ -5381,7 +5381,7 @@
       </c>
       <c r="BO13">
         <f>'EPG-to-d7'!H2 * Gains!$H$5</f>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BP13">
         <f>'EPG-to-d7'!I2 * Gains!$H$5</f>
@@ -5652,7 +5652,7 @@
       </c>
       <c r="AD14">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!C3 * Gains!$F$5</f>
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AE14">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!D3 * Gains!$F$5</f>
@@ -5716,7 +5716,7 @@
       </c>
       <c r="AT14">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!C3 * Gains!$G$5</f>
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="AU14">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!D3 * Gains!$G$5</f>
@@ -5772,11 +5772,11 @@
       </c>
       <c r="BH14">
         <f>'EPG-to-d7'!A3 * Gains!$H$5</f>
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="BI14">
         <f>'EPG-to-d7'!B3 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="BJ14">
         <f>'EPG-to-d7'!C3 * Gains!$H$5</f>
@@ -5784,11 +5784,11 @@
       </c>
       <c r="BK14">
         <f>'EPG-to-d7'!D3 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="BL14">
         <f>'EPG-to-d7'!E3 * Gains!$H$5</f>
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="BM14">
         <f>'EPG-to-d7'!F3 * Gains!$H$5</f>
@@ -6075,7 +6075,7 @@
       </c>
       <c r="AE15">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!D4 * Gains!$F$5</f>
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AF15">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!E4 * Gains!$F$5</f>
@@ -6139,7 +6139,7 @@
       </c>
       <c r="AU15">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!D4 * Gains!$G$5</f>
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="AV15">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!E4 * Gains!$G$5</f>
@@ -6195,11 +6195,11 @@
       </c>
       <c r="BI15">
         <f>'EPG-to-d7'!B4 * Gains!$H$5</f>
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="BJ15">
         <f>'EPG-to-d7'!C4 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="BK15">
         <f>'EPG-to-d7'!D4 * Gains!$H$5</f>
@@ -6207,11 +6207,11 @@
       </c>
       <c r="BL15">
         <f>'EPG-to-d7'!E4 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="BM15">
         <f>'EPG-to-d7'!F4 * Gains!$H$5</f>
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="BN15">
         <f>'EPG-to-d7'!G4 * Gains!$H$5</f>
@@ -6498,7 +6498,7 @@
       </c>
       <c r="AF16">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!E5 * Gains!$F$5</f>
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AG16">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!F5 * Gains!$F$5</f>
@@ -6562,7 +6562,7 @@
       </c>
       <c r="AV16">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!E5 * Gains!$G$5</f>
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="AW16">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!F5 * Gains!$G$5</f>
@@ -6618,11 +6618,11 @@
       </c>
       <c r="BJ16">
         <f>'EPG-to-d7'!C5 * Gains!$H$5</f>
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="BK16">
         <f>'EPG-to-d7'!D5 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="BL16">
         <f>'EPG-to-d7'!E5 * Gains!$H$5</f>
@@ -6630,11 +6630,11 @@
       </c>
       <c r="BM16">
         <f>'EPG-to-d7'!F5 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="BN16">
         <f>'EPG-to-d7'!G5 * Gains!$H$5</f>
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="BO16">
         <f>'EPG-to-d7'!H5 * Gains!$H$5</f>
@@ -6921,7 +6921,7 @@
       </c>
       <c r="AG17">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!F6 * Gains!$F$5</f>
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AH17">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!G6 * Gains!$F$5</f>
@@ -6985,7 +6985,7 @@
       </c>
       <c r="AW17">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!F6 * Gains!$G$5</f>
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="AX17">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!G6 * Gains!$G$5</f>
@@ -7041,11 +7041,11 @@
       </c>
       <c r="BK17">
         <f>'EPG-to-d7'!D6 * Gains!$H$5</f>
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="BL17">
         <f>'EPG-to-d7'!E6 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="BM17">
         <f>'EPG-to-d7'!F6 * Gains!$H$5</f>
@@ -7053,11 +7053,11 @@
       </c>
       <c r="BN17">
         <f>'EPG-to-d7'!G6 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="BO17">
         <f>'EPG-to-d7'!H6 * Gains!$H$5</f>
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="BP17">
         <f>'EPG-to-d7'!I6 * Gains!$H$5</f>
@@ -7344,7 +7344,7 @@
       </c>
       <c r="AH18">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!G7 * Gains!$F$5</f>
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AI18">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!H7 * Gains!$F$5</f>
@@ -7408,7 +7408,7 @@
       </c>
       <c r="AX18">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!G7 * Gains!$G$5</f>
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="AY18">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!H7 * Gains!$G$5</f>
@@ -7448,7 +7448,7 @@
       </c>
       <c r="BH18">
         <f>'EPG-to-d7'!A7 * Gains!$H$5</f>
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="BI18">
         <f>'EPG-to-d7'!B7 * Gains!$H$5</f>
@@ -7464,11 +7464,11 @@
       </c>
       <c r="BL18">
         <f>'EPG-to-d7'!E7 * Gains!$H$5</f>
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="BM18">
         <f>'EPG-to-d7'!F7 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="BN18">
         <f>'EPG-to-d7'!G7 * Gains!$H$5</f>
@@ -7476,7 +7476,7 @@
       </c>
       <c r="BO18">
         <f>'EPG-to-d7'!H7 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="BP18">
         <f>'EPG-to-d7'!I7 * Gains!$H$5</f>
@@ -7767,7 +7767,7 @@
       </c>
       <c r="AI19">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!H8 * Gains!$F$5</f>
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AJ19">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!I8 * Gains!$F$5</f>
@@ -7831,7 +7831,7 @@
       </c>
       <c r="AY19">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!H8 * Gains!$G$5</f>
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="AZ19">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!I8 * Gains!$G$5</f>
@@ -7867,11 +7867,11 @@
       </c>
       <c r="BH19">
         <f>'EPG-to-d7'!A8 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="BI19">
         <f>'EPG-to-d7'!B8 * Gains!$H$5</f>
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="BJ19">
         <f>'EPG-to-d7'!C8 * Gains!$H$5</f>
@@ -7887,11 +7887,11 @@
       </c>
       <c r="BM19">
         <f>'EPG-to-d7'!F8 * Gains!$H$5</f>
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="BN19">
         <f>'EPG-to-d7'!G8 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="BO19">
         <f>'EPG-to-d7'!H8 * Gains!$H$5</f>
@@ -8190,7 +8190,7 @@
       </c>
       <c r="AJ20">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!I9 * Gains!$F$5</f>
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AK20">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!J9 * Gains!$F$5</f>
@@ -8254,7 +8254,7 @@
       </c>
       <c r="AZ20">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!I9 * Gains!$G$5</f>
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="BA20">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!J9 * Gains!$G$5</f>
@@ -8322,11 +8322,11 @@
       </c>
       <c r="BQ20">
         <f>'EPG-to-d7'!J9 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="BR20">
         <f>'EPG-to-d7'!K9 * Gains!$H$5</f>
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="BS20">
         <f>'EPG-to-d7'!L9 * Gains!$H$5</f>
@@ -8342,11 +8342,11 @@
       </c>
       <c r="BV20">
         <f>'EPG-to-d7'!O9 * Gains!$H$5</f>
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="BW20">
         <f>'EPG-to-d7'!P9 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="BX20" s="3">
         <v>0</v>
@@ -8613,7 +8613,7 @@
       </c>
       <c r="AK21">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!J10 * Gains!$F$5</f>
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AL21">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!K10 * Gains!$F$5</f>
@@ -8677,7 +8677,7 @@
       </c>
       <c r="BA21">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!J10 * Gains!$G$5</f>
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="BB21">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!K10 * Gains!$G$5</f>
@@ -8737,7 +8737,7 @@
       </c>
       <c r="BP21">
         <f>'EPG-to-d7'!I10 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="BQ21">
         <f>'EPG-to-d7'!J10 * Gains!$H$5</f>
@@ -8745,11 +8745,11 @@
       </c>
       <c r="BR21">
         <f>'EPG-to-d7'!K10 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="BS21">
         <f>'EPG-to-d7'!L10 * Gains!$H$5</f>
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="BT21">
         <f>'EPG-to-d7'!M10 * Gains!$H$5</f>
@@ -8765,7 +8765,7 @@
       </c>
       <c r="BW21">
         <f>'EPG-to-d7'!P10 * Gains!$H$5</f>
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="BX21" s="3">
         <v>0</v>
@@ -9036,7 +9036,7 @@
       </c>
       <c r="AL22">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!K11 * Gains!$F$5</f>
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AM22">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!L11 * Gains!$F$5</f>
@@ -9100,7 +9100,7 @@
       </c>
       <c r="BB22">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!K11 * Gains!$G$5</f>
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="BC22">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!L11 * Gains!$G$5</f>
@@ -9156,11 +9156,11 @@
       </c>
       <c r="BP22">
         <f>'EPG-to-d7'!I11 * Gains!$H$5</f>
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="BQ22">
         <f>'EPG-to-d7'!J11 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="BR22">
         <f>'EPG-to-d7'!K11 * Gains!$H$5</f>
@@ -9168,11 +9168,11 @@
       </c>
       <c r="BS22">
         <f>'EPG-to-d7'!L11 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="BT22">
         <f>'EPG-to-d7'!M11 * Gains!$H$5</f>
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="BU22">
         <f>'EPG-to-d7'!N11 * Gains!$H$5</f>
@@ -9459,7 +9459,7 @@
       </c>
       <c r="AM23">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!L12 * Gains!$F$5</f>
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AN23">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!M12 * Gains!$F$5</f>
@@ -9523,7 +9523,7 @@
       </c>
       <c r="BC23">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!L12 * Gains!$G$5</f>
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="BD23">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!M12 * Gains!$G$5</f>
@@ -9579,11 +9579,11 @@
       </c>
       <c r="BQ23">
         <f>'EPG-to-d7'!J12 * Gains!$H$5</f>
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="BR23">
         <f>'EPG-to-d7'!K12 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="BS23">
         <f>'EPG-to-d7'!L12 * Gains!$H$5</f>
@@ -9591,11 +9591,11 @@
       </c>
       <c r="BT23">
         <f>'EPG-to-d7'!M12 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="BU23">
         <f>'EPG-to-d7'!N12 * Gains!$H$5</f>
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="BV23">
         <f>'EPG-to-d7'!O12 * Gains!$H$5</f>
@@ -9882,7 +9882,7 @@
       </c>
       <c r="AN24">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!M13 * Gains!$F$5</f>
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AO24">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!N13 * Gains!$F$5</f>
@@ -9946,7 +9946,7 @@
       </c>
       <c r="BD24">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!M13 * Gains!$G$5</f>
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="BE24">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!N13 * Gains!$G$5</f>
@@ -10002,11 +10002,11 @@
       </c>
       <c r="BR24">
         <f>'EPG-to-d7'!K13 * Gains!$H$5</f>
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="BS24">
         <f>'EPG-to-d7'!L13 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="BT24">
         <f>'EPG-to-d7'!M13 * Gains!$H$5</f>
@@ -10014,11 +10014,11 @@
       </c>
       <c r="BU24">
         <f>'EPG-to-d7'!N13 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="BV24">
         <f>'EPG-to-d7'!O13 * Gains!$H$5</f>
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="BW24">
         <f>'EPG-to-d7'!P13 * Gains!$H$5</f>
@@ -10305,7 +10305,7 @@
       </c>
       <c r="AO25">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!N14 * Gains!$F$5</f>
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AP25">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!O14 * Gains!$F$5</f>
@@ -10369,7 +10369,7 @@
       </c>
       <c r="BE25">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!N14 * Gains!$G$5</f>
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="BF25">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!O14 * Gains!$G$5</f>
@@ -10425,11 +10425,11 @@
       </c>
       <c r="BS25">
         <f>'EPG-to-d7'!L14 * Gains!$H$5</f>
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="BT25">
         <f>'EPG-to-d7'!M14 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="BU25">
         <f>'EPG-to-d7'!N14 * Gains!$H$5</f>
@@ -10437,11 +10437,11 @@
       </c>
       <c r="BV25">
         <f>'EPG-to-d7'!O14 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="BW25">
         <f>'EPG-to-d7'!P14 * Gains!$H$5</f>
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="BX25" s="3">
         <v>0</v>
@@ -10728,7 +10728,7 @@
       </c>
       <c r="AP26">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!O15 * Gains!$F$5</f>
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AQ26">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!P15 * Gains!$F$5</f>
@@ -10792,7 +10792,7 @@
       </c>
       <c r="BF26">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!O15 * Gains!$G$5</f>
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="BG26">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!P15 * Gains!$G$5</f>
@@ -10832,7 +10832,7 @@
       </c>
       <c r="BP26">
         <f>'EPG-to-d7'!I15 * Gains!$H$5</f>
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="BQ26">
         <f>'EPG-to-d7'!J15 * Gains!$H$5</f>
@@ -10848,11 +10848,11 @@
       </c>
       <c r="BT26">
         <f>'EPG-to-d7'!M15 * Gains!$H$5</f>
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="BU26">
         <f>'EPG-to-d7'!N15 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="BV26">
         <f>'EPG-to-d7'!O15 * Gains!$H$5</f>
@@ -10860,7 +10860,7 @@
       </c>
       <c r="BW26">
         <f>'EPG-to-d7'!P15 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="BX26" s="3">
         <v>0</v>
@@ -11151,7 +11151,7 @@
       </c>
       <c r="AQ27">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!P16 * Gains!$F$5</f>
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AR27">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!A16 * Gains!$G$5</f>
@@ -11215,7 +11215,7 @@
       </c>
       <c r="BG27">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!P16 * Gains!$G$5</f>
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="BH27">
         <f>'EPG-to-d7'!A16 * Gains!$H$5</f>
@@ -11251,11 +11251,11 @@
       </c>
       <c r="BP27">
         <f>'EPG-to-d7'!I16 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="BQ27">
         <f>'EPG-to-d7'!J16 * Gains!$H$5</f>
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="BR27">
         <f>'EPG-to-d7'!K16 * Gains!$H$5</f>
@@ -11271,11 +11271,11 @@
       </c>
       <c r="BU27">
         <f>'EPG-to-d7'!N16 * Gains!$H$5</f>
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="BV27">
         <f>'EPG-to-d7'!O16 * Gains!$H$5</f>
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="BW27">
         <f>'EPG-to-d7'!P16 * Gains!$H$5</f>
@@ -11462,7 +11462,7 @@
       </c>
       <c r="L28">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!A1 * Gains!$E$6</f>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="M28">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!B1 * Gains!$E$6</f>
@@ -11853,7 +11853,7 @@
       </c>
       <c r="M29">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!B2 * Gains!$E$6</f>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="N29">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!C2 * Gains!$E$6</f>
@@ -12244,7 +12244,7 @@
       </c>
       <c r="N30">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!C3 * Gains!$E$6</f>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="O30">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!D3 * Gains!$E$6</f>
@@ -12635,7 +12635,7 @@
       </c>
       <c r="O31">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!D4 * Gains!$E$6</f>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="P31">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!E4 * Gains!$E$6</f>
@@ -13026,7 +13026,7 @@
       </c>
       <c r="P32">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!E5 * Gains!$E$6</f>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="Q32">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!F5 * Gains!$E$6</f>
@@ -13417,7 +13417,7 @@
       </c>
       <c r="Q33">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!F6 * Gains!$E$6</f>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="R33">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!G6 * Gains!$E$6</f>
@@ -13808,7 +13808,7 @@
       </c>
       <c r="R34">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!G7 * Gains!$E$6</f>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="S34">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!H7 * Gains!$E$6</f>
@@ -14199,7 +14199,7 @@
       </c>
       <c r="S35">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!H8 * Gains!$E$6</f>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="T35">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!I8 * Gains!$E$6</f>
@@ -14590,7 +14590,7 @@
       </c>
       <c r="T36">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!I9 * Gains!$E$6</f>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="U36">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!J9 * Gains!$E$6</f>
@@ -14981,7 +14981,7 @@
       </c>
       <c r="U37">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!J10 * Gains!$E$6</f>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="V37">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!K10 * Gains!$E$6</f>
@@ -15372,7 +15372,7 @@
       </c>
       <c r="V38">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!K11 * Gains!$E$6</f>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="W38">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!L11 * Gains!$E$6</f>
@@ -15763,7 +15763,7 @@
       </c>
       <c r="W39">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!L12 * Gains!$E$6</f>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="X39">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!M12 * Gains!$E$6</f>
@@ -16154,7 +16154,7 @@
       </c>
       <c r="X40">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!M13 * Gains!$E$6</f>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="Y40">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!N13 * Gains!$E$6</f>
@@ -16545,7 +16545,7 @@
       </c>
       <c r="Y41">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!N14 * Gains!$E$6</f>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="Z41">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!O14 * Gains!$E$6</f>
@@ -16936,7 +16936,7 @@
       </c>
       <c r="Z42">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!O15 * Gains!$E$6</f>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AA42">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!P15 * Gains!$E$6</f>
@@ -17327,7 +17327,7 @@
       </c>
       <c r="AA43">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!P16 * Gains!$E$6</f>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AB43" s="3">
         <v>0</v>
@@ -17682,7 +17682,7 @@
       </c>
       <c r="S44">
         <f>'PEN-to-EPG'!H1 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="T44">
         <f>'PEN-to-EPG'!I1 * Gains!$E$7</f>
@@ -17714,7 +17714,7 @@
       </c>
       <c r="AA44">
         <f>'PEN-to-EPG'!P1 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AB44" s="1">
         <v>0</v>
@@ -18041,7 +18041,7 @@
       </c>
       <c r="L45">
         <f>'PEN-to-EPG'!A2 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="M45">
         <f>'PEN-to-EPG'!B2 * Gains!$E$7</f>
@@ -18073,7 +18073,7 @@
       </c>
       <c r="T45">
         <f>'PEN-to-EPG'!I2 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="U45">
         <f>'PEN-to-EPG'!J2 * Gains!$E$7</f>
@@ -18432,7 +18432,7 @@
       </c>
       <c r="M46">
         <f>'PEN-to-EPG'!B3 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="N46">
         <f>'PEN-to-EPG'!C3 * Gains!$E$7</f>
@@ -18464,7 +18464,7 @@
       </c>
       <c r="U46">
         <f>'PEN-to-EPG'!J3 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="V46">
         <f>'PEN-to-EPG'!K3 * Gains!$E$7</f>
@@ -18823,7 +18823,7 @@
       </c>
       <c r="N47">
         <f>'PEN-to-EPG'!C4 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="O47">
         <f>'PEN-to-EPG'!D4 * Gains!$E$7</f>
@@ -18855,7 +18855,7 @@
       </c>
       <c r="V47">
         <f>'PEN-to-EPG'!K4 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="W47">
         <f>'PEN-to-EPG'!L4 * Gains!$E$7</f>
@@ -19214,7 +19214,7 @@
       </c>
       <c r="O48">
         <f>'PEN-to-EPG'!D5 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="P48">
         <f>'PEN-to-EPG'!E5 * Gains!$E$7</f>
@@ -19246,7 +19246,7 @@
       </c>
       <c r="W48">
         <f>'PEN-to-EPG'!L5 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="X48">
         <f>'PEN-to-EPG'!M5 * Gains!$E$7</f>
@@ -19605,7 +19605,7 @@
       </c>
       <c r="P49">
         <f>'PEN-to-EPG'!E6 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="Q49">
         <f>'PEN-to-EPG'!F6 * Gains!$E$7</f>
@@ -19637,7 +19637,7 @@
       </c>
       <c r="X49">
         <f>'PEN-to-EPG'!M6 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="Y49">
         <f>'PEN-to-EPG'!N6 * Gains!$E$7</f>
@@ -19996,7 +19996,7 @@
       </c>
       <c r="Q50">
         <f>'PEN-to-EPG'!F7 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="R50">
         <f>'PEN-to-EPG'!G7 * Gains!$E$7</f>
@@ -20028,7 +20028,7 @@
       </c>
       <c r="Y50">
         <f>'PEN-to-EPG'!N7 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="Z50">
         <f>'PEN-to-EPG'!O7 * Gains!$E$7</f>
@@ -20387,7 +20387,7 @@
       </c>
       <c r="R51">
         <f>'PEN-to-EPG'!G8 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="S51">
         <f>'PEN-to-EPG'!H8 * Gains!$E$7</f>
@@ -20419,7 +20419,7 @@
       </c>
       <c r="Z51">
         <f>'PEN-to-EPG'!O8 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AA51">
         <f>'PEN-to-EPG'!P8 * Gains!$E$7</f>
@@ -20754,7 +20754,7 @@
       </c>
       <c r="M52">
         <f>'PEN-to-EPG'!B9 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="N52">
         <f>'PEN-to-EPG'!C9 * Gains!$E$7</f>
@@ -20786,7 +20786,7 @@
       </c>
       <c r="U52">
         <f>'PEN-to-EPG'!J9 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="V52">
         <f>'PEN-to-EPG'!K9 * Gains!$E$7</f>
@@ -21145,7 +21145,7 @@
       </c>
       <c r="N53">
         <f>'PEN-to-EPG'!C10 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="O53">
         <f>'PEN-to-EPG'!D10 * Gains!$E$7</f>
@@ -21177,7 +21177,7 @@
       </c>
       <c r="V53">
         <f>'PEN-to-EPG'!K10 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="W53">
         <f>'PEN-to-EPG'!L10 * Gains!$E$7</f>
@@ -21536,7 +21536,7 @@
       </c>
       <c r="O54">
         <f>'PEN-to-EPG'!D11 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="P54">
         <f>'PEN-to-EPG'!E11 * Gains!$E$7</f>
@@ -21568,7 +21568,7 @@
       </c>
       <c r="W54">
         <f>'PEN-to-EPG'!L11 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="X54">
         <f>'PEN-to-EPG'!M11 * Gains!$E$7</f>
@@ -21927,7 +21927,7 @@
       </c>
       <c r="P55">
         <f>'PEN-to-EPG'!E12 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="Q55">
         <f>'PEN-to-EPG'!F12 * Gains!$E$7</f>
@@ -21959,7 +21959,7 @@
       </c>
       <c r="X55">
         <f>'PEN-to-EPG'!M12 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="Y55">
         <f>'PEN-to-EPG'!N12 * Gains!$E$7</f>
@@ -22318,7 +22318,7 @@
       </c>
       <c r="Q56">
         <f>'PEN-to-EPG'!F13 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="R56">
         <f>'PEN-to-EPG'!G13 * Gains!$E$7</f>
@@ -22350,7 +22350,7 @@
       </c>
       <c r="Y56">
         <f>'PEN-to-EPG'!N13 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="Z56">
         <f>'PEN-to-EPG'!O13 * Gains!$E$7</f>
@@ -22709,7 +22709,7 @@
       </c>
       <c r="R57">
         <f>'PEN-to-EPG'!G14 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="S57">
         <f>'PEN-to-EPG'!H14 * Gains!$E$7</f>
@@ -22741,7 +22741,7 @@
       </c>
       <c r="Z57">
         <f>'PEN-to-EPG'!O14 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AA57">
         <f>'PEN-to-EPG'!P14 * Gains!$E$7</f>
@@ -23100,7 +23100,7 @@
       </c>
       <c r="S58">
         <f>'PEN-to-EPG'!H15 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="T58">
         <f>'PEN-to-EPG'!I15 * Gains!$E$7</f>
@@ -23132,7 +23132,7 @@
       </c>
       <c r="AA58">
         <f>'PEN-to-EPG'!P15 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AB58" s="1">
         <v>0</v>
@@ -23459,7 +23459,7 @@
       </c>
       <c r="L59">
         <f>'PEN-to-EPG'!A16 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="M59">
         <f>'PEN-to-EPG'!B16 * Gains!$E$7</f>
@@ -23491,7 +23491,7 @@
       </c>
       <c r="T59">
         <f>'PEN-to-EPG'!I16 * Gains!$E$7</f>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="U59">
         <f>'PEN-to-EPG'!J16 * Gains!$E$7</f>
@@ -24102,7 +24102,7 @@
       </c>
       <c r="CB60">
         <f>'d7-to-PEG-PEN-PFN-PFL'!E1 * Gains!$I$8</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="CC60">
         <f>'d7-to-PEG-PEN-PFN-PFL'!F1 * Gains!$I$8</f>
@@ -24214,7 +24214,7 @@
       </c>
       <c r="DH60">
         <f>'d7-to-PEG-PEN-PFN-PFL'!E1 * Gains!$K$8</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="DI60">
         <f>'d7-to-PEG-PEN-PFN-PFL'!F1 * Gains!$K$8</f>
@@ -24557,7 +24557,7 @@
       </c>
       <c r="CC61">
         <f>'d7-to-PEG-PEN-PFN-PFL'!F2 * Gains!$I$8</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="CD61">
         <f>'d7-to-PEG-PEN-PFN-PFL'!G2 * Gains!$I$8</f>
@@ -24669,7 +24669,7 @@
       </c>
       <c r="DI61">
         <f>'d7-to-PEG-PEN-PFN-PFL'!F2 * Gains!$K$8</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="DJ61">
         <f>'d7-to-PEG-PEN-PFN-PFL'!G2 * Gains!$K$8</f>
@@ -25012,7 +25012,7 @@
       </c>
       <c r="CD62">
         <f>'d7-to-PEG-PEN-PFN-PFL'!G3 * Gains!$I$8</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="CE62">
         <f>'d7-to-PEG-PEN-PFN-PFL'!H3 * Gains!$I$8</f>
@@ -25124,7 +25124,7 @@
       </c>
       <c r="DJ62">
         <f>'d7-to-PEG-PEN-PFN-PFL'!G3 * Gains!$K$8</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="DK62">
         <f>'d7-to-PEG-PEN-PFN-PFL'!H3 * Gains!$K$8</f>
@@ -25467,7 +25467,7 @@
       </c>
       <c r="CE63">
         <f>'d7-to-PEG-PEN-PFN-PFL'!H4 * Gains!$I$8</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="CF63">
         <f>'d7-to-PEG-PEN-PFN-PFL'!I4 * Gains!$I$8</f>
@@ -25579,7 +25579,7 @@
       </c>
       <c r="DK63">
         <f>'d7-to-PEG-PEN-PFN-PFL'!H4 * Gains!$K$8</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="DL63">
         <f>'d7-to-PEG-PEN-PFN-PFL'!I4 * Gains!$K$8</f>
@@ -25890,7 +25890,7 @@
       </c>
       <c r="BX64">
         <f>'d7-to-PEG-PEN-PFN-PFL'!A5 * Gains!$I$8</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BY64">
         <f>'d7-to-PEG-PEN-PFN-PFL'!B5 * Gains!$I$8</f>
@@ -26002,7 +26002,7 @@
       </c>
       <c r="DD64">
         <f>'d7-to-PEG-PEN-PFN-PFL'!A5 * Gains!$K$8</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="DE64">
         <f>'d7-to-PEG-PEN-PFN-PFL'!B5 * Gains!$K$8</f>
@@ -26345,7 +26345,7 @@
       </c>
       <c r="BY65">
         <f>'d7-to-PEG-PEN-PFN-PFL'!B6 * Gains!$I$8</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BZ65">
         <f>'d7-to-PEG-PEN-PFN-PFL'!C6 * Gains!$I$8</f>
@@ -26457,7 +26457,7 @@
       </c>
       <c r="DE65">
         <f>'d7-to-PEG-PEN-PFN-PFL'!B6 * Gains!$K$8</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="DF65">
         <f>'d7-to-PEG-PEN-PFN-PFL'!C6 * Gains!$K$8</f>
@@ -26800,7 +26800,7 @@
       </c>
       <c r="BZ66">
         <f>'d7-to-PEG-PEN-PFN-PFL'!C7 * Gains!$I$8</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="CA66">
         <f>'d7-to-PEG-PEN-PFN-PFL'!D7 * Gains!$I$8</f>
@@ -26912,7 +26912,7 @@
       </c>
       <c r="DF66">
         <f>'d7-to-PEG-PEN-PFN-PFL'!C7 * Gains!$K$8</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="DG66">
         <f>'d7-to-PEG-PEN-PFN-PFL'!D7 * Gains!$K$8</f>
@@ -27255,7 +27255,7 @@
       </c>
       <c r="CA67">
         <f>'d7-to-PEG-PEN-PFN-PFL'!D8 * Gains!$I$8</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="CB67">
         <f>'d7-to-PEG-PEN-PFN-PFL'!E8 * Gains!$I$8</f>
@@ -27367,7 +27367,7 @@
       </c>
       <c r="DG67">
         <f>'d7-to-PEG-PEN-PFN-PFL'!D8 * Gains!$K$8</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="DH67">
         <f>'d7-to-PEG-PEN-PFN-PFL'!E8 * Gains!$K$8</f>
@@ -27742,7 +27742,7 @@
       </c>
       <c r="CJ68">
         <f>'d7-to-PEG-PEN-PFN-PFL'!M9 * Gains!$I$8</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="CK68">
         <f>'d7-to-PEG-PEN-PFN-PFL'!N9 * Gains!$I$8</f>
@@ -27854,7 +27854,7 @@
       </c>
       <c r="DP68">
         <f>'d7-to-PEG-PEN-PFN-PFL'!M9 * Gains!$K$8</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="DQ68">
         <f>'d7-to-PEG-PEN-PFN-PFL'!N9 * Gains!$K$8</f>
@@ -28197,7 +28197,7 @@
       </c>
       <c r="CK69">
         <f>'d7-to-PEG-PEN-PFN-PFL'!N10 * Gains!$I$8</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="CL69">
         <f>'d7-to-PEG-PEN-PFN-PFL'!O10 * Gains!$I$8</f>
@@ -28309,7 +28309,7 @@
       </c>
       <c r="DQ69">
         <f>'d7-to-PEG-PEN-PFN-PFL'!N10 * Gains!$K$8</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="DR69">
         <f>'d7-to-PEG-PEN-PFN-PFL'!O10 * Gains!$K$8</f>
@@ -28652,7 +28652,7 @@
       </c>
       <c r="CL70">
         <f>'d7-to-PEG-PEN-PFN-PFL'!O11 * Gains!$I$8</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="CM70">
         <f>'d7-to-PEG-PEN-PFN-PFL'!P11 * Gains!$I$8</f>
@@ -28764,7 +28764,7 @@
       </c>
       <c r="DR70">
         <f>'d7-to-PEG-PEN-PFN-PFL'!O11 * Gains!$K$8</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="DS70">
         <f>'d7-to-PEG-PEN-PFN-PFL'!P11 * Gains!$K$8</f>
@@ -29107,7 +29107,7 @@
       </c>
       <c r="CM71">
         <f>'d7-to-PEG-PEN-PFN-PFL'!P12 * Gains!$I$8</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="CN71" s="3">
         <v>0</v>
@@ -29219,7 +29219,7 @@
       </c>
       <c r="DS71">
         <f>'d7-to-PEG-PEN-PFN-PFL'!P12 * Gains!$K$8</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:123" x14ac:dyDescent="0.25">
@@ -29530,7 +29530,7 @@
       </c>
       <c r="CF72">
         <f>'d7-to-PEG-PEN-PFN-PFL'!I13 * Gains!$I$8</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="CG72">
         <f>'d7-to-PEG-PEN-PFN-PFL'!J13 * Gains!$I$8</f>
@@ -29642,7 +29642,7 @@
       </c>
       <c r="DL72">
         <f>'d7-to-PEG-PEN-PFN-PFL'!I13 * Gains!$K$8</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="DM72">
         <f>'d7-to-PEG-PEN-PFN-PFL'!J13 * Gains!$K$8</f>
@@ -29985,7 +29985,7 @@
       </c>
       <c r="CG73">
         <f>'d7-to-PEG-PEN-PFN-PFL'!J14 * Gains!$I$8</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="CH73">
         <f>'d7-to-PEG-PEN-PFN-PFL'!K14 * Gains!$I$8</f>
@@ -30097,7 +30097,7 @@
       </c>
       <c r="DM73">
         <f>'d7-to-PEG-PEN-PFN-PFL'!J14 * Gains!$K$8</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="DN73">
         <f>'d7-to-PEG-PEN-PFN-PFL'!K14 * Gains!$K$8</f>
@@ -30440,7 +30440,7 @@
       </c>
       <c r="CH74">
         <f>'d7-to-PEG-PEN-PFN-PFL'!K15 * Gains!$I$8</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="CI74">
         <f>'d7-to-PEG-PEN-PFN-PFL'!L15 * Gains!$I$8</f>
@@ -30552,7 +30552,7 @@
       </c>
       <c r="DN74">
         <f>'d7-to-PEG-PEN-PFN-PFL'!K15 * Gains!$K$8</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="DO74">
         <f>'d7-to-PEG-PEN-PFN-PFL'!L15 * Gains!$K$8</f>
@@ -30895,7 +30895,7 @@
       </c>
       <c r="CI75">
         <f>'d7-to-PEG-PEN-PFN-PFL'!L16 * Gains!$I$8</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="CJ75">
         <f>'d7-to-PEG-PEN-PFN-PFL'!M16 * Gains!$I$8</f>
@@ -31007,7 +31007,7 @@
       </c>
       <c r="DO75">
         <f>'d7-to-PEG-PEN-PFN-PFL'!L16 * Gains!$K$8</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="DP75">
         <f>'d7-to-PEG-PEN-PFN-PFL'!M16 * Gains!$K$8</f>
@@ -31306,7 +31306,7 @@
       </c>
       <c r="CO76" s="1">
         <f>'PFN-to-PFL-hd'!B1 * Gains!$J$9</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP76" s="1">
         <f>'PFN-to-PFL-hd'!C1 * Gains!$J$9</f>
@@ -31370,7 +31370,7 @@
       </c>
       <c r="DE76" s="3">
         <f>'PFN-to-PFL-hd'!B1 * Gains!$K$9</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF76" s="3">
         <f>'PFN-to-PFL-hd'!C1 * Gains!$K$9</f>
@@ -31713,7 +31713,7 @@
       </c>
       <c r="CP77" s="1">
         <f>'PFN-to-PFL-hd'!C2 * Gains!$J$9</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ77" s="1">
         <f>'PFN-to-PFL-hd'!D2 * Gains!$J$9</f>
@@ -31777,7 +31777,7 @@
       </c>
       <c r="DF77" s="3">
         <f>'PFN-to-PFL-hd'!C2 * Gains!$K$9</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DG77" s="3">
         <f>'PFN-to-PFL-hd'!D2 * Gains!$K$9</f>
@@ -32120,7 +32120,7 @@
       </c>
       <c r="CQ78" s="1">
         <f>'PFN-to-PFL-hd'!D3 * Gains!$J$9</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR78" s="1">
         <f>'PFN-to-PFL-hd'!E3 * Gains!$J$9</f>
@@ -32184,7 +32184,7 @@
       </c>
       <c r="DG78" s="3">
         <f>'PFN-to-PFL-hd'!D3 * Gains!$K$9</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DH78" s="3">
         <f>'PFN-to-PFL-hd'!E3 * Gains!$K$9</f>
@@ -32527,7 +32527,7 @@
       </c>
       <c r="CR79" s="1">
         <f>'PFN-to-PFL-hd'!E4 * Gains!$J$9</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS79" s="1">
         <f>'PFN-to-PFL-hd'!F4 * Gains!$J$9</f>
@@ -32591,7 +32591,7 @@
       </c>
       <c r="DH79" s="3">
         <f>'PFN-to-PFL-hd'!E4 * Gains!$K$9</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DI79" s="3">
         <f>'PFN-to-PFL-hd'!F4 * Gains!$K$9</f>
@@ -32934,7 +32934,7 @@
       </c>
       <c r="CS80" s="1">
         <f>'PFN-to-PFL-hd'!F5 * Gains!$J$9</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT80" s="1">
         <f>'PFN-to-PFL-hd'!G5 * Gains!$J$9</f>
@@ -32998,7 +32998,7 @@
       </c>
       <c r="DI80" s="3">
         <f>'PFN-to-PFL-hd'!F5 * Gains!$K$9</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DJ80" s="3">
         <f>'PFN-to-PFL-hd'!G5 * Gains!$K$9</f>
@@ -33341,7 +33341,7 @@
       </c>
       <c r="CT81" s="1">
         <f>'PFN-to-PFL-hd'!G6 * Gains!$J$9</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU81" s="1">
         <f>'PFN-to-PFL-hd'!H6 * Gains!$J$9</f>
@@ -33405,7 +33405,7 @@
       </c>
       <c r="DJ81" s="3">
         <f>'PFN-to-PFL-hd'!G6 * Gains!$K$9</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DK81" s="3">
         <f>'PFN-to-PFL-hd'!H6 * Gains!$K$9</f>
@@ -33748,7 +33748,7 @@
       </c>
       <c r="CU82" s="1">
         <f>'PFN-to-PFL-hd'!H7 * Gains!$J$9</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV82" s="1">
         <f>'PFN-to-PFL-hd'!I7 * Gains!$J$9</f>
@@ -33812,7 +33812,7 @@
       </c>
       <c r="DK82" s="3">
         <f>'PFN-to-PFL-hd'!H7 * Gains!$K$9</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DL82" s="3">
         <f>'PFN-to-PFL-hd'!I7 * Gains!$K$9</f>
@@ -34123,7 +34123,7 @@
       </c>
       <c r="CN83" s="1">
         <f>'PFN-to-PFL-hd'!A8 * Gains!$J$9</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO83" s="1">
         <f>'PFN-to-PFL-hd'!B8 * Gains!$J$9</f>
@@ -34187,7 +34187,7 @@
       </c>
       <c r="DD83" s="3">
         <f>'PFN-to-PFL-hd'!A8 * Gains!$K$9</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE83" s="3">
         <f>'PFN-to-PFL-hd'!B8 * Gains!$K$9</f>
@@ -34586,7 +34586,7 @@
       </c>
       <c r="DC84" s="1">
         <f>'PFN-to-PFL-hd'!P9 * Gains!$J$9</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DD84" s="3">
         <f>'PFN-to-PFL-hd'!A9 * Gains!$K$9</f>
@@ -34650,7 +34650,7 @@
       </c>
       <c r="DS84" s="3">
         <f>'PFN-to-PFL-hd'!P9 * Gains!$K$9</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:123" x14ac:dyDescent="0.25">
@@ -34961,7 +34961,7 @@
       </c>
       <c r="CV85" s="1">
         <f>'PFN-to-PFL-hd'!I10 * Gains!$J$9</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW85" s="1">
         <f>'PFN-to-PFL-hd'!J10 * Gains!$J$9</f>
@@ -35025,7 +35025,7 @@
       </c>
       <c r="DL85" s="3">
         <f>'PFN-to-PFL-hd'!I10 * Gains!$K$9</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DM85" s="3">
         <f>'PFN-to-PFL-hd'!J10 * Gains!$K$9</f>
@@ -35368,7 +35368,7 @@
       </c>
       <c r="CW86" s="1">
         <f>'PFN-to-PFL-hd'!J11 * Gains!$J$9</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CX86" s="1">
         <f>'PFN-to-PFL-hd'!K11 * Gains!$J$9</f>
@@ -35432,7 +35432,7 @@
       </c>
       <c r="DM86" s="3">
         <f>'PFN-to-PFL-hd'!J11 * Gains!$K$9</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DN86" s="3">
         <f>'PFN-to-PFL-hd'!K11 * Gains!$K$9</f>
@@ -35775,7 +35775,7 @@
       </c>
       <c r="CX87" s="1">
         <f>'PFN-to-PFL-hd'!K12 * Gains!$J$9</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CY87" s="1">
         <f>'PFN-to-PFL-hd'!L12 * Gains!$J$9</f>
@@ -35839,7 +35839,7 @@
       </c>
       <c r="DN87" s="3">
         <f>'PFN-to-PFL-hd'!K12 * Gains!$K$9</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DO87" s="3">
         <f>'PFN-to-PFL-hd'!L12 * Gains!$K$9</f>
@@ -36182,7 +36182,7 @@
       </c>
       <c r="CY88" s="1">
         <f>'PFN-to-PFL-hd'!L13 * Gains!$J$9</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CZ88" s="1">
         <f>'PFN-to-PFL-hd'!M13 * Gains!$J$9</f>
@@ -36246,7 +36246,7 @@
       </c>
       <c r="DO88" s="3">
         <f>'PFN-to-PFL-hd'!L13 * Gains!$K$9</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DP88" s="3">
         <f>'PFN-to-PFL-hd'!M13 * Gains!$K$9</f>
@@ -36589,7 +36589,7 @@
       </c>
       <c r="CZ89" s="1">
         <f>'PFN-to-PFL-hd'!M14 * Gains!$J$9</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DA89" s="1">
         <f>'PFN-to-PFL-hd'!N14 * Gains!$J$9</f>
@@ -36653,7 +36653,7 @@
       </c>
       <c r="DP89" s="3">
         <f>'PFN-to-PFL-hd'!M14 * Gains!$K$9</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DQ89" s="3">
         <f>'PFN-to-PFL-hd'!N14 * Gains!$K$9</f>
@@ -36996,7 +36996,7 @@
       </c>
       <c r="DA90" s="1">
         <f>'PFN-to-PFL-hd'!N15 * Gains!$J$9</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DB90" s="1">
         <f>'PFN-to-PFL-hd'!O15 * Gains!$J$9</f>
@@ -37060,7 +37060,7 @@
       </c>
       <c r="DQ90" s="3">
         <f>'PFN-to-PFL-hd'!N15 * Gains!$K$9</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DR90" s="3">
         <f>'PFN-to-PFL-hd'!O15 * Gains!$K$9</f>
@@ -37403,7 +37403,7 @@
       </c>
       <c r="DB91" s="1">
         <f>'PFN-to-PFL-hd'!O16 * Gains!$J$9</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DC91" s="1">
         <f>'PFN-to-PFL-hd'!P16 * Gains!$J$9</f>
@@ -37467,7 +37467,7 @@
       </c>
       <c r="DR91" s="3">
         <f>'PFN-to-PFL-hd'!O16 * Gains!$K$9</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DS91" s="3">
         <f>'PFN-to-PFL-hd'!P16 * Gains!$K$9</f>
@@ -37750,7 +37750,7 @@
       </c>
       <c r="CN92" s="3">
         <f>'hd-to-hd'!A1 * Gains!$J$10</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO92" s="3">
         <f>'hd-to-hd'!B1 * Gains!$J$10</f>
@@ -37846,7 +37846,7 @@
       </c>
       <c r="DL92" s="1">
         <f>'hd-to-PFL'!I1 * Gains!$K$10</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DM92" s="1">
         <f>'hd-to-PFL'!J1 * Gains!$K$10</f>
@@ -38157,7 +38157,7 @@
       </c>
       <c r="CO93" s="3">
         <f>'hd-to-hd'!B2 * Gains!$J$10</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP93" s="3">
         <f>'hd-to-hd'!C2 * Gains!$J$10</f>
@@ -38253,7 +38253,7 @@
       </c>
       <c r="DM93" s="1">
         <f>'hd-to-PFL'!J2 * Gains!$K$10</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DN93" s="1">
         <f>'hd-to-PFL'!K2 * Gains!$K$10</f>
@@ -38564,7 +38564,7 @@
       </c>
       <c r="CP94" s="3">
         <f>'hd-to-hd'!C3 * Gains!$J$10</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ94" s="3">
         <f>'hd-to-hd'!D3 * Gains!$J$10</f>
@@ -38660,7 +38660,7 @@
       </c>
       <c r="DN94" s="1">
         <f>'hd-to-PFL'!K3 * Gains!$K$10</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DO94" s="1">
         <f>'hd-to-PFL'!L3 * Gains!$K$10</f>
@@ -38971,7 +38971,7 @@
       </c>
       <c r="CQ95" s="3">
         <f>'hd-to-hd'!D4 * Gains!$J$10</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR95" s="3">
         <f>'hd-to-hd'!E4 * Gains!$J$10</f>
@@ -39067,7 +39067,7 @@
       </c>
       <c r="DO95" s="1">
         <f>'hd-to-PFL'!L4 * Gains!$K$10</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DP95" s="1">
         <f>'hd-to-PFL'!M4 * Gains!$K$10</f>
@@ -39378,7 +39378,7 @@
       </c>
       <c r="CR96" s="3">
         <f>'hd-to-hd'!E5 * Gains!$J$10</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS96" s="3">
         <f>'hd-to-hd'!F5 * Gains!$J$10</f>
@@ -39474,7 +39474,7 @@
       </c>
       <c r="DP96" s="1">
         <f>'hd-to-PFL'!M5 * Gains!$K$10</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DQ96" s="1">
         <f>'hd-to-PFL'!N5 * Gains!$K$10</f>
@@ -39785,7 +39785,7 @@
       </c>
       <c r="CS97" s="3">
         <f>'hd-to-hd'!F6 * Gains!$J$10</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT97" s="3">
         <f>'hd-to-hd'!G6 * Gains!$J$10</f>
@@ -39881,7 +39881,7 @@
       </c>
       <c r="DQ97" s="1">
         <f>'hd-to-PFL'!N6 * Gains!$K$10</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DR97" s="1">
         <f>'hd-to-PFL'!O6 * Gains!$K$10</f>
@@ -40192,7 +40192,7 @@
       </c>
       <c r="CT98" s="3">
         <f>'hd-to-hd'!G7 * Gains!$J$10</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU98" s="3">
         <f>'hd-to-hd'!H7 * Gains!$J$10</f>
@@ -40288,7 +40288,7 @@
       </c>
       <c r="DR98" s="1">
         <f>'hd-to-PFL'!O7 * Gains!$K$10</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DS98" s="1">
         <f>'hd-to-PFL'!P7 * Gains!$K$10</f>
@@ -40599,7 +40599,7 @@
       </c>
       <c r="CU99" s="3">
         <f>'hd-to-hd'!H8 * Gains!$J$10</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV99" s="3">
         <f>'hd-to-hd'!I8 * Gains!$J$10</f>
@@ -40695,7 +40695,7 @@
       </c>
       <c r="DS99" s="1">
         <f>'hd-to-PFL'!P8 * Gains!$K$10</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:123" x14ac:dyDescent="0.25">
@@ -41006,7 +41006,7 @@
       </c>
       <c r="CV100" s="3">
         <f>'hd-to-hd'!I9 * Gains!$J$10</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW100" s="3">
         <f>'hd-to-hd'!J9 * Gains!$J$10</f>
@@ -41038,7 +41038,7 @@
       </c>
       <c r="DD100" s="1">
         <f>'hd-to-PFL'!A9 * Gains!$K$10</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE100" s="1">
         <f>'hd-to-PFL'!B9 * Gains!$K$10</f>
@@ -41413,7 +41413,7 @@
       </c>
       <c r="CW101" s="3">
         <f>'hd-to-hd'!J10 * Gains!$J$10</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CX101" s="3">
         <f>'hd-to-hd'!K10 * Gains!$J$10</f>
@@ -41445,7 +41445,7 @@
       </c>
       <c r="DE101" s="1">
         <f>'hd-to-PFL'!B10 * Gains!$K$10</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF101" s="1">
         <f>'hd-to-PFL'!C10 * Gains!$K$10</f>
@@ -41820,7 +41820,7 @@
       </c>
       <c r="CX102" s="3">
         <f>'hd-to-hd'!K11 * Gains!$J$10</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CY102" s="3">
         <f>'hd-to-hd'!L11 * Gains!$J$10</f>
@@ -41852,7 +41852,7 @@
       </c>
       <c r="DF102" s="1">
         <f>'hd-to-PFL'!C11 * Gains!$K$10</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DG102" s="1">
         <f>'hd-to-PFL'!D11 * Gains!$K$10</f>
@@ -42227,7 +42227,7 @@
       </c>
       <c r="CY103" s="3">
         <f>'hd-to-hd'!L12 * Gains!$J$10</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CZ103" s="3">
         <f>'hd-to-hd'!M12 * Gains!$J$10</f>
@@ -42259,7 +42259,7 @@
       </c>
       <c r="DG103" s="1">
         <f>'hd-to-PFL'!D12 * Gains!$K$10</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DH103" s="1">
         <f>'hd-to-PFL'!E12 * Gains!$K$10</f>
@@ -42634,7 +42634,7 @@
       </c>
       <c r="CZ104" s="3">
         <f>'hd-to-hd'!M13 * Gains!$J$10</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DA104" s="3">
         <f>'hd-to-hd'!N13 * Gains!$J$10</f>
@@ -42666,7 +42666,7 @@
       </c>
       <c r="DH104" s="1">
         <f>'hd-to-PFL'!E13 * Gains!$K$10</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DI104" s="1">
         <f>'hd-to-PFL'!F13 * Gains!$K$10</f>
@@ -43041,7 +43041,7 @@
       </c>
       <c r="DA105" s="3">
         <f>'hd-to-hd'!N14 * Gains!$J$10</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DB105" s="3">
         <f>'hd-to-hd'!O14 * Gains!$J$10</f>
@@ -43073,7 +43073,7 @@
       </c>
       <c r="DI105" s="1">
         <f>'hd-to-PFL'!F14 * Gains!$K$10</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DJ105" s="1">
         <f>'hd-to-PFL'!G14 * Gains!$K$10</f>
@@ -43448,7 +43448,7 @@
       </c>
       <c r="DB106" s="3">
         <f>'hd-to-hd'!O15 * Gains!$J$10</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DC106" s="3">
         <f>'hd-to-hd'!P15 * Gains!$J$10</f>
@@ -43480,7 +43480,7 @@
       </c>
       <c r="DJ106" s="1">
         <f>'hd-to-PFL'!G15 * Gains!$K$10</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DK106" s="1">
         <f>'hd-to-PFL'!H15 * Gains!$K$10</f>
@@ -43855,7 +43855,7 @@
       </c>
       <c r="DC107" s="3">
         <f>'hd-to-hd'!P16 * Gains!$J$10</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DD107" s="1">
         <f>'hd-to-PFL'!A16 * Gains!$K$10</f>
@@ -43887,7 +43887,7 @@
       </c>
       <c r="DK107" s="1">
         <f>'hd-to-PFL'!H16 * Gains!$K$10</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DL107" s="1">
         <f>'hd-to-PFL'!I16 * Gains!$K$10</f>
@@ -49905,7 +49905,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -50732,7 +50732,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S38" sqref="S38"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -51559,7 +51559,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:P16"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -52386,7 +52386,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -54039,9 +54039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EA8753B-3B8C-468F-9869-7705CB6A97BA}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -54564,7 +54562,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -54614,8 +54612,8 @@
       <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
+      <c r="E2">
+        <v>1</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
@@ -54655,8 +54653,8 @@
       <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
+      <c r="G3">
+        <v>0.8</v>
       </c>
       <c r="H3" t="s">
         <v>12</v>
@@ -54723,10 +54721,10 @@
         <v>12</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -54755,7 +54753,7 @@
         <v>12</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
@@ -54790,7 +54788,7 @@
         <v>12</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -54837,13 +54835,13 @@
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
         <v>12</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -54875,10 +54873,10 @@
         <v>12</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -54910,10 +54908,10 @@
         <v>12</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -54972,9 +54970,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04719B46-CBD2-4A0D-ACAB-E0C24FD60482}">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -55400,7 +55396,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -55604,7 +55600,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:H16"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -56430,8 +56426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC37B14-D698-467B-8B0B-F31AE97A4808}">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -57258,7 +57254,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -57268,11 +57264,11 @@
         <v>1</v>
       </c>
       <c r="B1">
+        <v>0.9</v>
+      </c>
+      <c r="C1">
         <v>0.6</v>
       </c>
-      <c r="C1">
-        <v>0.2</v>
-      </c>
       <c r="D1">
         <v>0</v>
       </c>
@@ -57283,10 +57279,10 @@
         <v>0</v>
       </c>
       <c r="G1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H1">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="I1">
         <v>0</v>
@@ -57315,17 +57311,17 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
+        <v>0.9</v>
+      </c>
+      <c r="D2">
         <v>0.6</v>
       </c>
-      <c r="D2">
-        <v>0.2</v>
-      </c>
       <c r="E2">
         <v>0</v>
       </c>
@@ -57336,7 +57332,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -57365,19 +57361,19 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="B3">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
+        <v>0.9</v>
+      </c>
+      <c r="E3">
         <v>0.6</v>
-      </c>
-      <c r="E3">
-        <v>0.2</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -57418,19 +57414,19 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="C4">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
+        <v>0.9</v>
+      </c>
+      <c r="F4">
         <v>0.6</v>
-      </c>
-      <c r="F4">
-        <v>0.2</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -57471,19 +57467,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="D5">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
+        <v>0.9</v>
+      </c>
+      <c r="G5">
         <v>0.6</v>
-      </c>
-      <c r="G5">
-        <v>0.2</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -57524,19 +57520,19 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="E6">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
+        <v>0.9</v>
+      </c>
+      <c r="H6">
         <v>0.6</v>
-      </c>
-      <c r="H6">
-        <v>0.2</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -57565,7 +57561,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -57577,16 +57573,16 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="F7">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -57615,11 +57611,11 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>0.9</v>
+      </c>
+      <c r="B8">
         <v>0.6</v>
       </c>
-      <c r="B8">
-        <v>0.2</v>
-      </c>
       <c r="C8">
         <v>0</v>
       </c>
@@ -57630,10 +57626,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="G8">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -57692,11 +57688,11 @@
         <v>1</v>
       </c>
       <c r="J9">
+        <v>0.9</v>
+      </c>
+      <c r="K9">
         <v>0.6</v>
       </c>
-      <c r="K9">
-        <v>0.2</v>
-      </c>
       <c r="L9">
         <v>0</v>
       </c>
@@ -57707,10 +57703,10 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="P9">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -57739,17 +57735,17 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10">
+        <v>0.9</v>
+      </c>
+      <c r="L10">
         <v>0.6</v>
       </c>
-      <c r="L10">
-        <v>0.2</v>
-      </c>
       <c r="M10">
         <v>0</v>
       </c>
@@ -57760,7 +57756,7 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -57789,19 +57785,19 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="J11">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
+        <v>0.9</v>
+      </c>
+      <c r="M11">
         <v>0.6</v>
-      </c>
-      <c r="M11">
-        <v>0.2</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -57842,19 +57838,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="K12">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
+        <v>0.9</v>
+      </c>
+      <c r="N12">
         <v>0.6</v>
-      </c>
-      <c r="N12">
-        <v>0.2</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -57895,19 +57891,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="L13">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="M13">
         <v>1</v>
       </c>
       <c r="N13">
+        <v>0.9</v>
+      </c>
+      <c r="O13">
         <v>0.6</v>
-      </c>
-      <c r="O13">
-        <v>0.2</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -57948,19 +57944,19 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="M14">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="N14">
         <v>1</v>
       </c>
       <c r="O14">
+        <v>0.9</v>
+      </c>
+      <c r="P14">
         <v>0.6</v>
-      </c>
-      <c r="P14">
-        <v>0.2</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -57989,7 +57985,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -58001,16 +57997,16 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="N15">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="O15">
         <v>1</v>
       </c>
       <c r="P15">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -58039,11 +58035,11 @@
         <v>0</v>
       </c>
       <c r="I16">
+        <v>0.9</v>
+      </c>
+      <c r="J16">
         <v>0.6</v>
       </c>
-      <c r="J16">
-        <v>0.2</v>
-      </c>
       <c r="K16">
         <v>0</v>
       </c>
@@ -58054,10 +58050,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="O16">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="P16">
         <v>1</v>

--- a/Theorical_connectivity_matrices.xlsx
+++ b/Theorical_connectivity_matrices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bclem\OneDrive\Documents\GitHub\Megalopta_CX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0AA2AC-0107-4EA2-83D0-67C42EEF0994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D17F9F9-A741-4826-841B-4CD51E9F8043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="2" activeTab="2" xr2:uid="{093D5FC8-3546-4B30-B5BC-72449F880B19}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="2" xr2:uid="{093D5FC8-3546-4B30-B5BC-72449F880B19}"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="13" r:id="rId1"/>
@@ -24,9 +24,10 @@
     <sheet name="EPG-to-d7" sheetId="3" r:id="rId9"/>
     <sheet name="d7-to-d7" sheetId="4" r:id="rId10"/>
     <sheet name="d7-to-PEG-PEN-PFN-PFL" sheetId="5" r:id="rId11"/>
-    <sheet name="PFN-to-PFL-hd" sheetId="6" r:id="rId12"/>
-    <sheet name="hd-to-PFL" sheetId="7" r:id="rId13"/>
-    <sheet name="hd-to-hd" sheetId="17" r:id="rId14"/>
+    <sheet name="PFN-to-PFL" sheetId="6" r:id="rId12"/>
+    <sheet name="PFN-to-hd" sheetId="18" r:id="rId13"/>
+    <sheet name="hd-to-PFL" sheetId="7" r:id="rId14"/>
+    <sheet name="hd-to-hd" sheetId="17" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="13">
   <si>
     <t>TS</t>
   </si>
@@ -459,8 +460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D70C54ED-CF8A-40EC-8537-9A05E3479CC3}">
   <dimension ref="A1:DS123"/>
   <sheetViews>
-    <sheetView topLeftCell="AI1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AR9" sqref="AR9:BG10"/>
+    <sheetView topLeftCell="CY79" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="DK132" sqref="DK132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4562,67 +4563,67 @@
         <v>0</v>
       </c>
       <c r="BX11">
-        <f>'TS-to-PFN'!A1</f>
+        <f>'TS-to-PFN'!A1 * Gains!$I$4</f>
         <v>1</v>
       </c>
       <c r="BY11">
-        <f>'TS-to-PFN'!B1</f>
+        <f>'TS-to-PFN'!B1 * Gains!$I$4</f>
         <v>1</v>
       </c>
       <c r="BZ11">
-        <f>'TS-to-PFN'!C1</f>
+        <f>'TS-to-PFN'!C1 * Gains!$I$4</f>
         <v>1</v>
       </c>
       <c r="CA11">
-        <f>'TS-to-PFN'!D1</f>
+        <f>'TS-to-PFN'!D1 * Gains!$I$4</f>
         <v>1</v>
       </c>
       <c r="CB11">
-        <f>'TS-to-PFN'!E1</f>
+        <f>'TS-to-PFN'!E1 * Gains!$I$4</f>
         <v>1</v>
       </c>
       <c r="CC11">
-        <f>'TS-to-PFN'!F1</f>
+        <f>'TS-to-PFN'!F1 * Gains!$I$4</f>
         <v>1</v>
       </c>
       <c r="CD11">
-        <f>'TS-to-PFN'!G1</f>
+        <f>'TS-to-PFN'!G1 * Gains!$I$4</f>
         <v>1</v>
       </c>
       <c r="CE11">
-        <f>'TS-to-PFN'!H1</f>
+        <f>'TS-to-PFN'!H1 * Gains!$I$4</f>
         <v>1</v>
       </c>
       <c r="CF11">
-        <f>'TS-to-PFN'!I1</f>
+        <f>'TS-to-PFN'!I1 * Gains!$I$4</f>
         <v>1</v>
       </c>
       <c r="CG11">
-        <f>'TS-to-PFN'!J1</f>
+        <f>'TS-to-PFN'!J1 * Gains!$I$4</f>
         <v>1</v>
       </c>
       <c r="CH11">
-        <f>'TS-to-PFN'!K1</f>
+        <f>'TS-to-PFN'!K1 * Gains!$I$4</f>
         <v>1</v>
       </c>
       <c r="CI11">
-        <f>'TS-to-PFN'!L1</f>
+        <f>'TS-to-PFN'!L1 * Gains!$I$4</f>
         <v>1</v>
       </c>
       <c r="CJ11">
-        <f>'TS-to-PFN'!M1</f>
+        <f>'TS-to-PFN'!M1 * Gains!$I$4</f>
         <v>1</v>
       </c>
       <c r="CK11">
-        <f>'TS-to-PFN'!N1</f>
+        <f>'TS-to-PFN'!N1 * Gains!$I$4</f>
         <v>1</v>
       </c>
       <c r="CL11">
-        <f>'TS-to-PFN'!O1</f>
+        <f>'TS-to-PFN'!O1 * Gains!$I$4</f>
         <v>1</v>
       </c>
       <c r="CM11">
-        <f>'TS-to-PFN'!P1</f>
+        <f>'TS-to-PFN'!P1 * Gains!$I$4</f>
         <v>1</v>
       </c>
       <c r="CN11" s="3">
@@ -4870,7 +4871,7 @@
       </c>
       <c r="AR12">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!A1 * Gains!$G$5</f>
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="AS12">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!B1 * Gains!$G$5</f>
@@ -5293,7 +5294,7 @@
       </c>
       <c r="AS13">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!B2 * Gains!$G$5</f>
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="AT13">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!C2 * Gains!$G$5</f>
@@ -5716,7 +5717,7 @@
       </c>
       <c r="AT14">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!C3 * Gains!$G$5</f>
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="AU14">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!D3 * Gains!$G$5</f>
@@ -6139,7 +6140,7 @@
       </c>
       <c r="AU15">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!D4 * Gains!$G$5</f>
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="AV15">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!E4 * Gains!$G$5</f>
@@ -6562,7 +6563,7 @@
       </c>
       <c r="AV16">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!E5 * Gains!$G$5</f>
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="AW16">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!F5 * Gains!$G$5</f>
@@ -6985,7 +6986,7 @@
       </c>
       <c r="AW17">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!F6 * Gains!$G$5</f>
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="AX17">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!G6 * Gains!$G$5</f>
@@ -7408,7 +7409,7 @@
       </c>
       <c r="AX18">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!G7 * Gains!$G$5</f>
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="AY18">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!H7 * Gains!$G$5</f>
@@ -7831,7 +7832,7 @@
       </c>
       <c r="AY19">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!H8 * Gains!$G$5</f>
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="AZ19">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!I8 * Gains!$G$5</f>
@@ -8254,7 +8255,7 @@
       </c>
       <c r="AZ20">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!I9 * Gains!$G$5</f>
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="BA20">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!J9 * Gains!$G$5</f>
@@ -8677,7 +8678,7 @@
       </c>
       <c r="BA21">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!J10 * Gains!$G$5</f>
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="BB21">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!K10 * Gains!$G$5</f>
@@ -9100,7 +9101,7 @@
       </c>
       <c r="BB22">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!K11 * Gains!$G$5</f>
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="BC22">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!L11 * Gains!$G$5</f>
@@ -9523,7 +9524,7 @@
       </c>
       <c r="BC23">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!L12 * Gains!$G$5</f>
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="BD23">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!M12 * Gains!$G$5</f>
@@ -9946,7 +9947,7 @@
       </c>
       <c r="BD24">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!M13 * Gains!$G$5</f>
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="BE24">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!N13 * Gains!$G$5</f>
@@ -10369,7 +10370,7 @@
       </c>
       <c r="BE25">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!N14 * Gains!$G$5</f>
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="BF25">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!O14 * Gains!$G$5</f>
@@ -10792,7 +10793,7 @@
       </c>
       <c r="BF26">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!O15 * Gains!$G$5</f>
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="BG26">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!P15 * Gains!$G$5</f>
@@ -11215,7 +11216,7 @@
       </c>
       <c r="BG27">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!P16 * Gains!$G$5</f>
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="BH27">
         <f>'EPG-to-d7'!A16 * Gains!$H$5</f>
@@ -11462,7 +11463,7 @@
       </c>
       <c r="L28">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!A1 * Gains!$E$6</f>
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="M28">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!B1 * Gains!$E$6</f>
@@ -11853,7 +11854,7 @@
       </c>
       <c r="M29">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!B2 * Gains!$E$6</f>
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N29">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!C2 * Gains!$E$6</f>
@@ -12244,7 +12245,7 @@
       </c>
       <c r="N30">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!C3 * Gains!$E$6</f>
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="O30">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!D3 * Gains!$E$6</f>
@@ -12635,7 +12636,7 @@
       </c>
       <c r="O31">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!D4 * Gains!$E$6</f>
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="P31">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!E4 * Gains!$E$6</f>
@@ -13026,7 +13027,7 @@
       </c>
       <c r="P32">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!E5 * Gains!$E$6</f>
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="Q32">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!F5 * Gains!$E$6</f>
@@ -13417,7 +13418,7 @@
       </c>
       <c r="Q33">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!F6 * Gains!$E$6</f>
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="R33">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!G6 * Gains!$E$6</f>
@@ -13808,7 +13809,7 @@
       </c>
       <c r="R34">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!G7 * Gains!$E$6</f>
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="S34">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!H7 * Gains!$E$6</f>
@@ -14199,7 +14200,7 @@
       </c>
       <c r="S35">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!H8 * Gains!$E$6</f>
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="T35">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!I8 * Gains!$E$6</f>
@@ -14590,7 +14591,7 @@
       </c>
       <c r="T36">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!I9 * Gains!$E$6</f>
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="U36">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!J9 * Gains!$E$6</f>
@@ -14981,7 +14982,7 @@
       </c>
       <c r="U37">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!J10 * Gains!$E$6</f>
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="V37">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!K10 * Gains!$E$6</f>
@@ -15372,7 +15373,7 @@
       </c>
       <c r="V38">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!K11 * Gains!$E$6</f>
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="W38">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!L11 * Gains!$E$6</f>
@@ -15763,7 +15764,7 @@
       </c>
       <c r="W39">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!L12 * Gains!$E$6</f>
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="X39">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!M12 * Gains!$E$6</f>
@@ -16154,7 +16155,7 @@
       </c>
       <c r="X40">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!M13 * Gains!$E$6</f>
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="Y40">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!N13 * Gains!$E$6</f>
@@ -16545,7 +16546,7 @@
       </c>
       <c r="Y41">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!N14 * Gains!$E$6</f>
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="Z41">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!O14 * Gains!$E$6</f>
@@ -16936,7 +16937,7 @@
       </c>
       <c r="Z42">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!O15 * Gains!$E$6</f>
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="AA42">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!P15 * Gains!$E$6</f>
@@ -17327,7 +17328,7 @@
       </c>
       <c r="AA43">
         <f>'EPG-to-PEG-PEN_PEG-to-EPG'!P16 * Gains!$E$6</f>
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="AB43" s="3">
         <v>0</v>
@@ -24026,11 +24027,11 @@
       </c>
       <c r="BI60">
         <f>'d7-to-d7'!B1 * Gains!$H$8</f>
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="BJ60">
         <f>'d7-to-d7'!C1 * Gains!$H$8</f>
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="BK60">
         <f>'d7-to-d7'!D1 * Gains!$H$8</f>
@@ -24046,11 +24047,11 @@
       </c>
       <c r="BN60">
         <f>'d7-to-d7'!G1 * Gains!$H$8</f>
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="BO60">
         <f>'d7-to-d7'!H1 * Gains!$H$8</f>
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="BP60">
         <f>'d7-to-d7'!I1 * Gains!$H$8</f>
@@ -24102,7 +24103,7 @@
       </c>
       <c r="CB60">
         <f>'d7-to-PEG-PEN-PFN-PFL'!E1 * Gains!$I$8</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="CC60">
         <f>'d7-to-PEG-PEN-PFN-PFL'!F1 * Gains!$I$8</f>
@@ -24214,7 +24215,7 @@
       </c>
       <c r="DH60">
         <f>'d7-to-PEG-PEN-PFN-PFL'!E1 * Gains!$K$8</f>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="DI60">
         <f>'d7-to-PEG-PEN-PFN-PFL'!F1 * Gains!$K$8</f>
@@ -24473,7 +24474,7 @@
       </c>
       <c r="BH61">
         <f>'d7-to-d7'!A2 * Gains!$H$8</f>
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="BI61">
         <f>'d7-to-d7'!B2 * Gains!$H$8</f>
@@ -24481,11 +24482,11 @@
       </c>
       <c r="BJ61">
         <f>'d7-to-d7'!C2 * Gains!$H$8</f>
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="BK61">
         <f>'d7-to-d7'!D2 * Gains!$H$8</f>
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="BL61">
         <f>'d7-to-d7'!E2 * Gains!$H$8</f>
@@ -24501,7 +24502,7 @@
       </c>
       <c r="BO61">
         <f>'d7-to-d7'!H2 * Gains!$H$8</f>
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="BP61">
         <f>'d7-to-d7'!I2 * Gains!$H$8</f>
@@ -24557,7 +24558,7 @@
       </c>
       <c r="CC61">
         <f>'d7-to-PEG-PEN-PFN-PFL'!F2 * Gains!$I$8</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="CD61">
         <f>'d7-to-PEG-PEN-PFN-PFL'!G2 * Gains!$I$8</f>
@@ -24669,7 +24670,7 @@
       </c>
       <c r="DI61">
         <f>'d7-to-PEG-PEN-PFN-PFL'!F2 * Gains!$K$8</f>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="DJ61">
         <f>'d7-to-PEG-PEN-PFN-PFL'!G2 * Gains!$K$8</f>
@@ -24924,11 +24925,11 @@
       </c>
       <c r="BH62">
         <f>'d7-to-d7'!A3 * Gains!$H$8</f>
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="BI62">
         <f>'d7-to-d7'!B3 * Gains!$H$8</f>
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="BJ62">
         <f>'d7-to-d7'!C3 * Gains!$H$8</f>
@@ -24936,11 +24937,11 @@
       </c>
       <c r="BK62">
         <f>'d7-to-d7'!D3 * Gains!$H$8</f>
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="BL62">
         <f>'d7-to-d7'!E3 * Gains!$H$8</f>
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="BM62">
         <f>'d7-to-d7'!F3 * Gains!$H$8</f>
@@ -25012,7 +25013,7 @@
       </c>
       <c r="CD62">
         <f>'d7-to-PEG-PEN-PFN-PFL'!G3 * Gains!$I$8</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="CE62">
         <f>'d7-to-PEG-PEN-PFN-PFL'!H3 * Gains!$I$8</f>
@@ -25124,7 +25125,7 @@
       </c>
       <c r="DJ62">
         <f>'d7-to-PEG-PEN-PFN-PFL'!G3 * Gains!$K$8</f>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="DK62">
         <f>'d7-to-PEG-PEN-PFN-PFL'!H3 * Gains!$K$8</f>
@@ -25379,11 +25380,11 @@
       </c>
       <c r="BI63">
         <f>'d7-to-d7'!B4 * Gains!$H$8</f>
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="BJ63">
         <f>'d7-to-d7'!C4 * Gains!$H$8</f>
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="BK63">
         <f>'d7-to-d7'!D4 * Gains!$H$8</f>
@@ -25391,11 +25392,11 @@
       </c>
       <c r="BL63">
         <f>'d7-to-d7'!E4 * Gains!$H$8</f>
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="BM63">
         <f>'d7-to-d7'!F4 * Gains!$H$8</f>
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="BN63">
         <f>'d7-to-d7'!G4 * Gains!$H$8</f>
@@ -25467,7 +25468,7 @@
       </c>
       <c r="CE63">
         <f>'d7-to-PEG-PEN-PFN-PFL'!H4 * Gains!$I$8</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="CF63">
         <f>'d7-to-PEG-PEN-PFN-PFL'!I4 * Gains!$I$8</f>
@@ -25579,7 +25580,7 @@
       </c>
       <c r="DK63">
         <f>'d7-to-PEG-PEN-PFN-PFL'!H4 * Gains!$K$8</f>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="DL63">
         <f>'d7-to-PEG-PEN-PFN-PFL'!I4 * Gains!$K$8</f>
@@ -25834,11 +25835,11 @@
       </c>
       <c r="BJ64">
         <f>'d7-to-d7'!C5 * Gains!$H$8</f>
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="BK64">
         <f>'d7-to-d7'!D5 * Gains!$H$8</f>
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="BL64">
         <f>'d7-to-d7'!E5 * Gains!$H$8</f>
@@ -25846,11 +25847,11 @@
       </c>
       <c r="BM64">
         <f>'d7-to-d7'!F5 * Gains!$H$8</f>
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="BN64">
         <f>'d7-to-d7'!G5 * Gains!$H$8</f>
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="BO64">
         <f>'d7-to-d7'!H5 * Gains!$H$8</f>
@@ -25890,7 +25891,7 @@
       </c>
       <c r="BX64">
         <f>'d7-to-PEG-PEN-PFN-PFL'!A5 * Gains!$I$8</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BY64">
         <f>'d7-to-PEG-PEN-PFN-PFL'!B5 * Gains!$I$8</f>
@@ -26002,7 +26003,7 @@
       </c>
       <c r="DD64">
         <f>'d7-to-PEG-PEN-PFN-PFL'!A5 * Gains!$K$8</f>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="DE64">
         <f>'d7-to-PEG-PEN-PFN-PFL'!B5 * Gains!$K$8</f>
@@ -26289,11 +26290,11 @@
       </c>
       <c r="BK65">
         <f>'d7-to-d7'!D6 * Gains!$H$8</f>
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="BL65">
         <f>'d7-to-d7'!E6 * Gains!$H$8</f>
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="BM65">
         <f>'d7-to-d7'!F6 * Gains!$H$8</f>
@@ -26301,11 +26302,11 @@
       </c>
       <c r="BN65">
         <f>'d7-to-d7'!G6 * Gains!$H$8</f>
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="BO65">
         <f>'d7-to-d7'!H6 * Gains!$H$8</f>
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="BP65">
         <f>'d7-to-d7'!I6 * Gains!$H$8</f>
@@ -26345,7 +26346,7 @@
       </c>
       <c r="BY65">
         <f>'d7-to-PEG-PEN-PFN-PFL'!B6 * Gains!$I$8</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BZ65">
         <f>'d7-to-PEG-PEN-PFN-PFL'!C6 * Gains!$I$8</f>
@@ -26457,7 +26458,7 @@
       </c>
       <c r="DE65">
         <f>'d7-to-PEG-PEN-PFN-PFL'!B6 * Gains!$K$8</f>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="DF65">
         <f>'d7-to-PEG-PEN-PFN-PFL'!C6 * Gains!$K$8</f>
@@ -26728,7 +26729,7 @@
       </c>
       <c r="BH66">
         <f>'d7-to-d7'!A7 * Gains!$H$8</f>
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="BI66">
         <f>'d7-to-d7'!B7 * Gains!$H$8</f>
@@ -26744,11 +26745,11 @@
       </c>
       <c r="BL66">
         <f>'d7-to-d7'!E7 * Gains!$H$8</f>
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="BM66">
         <f>'d7-to-d7'!F7 * Gains!$H$8</f>
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="BN66">
         <f>'d7-to-d7'!G7 * Gains!$H$8</f>
@@ -26756,7 +26757,7 @@
       </c>
       <c r="BO66">
         <f>'d7-to-d7'!H7 * Gains!$H$8</f>
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="BP66">
         <f>'d7-to-d7'!I7 * Gains!$H$8</f>
@@ -26800,7 +26801,7 @@
       </c>
       <c r="BZ66">
         <f>'d7-to-PEG-PEN-PFN-PFL'!C7 * Gains!$I$8</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="CA66">
         <f>'d7-to-PEG-PEN-PFN-PFL'!D7 * Gains!$I$8</f>
@@ -26912,7 +26913,7 @@
       </c>
       <c r="DF66">
         <f>'d7-to-PEG-PEN-PFN-PFL'!C7 * Gains!$K$8</f>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="DG66">
         <f>'d7-to-PEG-PEN-PFN-PFL'!D7 * Gains!$K$8</f>
@@ -27179,11 +27180,11 @@
       </c>
       <c r="BH67">
         <f>'d7-to-d7'!A8 * Gains!$H$8</f>
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="BI67">
         <f>'d7-to-d7'!B8 * Gains!$H$8</f>
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="BJ67">
         <f>'d7-to-d7'!C8 * Gains!$H$8</f>
@@ -27199,11 +27200,11 @@
       </c>
       <c r="BM67">
         <f>'d7-to-d7'!F8 * Gains!$H$8</f>
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="BN67">
         <f>'d7-to-d7'!G8 * Gains!$H$8</f>
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="BO67">
         <f>'d7-to-d7'!H8 * Gains!$H$8</f>
@@ -27255,7 +27256,7 @@
       </c>
       <c r="CA67">
         <f>'d7-to-PEG-PEN-PFN-PFL'!D8 * Gains!$I$8</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="CB67">
         <f>'d7-to-PEG-PEN-PFN-PFL'!E8 * Gains!$I$8</f>
@@ -27367,7 +27368,7 @@
       </c>
       <c r="DG67">
         <f>'d7-to-PEG-PEN-PFN-PFL'!D8 * Gains!$K$8</f>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="DH67">
         <f>'d7-to-PEG-PEN-PFN-PFL'!E8 * Gains!$K$8</f>
@@ -27666,11 +27667,11 @@
       </c>
       <c r="BQ68">
         <f>'d7-to-d7'!J9 * Gains!$H$8</f>
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="BR68">
         <f>'d7-to-d7'!K9 * Gains!$H$8</f>
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="BS68">
         <f>'d7-to-d7'!L9 * Gains!$H$8</f>
@@ -27686,11 +27687,11 @@
       </c>
       <c r="BV68">
         <f>'d7-to-d7'!O9 * Gains!$H$8</f>
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="BW68">
         <f>'d7-to-d7'!P9 * Gains!$H$8</f>
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="BX68">
         <f>'d7-to-PEG-PEN-PFN-PFL'!A9 * Gains!$I$8</f>
@@ -27742,7 +27743,7 @@
       </c>
       <c r="CJ68">
         <f>'d7-to-PEG-PEN-PFN-PFL'!M9 * Gains!$I$8</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="CK68">
         <f>'d7-to-PEG-PEN-PFN-PFL'!N9 * Gains!$I$8</f>
@@ -27854,7 +27855,7 @@
       </c>
       <c r="DP68">
         <f>'d7-to-PEG-PEN-PFN-PFL'!M9 * Gains!$K$8</f>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="DQ68">
         <f>'d7-to-PEG-PEN-PFN-PFL'!N9 * Gains!$K$8</f>
@@ -28113,7 +28114,7 @@
       </c>
       <c r="BP69">
         <f>'d7-to-d7'!I10 * Gains!$H$8</f>
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="BQ69">
         <f>'d7-to-d7'!J10 * Gains!$H$8</f>
@@ -28121,11 +28122,11 @@
       </c>
       <c r="BR69">
         <f>'d7-to-d7'!K10 * Gains!$H$8</f>
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="BS69">
         <f>'d7-to-d7'!L10 * Gains!$H$8</f>
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="BT69">
         <f>'d7-to-d7'!M10 * Gains!$H$8</f>
@@ -28141,7 +28142,7 @@
       </c>
       <c r="BW69">
         <f>'d7-to-d7'!P10 * Gains!$H$8</f>
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="BX69">
         <f>'d7-to-PEG-PEN-PFN-PFL'!A10 * Gains!$I$8</f>
@@ -28197,7 +28198,7 @@
       </c>
       <c r="CK69">
         <f>'d7-to-PEG-PEN-PFN-PFL'!N10 * Gains!$I$8</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="CL69">
         <f>'d7-to-PEG-PEN-PFN-PFL'!O10 * Gains!$I$8</f>
@@ -28309,7 +28310,7 @@
       </c>
       <c r="DQ69">
         <f>'d7-to-PEG-PEN-PFN-PFL'!N10 * Gains!$K$8</f>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="DR69">
         <f>'d7-to-PEG-PEN-PFN-PFL'!O10 * Gains!$K$8</f>
@@ -28564,11 +28565,11 @@
       </c>
       <c r="BP70">
         <f>'d7-to-d7'!I11 * Gains!$H$8</f>
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="BQ70">
         <f>'d7-to-d7'!J11 * Gains!$H$8</f>
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="BR70">
         <f>'d7-to-d7'!K11 * Gains!$H$8</f>
@@ -28576,11 +28577,11 @@
       </c>
       <c r="BS70">
         <f>'d7-to-d7'!L11 * Gains!$H$8</f>
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="BT70">
         <f>'d7-to-d7'!M11 * Gains!$H$8</f>
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="BU70">
         <f>'d7-to-d7'!N11 * Gains!$H$8</f>
@@ -28652,7 +28653,7 @@
       </c>
       <c r="CL70">
         <f>'d7-to-PEG-PEN-PFN-PFL'!O11 * Gains!$I$8</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="CM70">
         <f>'d7-to-PEG-PEN-PFN-PFL'!P11 * Gains!$I$8</f>
@@ -28764,7 +28765,7 @@
       </c>
       <c r="DR70">
         <f>'d7-to-PEG-PEN-PFN-PFL'!O11 * Gains!$K$8</f>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="DS70">
         <f>'d7-to-PEG-PEN-PFN-PFL'!P11 * Gains!$K$8</f>
@@ -29019,11 +29020,11 @@
       </c>
       <c r="BQ71">
         <f>'d7-to-d7'!J12 * Gains!$H$8</f>
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="BR71">
         <f>'d7-to-d7'!K12 * Gains!$H$8</f>
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="BS71">
         <f>'d7-to-d7'!L12 * Gains!$H$8</f>
@@ -29031,11 +29032,11 @@
       </c>
       <c r="BT71">
         <f>'d7-to-d7'!M12 * Gains!$H$8</f>
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="BU71">
         <f>'d7-to-d7'!N12 * Gains!$H$8</f>
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="BV71">
         <f>'d7-to-d7'!O12 * Gains!$H$8</f>
@@ -29107,7 +29108,7 @@
       </c>
       <c r="CM71">
         <f>'d7-to-PEG-PEN-PFN-PFL'!P12 * Gains!$I$8</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="CN71" s="3">
         <v>0</v>
@@ -29219,7 +29220,7 @@
       </c>
       <c r="DS71">
         <f>'d7-to-PEG-PEN-PFN-PFL'!P12 * Gains!$K$8</f>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="72" spans="1:123" x14ac:dyDescent="0.25">
@@ -29474,11 +29475,11 @@
       </c>
       <c r="BR72">
         <f>'d7-to-d7'!K13 * Gains!$H$8</f>
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="BS72">
         <f>'d7-to-d7'!L13 * Gains!$H$8</f>
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="BT72">
         <f>'d7-to-d7'!M13 * Gains!$H$8</f>
@@ -29486,11 +29487,11 @@
       </c>
       <c r="BU72">
         <f>'d7-to-d7'!N13 * Gains!$H$8</f>
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="BV72">
         <f>'d7-to-d7'!O13 * Gains!$H$8</f>
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="BW72">
         <f>'d7-to-d7'!P13 * Gains!$H$8</f>
@@ -29530,7 +29531,7 @@
       </c>
       <c r="CF72">
         <f>'d7-to-PEG-PEN-PFN-PFL'!I13 * Gains!$I$8</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="CG72">
         <f>'d7-to-PEG-PEN-PFN-PFL'!J13 * Gains!$I$8</f>
@@ -29642,7 +29643,7 @@
       </c>
       <c r="DL72">
         <f>'d7-to-PEG-PEN-PFN-PFL'!I13 * Gains!$K$8</f>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="DM72">
         <f>'d7-to-PEG-PEN-PFN-PFL'!J13 * Gains!$K$8</f>
@@ -29929,11 +29930,11 @@
       </c>
       <c r="BS73">
         <f>'d7-to-d7'!L14 * Gains!$H$8</f>
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="BT73">
         <f>'d7-to-d7'!M14 * Gains!$H$8</f>
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="BU73">
         <f>'d7-to-d7'!N14 * Gains!$H$8</f>
@@ -29941,11 +29942,11 @@
       </c>
       <c r="BV73">
         <f>'d7-to-d7'!O14 * Gains!$H$8</f>
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="BW73">
         <f>'d7-to-d7'!P14 * Gains!$H$8</f>
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="BX73">
         <f>'d7-to-PEG-PEN-PFN-PFL'!A14 * Gains!$I$8</f>
@@ -29985,7 +29986,7 @@
       </c>
       <c r="CG73">
         <f>'d7-to-PEG-PEN-PFN-PFL'!J14 * Gains!$I$8</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="CH73">
         <f>'d7-to-PEG-PEN-PFN-PFL'!K14 * Gains!$I$8</f>
@@ -30097,7 +30098,7 @@
       </c>
       <c r="DM73">
         <f>'d7-to-PEG-PEN-PFN-PFL'!J14 * Gains!$K$8</f>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="DN73">
         <f>'d7-to-PEG-PEN-PFN-PFL'!K14 * Gains!$K$8</f>
@@ -30368,7 +30369,7 @@
       </c>
       <c r="BP74">
         <f>'d7-to-d7'!I15 * Gains!$H$8</f>
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="BQ74">
         <f>'d7-to-d7'!J15 * Gains!$H$8</f>
@@ -30384,11 +30385,11 @@
       </c>
       <c r="BT74">
         <f>'d7-to-d7'!M15 * Gains!$H$8</f>
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="BU74">
         <f>'d7-to-d7'!N15 * Gains!$H$8</f>
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="BV74">
         <f>'d7-to-d7'!O15 * Gains!$H$8</f>
@@ -30396,7 +30397,7 @@
       </c>
       <c r="BW74">
         <f>'d7-to-d7'!P15 * Gains!$H$8</f>
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="BX74">
         <f>'d7-to-PEG-PEN-PFN-PFL'!A15 * Gains!$I$8</f>
@@ -30440,7 +30441,7 @@
       </c>
       <c r="CH74">
         <f>'d7-to-PEG-PEN-PFN-PFL'!K15 * Gains!$I$8</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="CI74">
         <f>'d7-to-PEG-PEN-PFN-PFL'!L15 * Gains!$I$8</f>
@@ -30552,7 +30553,7 @@
       </c>
       <c r="DN74">
         <f>'d7-to-PEG-PEN-PFN-PFL'!K15 * Gains!$K$8</f>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="DO74">
         <f>'d7-to-PEG-PEN-PFN-PFL'!L15 * Gains!$K$8</f>
@@ -30819,11 +30820,11 @@
       </c>
       <c r="BP75">
         <f>'d7-to-d7'!I16 * Gains!$H$8</f>
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="BQ75">
         <f>'d7-to-d7'!J16 * Gains!$H$8</f>
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="BR75">
         <f>'d7-to-d7'!K16 * Gains!$H$8</f>
@@ -30839,11 +30840,11 @@
       </c>
       <c r="BU75">
         <f>'d7-to-d7'!N16 * Gains!$H$8</f>
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="BV75">
         <f>'d7-to-d7'!O16 * Gains!$H$8</f>
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="BW75">
         <f>'d7-to-d7'!P16 * Gains!$H$8</f>
@@ -30895,7 +30896,7 @@
       </c>
       <c r="CI75">
         <f>'d7-to-PEG-PEN-PFN-PFL'!L16 * Gains!$I$8</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="CJ75">
         <f>'d7-to-PEG-PEN-PFN-PFL'!M16 * Gains!$I$8</f>
@@ -31007,7 +31008,7 @@
       </c>
       <c r="DO75">
         <f>'d7-to-PEG-PEN-PFN-PFL'!L16 * Gains!$K$8</f>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="DP75">
         <f>'d7-to-PEG-PEN-PFN-PFL'!M16 * Gains!$K$8</f>
@@ -31301,131 +31302,131 @@
         <v>0</v>
       </c>
       <c r="CN76" s="1">
-        <f>'PFN-to-PFL-hd'!A1 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!A1 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CO76" s="1">
-        <f>'PFN-to-PFL-hd'!B1 * Gains!$J$9</f>
-        <v>0</v>
+        <f>'PFN-to-hd'!B1 * Gains!$J$9</f>
+        <v>1E-3</v>
       </c>
       <c r="CP76" s="1">
-        <f>'PFN-to-PFL-hd'!C1 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!C1 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CQ76" s="1">
-        <f>'PFN-to-PFL-hd'!D1 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!D1 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CR76" s="1">
-        <f>'PFN-to-PFL-hd'!E1 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!E1 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CS76" s="1">
-        <f>'PFN-to-PFL-hd'!F1 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!F1 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CT76" s="1">
-        <f>'PFN-to-PFL-hd'!G1 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!G1 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CU76" s="1">
-        <f>'PFN-to-PFL-hd'!H1 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!H1 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CV76" s="1">
-        <f>'PFN-to-PFL-hd'!I1 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!I1 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CW76" s="1">
-        <f>'PFN-to-PFL-hd'!J1 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!J1 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CX76" s="1">
-        <f>'PFN-to-PFL-hd'!K1 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!K1 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CY76" s="1">
-        <f>'PFN-to-PFL-hd'!L1 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!L1 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CZ76" s="1">
-        <f>'PFN-to-PFL-hd'!M1 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!M1 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DA76" s="1">
-        <f>'PFN-to-PFL-hd'!N1 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!N1 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DB76" s="1">
-        <f>'PFN-to-PFL-hd'!O1 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!O1 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DC76" s="1">
-        <f>'PFN-to-PFL-hd'!P1 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!P1 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DD76" s="3">
-        <f>'PFN-to-PFL-hd'!A1 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!A1 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DE76" s="3">
-        <f>'PFN-to-PFL-hd'!B1 * Gains!$K$9</f>
-        <v>0</v>
+        <f>'PFN-to-PFL'!B1 * Gains!$K$9</f>
+        <v>0.4</v>
       </c>
       <c r="DF76" s="3">
-        <f>'PFN-to-PFL-hd'!C1 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!C1 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DG76" s="3">
-        <f>'PFN-to-PFL-hd'!D1 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!D1 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DH76" s="3">
-        <f>'PFN-to-PFL-hd'!E1 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!E1 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DI76" s="3">
-        <f>'PFN-to-PFL-hd'!F1 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!F1 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DJ76" s="3">
-        <f>'PFN-to-PFL-hd'!G1 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!G1 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DK76" s="3">
-        <f>'PFN-to-PFL-hd'!H1 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!H1 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DL76" s="3">
-        <f>'PFN-to-PFL-hd'!I1 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!I1 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DM76" s="3">
-        <f>'PFN-to-PFL-hd'!J1 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!J1 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DN76" s="3">
-        <f>'PFN-to-PFL-hd'!K1 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!K1 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DO76" s="3">
-        <f>'PFN-to-PFL-hd'!L1 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!L1 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DP76" s="3">
-        <f>'PFN-to-PFL-hd'!M1 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!M1 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DQ76" s="3">
-        <f>'PFN-to-PFL-hd'!N1 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!N1 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DR76" s="3">
-        <f>'PFN-to-PFL-hd'!O1 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!O1 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DS76" s="3">
-        <f>'PFN-to-PFL-hd'!P1 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!P1 * Gains!$K$9</f>
         <v>0</v>
       </c>
     </row>
@@ -31704,131 +31705,131 @@
         <v>0</v>
       </c>
       <c r="CN77" s="1">
-        <f>'PFN-to-PFL-hd'!A2 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!A2 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CO77" s="1">
-        <f>'PFN-to-PFL-hd'!B2 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!B2 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CP77" s="1">
-        <f>'PFN-to-PFL-hd'!C2 * Gains!$J$9</f>
-        <v>0</v>
+        <f>'PFN-to-hd'!C2 * Gains!$J$9</f>
+        <v>1E-3</v>
       </c>
       <c r="CQ77" s="1">
-        <f>'PFN-to-PFL-hd'!D2 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!D2 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CR77" s="1">
-        <f>'PFN-to-PFL-hd'!E2 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!E2 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CS77" s="1">
-        <f>'PFN-to-PFL-hd'!F2 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!F2 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CT77" s="1">
-        <f>'PFN-to-PFL-hd'!G2 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!G2 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CU77" s="1">
-        <f>'PFN-to-PFL-hd'!H2 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!H2 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CV77" s="1">
-        <f>'PFN-to-PFL-hd'!I2 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!I2 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CW77" s="1">
-        <f>'PFN-to-PFL-hd'!J2 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!J2 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CX77" s="1">
-        <f>'PFN-to-PFL-hd'!K2 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!K2 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CY77" s="1">
-        <f>'PFN-to-PFL-hd'!L2 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!L2 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CZ77" s="1">
-        <f>'PFN-to-PFL-hd'!M2 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!M2 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DA77" s="1">
-        <f>'PFN-to-PFL-hd'!N2 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!N2 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DB77" s="1">
-        <f>'PFN-to-PFL-hd'!O2 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!O2 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DC77" s="1">
-        <f>'PFN-to-PFL-hd'!P2 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!P2 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DD77" s="3">
-        <f>'PFN-to-PFL-hd'!A2 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!A2 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DE77" s="3">
-        <f>'PFN-to-PFL-hd'!B2 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!B2 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DF77" s="3">
-        <f>'PFN-to-PFL-hd'!C2 * Gains!$K$9</f>
-        <v>0</v>
+        <f>'PFN-to-PFL'!C2 * Gains!$K$9</f>
+        <v>0.4</v>
       </c>
       <c r="DG77" s="3">
-        <f>'PFN-to-PFL-hd'!D2 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!D2 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DH77" s="3">
-        <f>'PFN-to-PFL-hd'!E2 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!E2 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DI77" s="3">
-        <f>'PFN-to-PFL-hd'!F2 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!F2 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DJ77" s="3">
-        <f>'PFN-to-PFL-hd'!G2 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!G2 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DK77" s="3">
-        <f>'PFN-to-PFL-hd'!H2 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!H2 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DL77" s="3">
-        <f>'PFN-to-PFL-hd'!I2 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!I2 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DM77" s="3">
-        <f>'PFN-to-PFL-hd'!J2 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!J2 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DN77" s="3">
-        <f>'PFN-to-PFL-hd'!K2 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!K2 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DO77" s="3">
-        <f>'PFN-to-PFL-hd'!L2 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!L2 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DP77" s="3">
-        <f>'PFN-to-PFL-hd'!M2 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!M2 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DQ77" s="3">
-        <f>'PFN-to-PFL-hd'!N2 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!N2 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DR77" s="3">
-        <f>'PFN-to-PFL-hd'!O2 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!O2 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DS77" s="3">
-        <f>'PFN-to-PFL-hd'!P2 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!P2 * Gains!$K$9</f>
         <v>0</v>
       </c>
     </row>
@@ -32107,131 +32108,131 @@
         <v>0</v>
       </c>
       <c r="CN78" s="1">
-        <f>'PFN-to-PFL-hd'!A3 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!A3 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CO78" s="1">
-        <f>'PFN-to-PFL-hd'!B3 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!B3 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CP78" s="1">
-        <f>'PFN-to-PFL-hd'!C3 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!C3 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CQ78" s="1">
-        <f>'PFN-to-PFL-hd'!D3 * Gains!$J$9</f>
-        <v>0</v>
+        <f>'PFN-to-hd'!D3 * Gains!$J$9</f>
+        <v>1E-3</v>
       </c>
       <c r="CR78" s="1">
-        <f>'PFN-to-PFL-hd'!E3 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!E3 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CS78" s="1">
-        <f>'PFN-to-PFL-hd'!F3 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!F3 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CT78" s="1">
-        <f>'PFN-to-PFL-hd'!G3 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!G3 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CU78" s="1">
-        <f>'PFN-to-PFL-hd'!H3 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!H3 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CV78" s="1">
-        <f>'PFN-to-PFL-hd'!I3 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!I3 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CW78" s="1">
-        <f>'PFN-to-PFL-hd'!J3 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!J3 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CX78" s="1">
-        <f>'PFN-to-PFL-hd'!K3 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!K3 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CY78" s="1">
-        <f>'PFN-to-PFL-hd'!L3 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!L3 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CZ78" s="1">
-        <f>'PFN-to-PFL-hd'!M3 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!M3 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DA78" s="1">
-        <f>'PFN-to-PFL-hd'!N3 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!N3 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DB78" s="1">
-        <f>'PFN-to-PFL-hd'!O3 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!O3 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DC78" s="1">
-        <f>'PFN-to-PFL-hd'!P3 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!P3 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DD78" s="3">
-        <f>'PFN-to-PFL-hd'!A3 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!A3 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DE78" s="3">
-        <f>'PFN-to-PFL-hd'!B3 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!B3 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DF78" s="3">
-        <f>'PFN-to-PFL-hd'!C3 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!C3 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DG78" s="3">
-        <f>'PFN-to-PFL-hd'!D3 * Gains!$K$9</f>
-        <v>0</v>
+        <f>'PFN-to-PFL'!D3 * Gains!$K$9</f>
+        <v>0.4</v>
       </c>
       <c r="DH78" s="3">
-        <f>'PFN-to-PFL-hd'!E3 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!E3 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DI78" s="3">
-        <f>'PFN-to-PFL-hd'!F3 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!F3 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DJ78" s="3">
-        <f>'PFN-to-PFL-hd'!G3 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!G3 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DK78" s="3">
-        <f>'PFN-to-PFL-hd'!H3 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!H3 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DL78" s="3">
-        <f>'PFN-to-PFL-hd'!I3 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!I3 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DM78" s="3">
-        <f>'PFN-to-PFL-hd'!J3 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!J3 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DN78" s="3">
-        <f>'PFN-to-PFL-hd'!K3 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!K3 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DO78" s="3">
-        <f>'PFN-to-PFL-hd'!L3 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!L3 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DP78" s="3">
-        <f>'PFN-to-PFL-hd'!M3 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!M3 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DQ78" s="3">
-        <f>'PFN-to-PFL-hd'!N3 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!N3 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DR78" s="3">
-        <f>'PFN-to-PFL-hd'!O3 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!O3 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DS78" s="3">
-        <f>'PFN-to-PFL-hd'!P3 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!P3 * Gains!$K$9</f>
         <v>0</v>
       </c>
     </row>
@@ -32510,131 +32511,131 @@
         <v>0</v>
       </c>
       <c r="CN79" s="1">
-        <f>'PFN-to-PFL-hd'!A4 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!A4 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CO79" s="1">
-        <f>'PFN-to-PFL-hd'!B4 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!B4 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CP79" s="1">
-        <f>'PFN-to-PFL-hd'!C4 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!C4 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CQ79" s="1">
-        <f>'PFN-to-PFL-hd'!D4 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!D4 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CR79" s="1">
-        <f>'PFN-to-PFL-hd'!E4 * Gains!$J$9</f>
-        <v>0</v>
+        <f>'PFN-to-hd'!E4 * Gains!$J$9</f>
+        <v>1E-3</v>
       </c>
       <c r="CS79" s="1">
-        <f>'PFN-to-PFL-hd'!F4 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!F4 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CT79" s="1">
-        <f>'PFN-to-PFL-hd'!G4 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!G4 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CU79" s="1">
-        <f>'PFN-to-PFL-hd'!H4 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!H4 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CV79" s="1">
-        <f>'PFN-to-PFL-hd'!I4 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!I4 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CW79" s="1">
-        <f>'PFN-to-PFL-hd'!J4 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!J4 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CX79" s="1">
-        <f>'PFN-to-PFL-hd'!K4 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!K4 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CY79" s="1">
-        <f>'PFN-to-PFL-hd'!L4 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!L4 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CZ79" s="1">
-        <f>'PFN-to-PFL-hd'!M4 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!M4 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DA79" s="1">
-        <f>'PFN-to-PFL-hd'!N4 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!N4 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DB79" s="1">
-        <f>'PFN-to-PFL-hd'!O4 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!O4 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DC79" s="1">
-        <f>'PFN-to-PFL-hd'!P4 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!P4 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DD79" s="3">
-        <f>'PFN-to-PFL-hd'!A4 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!A4 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DE79" s="3">
-        <f>'PFN-to-PFL-hd'!B4 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!B4 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DF79" s="3">
-        <f>'PFN-to-PFL-hd'!C4 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!C4 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DG79" s="3">
-        <f>'PFN-to-PFL-hd'!D4 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!D4 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DH79" s="3">
-        <f>'PFN-to-PFL-hd'!E4 * Gains!$K$9</f>
-        <v>0</v>
+        <f>'PFN-to-PFL'!E4 * Gains!$K$9</f>
+        <v>0.4</v>
       </c>
       <c r="DI79" s="3">
-        <f>'PFN-to-PFL-hd'!F4 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!F4 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DJ79" s="3">
-        <f>'PFN-to-PFL-hd'!G4 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!G4 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DK79" s="3">
-        <f>'PFN-to-PFL-hd'!H4 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!H4 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DL79" s="3">
-        <f>'PFN-to-PFL-hd'!I4 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!I4 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DM79" s="3">
-        <f>'PFN-to-PFL-hd'!J4 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!J4 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DN79" s="3">
-        <f>'PFN-to-PFL-hd'!K4 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!K4 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DO79" s="3">
-        <f>'PFN-to-PFL-hd'!L4 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!L4 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DP79" s="3">
-        <f>'PFN-to-PFL-hd'!M4 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!M4 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DQ79" s="3">
-        <f>'PFN-to-PFL-hd'!N4 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!N4 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DR79" s="3">
-        <f>'PFN-to-PFL-hd'!O4 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!O4 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DS79" s="3">
-        <f>'PFN-to-PFL-hd'!P4 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!P4 * Gains!$K$9</f>
         <v>0</v>
       </c>
     </row>
@@ -32913,131 +32914,131 @@
         <v>0</v>
       </c>
       <c r="CN80" s="1">
-        <f>'PFN-to-PFL-hd'!A5 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!A5 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CO80" s="1">
-        <f>'PFN-to-PFL-hd'!B5 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!B5 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CP80" s="1">
-        <f>'PFN-to-PFL-hd'!C5 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!C5 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CQ80" s="1">
-        <f>'PFN-to-PFL-hd'!D5 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!D5 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CR80" s="1">
-        <f>'PFN-to-PFL-hd'!E5 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!E5 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CS80" s="1">
-        <f>'PFN-to-PFL-hd'!F5 * Gains!$J$9</f>
-        <v>0</v>
+        <f>'PFN-to-hd'!F5 * Gains!$J$9</f>
+        <v>1E-3</v>
       </c>
       <c r="CT80" s="1">
-        <f>'PFN-to-PFL-hd'!G5 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!G5 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CU80" s="1">
-        <f>'PFN-to-PFL-hd'!H5 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!H5 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CV80" s="1">
-        <f>'PFN-to-PFL-hd'!I5 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!I5 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CW80" s="1">
-        <f>'PFN-to-PFL-hd'!J5 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!J5 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CX80" s="1">
-        <f>'PFN-to-PFL-hd'!K5 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!K5 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CY80" s="1">
-        <f>'PFN-to-PFL-hd'!L5 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!L5 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CZ80" s="1">
-        <f>'PFN-to-PFL-hd'!M5 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!M5 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DA80" s="1">
-        <f>'PFN-to-PFL-hd'!N5 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!N5 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DB80" s="1">
-        <f>'PFN-to-PFL-hd'!O5 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!O5 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DC80" s="1">
-        <f>'PFN-to-PFL-hd'!P5 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!P5 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DD80" s="3">
-        <f>'PFN-to-PFL-hd'!A5 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!A5 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DE80" s="3">
-        <f>'PFN-to-PFL-hd'!B5 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!B5 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DF80" s="3">
-        <f>'PFN-to-PFL-hd'!C5 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!C5 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DG80" s="3">
-        <f>'PFN-to-PFL-hd'!D5 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!D5 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DH80" s="3">
-        <f>'PFN-to-PFL-hd'!E5 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!E5 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DI80" s="3">
-        <f>'PFN-to-PFL-hd'!F5 * Gains!$K$9</f>
-        <v>0</v>
+        <f>'PFN-to-PFL'!F5 * Gains!$K$9</f>
+        <v>0.4</v>
       </c>
       <c r="DJ80" s="3">
-        <f>'PFN-to-PFL-hd'!G5 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!G5 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DK80" s="3">
-        <f>'PFN-to-PFL-hd'!H5 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!H5 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DL80" s="3">
-        <f>'PFN-to-PFL-hd'!I5 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!I5 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DM80" s="3">
-        <f>'PFN-to-PFL-hd'!J5 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!J5 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DN80" s="3">
-        <f>'PFN-to-PFL-hd'!K5 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!K5 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DO80" s="3">
-        <f>'PFN-to-PFL-hd'!L5 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!L5 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DP80" s="3">
-        <f>'PFN-to-PFL-hd'!M5 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!M5 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DQ80" s="3">
-        <f>'PFN-to-PFL-hd'!N5 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!N5 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DR80" s="3">
-        <f>'PFN-to-PFL-hd'!O5 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!O5 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DS80" s="3">
-        <f>'PFN-to-PFL-hd'!P5 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!P5 * Gains!$K$9</f>
         <v>0</v>
       </c>
     </row>
@@ -33316,131 +33317,131 @@
         <v>0</v>
       </c>
       <c r="CN81" s="1">
-        <f>'PFN-to-PFL-hd'!A6 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!A6 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CO81" s="1">
-        <f>'PFN-to-PFL-hd'!B6 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!B6 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CP81" s="1">
-        <f>'PFN-to-PFL-hd'!C6 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!C6 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CQ81" s="1">
-        <f>'PFN-to-PFL-hd'!D6 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!D6 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CR81" s="1">
-        <f>'PFN-to-PFL-hd'!E6 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!E6 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CS81" s="1">
-        <f>'PFN-to-PFL-hd'!F6 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!F6 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CT81" s="1">
-        <f>'PFN-to-PFL-hd'!G6 * Gains!$J$9</f>
-        <v>0</v>
+        <f>'PFN-to-hd'!G6 * Gains!$J$9</f>
+        <v>1E-3</v>
       </c>
       <c r="CU81" s="1">
-        <f>'PFN-to-PFL-hd'!H6 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!H6 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CV81" s="1">
-        <f>'PFN-to-PFL-hd'!I6 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!I6 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CW81" s="1">
-        <f>'PFN-to-PFL-hd'!J6 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!J6 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CX81" s="1">
-        <f>'PFN-to-PFL-hd'!K6 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!K6 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CY81" s="1">
-        <f>'PFN-to-PFL-hd'!L6 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!L6 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CZ81" s="1">
-        <f>'PFN-to-PFL-hd'!M6 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!M6 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DA81" s="1">
-        <f>'PFN-to-PFL-hd'!N6 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!N6 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DB81" s="1">
-        <f>'PFN-to-PFL-hd'!O6 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!O6 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DC81" s="1">
-        <f>'PFN-to-PFL-hd'!P6 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!P6 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DD81" s="3">
-        <f>'PFN-to-PFL-hd'!A6 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!A6 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DE81" s="3">
-        <f>'PFN-to-PFL-hd'!B6 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!B6 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DF81" s="3">
-        <f>'PFN-to-PFL-hd'!C6 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!C6 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DG81" s="3">
-        <f>'PFN-to-PFL-hd'!D6 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!D6 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DH81" s="3">
-        <f>'PFN-to-PFL-hd'!E6 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!E6 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DI81" s="3">
-        <f>'PFN-to-PFL-hd'!F6 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!F6 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DJ81" s="3">
-        <f>'PFN-to-PFL-hd'!G6 * Gains!$K$9</f>
-        <v>0</v>
+        <f>'PFN-to-PFL'!G6 * Gains!$K$9</f>
+        <v>0.4</v>
       </c>
       <c r="DK81" s="3">
-        <f>'PFN-to-PFL-hd'!H6 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!H6 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DL81" s="3">
-        <f>'PFN-to-PFL-hd'!I6 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!I6 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DM81" s="3">
-        <f>'PFN-to-PFL-hd'!J6 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!J6 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DN81" s="3">
-        <f>'PFN-to-PFL-hd'!K6 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!K6 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DO81" s="3">
-        <f>'PFN-to-PFL-hd'!L6 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!L6 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DP81" s="3">
-        <f>'PFN-to-PFL-hd'!M6 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!M6 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DQ81" s="3">
-        <f>'PFN-to-PFL-hd'!N6 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!N6 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DR81" s="3">
-        <f>'PFN-to-PFL-hd'!O6 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!O6 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DS81" s="3">
-        <f>'PFN-to-PFL-hd'!P6 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!P6 * Gains!$K$9</f>
         <v>0</v>
       </c>
     </row>
@@ -33719,131 +33720,131 @@
         <v>0</v>
       </c>
       <c r="CN82" s="1">
-        <f>'PFN-to-PFL-hd'!A7 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!A7 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CO82" s="1">
-        <f>'PFN-to-PFL-hd'!B7 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!B7 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CP82" s="1">
-        <f>'PFN-to-PFL-hd'!C7 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!C7 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CQ82" s="1">
-        <f>'PFN-to-PFL-hd'!D7 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!D7 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CR82" s="1">
-        <f>'PFN-to-PFL-hd'!E7 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!E7 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CS82" s="1">
-        <f>'PFN-to-PFL-hd'!F7 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!F7 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CT82" s="1">
-        <f>'PFN-to-PFL-hd'!G7 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!G7 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CU82" s="1">
-        <f>'PFN-to-PFL-hd'!H7 * Gains!$J$9</f>
-        <v>0</v>
+        <f>'PFN-to-hd'!H7 * Gains!$J$9</f>
+        <v>1E-3</v>
       </c>
       <c r="CV82" s="1">
-        <f>'PFN-to-PFL-hd'!I7 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!I7 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CW82" s="1">
-        <f>'PFN-to-PFL-hd'!J7 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!J7 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CX82" s="1">
-        <f>'PFN-to-PFL-hd'!K7 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!K7 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CY82" s="1">
-        <f>'PFN-to-PFL-hd'!L7 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!L7 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CZ82" s="1">
-        <f>'PFN-to-PFL-hd'!M7 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!M7 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DA82" s="1">
-        <f>'PFN-to-PFL-hd'!N7 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!N7 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DB82" s="1">
-        <f>'PFN-to-PFL-hd'!O7 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!O7 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DC82" s="1">
-        <f>'PFN-to-PFL-hd'!P7 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!P7 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DD82" s="3">
-        <f>'PFN-to-PFL-hd'!A7 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!A7 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DE82" s="3">
-        <f>'PFN-to-PFL-hd'!B7 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!B7 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DF82" s="3">
-        <f>'PFN-to-PFL-hd'!C7 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!C7 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DG82" s="3">
-        <f>'PFN-to-PFL-hd'!D7 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!D7 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DH82" s="3">
-        <f>'PFN-to-PFL-hd'!E7 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!E7 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DI82" s="3">
-        <f>'PFN-to-PFL-hd'!F7 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!F7 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DJ82" s="3">
-        <f>'PFN-to-PFL-hd'!G7 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!G7 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DK82" s="3">
-        <f>'PFN-to-PFL-hd'!H7 * Gains!$K$9</f>
-        <v>0</v>
+        <f>'PFN-to-PFL'!H7 * Gains!$K$9</f>
+        <v>0.4</v>
       </c>
       <c r="DL82" s="3">
-        <f>'PFN-to-PFL-hd'!I7 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!I7 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DM82" s="3">
-        <f>'PFN-to-PFL-hd'!J7 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!J7 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DN82" s="3">
-        <f>'PFN-to-PFL-hd'!K7 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!K7 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DO82" s="3">
-        <f>'PFN-to-PFL-hd'!L7 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!L7 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DP82" s="3">
-        <f>'PFN-to-PFL-hd'!M7 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!M7 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DQ82" s="3">
-        <f>'PFN-to-PFL-hd'!N7 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!N7 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DR82" s="3">
-        <f>'PFN-to-PFL-hd'!O7 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!O7 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DS82" s="3">
-        <f>'PFN-to-PFL-hd'!P7 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!P7 * Gains!$K$9</f>
         <v>0</v>
       </c>
     </row>
@@ -34122,131 +34123,131 @@
         <v>0</v>
       </c>
       <c r="CN83" s="1">
-        <f>'PFN-to-PFL-hd'!A8 * Gains!$J$9</f>
-        <v>0</v>
+        <f>'PFN-to-hd'!A8 * Gains!$J$9</f>
+        <v>1E-3</v>
       </c>
       <c r="CO83" s="1">
-        <f>'PFN-to-PFL-hd'!B8 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!B8 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CP83" s="1">
-        <f>'PFN-to-PFL-hd'!C8 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!C8 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CQ83" s="1">
-        <f>'PFN-to-PFL-hd'!D8 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!D8 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CR83" s="1">
-        <f>'PFN-to-PFL-hd'!E8 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!E8 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CS83" s="1">
-        <f>'PFN-to-PFL-hd'!F8 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!F8 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CT83" s="1">
-        <f>'PFN-to-PFL-hd'!G8 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!G8 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CU83" s="1">
-        <f>'PFN-to-PFL-hd'!H8 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!H8 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CV83" s="1">
-        <f>'PFN-to-PFL-hd'!I8 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!I8 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CW83" s="1">
-        <f>'PFN-to-PFL-hd'!J8 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!J8 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CX83" s="1">
-        <f>'PFN-to-PFL-hd'!K8 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!K8 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CY83" s="1">
-        <f>'PFN-to-PFL-hd'!L8 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!L8 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CZ83" s="1">
-        <f>'PFN-to-PFL-hd'!M8 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!M8 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DA83" s="1">
-        <f>'PFN-to-PFL-hd'!N8 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!N8 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DB83" s="1">
-        <f>'PFN-to-PFL-hd'!O8 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!O8 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DC83" s="1">
-        <f>'PFN-to-PFL-hd'!P8 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!P8 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DD83" s="3">
-        <f>'PFN-to-PFL-hd'!A8 * Gains!$K$9</f>
-        <v>0</v>
+        <f>'PFN-to-PFL'!A8 * Gains!$K$9</f>
+        <v>0.4</v>
       </c>
       <c r="DE83" s="3">
-        <f>'PFN-to-PFL-hd'!B8 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!B8 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DF83" s="3">
-        <f>'PFN-to-PFL-hd'!C8 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!C8 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DG83" s="3">
-        <f>'PFN-to-PFL-hd'!D8 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!D8 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DH83" s="3">
-        <f>'PFN-to-PFL-hd'!E8 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!E8 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DI83" s="3">
-        <f>'PFN-to-PFL-hd'!F8 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!F8 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DJ83" s="1">
-        <f>'PFN-to-PFL-hd'!G8 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!G8 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DK83" s="3">
-        <f>'PFN-to-PFL-hd'!H8 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!H8 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DL83" s="3">
-        <f>'PFN-to-PFL-hd'!I8 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!I8 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DM83" s="3">
-        <f>'PFN-to-PFL-hd'!J8 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!J8 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DN83" s="3">
-        <f>'PFN-to-PFL-hd'!K8 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!K8 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DO83" s="3">
-        <f>'PFN-to-PFL-hd'!L8 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!L8 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DP83" s="3">
-        <f>'PFN-to-PFL-hd'!M8 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!M8 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DQ83" s="3">
-        <f>'PFN-to-PFL-hd'!N8 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!N8 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DR83" s="3">
-        <f>'PFN-to-PFL-hd'!O8 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!O8 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DS83" s="3">
-        <f>'PFN-to-PFL-hd'!P8 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!P8 * Gains!$K$9</f>
         <v>0</v>
       </c>
     </row>
@@ -34525,132 +34526,132 @@
         <v>0</v>
       </c>
       <c r="CN84" s="1">
-        <f>'PFN-to-PFL-hd'!A9 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!A9 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CO84" s="1">
-        <f>'PFN-to-PFL-hd'!B9 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!B9 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CP84" s="1">
-        <f>'PFN-to-PFL-hd'!C9 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!C9 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CQ84" s="1">
-        <f>'PFN-to-PFL-hd'!D9 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!D9 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CR84" s="1">
-        <f>'PFN-to-PFL-hd'!E9 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!E9 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CS84" s="1">
-        <f>'PFN-to-PFL-hd'!F9 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!F9 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CT84" s="1">
-        <f>'PFN-to-PFL-hd'!G9 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!G9 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CU84" s="1">
-        <f>'PFN-to-PFL-hd'!H9 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!H9 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CV84" s="1">
-        <f>'PFN-to-PFL-hd'!I9 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!I9 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CW84" s="1">
-        <f>'PFN-to-PFL-hd'!J9 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!J9 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CX84" s="1">
-        <f>'PFN-to-PFL-hd'!K9 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!K9 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CY84" s="1">
-        <f>'PFN-to-PFL-hd'!L9 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!L9 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CZ84" s="1">
-        <f>'PFN-to-PFL-hd'!M9 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!M9 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DA84" s="1">
-        <f>'PFN-to-PFL-hd'!N9 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!N9 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DB84" s="1">
-        <f>'PFN-to-PFL-hd'!O9 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!O9 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DC84" s="1">
-        <f>'PFN-to-PFL-hd'!P9 * Gains!$J$9</f>
-        <v>0</v>
+        <f>'PFN-to-hd'!P9 * Gains!$J$9</f>
+        <v>1E-3</v>
       </c>
       <c r="DD84" s="3">
-        <f>'PFN-to-PFL-hd'!A9 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!A9 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DE84" s="3">
-        <f>'PFN-to-PFL-hd'!B9 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!B9 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DF84" s="3">
-        <f>'PFN-to-PFL-hd'!C9 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!C9 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DG84" s="3">
-        <f>'PFN-to-PFL-hd'!D9 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!D9 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DH84" s="3">
-        <f>'PFN-to-PFL-hd'!E9 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!E9 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DI84" s="3">
-        <f>'PFN-to-PFL-hd'!F9 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!F9 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DJ84" s="3">
-        <f>'PFN-to-PFL-hd'!G9 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!G9 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DK84" s="3">
-        <f>'PFN-to-PFL-hd'!H9 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!H9 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DL84" s="3">
-        <f>'PFN-to-PFL-hd'!I9 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!I9 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DM84" s="3">
-        <f>'PFN-to-PFL-hd'!J9 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!J9 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DN84" s="3">
-        <f>'PFN-to-PFL-hd'!K9 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!K9 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DO84" s="3">
-        <f>'PFN-to-PFL-hd'!L9 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!L9 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DP84" s="3">
-        <f>'PFN-to-PFL-hd'!M9 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!M9 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DQ84" s="3">
-        <f>'PFN-to-PFL-hd'!N9 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!N9 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DR84" s="3">
-        <f>'PFN-to-PFL-hd'!O9 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!O9 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DS84" s="3">
-        <f>'PFN-to-PFL-hd'!P9 * Gains!$K$9</f>
-        <v>0</v>
+        <f>'PFN-to-PFL'!P9 * Gains!$K$9</f>
+        <v>0.4</v>
       </c>
     </row>
     <row r="85" spans="1:123" x14ac:dyDescent="0.25">
@@ -34928,131 +34929,131 @@
         <v>0</v>
       </c>
       <c r="CN85" s="1">
-        <f>'PFN-to-PFL-hd'!A10 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!A10 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CO85" s="1">
-        <f>'PFN-to-PFL-hd'!B10 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!B10 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CP85" s="1">
-        <f>'PFN-to-PFL-hd'!C10 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!C10 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CQ85" s="1">
-        <f>'PFN-to-PFL-hd'!D10 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!D10 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CR85" s="1">
-        <f>'PFN-to-PFL-hd'!E10 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!E10 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CS85" s="1">
-        <f>'PFN-to-PFL-hd'!F10 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!F10 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CT85" s="1">
-        <f>'PFN-to-PFL-hd'!G10 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!G10 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CU85" s="1">
-        <f>'PFN-to-PFL-hd'!H10 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!H10 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CV85" s="1">
-        <f>'PFN-to-PFL-hd'!I10 * Gains!$J$9</f>
-        <v>0</v>
+        <f>'PFN-to-hd'!I10 * Gains!$J$9</f>
+        <v>1E-3</v>
       </c>
       <c r="CW85" s="1">
-        <f>'PFN-to-PFL-hd'!J10 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!J10 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CX85" s="1">
-        <f>'PFN-to-PFL-hd'!K10 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!K10 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CY85" s="1">
-        <f>'PFN-to-PFL-hd'!L10 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!L10 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CZ85" s="1">
-        <f>'PFN-to-PFL-hd'!M10 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!M10 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DA85" s="1">
-        <f>'PFN-to-PFL-hd'!N10 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!N10 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DB85" s="1">
-        <f>'PFN-to-PFL-hd'!O10 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!O10 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DC85" s="1">
-        <f>'PFN-to-PFL-hd'!P10 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!P10 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DD85" s="3">
-        <f>'PFN-to-PFL-hd'!A10 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!A10 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DE85" s="3">
-        <f>'PFN-to-PFL-hd'!B10 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!B10 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DF85" s="3">
-        <f>'PFN-to-PFL-hd'!C10 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!C10 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DG85" s="3">
-        <f>'PFN-to-PFL-hd'!D10 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!D10 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DH85" s="3">
-        <f>'PFN-to-PFL-hd'!E10 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!E10 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DI85" s="3">
-        <f>'PFN-to-PFL-hd'!F10 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!F10 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DJ85" s="3">
-        <f>'PFN-to-PFL-hd'!G10 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!G10 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DK85" s="3">
-        <f>'PFN-to-PFL-hd'!H10 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!H10 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DL85" s="3">
-        <f>'PFN-to-PFL-hd'!I10 * Gains!$K$9</f>
-        <v>0</v>
+        <f>'PFN-to-PFL'!I10 * Gains!$K$9</f>
+        <v>0.4</v>
       </c>
       <c r="DM85" s="3">
-        <f>'PFN-to-PFL-hd'!J10 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!J10 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DN85" s="3">
-        <f>'PFN-to-PFL-hd'!K10 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!K10 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DO85" s="3">
-        <f>'PFN-to-PFL-hd'!L10 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!L10 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DP85" s="3">
-        <f>'PFN-to-PFL-hd'!M10 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!M10 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DQ85" s="3">
-        <f>'PFN-to-PFL-hd'!N10 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!N10 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DR85" s="3">
-        <f>'PFN-to-PFL-hd'!O10 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!O10 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DS85" s="3">
-        <f>'PFN-to-PFL-hd'!P10 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!P10 * Gains!$K$9</f>
         <v>0</v>
       </c>
     </row>
@@ -35331,131 +35332,131 @@
         <v>0</v>
       </c>
       <c r="CN86" s="1">
-        <f>'PFN-to-PFL-hd'!A11 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!A11 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CO86" s="1">
-        <f>'PFN-to-PFL-hd'!B11 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!B11 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CP86" s="1">
-        <f>'PFN-to-PFL-hd'!C11 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!C11 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CQ86" s="1">
-        <f>'PFN-to-PFL-hd'!D11 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!D11 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CR86" s="1">
-        <f>'PFN-to-PFL-hd'!E11 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!E11 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CS86" s="1">
-        <f>'PFN-to-PFL-hd'!F11 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!F11 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CT86" s="1">
-        <f>'PFN-to-PFL-hd'!G11 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!G11 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CU86" s="1">
-        <f>'PFN-to-PFL-hd'!H11 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!H11 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CV86" s="1">
-        <f>'PFN-to-PFL-hd'!I11 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!I11 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CW86" s="1">
-        <f>'PFN-to-PFL-hd'!J11 * Gains!$J$9</f>
-        <v>0</v>
+        <f>'PFN-to-hd'!J11 * Gains!$J$9</f>
+        <v>1E-3</v>
       </c>
       <c r="CX86" s="1">
-        <f>'PFN-to-PFL-hd'!K11 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!K11 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CY86" s="1">
-        <f>'PFN-to-PFL-hd'!L11 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!L11 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CZ86" s="1">
-        <f>'PFN-to-PFL-hd'!M11 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!M11 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DA86" s="1">
-        <f>'PFN-to-PFL-hd'!N11 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!N11 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DB86" s="1">
-        <f>'PFN-to-PFL-hd'!O11 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!O11 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DC86" s="1">
-        <f>'PFN-to-PFL-hd'!P11 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!P11 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DD86" s="3">
-        <f>'PFN-to-PFL-hd'!A11 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!A11 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DE86" s="3">
-        <f>'PFN-to-PFL-hd'!B11 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!B11 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DF86" s="3">
-        <f>'PFN-to-PFL-hd'!C11 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!C11 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DG86" s="3">
-        <f>'PFN-to-PFL-hd'!D11 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!D11 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DH86" s="3">
-        <f>'PFN-to-PFL-hd'!E11 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!E11 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DI86" s="3">
-        <f>'PFN-to-PFL-hd'!F11 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!F11 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DJ86" s="3">
-        <f>'PFN-to-PFL-hd'!G11 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!G11 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DK86" s="3">
-        <f>'PFN-to-PFL-hd'!H11 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!H11 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DL86" s="3">
-        <f>'PFN-to-PFL-hd'!I11 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!I11 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DM86" s="3">
-        <f>'PFN-to-PFL-hd'!J11 * Gains!$K$9</f>
-        <v>0</v>
+        <f>'PFN-to-PFL'!J11 * Gains!$K$9</f>
+        <v>0.4</v>
       </c>
       <c r="DN86" s="3">
-        <f>'PFN-to-PFL-hd'!K11 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!K11 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DO86" s="3">
-        <f>'PFN-to-PFL-hd'!L11 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!L11 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DP86" s="3">
-        <f>'PFN-to-PFL-hd'!M11 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!M11 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DQ86" s="3">
-        <f>'PFN-to-PFL-hd'!N11 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!N11 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DR86" s="3">
-        <f>'PFN-to-PFL-hd'!O11 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!O11 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DS86" s="3">
-        <f>'PFN-to-PFL-hd'!P11 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!P11 * Gains!$K$9</f>
         <v>0</v>
       </c>
     </row>
@@ -35734,131 +35735,131 @@
         <v>0</v>
       </c>
       <c r="CN87" s="1">
-        <f>'PFN-to-PFL-hd'!A12 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!A12 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CO87" s="1">
-        <f>'PFN-to-PFL-hd'!B12 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!B12 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CP87" s="1">
-        <f>'PFN-to-PFL-hd'!C12 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!C12 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CQ87" s="1">
-        <f>'PFN-to-PFL-hd'!D12 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!D12 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CR87" s="1">
-        <f>'PFN-to-PFL-hd'!E12 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!E12 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CS87" s="1">
-        <f>'PFN-to-PFL-hd'!F12 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!F12 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CT87" s="1">
-        <f>'PFN-to-PFL-hd'!G12 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!G12 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CU87" s="1">
-        <f>'PFN-to-PFL-hd'!H12 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!H12 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CV87" s="1">
-        <f>'PFN-to-PFL-hd'!I12 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!I12 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CW87" s="1">
-        <f>'PFN-to-PFL-hd'!J12 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!J12 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CX87" s="1">
-        <f>'PFN-to-PFL-hd'!K12 * Gains!$J$9</f>
-        <v>0</v>
+        <f>'PFN-to-hd'!K12 * Gains!$J$9</f>
+        <v>1E-3</v>
       </c>
       <c r="CY87" s="1">
-        <f>'PFN-to-PFL-hd'!L12 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!L12 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CZ87" s="1">
-        <f>'PFN-to-PFL-hd'!M12 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!M12 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DA87" s="1">
-        <f>'PFN-to-PFL-hd'!N12 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!N12 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DB87" s="1">
-        <f>'PFN-to-PFL-hd'!O12 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!O12 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DC87" s="1">
-        <f>'PFN-to-PFL-hd'!P12 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!P12 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DD87" s="3">
-        <f>'PFN-to-PFL-hd'!A12 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!A12 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DE87" s="3">
-        <f>'PFN-to-PFL-hd'!B12 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!B12 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DF87" s="3">
-        <f>'PFN-to-PFL-hd'!C12 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!C12 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DG87" s="3">
-        <f>'PFN-to-PFL-hd'!D12 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!D12 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DH87" s="3">
-        <f>'PFN-to-PFL-hd'!E12 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!E12 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DI87" s="3">
-        <f>'PFN-to-PFL-hd'!F12 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!F12 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DJ87" s="3">
-        <f>'PFN-to-PFL-hd'!G12 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!G12 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DK87" s="3">
-        <f>'PFN-to-PFL-hd'!H12 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!H12 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DL87" s="3">
-        <f>'PFN-to-PFL-hd'!I12 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!I12 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DM87" s="3">
-        <f>'PFN-to-PFL-hd'!J12 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!J12 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DN87" s="3">
-        <f>'PFN-to-PFL-hd'!K12 * Gains!$K$9</f>
-        <v>0</v>
+        <f>'PFN-to-PFL'!K12 * Gains!$K$9</f>
+        <v>0.4</v>
       </c>
       <c r="DO87" s="3">
-        <f>'PFN-to-PFL-hd'!L12 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!L12 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DP87" s="3">
-        <f>'PFN-to-PFL-hd'!M12 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!M12 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DQ87" s="3">
-        <f>'PFN-to-PFL-hd'!N12 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!N12 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DR87" s="3">
-        <f>'PFN-to-PFL-hd'!O12 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!O12 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DS87" s="3">
-        <f>'PFN-to-PFL-hd'!P12 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!P12 * Gains!$K$9</f>
         <v>0</v>
       </c>
     </row>
@@ -36137,131 +36138,131 @@
         <v>0</v>
       </c>
       <c r="CN88" s="1">
-        <f>'PFN-to-PFL-hd'!A13 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!A13 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CO88" s="1">
-        <f>'PFN-to-PFL-hd'!B13 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!B13 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CP88" s="1">
-        <f>'PFN-to-PFL-hd'!C13 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!C13 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CQ88" s="1">
-        <f>'PFN-to-PFL-hd'!D13 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!D13 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CR88" s="1">
-        <f>'PFN-to-PFL-hd'!E13 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!E13 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CS88" s="1">
-        <f>'PFN-to-PFL-hd'!F13 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!F13 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CT88" s="1">
-        <f>'PFN-to-PFL-hd'!G13 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!G13 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CU88" s="1">
-        <f>'PFN-to-PFL-hd'!H13 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!H13 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CV88" s="1">
-        <f>'PFN-to-PFL-hd'!I13 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!I13 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CW88" s="1">
-        <f>'PFN-to-PFL-hd'!J13 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!J13 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CX88" s="1">
-        <f>'PFN-to-PFL-hd'!K13 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!K13 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CY88" s="1">
-        <f>'PFN-to-PFL-hd'!L13 * Gains!$J$9</f>
-        <v>0</v>
+        <f>'PFN-to-hd'!L13 * Gains!$J$9</f>
+        <v>1E-3</v>
       </c>
       <c r="CZ88" s="1">
-        <f>'PFN-to-PFL-hd'!M13 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!M13 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DA88" s="1">
-        <f>'PFN-to-PFL-hd'!N13 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!N13 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DB88" s="1">
-        <f>'PFN-to-PFL-hd'!O13 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!O13 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DC88" s="1">
-        <f>'PFN-to-PFL-hd'!P13 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!P13 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DD88" s="3">
-        <f>'PFN-to-PFL-hd'!A13 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!A13 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DE88" s="3">
-        <f>'PFN-to-PFL-hd'!B13 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!B13 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DF88" s="3">
-        <f>'PFN-to-PFL-hd'!C13 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!C13 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DG88" s="3">
-        <f>'PFN-to-PFL-hd'!D13 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!D13 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DH88" s="3">
-        <f>'PFN-to-PFL-hd'!E13 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!E13 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DI88" s="3">
-        <f>'PFN-to-PFL-hd'!F13 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!F13 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DJ88" s="3">
-        <f>'PFN-to-PFL-hd'!G13 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!G13 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DK88" s="3">
-        <f>'PFN-to-PFL-hd'!H13 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!H13 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DL88" s="3">
-        <f>'PFN-to-PFL-hd'!I13 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!I13 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DM88" s="3">
-        <f>'PFN-to-PFL-hd'!J13 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!J13 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DN88" s="3">
-        <f>'PFN-to-PFL-hd'!K13 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!K13 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DO88" s="3">
-        <f>'PFN-to-PFL-hd'!L13 * Gains!$K$9</f>
-        <v>0</v>
+        <f>'PFN-to-PFL'!L13 * Gains!$K$9</f>
+        <v>0.4</v>
       </c>
       <c r="DP88" s="3">
-        <f>'PFN-to-PFL-hd'!M13 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!M13 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DQ88" s="3">
-        <f>'PFN-to-PFL-hd'!N13 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!N13 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DR88" s="3">
-        <f>'PFN-to-PFL-hd'!O13 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!O13 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DS88" s="3">
-        <f>'PFN-to-PFL-hd'!P13 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!P13 * Gains!$K$9</f>
         <v>0</v>
       </c>
     </row>
@@ -36540,131 +36541,131 @@
         <v>0</v>
       </c>
       <c r="CN89" s="1">
-        <f>'PFN-to-PFL-hd'!A14 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!A14 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CO89" s="1">
-        <f>'PFN-to-PFL-hd'!B14 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!B14 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CP89" s="1">
-        <f>'PFN-to-PFL-hd'!C14 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!C14 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CQ89" s="1">
-        <f>'PFN-to-PFL-hd'!D14 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!D14 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CR89" s="1">
-        <f>'PFN-to-PFL-hd'!E14 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!E14 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CS89" s="1">
-        <f>'PFN-to-PFL-hd'!F14 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!F14 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CT89" s="1">
-        <f>'PFN-to-PFL-hd'!G14 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!G14 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CU89" s="1">
-        <f>'PFN-to-PFL-hd'!H14 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!H14 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CV89" s="1">
-        <f>'PFN-to-PFL-hd'!I14 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!I14 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CW89" s="1">
-        <f>'PFN-to-PFL-hd'!J14 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!J14 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CX89" s="1">
-        <f>'PFN-to-PFL-hd'!K14 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!K14 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CY89" s="1">
-        <f>'PFN-to-PFL-hd'!L14 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!L14 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CZ89" s="1">
-        <f>'PFN-to-PFL-hd'!M14 * Gains!$J$9</f>
-        <v>0</v>
+        <f>'PFN-to-hd'!M14 * Gains!$J$9</f>
+        <v>1E-3</v>
       </c>
       <c r="DA89" s="1">
-        <f>'PFN-to-PFL-hd'!N14 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!N14 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DB89" s="1">
-        <f>'PFN-to-PFL-hd'!O14 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!O14 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DC89" s="1">
-        <f>'PFN-to-PFL-hd'!P14 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!P14 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DD89" s="3">
-        <f>'PFN-to-PFL-hd'!A14 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!A14 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DE89" s="3">
-        <f>'PFN-to-PFL-hd'!B14 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!B14 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DF89" s="3">
-        <f>'PFN-to-PFL-hd'!C14 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!C14 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DG89" s="3">
-        <f>'PFN-to-PFL-hd'!D14 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!D14 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DH89" s="3">
-        <f>'PFN-to-PFL-hd'!E14 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!E14 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DI89" s="3">
-        <f>'PFN-to-PFL-hd'!F14 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!F14 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DJ89" s="3">
-        <f>'PFN-to-PFL-hd'!G14 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!G14 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DK89" s="3">
-        <f>'PFN-to-PFL-hd'!H14 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!H14 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DL89" s="3">
-        <f>'PFN-to-PFL-hd'!I14 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!I14 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DM89" s="3">
-        <f>'PFN-to-PFL-hd'!J14 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!J14 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DN89" s="3">
-        <f>'PFN-to-PFL-hd'!K14 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!K14 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DO89" s="3">
-        <f>'PFN-to-PFL-hd'!L14 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!L14 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DP89" s="3">
-        <f>'PFN-to-PFL-hd'!M14 * Gains!$K$9</f>
-        <v>0</v>
+        <f>'PFN-to-PFL'!M14 * Gains!$K$9</f>
+        <v>0.4</v>
       </c>
       <c r="DQ89" s="3">
-        <f>'PFN-to-PFL-hd'!N14 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!N14 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DR89" s="3">
-        <f>'PFN-to-PFL-hd'!O14 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!O14 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DS89" s="3">
-        <f>'PFN-to-PFL-hd'!P14 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!P14 * Gains!$K$9</f>
         <v>0</v>
       </c>
     </row>
@@ -36943,131 +36944,131 @@
         <v>0</v>
       </c>
       <c r="CN90" s="1">
-        <f>'PFN-to-PFL-hd'!A15 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!A15 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CO90" s="1">
-        <f>'PFN-to-PFL-hd'!B15 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!B15 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CP90" s="1">
-        <f>'PFN-to-PFL-hd'!C15 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!C15 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CQ90" s="1">
-        <f>'PFN-to-PFL-hd'!D15 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!D15 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CR90" s="1">
-        <f>'PFN-to-PFL-hd'!E15 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!E15 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CS90" s="1">
-        <f>'PFN-to-PFL-hd'!F15 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!F15 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CT90" s="1">
-        <f>'PFN-to-PFL-hd'!G15 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!G15 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CU90" s="1">
-        <f>'PFN-to-PFL-hd'!H15 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!H15 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CV90" s="1">
-        <f>'PFN-to-PFL-hd'!I15 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!I15 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CW90" s="1">
-        <f>'PFN-to-PFL-hd'!J15 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!J15 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CX90" s="1">
-        <f>'PFN-to-PFL-hd'!K15 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!K15 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CY90" s="1">
-        <f>'PFN-to-PFL-hd'!L15 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!L15 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CZ90" s="1">
-        <f>'PFN-to-PFL-hd'!M15 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!M15 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DA90" s="1">
-        <f>'PFN-to-PFL-hd'!N15 * Gains!$J$9</f>
-        <v>0</v>
+        <f>'PFN-to-hd'!N15 * Gains!$J$9</f>
+        <v>1E-3</v>
       </c>
       <c r="DB90" s="1">
-        <f>'PFN-to-PFL-hd'!O15 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!O15 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DC90" s="1">
-        <f>'PFN-to-PFL-hd'!P15 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!P15 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DD90" s="3">
-        <f>'PFN-to-PFL-hd'!A15 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!A15 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DE90" s="3">
-        <f>'PFN-to-PFL-hd'!B15 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!B15 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DF90" s="3">
-        <f>'PFN-to-PFL-hd'!C15 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!C15 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DG90" s="3">
-        <f>'PFN-to-PFL-hd'!D15 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!D15 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DH90" s="3">
-        <f>'PFN-to-PFL-hd'!E15 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!E15 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DI90" s="3">
-        <f>'PFN-to-PFL-hd'!F15 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!F15 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DJ90" s="3">
-        <f>'PFN-to-PFL-hd'!G15 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!G15 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DK90" s="3">
-        <f>'PFN-to-PFL-hd'!H15 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!H15 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DL90" s="3">
-        <f>'PFN-to-PFL-hd'!I15 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!I15 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DM90" s="3">
-        <f>'PFN-to-PFL-hd'!J15 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!J15 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DN90" s="3">
-        <f>'PFN-to-PFL-hd'!K15 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!K15 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DO90" s="3">
-        <f>'PFN-to-PFL-hd'!L15 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!L15 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DP90" s="3">
-        <f>'PFN-to-PFL-hd'!M15 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!M15 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DQ90" s="3">
-        <f>'PFN-to-PFL-hd'!N15 * Gains!$K$9</f>
-        <v>0</v>
+        <f>'PFN-to-PFL'!N15 * Gains!$K$9</f>
+        <v>0.4</v>
       </c>
       <c r="DR90" s="3">
-        <f>'PFN-to-PFL-hd'!O15 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!O15 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DS90" s="3">
-        <f>'PFN-to-PFL-hd'!P15 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!P15 * Gains!$K$9</f>
         <v>0</v>
       </c>
     </row>
@@ -37346,131 +37347,131 @@
         <v>0</v>
       </c>
       <c r="CN91" s="1">
-        <f>'PFN-to-PFL-hd'!A16 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!A16 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CO91" s="1">
-        <f>'PFN-to-PFL-hd'!B16 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!B16 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CP91" s="1">
-        <f>'PFN-to-PFL-hd'!C16 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!C16 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CQ91" s="1">
-        <f>'PFN-to-PFL-hd'!D16 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!D16 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CR91" s="1">
-        <f>'PFN-to-PFL-hd'!E16 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!E16 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CS91" s="1">
-        <f>'PFN-to-PFL-hd'!F16 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!F16 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CT91" s="1">
-        <f>'PFN-to-PFL-hd'!G16 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!G16 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CU91" s="1">
-        <f>'PFN-to-PFL-hd'!H16 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!H16 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CV91" s="1">
-        <f>'PFN-to-PFL-hd'!I16 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!I16 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CW91" s="1">
-        <f>'PFN-to-PFL-hd'!J16 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!J16 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CX91" s="1">
-        <f>'PFN-to-PFL-hd'!K16 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!K16 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CY91" s="1">
-        <f>'PFN-to-PFL-hd'!L16 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!L16 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="CZ91" s="1">
-        <f>'PFN-to-PFL-hd'!M16 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!M16 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DA91" s="1">
-        <f>'PFN-to-PFL-hd'!N16 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!N16 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DB91" s="1">
-        <f>'PFN-to-PFL-hd'!O16 * Gains!$J$9</f>
-        <v>0</v>
+        <f>'PFN-to-hd'!O16 * Gains!$J$9</f>
+        <v>1E-3</v>
       </c>
       <c r="DC91" s="1">
-        <f>'PFN-to-PFL-hd'!P16 * Gains!$J$9</f>
+        <f>'PFN-to-hd'!P16 * Gains!$J$9</f>
         <v>0</v>
       </c>
       <c r="DD91" s="3">
-        <f>'PFN-to-PFL-hd'!A16 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!A16 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DE91" s="3">
-        <f>'PFN-to-PFL-hd'!B16 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!B16 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DF91" s="3">
-        <f>'PFN-to-PFL-hd'!C16 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!C16 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DG91" s="3">
-        <f>'PFN-to-PFL-hd'!D16 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!D16 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DH91" s="3">
-        <f>'PFN-to-PFL-hd'!E16 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!E16 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DI91" s="3">
-        <f>'PFN-to-PFL-hd'!F16 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!F16 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DJ91" s="3">
-        <f>'PFN-to-PFL-hd'!G16 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!G16 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DK91" s="3">
-        <f>'PFN-to-PFL-hd'!H16 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!H16 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DL91" s="3">
-        <f>'PFN-to-PFL-hd'!I16 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!I16 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DM91" s="3">
-        <f>'PFN-to-PFL-hd'!J16 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!J16 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DN91" s="3">
-        <f>'PFN-to-PFL-hd'!K16 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!K16 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DO91" s="3">
-        <f>'PFN-to-PFL-hd'!L16 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!L16 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DP91" s="3">
-        <f>'PFN-to-PFL-hd'!M16 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!M16 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DQ91" s="3">
-        <f>'PFN-to-PFL-hd'!N16 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!N16 * Gains!$K$9</f>
         <v>0</v>
       </c>
       <c r="DR91" s="3">
-        <f>'PFN-to-PFL-hd'!O16 * Gains!$K$9</f>
-        <v>0</v>
+        <f>'PFN-to-PFL'!O16 * Gains!$K$9</f>
+        <v>0.4</v>
       </c>
       <c r="DS91" s="3">
-        <f>'PFN-to-PFL-hd'!P16 * Gains!$K$9</f>
+        <f>'PFN-to-PFL'!P16 * Gains!$K$9</f>
         <v>0</v>
       </c>
     </row>
@@ -37750,7 +37751,7 @@
       </c>
       <c r="CN92" s="3">
         <f>'hd-to-hd'!A1 * Gains!$J$10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO92" s="3">
         <f>'hd-to-hd'!B1 * Gains!$J$10</f>
@@ -37846,7 +37847,7 @@
       </c>
       <c r="DL92" s="1">
         <f>'hd-to-PFL'!I1 * Gains!$K$10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DM92" s="1">
         <f>'hd-to-PFL'!J1 * Gains!$K$10</f>
@@ -38157,7 +38158,7 @@
       </c>
       <c r="CO93" s="3">
         <f>'hd-to-hd'!B2 * Gains!$J$10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP93" s="3">
         <f>'hd-to-hd'!C2 * Gains!$J$10</f>
@@ -38253,7 +38254,7 @@
       </c>
       <c r="DM93" s="1">
         <f>'hd-to-PFL'!J2 * Gains!$K$10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DN93" s="1">
         <f>'hd-to-PFL'!K2 * Gains!$K$10</f>
@@ -38564,7 +38565,7 @@
       </c>
       <c r="CP94" s="3">
         <f>'hd-to-hd'!C3 * Gains!$J$10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ94" s="3">
         <f>'hd-to-hd'!D3 * Gains!$J$10</f>
@@ -38660,7 +38661,7 @@
       </c>
       <c r="DN94" s="1">
         <f>'hd-to-PFL'!K3 * Gains!$K$10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DO94" s="1">
         <f>'hd-to-PFL'!L3 * Gains!$K$10</f>
@@ -38971,7 +38972,7 @@
       </c>
       <c r="CQ95" s="3">
         <f>'hd-to-hd'!D4 * Gains!$J$10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR95" s="3">
         <f>'hd-to-hd'!E4 * Gains!$J$10</f>
@@ -39067,7 +39068,7 @@
       </c>
       <c r="DO95" s="1">
         <f>'hd-to-PFL'!L4 * Gains!$K$10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DP95" s="1">
         <f>'hd-to-PFL'!M4 * Gains!$K$10</f>
@@ -39378,7 +39379,7 @@
       </c>
       <c r="CR96" s="3">
         <f>'hd-to-hd'!E5 * Gains!$J$10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CS96" s="3">
         <f>'hd-to-hd'!F5 * Gains!$J$10</f>
@@ -39474,7 +39475,7 @@
       </c>
       <c r="DP96" s="1">
         <f>'hd-to-PFL'!M5 * Gains!$K$10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DQ96" s="1">
         <f>'hd-to-PFL'!N5 * Gains!$K$10</f>
@@ -39785,7 +39786,7 @@
       </c>
       <c r="CS97" s="3">
         <f>'hd-to-hd'!F6 * Gains!$J$10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CT97" s="3">
         <f>'hd-to-hd'!G6 * Gains!$J$10</f>
@@ -39881,7 +39882,7 @@
       </c>
       <c r="DQ97" s="1">
         <f>'hd-to-PFL'!N6 * Gains!$K$10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DR97" s="1">
         <f>'hd-to-PFL'!O6 * Gains!$K$10</f>
@@ -40192,7 +40193,7 @@
       </c>
       <c r="CT98" s="3">
         <f>'hd-to-hd'!G7 * Gains!$J$10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU98" s="3">
         <f>'hd-to-hd'!H7 * Gains!$J$10</f>
@@ -40288,7 +40289,7 @@
       </c>
       <c r="DR98" s="1">
         <f>'hd-to-PFL'!O7 * Gains!$K$10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DS98" s="1">
         <f>'hd-to-PFL'!P7 * Gains!$K$10</f>
@@ -40599,7 +40600,7 @@
       </c>
       <c r="CU99" s="3">
         <f>'hd-to-hd'!H8 * Gains!$J$10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV99" s="3">
         <f>'hd-to-hd'!I8 * Gains!$J$10</f>
@@ -40695,7 +40696,7 @@
       </c>
       <c r="DS99" s="1">
         <f>'hd-to-PFL'!P8 * Gains!$K$10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:123" x14ac:dyDescent="0.25">
@@ -41006,7 +41007,7 @@
       </c>
       <c r="CV100" s="3">
         <f>'hd-to-hd'!I9 * Gains!$J$10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW100" s="3">
         <f>'hd-to-hd'!J9 * Gains!$J$10</f>
@@ -41038,7 +41039,7 @@
       </c>
       <c r="DD100" s="1">
         <f>'hd-to-PFL'!A9 * Gains!$K$10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DE100" s="1">
         <f>'hd-to-PFL'!B9 * Gains!$K$10</f>
@@ -41413,7 +41414,7 @@
       </c>
       <c r="CW101" s="3">
         <f>'hd-to-hd'!J10 * Gains!$J$10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX101" s="3">
         <f>'hd-to-hd'!K10 * Gains!$J$10</f>
@@ -41445,7 +41446,7 @@
       </c>
       <c r="DE101" s="1">
         <f>'hd-to-PFL'!B10 * Gains!$K$10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DF101" s="1">
         <f>'hd-to-PFL'!C10 * Gains!$K$10</f>
@@ -41820,7 +41821,7 @@
       </c>
       <c r="CX102" s="3">
         <f>'hd-to-hd'!K11 * Gains!$J$10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY102" s="3">
         <f>'hd-to-hd'!L11 * Gains!$J$10</f>
@@ -41852,7 +41853,7 @@
       </c>
       <c r="DF102" s="1">
         <f>'hd-to-PFL'!C11 * Gains!$K$10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DG102" s="1">
         <f>'hd-to-PFL'!D11 * Gains!$K$10</f>
@@ -42227,7 +42228,7 @@
       </c>
       <c r="CY103" s="3">
         <f>'hd-to-hd'!L12 * Gains!$J$10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CZ103" s="3">
         <f>'hd-to-hd'!M12 * Gains!$J$10</f>
@@ -42259,7 +42260,7 @@
       </c>
       <c r="DG103" s="1">
         <f>'hd-to-PFL'!D12 * Gains!$K$10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DH103" s="1">
         <f>'hd-to-PFL'!E12 * Gains!$K$10</f>
@@ -42634,7 +42635,7 @@
       </c>
       <c r="CZ104" s="3">
         <f>'hd-to-hd'!M13 * Gains!$J$10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DA104" s="3">
         <f>'hd-to-hd'!N13 * Gains!$J$10</f>
@@ -42666,7 +42667,7 @@
       </c>
       <c r="DH104" s="1">
         <f>'hd-to-PFL'!E13 * Gains!$K$10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DI104" s="1">
         <f>'hd-to-PFL'!F13 * Gains!$K$10</f>
@@ -43041,7 +43042,7 @@
       </c>
       <c r="DA105" s="3">
         <f>'hd-to-hd'!N14 * Gains!$J$10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DB105" s="3">
         <f>'hd-to-hd'!O14 * Gains!$J$10</f>
@@ -43073,7 +43074,7 @@
       </c>
       <c r="DI105" s="1">
         <f>'hd-to-PFL'!F14 * Gains!$K$10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DJ105" s="1">
         <f>'hd-to-PFL'!G14 * Gains!$K$10</f>
@@ -43448,7 +43449,7 @@
       </c>
       <c r="DB106" s="3">
         <f>'hd-to-hd'!O15 * Gains!$J$10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DC106" s="3">
         <f>'hd-to-hd'!P15 * Gains!$J$10</f>
@@ -43480,7 +43481,7 @@
       </c>
       <c r="DJ106" s="1">
         <f>'hd-to-PFL'!G15 * Gains!$K$10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DK106" s="1">
         <f>'hd-to-PFL'!H15 * Gains!$K$10</f>
@@ -43855,7 +43856,7 @@
       </c>
       <c r="DC107" s="3">
         <f>'hd-to-hd'!P16 * Gains!$J$10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DD107" s="1">
         <f>'hd-to-PFL'!A16 * Gains!$K$10</f>
@@ -43887,7 +43888,7 @@
       </c>
       <c r="DK107" s="1">
         <f>'hd-to-PFL'!H16 * Gains!$K$10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DL107" s="1">
         <f>'hd-to-PFL'!I16 * Gains!$K$10</f>
@@ -49904,8 +49905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACEF4CAB-DFCA-4B2E-871B-644CFA062EB7}">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -49915,10 +49916,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="C1">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="D1">
         <v>-0.6</v>
@@ -49930,10 +49931,10 @@
         <v>-0.6</v>
       </c>
       <c r="G1">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="H1">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="I1">
         <v>0</v>
@@ -49962,16 +49963,16 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="D2">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="E2">
         <v>-0.6</v>
@@ -49983,7 +49984,7 @@
         <v>-0.6</v>
       </c>
       <c r="H2">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -50012,19 +50013,19 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="E3">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="F3">
         <v>-0.6</v>
@@ -50065,19 +50066,19 @@
         <v>-0.6</v>
       </c>
       <c r="B4">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="F4">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="G4">
         <v>-0.6</v>
@@ -50118,19 +50119,19 @@
         <v>-0.6</v>
       </c>
       <c r="C5">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="G5">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="H5">
         <v>-0.6</v>
@@ -50171,19 +50172,19 @@
         <v>-0.6</v>
       </c>
       <c r="D6">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="H6">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -50212,7 +50213,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="B7">
         <v>-0.6</v>
@@ -50224,16 +50225,16 @@
         <v>-0.6</v>
       </c>
       <c r="E7">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -50262,10 +50263,10 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="B8">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="C8">
         <v>-0.6</v>
@@ -50277,10 +50278,10 @@
         <v>-0.6</v>
       </c>
       <c r="F8">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -50339,10 +50340,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="K9">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="L9">
         <v>-0.6</v>
@@ -50354,10 +50355,10 @@
         <v>-0.6</v>
       </c>
       <c r="O9">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -50386,16 +50387,16 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="L10">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="M10">
         <v>-0.6</v>
@@ -50407,7 +50408,7 @@
         <v>-0.6</v>
       </c>
       <c r="P10">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -50436,19 +50437,19 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="M11">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="N11">
         <v>-0.6</v>
@@ -50489,19 +50490,19 @@
         <v>-0.6</v>
       </c>
       <c r="J12">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="N12">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="O12">
         <v>-0.6</v>
@@ -50542,19 +50543,19 @@
         <v>-0.6</v>
       </c>
       <c r="K13">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="O13">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="P13">
         <v>-0.6</v>
@@ -50595,19 +50596,19 @@
         <v>-0.6</v>
       </c>
       <c r="L14">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="P14">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -50636,7 +50637,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="J15">
         <v>-0.6</v>
@@ -50648,16 +50649,16 @@
         <v>-0.6</v>
       </c>
       <c r="M15">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -50686,10 +50687,10 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="J16">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="K16">
         <v>-0.6</v>
@@ -50701,10 +50702,10 @@
         <v>-0.6</v>
       </c>
       <c r="N16">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -50732,7 +50733,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="F34" sqref="F33:F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -51559,7 +51560,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="P16" sqref="A1:P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -52359,6 +52360,1672 @@
       </c>
       <c r="O16">
         <v>1</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:P16">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:XFD1048576 Q1:XFD16">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC7D76BB-BD2B-44F5-8B70-057DC9564C90}">
+  <dimension ref="A1:P16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>0</v>
+      </c>
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1">
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+      <c r="K1">
+        <v>0</v>
+      </c>
+      <c r="L1">
+        <v>0</v>
+      </c>
+      <c r="M1">
+        <v>0</v>
+      </c>
+      <c r="N1">
+        <v>0</v>
+      </c>
+      <c r="O1">
+        <v>0</v>
+      </c>
+      <c r="P1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:P16">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B235C1C0-8ECA-40B9-8956-029BB9127B5F}">
+  <dimension ref="A1:P16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>0</v>
+      </c>
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1">
+        <v>1</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+      <c r="K1">
+        <v>0</v>
+      </c>
+      <c r="L1">
+        <v>0</v>
+      </c>
+      <c r="M1">
+        <v>0</v>
+      </c>
+      <c r="N1">
+        <v>0</v>
+      </c>
+      <c r="O1">
+        <v>0</v>
+      </c>
+      <c r="P1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -52381,839 +54048,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B235C1C0-8ECA-40B9-8956-029BB9127B5F}">
-  <dimension ref="A1:P16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>0</v>
-      </c>
-      <c r="D1">
-        <v>0</v>
-      </c>
-      <c r="E1">
-        <v>0</v>
-      </c>
-      <c r="F1">
-        <v>0</v>
-      </c>
-      <c r="G1">
-        <v>0</v>
-      </c>
-      <c r="H1">
-        <v>0</v>
-      </c>
-      <c r="I1">
-        <v>1</v>
-      </c>
-      <c r="J1">
-        <v>0</v>
-      </c>
-      <c r="K1">
-        <v>0</v>
-      </c>
-      <c r="L1">
-        <v>0</v>
-      </c>
-      <c r="M1">
-        <v>0</v>
-      </c>
-      <c r="N1">
-        <v>0</v>
-      </c>
-      <c r="O1">
-        <v>0</v>
-      </c>
-      <c r="P1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>0</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>0</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>0</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>0</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>0</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D2C0FFE-2165-4D18-9B6A-93566384B211}">
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -54562,7 +55402,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -54694,8 +55534,8 @@
       <c r="H4" t="s">
         <v>12</v>
       </c>
-      <c r="I4" t="s">
-        <v>12</v>
+      <c r="I4">
+        <v>1</v>
       </c>
       <c r="J4" t="s">
         <v>12</v>
@@ -54724,7 +55564,7 @@
         <v>0.7</v>
       </c>
       <c r="G5">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -54753,7 +55593,7 @@
         <v>12</v>
       </c>
       <c r="E6">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
@@ -54835,13 +55675,13 @@
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
         <v>12</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -54873,10 +55713,10 @@
         <v>12</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -54908,10 +55748,10 @@
         <v>12</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -54970,7 +55810,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04719B46-CBD2-4A0D-ACAB-E0C24FD60482}">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="BF1" workbookViewId="0">
+      <selection activeCell="BG45" sqref="BG45"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -55599,8 +56441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA8C4B61-4AA8-43A3-BD38-923D468295B9}">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection sqref="A1:P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -56426,7 +57268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC37B14-D698-467B-8B0B-F31AE97A4808}">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -57254,7 +58096,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/Theorical_connectivity_matrices.xlsx
+++ b/Theorical_connectivity_matrices.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bclem\OneDrive\Documents\GitHub\Megalopta_CX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D17F9F9-A741-4826-841B-4CD51E9F8043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8E01CF-3D23-40CD-B0E1-0E2F14DBB143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="2" xr2:uid="{093D5FC8-3546-4B30-B5BC-72449F880B19}"/>
+    <workbookView xWindow="23808" yWindow="768" windowWidth="23040" windowHeight="12120" firstSheet="8" activeTab="8" xr2:uid="{093D5FC8-3546-4B30-B5BC-72449F880B19}"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="13" r:id="rId1"/>
@@ -49906,7 +49906,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -55401,8 +55401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7FFBB60-C9AF-470A-B711-59681D0A1768}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -55803,6 +55803,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -55810,8 +55811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04719B46-CBD2-4A0D-ACAB-E0C24FD60482}">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView topLeftCell="BF1" workbookViewId="0">
-      <selection activeCell="BG45" sqref="BG45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="BR27" sqref="BR27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -56441,8 +56442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA8C4B61-4AA8-43A3-BD38-923D468295B9}">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection sqref="A1:P16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -58095,8 +58096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78DE8B51-B1FF-4D25-B506-1F575EB0C016}">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
